--- a/results_w_Activation.xlsx
+++ b/results_w_Activation.xlsx
@@ -13,7 +13,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
   <si>
     <t>theta_h</t>
   </si>
@@ -185,94 +365,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">

--- a/results_w_Activation.xlsx
+++ b/results_w_Activation.xlsx
@@ -13,7 +13,1087 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
   <si>
     <t>theta_h</t>
   </si>
@@ -355,104 +1435,104 @@
     <col min="22" max="22" width="12.42578125" customWidth="true"/>
     <col min="23" max="23" width="6" customWidth="true"/>
     <col min="24" max="24" width="5.5703125" customWidth="true"/>
-    <col min="25" max="25" width="16.28515625" customWidth="true"/>
-    <col min="26" max="26" width="12.85546875" customWidth="true"/>
+    <col min="25" max="25" width="15.5703125" customWidth="true"/>
+    <col min="26" max="26" width="13.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="16.28515625" customWidth="true"/>
-    <col min="29" max="29" width="16.28515625" customWidth="true"/>
-    <col min="30" max="30" width="15.7109375" customWidth="true"/>
+    <col min="29" max="29" width="15.7109375" customWidth="true"/>
+    <col min="30" max="30" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>421</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>422</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>423</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>424</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>66</v>
+        <v>426</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>67</v>
+        <v>427</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>68</v>
+        <v>428</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>71</v>
+        <v>431</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>73</v>
+        <v>433</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>75</v>
+        <v>435</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>84</v>
+        <v>444</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>85</v>
+        <v>445</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>87</v>
+        <v>447</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>88</v>
+        <v>448</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>89</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
@@ -529,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="Y2" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>7.5284931467769291e-21</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.61696954018233352</v>
+        <v>0.15424238504558341</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.14602317026617817</v>
+        <v>0.14602317026617814</v>
       </c>
       <c r="AB2" s="0">
         <v>0</v>
@@ -624,19 +1704,19 @@
         <v>3.76158192263132e-37</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.6548762988343475</v>
+        <v>0.16371907470858688</v>
       </c>
       <c r="AA3" s="0">
         <v>0.15617836948090058</v>
       </c>
       <c r="AB3" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC3" s="0">
         <v>0.037271306005793266</v>
       </c>
       <c r="AD3" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
     </row>
     <row r="4">
@@ -713,22 +1793,22 @@
         <v>0</v>
       </c>
       <c r="Y4" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>1.439538593881393e-32</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.68073240971787374</v>
+        <v>0.17018310242946844</v>
       </c>
       <c r="AA4" s="0">
         <v>0.16315776310238694</v>
       </c>
       <c r="AB4" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>2.6425113006485023e-34</v>
       </c>
       <c r="AC4" s="0">
         <v>0.039593730042863005</v>
       </c>
       <c r="AD4" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="5">
@@ -805,22 +1885,22 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>0</v>
+        <v>9.2444637330587321e-33</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.70597663066525662</v>
+        <v>0.17649415766631413</v>
       </c>
       <c r="AA5" s="0">
         <v>0.17037893186214312</v>
       </c>
       <c r="AB5" s="0">
-        <v>0</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="AC5" s="0">
         <v>0.04181464149226953</v>
       </c>
       <c r="AD5" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.72883316647243068</v>
+        <v>0.18220829161810764</v>
       </c>
       <c r="AA6" s="0">
         <v>0.17667340593554492</v>
       </c>
       <c r="AB6" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC6" s="0">
         <v>0.043856118913576408</v>
@@ -989,16 +2069,16 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.75140966755498906</v>
+        <v>0.18785241688874726</v>
       </c>
       <c r="AA7" s="0">
         <v>0.18337009566678952</v>
       </c>
       <c r="AB7" s="0">
-        <v>1.8488927466117464e-32</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC7" s="0">
         <v>0.045807590664116167</v>
@@ -1081,19 +2161,19 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>0</v>
+        <v>3.3881317890172014e-21</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.77429820674280114</v>
+        <v>0.19357455168570029</v>
       </c>
       <c r="AA8" s="0">
         <v>0.19003955994160704</v>
       </c>
       <c r="AB8" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>1.6940658945086007e-21</v>
       </c>
       <c r="AC8" s="0">
-        <v>0.047827680687510019</v>
+        <v>0.047827680687510012</v>
       </c>
       <c r="AD8" s="0">
         <v>0</v>
@@ -1176,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.80142963571174108</v>
+        <v>0.20035740892793527</v>
       </c>
       <c r="AA9" s="0">
         <v>0.19837581205924923</v>
       </c>
       <c r="AB9" s="0">
-        <v>2.823104848754032e-32</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="0">
         <v>0.050198909770739722</v>
@@ -1265,22 +2345,22 @@
         <v>0</v>
       </c>
       <c r="Y10" s="0">
-        <v>0</v>
+        <v>9.2444637330587321e-33</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.82825312873952417</v>
+        <v>0.20706328218488101</v>
       </c>
       <c r="AA10" s="0">
         <v>0.20623807345025813</v>
       </c>
       <c r="AB10" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="0">
         <v>0.052611331073940081</v>
       </c>
       <c r="AD10" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1360,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.86080583536173483</v>
+        <v>0.21520145884043373</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.21661642245206242</v>
+        <v>0.21661642245206245</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -1449,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>1.1585672321704466e-33</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.89035909744186492</v>
+        <v>0.22258977436046623</v>
       </c>
       <c r="AA12" s="0">
         <v>0.22580792276898287</v>
       </c>
       <c r="AB12" s="0">
-        <v>7.7112429413942061e-36</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC12" s="0">
         <v>0.058111241757487407</v>
@@ -1541,22 +2621,22 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.91687580381888545</v>
+        <v>0.22921895095472136</v>
       </c>
       <c r="AA13" s="0">
-        <v>0.23429324649820824</v>
+        <v>0.23429324649820826</v>
       </c>
       <c r="AB13" s="0">
-        <v>0</v>
+        <v>5.64237288394698e-37</v>
       </c>
       <c r="AC13" s="0">
         <v>0.060443342583533892</v>
       </c>
       <c r="AD13" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
     </row>
     <row r="14">
@@ -1633,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>0</v>
+        <v>2.7534779673661263e-33</v>
       </c>
       <c r="Z14" s="0">
-        <v>0.94552488299848247</v>
+        <v>0.23638122074962062</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.2434701520211115</v>
+        <v>0.24347015202111152</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -1648,7 +2728,7 @@
         <v>0.062985140436777942</v>
       </c>
       <c r="AD14" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1725,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0">
-        <v>6.9448206246580746e-33</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.97418213621879357</v>
+        <v>0.24354553405469842</v>
       </c>
       <c r="AA15" s="0">
-        <v>0.2529530998894699</v>
+        <v>0.25295309988946996</v>
       </c>
       <c r="AB15" s="0">
         <v>0</v>
@@ -1820,16 +2900,16 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>1</v>
+        <v>0.25060611856326848</v>
       </c>
       <c r="AA16" s="0">
-        <v>0.26134637378792214</v>
+        <v>0.26255861091445915</v>
       </c>
       <c r="AB16" s="0">
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>0.067972220365751623</v>
+        <v>0.067972220365751609</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
@@ -1909,22 +2989,22 @@
         <v>0</v>
       </c>
       <c r="Y17" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="Z17" s="0">
-        <v>1</v>
+        <v>0.25826061650160403</v>
       </c>
       <c r="AA17" s="0">
-        <v>0.25605506986751547</v>
+        <v>0.27257630287072365</v>
       </c>
       <c r="AB17" s="0">
-        <v>0</v>
+        <v>1.128474576789396e-36</v>
       </c>
       <c r="AC17" s="0">
-        <v>0.070723135726386666</v>
+        <v>0.070723135726386679</v>
       </c>
       <c r="AD17" s="0">
-        <v>5.1827563004425225e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +3081,19 @@
         <v>0</v>
       </c>
       <c r="Y18" s="0">
-        <v>0</v>
+        <v>7.5284931467769833e-21</v>
       </c>
       <c r="Z18" s="0">
-        <v>1</v>
+        <v>0.26643459393660524</v>
       </c>
       <c r="AA18" s="0">
-        <v>0.25101559468056978</v>
+        <v>0.28388478255378036</v>
       </c>
       <c r="AB18" s="0">
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>0.073604099381317997</v>
+        <v>0.073604099381317886</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -2096,16 +3176,16 @@
         <v>0</v>
       </c>
       <c r="Z19" s="0">
-        <v>1</v>
+        <v>0.27461821216139048</v>
       </c>
       <c r="AA19" s="0">
-        <v>0.24584745106558978</v>
+        <v>0.29508387538837094</v>
       </c>
       <c r="AB19" s="0">
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.076527401865906577</v>
+        <v>0.07652740186590648</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -2188,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>1</v>
+        <v>0.28283928147464482</v>
       </c>
       <c r="AA20" s="0">
-        <v>0.24107624058622457</v>
+        <v>0.3067548035355141</v>
       </c>
       <c r="AB20" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.079434765472200103</v>
+        <v>0.079434765472198493</v>
       </c>
       <c r="AD20" s="0">
-        <v>1.1483922307589949e-15</v>
+        <v>3.76158192263132e-37</v>
       </c>
     </row>
     <row r="21">
@@ -2280,16 +3360,16 @@
         <v>0</v>
       </c>
       <c r="Z21" s="0">
-        <v>1</v>
+        <v>0.29139342938720697</v>
       </c>
       <c r="AA21" s="0">
-        <v>0.2359402727966943</v>
+        <v>0.31872713157110844</v>
       </c>
       <c r="AB21" s="0">
-        <v>1.9126003949002102e-18</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.082503073239728705</v>
+        <v>0.082503073239728594</v>
       </c>
       <c r="AD21" s="0">
         <v>0</v>
@@ -2372,19 +3452,19 @@
         <v>0</v>
       </c>
       <c r="Z22" s="0">
-        <v>1</v>
+        <v>0.29891248230936363</v>
       </c>
       <c r="AA22" s="0">
-        <v>0.231680820579969</v>
+        <v>0.32950578519869611</v>
       </c>
       <c r="AB22" s="0">
-        <v>0</v>
+        <v>1.7235568369496708e-33</v>
       </c>
       <c r="AC22" s="0">
-        <v>0.085183597490376226</v>
+        <v>0.085183597490373811</v>
       </c>
       <c r="AD22" s="0">
-        <v>1.7102391500755929e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2464,19 +3544,19 @@
         <v>0</v>
       </c>
       <c r="Z23" s="0">
-        <v>1</v>
+        <v>0.30750342567205502</v>
       </c>
       <c r="AA23" s="0">
-        <v>0.22638501054838309</v>
+        <v>0.34139186189249332</v>
       </c>
       <c r="AB23" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.088326397696702433</v>
+        <v>0.088326397696699588</v>
       </c>
       <c r="AD23" s="0">
-        <v>2.0106268037079518e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2556,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.31636734190692523</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.22156520178106229</v>
+        <v>0.35429988559491282</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
       </c>
       <c r="AC24" s="0">
-        <v>0.091523408653010424</v>
+        <v>0.091523408653007163</v>
       </c>
       <c r="AD24" s="0">
-        <v>2.3206124790313818e-15</v>
+        <v>7.5231638452626401e-37</v>
       </c>
     </row>
     <row r="25">
@@ -2645,22 +3725,22 @@
         <v>0</v>
       </c>
       <c r="Y25" s="0">
-        <v>0</v>
+        <v>5.0254734486354436e-34</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.32516399223157338</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.21690602623955613</v>
+        <v>0.36723401070270284</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
       </c>
       <c r="AC25" s="0">
-        <v>0.094704082783919064</v>
+        <v>0.094704082783915386</v>
       </c>
       <c r="AD25" s="0">
-        <v>2.6280566356744021e-15</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="26">
@@ -2740,19 +3820,19 @@
         <v>0</v>
       </c>
       <c r="Z26" s="0">
-        <v>1</v>
+        <v>0.33394101670878218</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.21291286415146593</v>
+        <v>0.38079489756903029</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.09783117938950904</v>
+        <v>0.097831179389504891</v>
       </c>
       <c r="AD26" s="0">
-        <v>2.9350043671811552e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2832,19 +3912,19 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.34192878809976945</v>
       </c>
       <c r="AA27" s="0">
-        <v>0.20899742717317915</v>
+        <v>0.39285500337271828</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.10073677641860336</v>
+        <v>0.10073677641859884</v>
       </c>
       <c r="AD27" s="0">
-        <v>3.2142358824574574e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2924,19 +4004,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.35077478748360658</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.20496061233363219</v>
+        <v>0.40651018730084548</v>
       </c>
       <c r="AB28" s="0">
-        <v>0</v>
+        <v>5.64237288394698e-37</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.10394925502879603</v>
+        <v>0.10394925502879104</v>
       </c>
       <c r="AD28" s="0">
-        <v>3.523578196316376e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3013,22 +4093,22 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>1.3552527156068805e-20</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>1</v>
+        <v>0.35911224514195478</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.23510610938633289</v>
+        <v>0.41899941439749061</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
       </c>
       <c r="AC29" s="0">
-        <v>0.10703154709950384</v>
+        <v>0.10704270070425888</v>
       </c>
       <c r="AD29" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3105,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="Y30" s="0">
-        <v>5.7462715141731735e-18</v>
+        <v>1.2314886587682692e-33</v>
       </c>
       <c r="Z30" s="0">
-        <v>1</v>
+        <v>0.36886100855205151</v>
       </c>
       <c r="AA30" s="0">
-        <v>0.23375824601252737</v>
+        <v>0.43408144379250824</v>
       </c>
       <c r="AB30" s="0">
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.1106254239792243</v>
+        <v>0.11063694877007707</v>
       </c>
       <c r="AD30" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="31">
@@ -3197,19 +4277,19 @@
         <v>0</v>
       </c>
       <c r="Y31" s="0">
-        <v>1.7787691892340307e-19</v>
+        <v>1.8488927466117464e-32</v>
       </c>
       <c r="Z31" s="0">
-        <v>1</v>
+        <v>0.37733799977269405</v>
       </c>
       <c r="AA31" s="0">
-        <v>0.23289473886785098</v>
+        <v>0.44750447614934047</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.11376148734470538</v>
+        <v>0.11377333595279847</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -3289,19 +4369,19 @@
         <v>0</v>
       </c>
       <c r="Y32" s="0">
-        <v>1.8465318250143747e-19</v>
+        <v>4.3678157414951325e-37</v>
       </c>
       <c r="Z32" s="0">
-        <v>1</v>
+        <v>0.38493513258466977</v>
       </c>
       <c r="AA32" s="0">
-        <v>0.23225222112628627</v>
+        <v>0.45966564651019159</v>
       </c>
       <c r="AB32" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC32" s="0">
-        <v>0.11659049073674002</v>
+        <v>0.11660263133333855</v>
       </c>
       <c r="AD32" s="0">
         <v>0</v>
@@ -3381,22 +4461,22 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>1.8973538018496328e-19</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="Z33" s="0">
-        <v>1</v>
+        <v>0.39325291247243038</v>
       </c>
       <c r="AA33" s="0">
-        <v>0.23202211455087038</v>
+        <v>0.47345376312664278</v>
       </c>
       <c r="AB33" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC33" s="0">
-        <v>0.11966713596504149</v>
+        <v>0.11967959423825532</v>
       </c>
       <c r="AD33" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
     </row>
     <row r="34">
@@ -3473,19 +4553,19 @@
         <v>0</v>
       </c>
       <c r="Y34" s="0">
-        <v>1.9820570965750628e-19</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="Z34" s="0">
-        <v>1</v>
+        <v>0.40349617047293934</v>
       </c>
       <c r="AA34" s="0">
-        <v>0.23104542276067672</v>
+        <v>0.48974035652316322</v>
       </c>
       <c r="AB34" s="0">
         <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>0.12354007698347845</v>
+        <v>0.1235529342545479</v>
       </c>
       <c r="AD34" s="0">
         <v>0</v>
@@ -3565,19 +4645,19 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>2.0371142381465923e-19</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="0">
-        <v>1</v>
+        <v>0.41271309983701177</v>
       </c>
       <c r="AA35" s="0">
-        <v>0.23064393040965472</v>
+        <v>0.50487245114004864</v>
       </c>
       <c r="AB35" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC35" s="0">
-        <v>0.12702535601176274</v>
+        <v>0.12703857195930116</v>
       </c>
       <c r="AD35" s="0">
         <v>0</v>
@@ -3657,19 +4737,19 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>1.8058721878667436e-19</v>
+        <v>2.3132224191413566e-32</v>
       </c>
       <c r="Z36" s="0">
-        <v>1</v>
+        <v>0.4206940214016977</v>
       </c>
       <c r="AA36" s="0">
-        <v>0.2309298640371592</v>
+        <v>0.51860889590909354</v>
       </c>
       <c r="AB36" s="0">
-        <v>0</v>
+        <v>6.0802210197412657e-33</v>
       </c>
       <c r="AC36" s="0">
-        <v>0.13004209715533713</v>
+        <v>0.13005570499636165</v>
       </c>
       <c r="AD36" s="0">
         <v>0</v>
@@ -3749,22 +4829,22 @@
         <v>0</v>
       </c>
       <c r="Y37" s="0">
-        <v>1.3462375952730388e-15</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>1</v>
+        <v>0.42909937485853961</v>
       </c>
       <c r="AA37" s="0">
-        <v>0.23051132903660873</v>
+        <v>0.53235617239071653</v>
       </c>
       <c r="AB37" s="0">
         <v>0</v>
       </c>
       <c r="AC37" s="0">
-        <v>0.13331142704653992</v>
+        <v>0.13332547145672757</v>
       </c>
       <c r="AD37" s="0">
-        <v>4.3368086899420177e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3841,19 +4921,19 @@
         <v>0</v>
       </c>
       <c r="Y38" s="0">
-        <v>1.1603272777827214e-19</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="0">
-        <v>1</v>
+        <v>0.43856573002547666</v>
       </c>
       <c r="AA38" s="0">
-        <v>0.23063770442151163</v>
+        <v>0.54843650674508904</v>
       </c>
       <c r="AB38" s="0">
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0.13695759877446576</v>
+        <v>0.13697213205028869</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -3933,19 +5013,19 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>9.0524125829530577e-20</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="0">
-        <v>1</v>
+        <v>0.44582235317850599</v>
       </c>
       <c r="AA39" s="0">
-        <v>0.23102590982844787</v>
+        <v>0.56105454081706352</v>
       </c>
       <c r="AB39" s="0">
         <v>0</v>
       </c>
       <c r="AC39" s="0">
-        <v>0.1398122019906555</v>
+        <v>0.13982711412366472</v>
       </c>
       <c r="AD39" s="0">
         <v>0</v>
@@ -4025,22 +5105,22 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>7.1728269362113819e-22</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>1</v>
+        <v>0.45365571349412637</v>
       </c>
       <c r="AA40" s="0">
-        <v>0.23147135554264148</v>
+        <v>0.57470180986608488</v>
       </c>
       <c r="AB40" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="AC40" s="0">
-        <v>0.14290891892240745</v>
+        <v>0.14292424058824368</v>
       </c>
       <c r="AD40" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="41">
@@ -4117,22 +5197,22 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>3.125603888113911e-20</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="0">
-        <v>1</v>
+        <v>0.46269617850520239</v>
       </c>
       <c r="AA41" s="0">
-        <v>0.23262246535271847</v>
+        <v>0.59108912459587326</v>
       </c>
       <c r="AB41" s="0">
         <v>0</v>
       </c>
       <c r="AC41" s="0">
-        <v>0.14643090635524292</v>
+        <v>0.14644669698195845</v>
       </c>
       <c r="AD41" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="42">
@@ -4209,19 +5289,19 @@
         <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>7.3323282544499273e-22</v>
+        <v>3.2024603856514006e-32</v>
       </c>
       <c r="Z42" s="0">
-        <v>1</v>
+        <v>0.47061327383811202</v>
       </c>
       <c r="AA42" s="0">
-        <v>0.23293712039732983</v>
+        <v>0.60474672273393182</v>
       </c>
       <c r="AB42" s="0">
-        <v>0</v>
+        <v>2.926510735807167e-34</v>
       </c>
       <c r="AC42" s="0">
-        <v>0.14965109844884675</v>
+        <v>0.14966730808494869</v>
       </c>
       <c r="AD42" s="0">
         <v>0</v>
@@ -4301,19 +5381,19 @@
         <v>0</v>
       </c>
       <c r="Y43" s="0">
-        <v>1.3878527417699828e-17</v>
+        <v>1.2325951644078309e-32</v>
       </c>
       <c r="Z43" s="0">
-        <v>1</v>
+        <v>0.47811921607570351</v>
       </c>
       <c r="AA43" s="0">
-        <v>0.23330567366925875</v>
+        <v>0.61776529002358327</v>
       </c>
       <c r="AB43" s="0">
-        <v>0</v>
+        <v>9.2444637330587321e-33</v>
       </c>
       <c r="AC43" s="0">
-        <v>0.15275273283749818</v>
+        <v>0.15276934278166013</v>
       </c>
       <c r="AD43" s="0">
         <v>0</v>
@@ -4393,19 +5473,19 @@
         <v>0</v>
       </c>
       <c r="Y44" s="0">
-        <v>7.4771752688868484e-22</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="0">
-        <v>1</v>
+        <v>0.48554260363310903</v>
       </c>
       <c r="AA44" s="0">
-        <v>0.23467491041364227</v>
+        <v>0.63164542092822518</v>
       </c>
       <c r="AB44" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC44" s="0">
-        <v>0.15577896634432559</v>
+        <v>0.15579597013614604</v>
       </c>
       <c r="AD44" s="0">
         <v>0</v>
@@ -4485,19 +5565,19 @@
         <v>0</v>
       </c>
       <c r="Y45" s="0">
-        <v>7.5518142177941433e-22</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="0">
-        <v>1</v>
+        <v>0.49300701392905744</v>
       </c>
       <c r="AA45" s="0">
-        <v>0.23573043815259198</v>
+        <v>0.64528097595074685</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>0.158885795947869</v>
+        <v>0.15890319942894784</v>
       </c>
       <c r="AD45" s="0">
         <v>0</v>
@@ -4577,19 +5657,19 @@
         <v>0</v>
       </c>
       <c r="Y46" s="0">
-        <v>7.6286163318216755e-22</v>
+        <v>3.2721034911786605e-21</v>
       </c>
       <c r="Z46" s="0">
-        <v>1</v>
+        <v>0.50039618267172337</v>
       </c>
       <c r="AA46" s="0">
-        <v>0.23694779102277541</v>
+        <v>0.65895155103768188</v>
       </c>
       <c r="AB46" s="0">
-        <v>0</v>
+        <v>1.385654325606525e-21</v>
       </c>
       <c r="AC46" s="0">
-        <v>0.16199789429559835</v>
+        <v>0.16201569588086842</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -4669,22 +5749,22 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>7.7247005660907658e-22</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="Z47" s="0">
-        <v>1</v>
+        <v>0.50881921005244557</v>
       </c>
       <c r="AA47" s="0">
-        <v>0.23884086228520757</v>
+        <v>0.6750402484987198</v>
       </c>
       <c r="AB47" s="0">
         <v>0</v>
       </c>
       <c r="AC47" s="0">
-        <v>0.16549214286645927</v>
+        <v>0.16551039457533595</v>
       </c>
       <c r="AD47" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
     </row>
     <row r="48">
@@ -4761,19 +5841,19 @@
         <v>0</v>
       </c>
       <c r="Y48" s="0">
-        <v>7.7867748563616747e-22</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="Z48" s="0">
-        <v>1</v>
+        <v>0.5151163599504317</v>
       </c>
       <c r="AA48" s="0">
-        <v>0.23969209797277496</v>
+        <v>0.68650428691316034</v>
       </c>
       <c r="AB48" s="0">
-        <v>0</v>
+        <v>1.2325951644078309e-32</v>
       </c>
       <c r="AC48" s="0">
-        <v>0.16830253876220411</v>
+        <v>0.16832114012848651</v>
       </c>
       <c r="AD48" s="0">
         <v>0</v>
@@ -4853,19 +5933,19 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>7.8590083945032965e-22</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>1</v>
+        <v>0.52128964688085278</v>
       </c>
       <c r="AA49" s="0">
-        <v>0.24107870693199679</v>
+        <v>0.69829495484476511</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.17106438535902277</v>
+        <v>0.17108333061753769</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -4945,19 +6025,19 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0">
-        <v>7.9311129467891848e-22</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>1</v>
+        <v>0.5287506922550046</v>
       </c>
       <c r="AA50" s="0">
-        <v>0.2421237056487025</v>
+        <v>0.7119143097036873</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
       </c>
       <c r="AC50" s="0">
-        <v>0.17438610594986062</v>
+        <v>0.17440546397678044</v>
       </c>
       <c r="AD50" s="0">
         <v>0</v>
@@ -5037,19 +6117,19 @@
         <v>0</v>
       </c>
       <c r="Y51" s="0">
-        <v>8.0543388643248945e-22</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="0">
-        <v>1</v>
+        <v>0.53792238568356998</v>
       </c>
       <c r="AA51" s="0">
-        <v>0.24514648889393373</v>
+        <v>0.73039448429926035</v>
       </c>
       <c r="AB51" s="0">
         <v>0</v>
       </c>
       <c r="AC51" s="0">
-        <v>0.17827294534863239</v>
+        <v>0.17829279890392233</v>
       </c>
       <c r="AD51" s="0">
         <v>0</v>
@@ -5129,22 +6209,22 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>8.109579787762847e-22</v>
+        <v>1.2325951644078309e-32</v>
       </c>
       <c r="Z52" s="0">
-        <v>1</v>
+        <v>0.54410935479451372</v>
       </c>
       <c r="AA52" s="0">
-        <v>0.24574422732515827</v>
+        <v>0.74141933107896796</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0.1812284703059997</v>
+        <v>0.18124867947420403</v>
       </c>
       <c r="AD52" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-33</v>
       </c>
     </row>
     <row r="53">
@@ -5221,19 +6301,19 @@
         <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>8.1889123707876655e-22</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>1</v>
+        <v>0.54898081206698601</v>
       </c>
       <c r="AA53" s="0">
-        <v>0.2477612370387906</v>
+        <v>0.75164639145090217</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
       </c>
       <c r="AC53" s="0">
-        <v>0.18361847898491143</v>
+        <v>0.18363897561135931</v>
       </c>
       <c r="AD53" s="0">
         <v>0</v>
@@ -5313,22 +6393,22 @@
         <v>0</v>
       </c>
       <c r="Y54" s="0">
-        <v>8.2470881125161778e-22</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>1</v>
+        <v>0.55370385736655459</v>
       </c>
       <c r="AA54" s="0">
-        <v>0.24883058985796586</v>
+        <v>0.76067565979333163</v>
       </c>
       <c r="AB54" s="0">
         <v>0</v>
       </c>
       <c r="AC54" s="0">
-        <v>0.18605159987149106</v>
+        <v>0.18607238179518606</v>
       </c>
       <c r="AD54" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="55">
@@ -5405,19 +6485,19 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>8.3357069366946169e-22</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>1</v>
+        <v>0.55914244676033298</v>
       </c>
       <c r="AA55" s="0">
-        <v>0.25109732713443006</v>
+        <v>0.77210825706271979</v>
       </c>
       <c r="AB55" s="0">
-        <v>0</v>
+        <v>1.2325951644078309e-32</v>
       </c>
       <c r="AC55" s="0">
-        <v>0.18872680980517462</v>
+        <v>0.18874791281259296</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -5500,19 +6580,19 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>1</v>
+        <v>0.56406165718509049</v>
       </c>
       <c r="AA56" s="0">
-        <v>0.25295622197636336</v>
+        <v>0.78225768057550749</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>0.19127281515906491</v>
+        <v>0.19129421731354743</v>
       </c>
       <c r="AD56" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="57">
@@ -5589,19 +6669,19 @@
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>0</v>
+        <v>6.6602352801979826e-21</v>
       </c>
       <c r="Z57" s="0">
-        <v>1</v>
+        <v>0.56914437989878985</v>
       </c>
       <c r="AA57" s="0">
-        <v>0.25394012574523189</v>
+        <v>0.79180767491132831</v>
       </c>
       <c r="AB57" s="0">
-        <v>0</v>
+        <v>1.3856543256061105e-21</v>
       </c>
       <c r="AC57" s="0">
-        <v>0.19397504562974954</v>
+        <v>0.19399676003165572</v>
       </c>
       <c r="AD57" s="0">
         <v>0</v>
@@ -5681,19 +6761,19 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>8.5878020659509322e-22</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>1</v>
+        <v>0.57650777824858734</v>
       </c>
       <c r="AA58" s="0">
-        <v>0.2569141694522436</v>
+        <v>0.80719153063841409</v>
       </c>
       <c r="AB58" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC58" s="0">
-        <v>0.19750612968819833</v>
+        <v>0.19752827094864664</v>
       </c>
       <c r="AD58" s="0">
         <v>0</v>
@@ -5773,19 +6853,19 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>8.6486351335873113e-22</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>1</v>
+        <v>0.58096007017387064</v>
       </c>
       <c r="AA59" s="0">
-        <v>0.25808470351566865</v>
+        <v>0.81586567196141024</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
       </c>
       <c r="AC59" s="0">
-        <v>0.20003597877781853</v>
+        <v>0.20005840579200163</v>
       </c>
       <c r="AD59" s="0">
         <v>0</v>
@@ -5865,22 +6945,22 @@
         <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>8.7234256960199516e-22</v>
+        <v>4.310321493504777e-32</v>
       </c>
       <c r="Z60" s="0">
-        <v>1</v>
+        <v>0.58558698678514276</v>
       </c>
       <c r="AA60" s="0">
-        <v>0.25981065532043435</v>
+        <v>0.82538953850409646</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
       </c>
       <c r="AC60" s="0">
-        <v>0.202646480316028</v>
+        <v>0.20266920387249671</v>
       </c>
       <c r="AD60" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-33</v>
       </c>
     </row>
     <row r="61">
@@ -5957,19 +7037,19 @@
         <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>8.8331120197080262e-22</v>
+        <v>2.4651903288156619e-32</v>
       </c>
       <c r="Z61" s="0">
-        <v>1</v>
+        <v>0.59182802610297147</v>
       </c>
       <c r="AA61" s="0">
-        <v>0.26269699347213582</v>
+        <v>0.83879413928332247</v>
       </c>
       <c r="AB61" s="0">
-        <v>0</v>
+        <v>2.4651903288156619e-32</v>
       </c>
       <c r="AC61" s="0">
-        <v>0.20588132691090053</v>
+        <v>0.20590443022863805</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -6049,19 +7129,19 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>8.9323914864464366e-22</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>1</v>
+        <v>0.59643049847295404</v>
       </c>
       <c r="AA62" s="0">
-        <v>0.26543651429606679</v>
+        <v>0.84929039056521183</v>
       </c>
       <c r="AB62" s="0">
-        <v>0</v>
+        <v>6.881814127454e-33</v>
       </c>
       <c r="AC62" s="0">
-        <v>0.20852391344084203</v>
+        <v>0.20854731705576307</v>
       </c>
       <c r="AD62" s="0">
         <v>0</v>
@@ -6141,19 +7221,19 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>8.9831608071709489e-22</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>1</v>
+        <v>0.59973074922468439</v>
       </c>
       <c r="AA63" s="0">
-        <v>0.26632079531907266</v>
+        <v>0.85573670274432456</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0.2107899593771661</v>
+        <v>0.21081360340053351</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -6233,19 +7313,19 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>9.0684619820209551e-22</v>
+        <v>3.0065641083209697e-37</v>
       </c>
       <c r="Z64" s="0">
-        <v>1</v>
+        <v>0.60365231164944733</v>
       </c>
       <c r="AA64" s="0">
-        <v>0.26854376171275074</v>
+        <v>0.86456883351622005</v>
       </c>
       <c r="AB64" s="0">
         <v>0</v>
       </c>
       <c r="AC64" s="0">
-        <v>0.21327647711973297</v>
+        <v>0.2133003940252233</v>
       </c>
       <c r="AD64" s="0">
         <v>0</v>
@@ -6325,19 +7405,19 @@
         <v>0</v>
       </c>
       <c r="Y65" s="0">
-        <v>9.1445297190172695e-22</v>
+        <v>1.2325951644078309e-32</v>
       </c>
       <c r="Z65" s="0">
-        <v>1</v>
+        <v>0.60761969253375869</v>
       </c>
       <c r="AA65" s="0">
-        <v>0.27033153333286175</v>
+        <v>0.8730429835370368</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
       </c>
       <c r="AC65" s="0">
-        <v>0.21585464850145683</v>
+        <v>0.21587884504718108</v>
       </c>
       <c r="AD65" s="0">
         <v>0</v>
@@ -6417,19 +7497,19 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>9.2331712967360801e-22</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>1</v>
+        <v>0.61122122555604164</v>
       </c>
       <c r="AA66" s="0">
-        <v>0.27270119081687616</v>
+        <v>0.88148245119316471</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>0.21830348646899983</v>
+        <v>0.21832794651783502</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -6509,19 +7589,19 @@
         <v>0</v>
       </c>
       <c r="Y67" s="0">
-        <v>9.330348518829489e-22</v>
+        <v>1.2325951644078309e-32</v>
       </c>
       <c r="Z67" s="0">
-        <v>1</v>
+        <v>0.61347494418041026</v>
       </c>
       <c r="AA67" s="0">
-        <v>0.27567912542884471</v>
+        <v>0.88825868780895878</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>0.22021370877260535</v>
+        <v>0.22023836506914826</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -6601,19 +7681,19 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>9.3776239807731191e-22</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="0">
-        <v>1</v>
+        <v>0.6155600182142501</v>
       </c>
       <c r="AA68" s="0">
-        <v>0.27653157104917753</v>
+        <v>0.89262518719981876</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
       </c>
       <c r="AC68" s="0">
-        <v>0.22220521845608676</v>
+        <v>0.22223006883663599</v>
       </c>
       <c r="AD68" s="0">
         <v>0</v>
@@ -6693,19 +7773,19 @@
         <v>0</v>
       </c>
       <c r="Y69" s="0">
-        <v>9.4989888296458392e-22</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="0">
-        <v>1</v>
+        <v>0.61866901291135001</v>
       </c>
       <c r="AA69" s="0">
-        <v>0.28030695515708559</v>
+        <v>0.90164030775465775</v>
       </c>
       <c r="AB69" s="0">
-        <v>0</v>
+        <v>4.3342164034091569e-33</v>
       </c>
       <c r="AC69" s="0">
-        <v>0.22452453839502673</v>
+        <v>0.22454963520397708</v>
       </c>
       <c r="AD69" s="0">
         <v>0</v>
@@ -6785,19 +7865,19 @@
         <v>0</v>
       </c>
       <c r="Y70" s="0">
-        <v>9.5752568825076611e-22</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="0">
-        <v>1</v>
+        <v>0.62053496140302866</v>
       </c>
       <c r="AA70" s="0">
-        <v>0.28238227137587185</v>
+        <v>0.90686039327178758</v>
       </c>
       <c r="AB70" s="0">
         <v>0</v>
       </c>
       <c r="AC70" s="0">
-        <v>0.22645657851323453</v>
+        <v>0.22648186302189702</v>
       </c>
       <c r="AD70" s="0">
         <v>0</v>
@@ -6877,22 +7957,22 @@
         <v>0</v>
       </c>
       <c r="Y71" s="0">
-        <v>0</v>
+        <v>5.64237288394698e-37</v>
       </c>
       <c r="Z71" s="0">
-        <v>1</v>
+        <v>0.62112911729265685</v>
       </c>
       <c r="AA71" s="0">
-        <v>0.28333553258878053</v>
+        <v>0.90881501646395046</v>
       </c>
       <c r="AB71" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC71" s="0">
-        <v>0.22795276101227532</v>
+        <v>0.22797817154894759</v>
       </c>
       <c r="AD71" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
     </row>
     <row r="72">
@@ -6969,22 +8049,22 @@
         <v>0</v>
       </c>
       <c r="Y72" s="0">
-        <v>0</v>
+        <v>2.4952077525582598e-32</v>
       </c>
       <c r="Z72" s="0">
-        <v>1</v>
+        <v>0.62222375918568473</v>
       </c>
       <c r="AA72" s="0">
-        <v>0.28663395250659801</v>
+        <v>0.91395831244850179</v>
       </c>
       <c r="AB72" s="0">
         <v>0</v>
       </c>
       <c r="AC72" s="0">
-        <v>0.22958837289221309</v>
+        <v>0.22961393532948718</v>
       </c>
       <c r="AD72" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="73">
@@ -7064,16 +8144,16 @@
         <v>0</v>
       </c>
       <c r="Z73" s="0">
-        <v>1</v>
+        <v>0.62305032641248337</v>
       </c>
       <c r="AA73" s="0">
-        <v>0.28891926221656183</v>
+        <v>0.91763669084566846</v>
       </c>
       <c r="AB73" s="0">
         <v>0</v>
       </c>
       <c r="AC73" s="0">
-        <v>0.23120274538222896</v>
+        <v>0.23122845031240885</v>
       </c>
       <c r="AD73" s="0">
         <v>0</v>
@@ -7153,19 +8233,19 @@
         <v>0</v>
       </c>
       <c r="Y74" s="0">
-        <v>0</v>
+        <v>5.64237288394698e-37</v>
       </c>
       <c r="Z74" s="0">
-        <v>1</v>
+        <v>0.62303991442096629</v>
       </c>
       <c r="AA74" s="0">
-        <v>0.2900015530721255</v>
+        <v>0.91870144727054415</v>
       </c>
       <c r="AB74" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC74" s="0">
-        <v>0.23255901045962607</v>
+        <v>0.23258481853688864</v>
       </c>
       <c r="AD74" s="0">
         <v>0</v>
@@ -7248,16 +8328,16 @@
         <v>0</v>
       </c>
       <c r="Z75" s="0">
-        <v>1</v>
+        <v>0.6232537068868701</v>
       </c>
       <c r="AA75" s="0">
-        <v>0.29240697407332272</v>
+        <v>0.92146720911752478</v>
       </c>
       <c r="AB75" s="0">
-        <v>0</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="AC75" s="0">
-        <v>0.23399035344582234</v>
+        <v>0.23401627761040816</v>
       </c>
       <c r="AD75" s="0">
         <v>0</v>
@@ -7337,19 +8417,19 @@
         <v>0</v>
       </c>
       <c r="Y76" s="0">
-        <v>1.0001535601560997e-21</v>
+        <v>0</v>
       </c>
       <c r="Z76" s="0">
-        <v>1</v>
+        <v>0.62311352243708196</v>
       </c>
       <c r="AA76" s="0">
-        <v>0.29473985734828922</v>
+        <v>0.92356386349822905</v>
       </c>
       <c r="AB76" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC76" s="0">
-        <v>0.23531405874343625</v>
+        <v>0.23534008326446917</v>
       </c>
       <c r="AD76" s="0">
         <v>0</v>
@@ -7429,19 +8509,19 @@
         <v>0</v>
       </c>
       <c r="Y77" s="0">
-        <v>1.0098660057716477e-21</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="0">
-        <v>1</v>
+        <v>0.62250490791351454</v>
       </c>
       <c r="AA77" s="0">
-        <v>0.29807462950759728</v>
+        <v>0.92587295852153595</v>
       </c>
       <c r="AB77" s="0">
         <v>0</v>
       </c>
       <c r="AC77" s="0">
-        <v>0.23642747136716644</v>
+        <v>0.23645357242424525</v>
       </c>
       <c r="AD77" s="0">
         <v>0</v>
@@ -7521,22 +8601,22 @@
         <v>0</v>
       </c>
       <c r="Y78" s="0">
-        <v>2.2837932936071893e-15</v>
+        <v>7.4143672211879873e-35</v>
       </c>
       <c r="Z78" s="0">
-        <v>1</v>
+        <v>0.62173143275271014</v>
       </c>
       <c r="AA78" s="0">
-        <v>0.3002321626916083</v>
+        <v>0.92672695515523251</v>
       </c>
       <c r="AB78" s="0">
-        <v>3.0531133177191805e-16</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="0">
-        <v>0.2375573800212698</v>
+        <v>0.2375835529697769</v>
       </c>
       <c r="AD78" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="79">
@@ -7616,16 +8696,16 @@
         <v>0</v>
       </c>
       <c r="Z79" s="0">
-        <v>1</v>
+        <v>0.62105563683004061</v>
       </c>
       <c r="AA79" s="0">
-        <v>0.30264947038209555</v>
+        <v>0.92800535148205088</v>
       </c>
       <c r="AB79" s="0">
         <v>0</v>
       </c>
       <c r="AC79" s="0">
-        <v>0.23876815930979489</v>
+        <v>0.23879441259264944</v>
       </c>
       <c r="AD79" s="0">
         <v>0</v>
@@ -7708,16 +8788,16 @@
         <v>0</v>
       </c>
       <c r="Z80" s="0">
-        <v>1</v>
+        <v>0.62033409187494903</v>
       </c>
       <c r="AA80" s="0">
-        <v>0.30525908796800327</v>
+        <v>0.92939895771865833</v>
       </c>
       <c r="AB80" s="0">
         <v>0</v>
       </c>
       <c r="AC80" s="0">
-        <v>0.23998424988873709</v>
+        <v>0.24001058310953852</v>
       </c>
       <c r="AD80" s="0">
         <v>0</v>
@@ -7800,19 +8880,19 @@
         <v>0</v>
       </c>
       <c r="Z81" s="0">
-        <v>1</v>
+        <v>0.61948316227471789</v>
       </c>
       <c r="AA81" s="0">
-        <v>0.30880018612012067</v>
+        <v>0.93150599974866</v>
       </c>
       <c r="AB81" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC81" s="0">
-        <v>0.24115174272885007</v>
+        <v>0.24117815082794353</v>
       </c>
       <c r="AD81" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
     </row>
     <row r="82">
@@ -7889,22 +8969,22 @@
         <v>0</v>
       </c>
       <c r="Y82" s="0">
-        <v>0</v>
+        <v>1.5780375966743017e-21</v>
       </c>
       <c r="Z82" s="0">
-        <v>1</v>
+        <v>0.61844809792706901</v>
       </c>
       <c r="AA82" s="0">
-        <v>0.31250855092444729</v>
+        <v>0.93346998217535104</v>
       </c>
       <c r="AB82" s="0">
         <v>0</v>
       </c>
       <c r="AC82" s="0">
-        <v>0.24227076460126673</v>
+        <v>0.24229723996167263</v>
       </c>
       <c r="AD82" s="0">
-        <v>0</v>
+        <v>1.6940658945086007e-21</v>
       </c>
     </row>
     <row r="83">
@@ -7984,16 +9064,16 @@
         <v>0</v>
       </c>
       <c r="Z83" s="0">
-        <v>1</v>
+        <v>0.61724732003921179</v>
       </c>
       <c r="AA83" s="0">
-        <v>0.31475967590126408</v>
+        <v>0.93369742451004412</v>
       </c>
       <c r="AB83" s="0">
         <v>0</v>
       </c>
       <c r="AC83" s="0">
-        <v>0.24341722884877198</v>
+        <v>0.24344376745045193</v>
       </c>
       <c r="AD83" s="0">
         <v>0</v>
@@ -8073,19 +9153,19 @@
         <v>0</v>
       </c>
       <c r="Y84" s="0">
-        <v>0</v>
+        <v>4.3678157414951325e-37</v>
       </c>
       <c r="Z84" s="0">
-        <v>1</v>
+        <v>0.6150197101726117</v>
       </c>
       <c r="AA84" s="0">
-        <v>0.31693140940588016</v>
+        <v>0.93211492094327919</v>
       </c>
       <c r="AB84" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC84" s="0">
-        <v>0.24412739059546287</v>
+        <v>0.24415393743131844</v>
       </c>
       <c r="AD84" s="0">
         <v>0</v>
@@ -8168,19 +9248,19 @@
         <v>0</v>
       </c>
       <c r="Z85" s="0">
-        <v>1</v>
+        <v>0.61320039406907156</v>
       </c>
       <c r="AA85" s="0">
-        <v>0.32018307011138453</v>
+        <v>0.93230046859603755</v>
       </c>
       <c r="AB85" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC85" s="0">
-        <v>0.24502046289167748</v>
+        <v>0.24504704160839694</v>
       </c>
       <c r="AD85" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
     </row>
     <row r="86">
@@ -8257,19 +9337,19 @@
         <v>0</v>
       </c>
       <c r="Y86" s="0">
-        <v>0</v>
+        <v>2.4651903288156619e-32</v>
       </c>
       <c r="Z86" s="0">
-        <v>1</v>
+        <v>0.61105798141540224</v>
       </c>
       <c r="AA86" s="0">
-        <v>0.32416140465640514</v>
+        <v>0.9326681738124607</v>
       </c>
       <c r="AB86" s="0">
-        <v>0</v>
+        <v>1.8488927466117464e-32</v>
       </c>
       <c r="AC86" s="0">
-        <v>0.24577333459946479</v>
+        <v>0.24579992822281588</v>
       </c>
       <c r="AD86" s="0">
         <v>0</v>
@@ -8349,22 +9429,22 @@
         <v>0</v>
       </c>
       <c r="Y87" s="0">
-        <v>2.3250212992486105e-20</v>
+        <v>1.2325951644078309e-32</v>
       </c>
       <c r="Z87" s="0">
-        <v>1</v>
+        <v>0.60886838746491712</v>
       </c>
       <c r="AA87" s="0">
-        <v>0.3280708999978349</v>
+        <v>0.93288752280333953</v>
       </c>
       <c r="AB87" s="0">
         <v>0</v>
       </c>
       <c r="AC87" s="0">
-        <v>0.24654241395883822</v>
+        <v>0.24656902197776034</v>
       </c>
       <c r="AD87" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
     </row>
     <row r="88">
@@ -8441,19 +9521,19 @@
         <v>0</v>
       </c>
       <c r="Y88" s="0">
-        <v>5.2410866978312534e-20</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="0">
-        <v>1</v>
+        <v>0.60617107365599754</v>
       </c>
       <c r="AA88" s="0">
-        <v>0.33034189390780905</v>
+        <v>0.93061267346704346</v>
       </c>
       <c r="AB88" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC88" s="0">
-        <v>0.24717200011019164</v>
+        <v>0.24719859876104541</v>
       </c>
       <c r="AD88" s="0">
         <v>0</v>
@@ -8533,19 +9613,19 @@
         <v>0</v>
       </c>
       <c r="Y89" s="0">
-        <v>8.123802140105007e-20</v>
+        <v>3.009265538105056e-36</v>
       </c>
       <c r="Z89" s="0">
-        <v>1</v>
+        <v>0.60371147224980504</v>
       </c>
       <c r="AA89" s="0">
-        <v>0.33472290103985169</v>
+        <v>0.93084848763564976</v>
       </c>
       <c r="AB89" s="0">
-        <v>0</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="AC89" s="0">
-        <v>0.24787106975731377</v>
+        <v>0.2478976710698336</v>
       </c>
       <c r="AD89" s="0">
         <v>0</v>
@@ -8625,19 +9705,19 @@
         <v>0</v>
       </c>
       <c r="Y90" s="0">
-        <v>1.1151320730271387e-19</v>
+        <v>0</v>
       </c>
       <c r="Z90" s="0">
-        <v>1</v>
+        <v>0.60087834507124349</v>
       </c>
       <c r="AA90" s="0">
-        <v>0.33729225854488631</v>
+        <v>0.92864311483804551</v>
       </c>
       <c r="AB90" s="0">
         <v>0</v>
       </c>
       <c r="AC90" s="0">
-        <v>0.24849533778689126</v>
+        <v>0.24852192574424006</v>
       </c>
       <c r="AD90" s="0">
         <v>0</v>
@@ -8717,19 +9797,19 @@
         <v>0</v>
       </c>
       <c r="Y91" s="0">
-        <v>1.4241599838301177e-19</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="0">
-        <v>1</v>
+        <v>0.59795081561131846</v>
       </c>
       <c r="AA91" s="0">
-        <v>0.34147080904996779</v>
+        <v>0.92788785547722086</v>
       </c>
       <c r="AB91" s="0">
-        <v>0</v>
+        <v>4.3342164034091569e-33</v>
       </c>
       <c r="AC91" s="0">
-        <v>0.24905462941842602</v>
+        <v>0.24908119781553217</v>
       </c>
       <c r="AD91" s="0">
         <v>0</v>
@@ -8809,19 +9889,19 @@
         <v>0</v>
       </c>
       <c r="Y92" s="0">
-        <v>9.9038932010464167e-17</v>
+        <v>0</v>
       </c>
       <c r="Z92" s="0">
-        <v>0.99999999999999956</v>
+        <v>0.59484157213452327</v>
       </c>
       <c r="AA92" s="0">
-        <v>0.34583266958664644</v>
+        <v>0.92700965982493233</v>
       </c>
       <c r="AB92" s="0">
-        <v>8.3266726846886741e-17</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC92" s="0">
-        <v>0.24955469070922096</v>
+        <v>0.24958123044172303</v>
       </c>
       <c r="AD92" s="0">
         <v>0</v>
@@ -8901,22 +9981,22 @@
         <v>0</v>
       </c>
       <c r="Y93" s="0">
-        <v>2.0745990054866213e-19</v>
+        <v>0</v>
       </c>
       <c r="Z93" s="0">
-        <v>1</v>
+        <v>0.59124517576024149</v>
       </c>
       <c r="AA93" s="0">
-        <v>0.34914511815559346</v>
+        <v>0.92426102468569016</v>
       </c>
       <c r="AB93" s="0">
-        <v>0</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="AC93" s="0">
-        <v>0.24988268518747772</v>
+        <v>0.24990917119603756</v>
       </c>
       <c r="AD93" s="0">
-        <v>0</v>
+        <v>6.1629758220391547e-33</v>
       </c>
     </row>
     <row r="94">
@@ -8993,22 +10073,22 @@
         <v>0</v>
       </c>
       <c r="Y94" s="0">
-        <v>2.4097782723229861e-19</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="0">
-        <v>1</v>
+        <v>0.58774398834757169</v>
       </c>
       <c r="AA94" s="0">
-        <v>0.35346985350113325</v>
+        <v>0.92268514747670982</v>
       </c>
       <c r="AB94" s="0">
-        <v>0</v>
+        <v>3.3881317890172014e-21</v>
       </c>
       <c r="AC94" s="0">
-        <v>0.25026451572958547</v>
+        <v>0.25029095385489813</v>
       </c>
       <c r="AD94" s="0">
-        <v>0</v>
+        <v>8.4703294725430034e-22</v>
       </c>
     </row>
     <row r="95">
@@ -9085,22 +10165,22 @@
         <v>0</v>
       </c>
       <c r="Y95" s="0">
-        <v>2.7565616877629841e-19</v>
+        <v>0</v>
       </c>
       <c r="Z95" s="0">
-        <v>1</v>
+        <v>0.58388073443062016</v>
       </c>
       <c r="AA95" s="0">
-        <v>0.35871280335199268</v>
+        <v>0.92141729350408053</v>
       </c>
       <c r="AB95" s="0">
         <v>0</v>
       </c>
       <c r="AC95" s="0">
-        <v>0.25046290696659923</v>
+        <v>0.25048927468292476</v>
       </c>
       <c r="AD95" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="96">
@@ -9177,19 +10257,19 @@
         <v>0</v>
       </c>
       <c r="Y96" s="0">
-        <v>3.1136053698284238e-19</v>
+        <v>2.4813839389925897e-32</v>
       </c>
       <c r="Z96" s="0">
-        <v>1</v>
+        <v>0.57969312831005337</v>
       </c>
       <c r="AA96" s="0">
-        <v>0.36172300417741771</v>
+        <v>0.91737002183679095</v>
       </c>
       <c r="AB96" s="0">
-        <v>0</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="AC96" s="0">
-        <v>0.25059730018906434</v>
+        <v>0.25062358397995299</v>
       </c>
       <c r="AD96" s="0">
         <v>0</v>
@@ -9269,19 +10349,19 @@
         <v>0</v>
       </c>
       <c r="Y97" s="0">
-        <v>3.4744340425645751e-19</v>
+        <v>0</v>
       </c>
       <c r="Z97" s="0">
-        <v>1</v>
+        <v>0.57551534918141056</v>
       </c>
       <c r="AA97" s="0">
-        <v>0.36744150789625118</v>
+        <v>0.9160476479411036</v>
       </c>
       <c r="AB97" s="0">
         <v>0</v>
       </c>
       <c r="AC97" s="0">
-        <v>0.2506826155880949</v>
+        <v>0.25070881124387689</v>
       </c>
       <c r="AD97" s="0">
         <v>0</v>
@@ -9364,16 +10444,16 @@
         <v>0</v>
       </c>
       <c r="Z98" s="0">
-        <v>1</v>
+        <v>0.57095226700598467</v>
       </c>
       <c r="AA98" s="0">
-        <v>0.37136717177083006</v>
+        <v>0.91228304854172315</v>
       </c>
       <c r="AB98" s="0">
-        <v>0</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="AC98" s="0">
-        <v>0.25066083547103701</v>
+        <v>0.25068696114894068</v>
       </c>
       <c r="AD98" s="0">
         <v>0</v>
@@ -9456,16 +10536,16 @@
         <v>0</v>
       </c>
       <c r="Z99" s="0">
-        <v>1</v>
+        <v>0.56643412432277118</v>
       </c>
       <c r="AA99" s="0">
-        <v>0.37808848734629452</v>
+        <v>0.9113898730124107</v>
       </c>
       <c r="AB99" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC99" s="0">
-        <v>0.2506060537440879</v>
+        <v>0.25063217177906472</v>
       </c>
       <c r="AD99" s="0">
         <v>0</v>
@@ -9545,19 +10625,19 @@
         <v>0</v>
       </c>
       <c r="Y100" s="0">
-        <v>3.6930636500287495e-19</v>
+        <v>2.3498602270677856e-33</v>
       </c>
       <c r="Z100" s="0">
-        <v>1</v>
+        <v>0.56141503369318346</v>
       </c>
       <c r="AA100" s="0">
-        <v>0.3836716394584419</v>
+        <v>0.90851425611442294</v>
       </c>
       <c r="AB100" s="0">
         <v>0</v>
       </c>
       <c r="AC100" s="0">
-        <v>0.25035783450974641</v>
+        <v>0.25038392350279376</v>
       </c>
       <c r="AD100" s="0">
         <v>0</v>
@@ -9637,19 +10717,19 @@
         <v>0</v>
       </c>
       <c r="Y101" s="0">
-        <v>3.6761229910836635e-19</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="Z101" s="0">
-        <v>1</v>
+        <v>0.55635030163406418</v>
       </c>
       <c r="AA101" s="0">
-        <v>0.38906121935470495</v>
+        <v>0.90536814364146789</v>
       </c>
       <c r="AB101" s="0">
         <v>0</v>
       </c>
       <c r="AC101" s="0">
-        <v>0.2500986832129059</v>
+        <v>0.25012474091365799</v>
       </c>
       <c r="AD101" s="0">
         <v>0</v>
@@ -9732,16 +10812,16 @@
         <v>0</v>
       </c>
       <c r="Z102" s="0">
-        <v>1</v>
+        <v>0.55113639275537463</v>
       </c>
       <c r="AA102" s="0">
-        <v>0.39352108000936137</v>
+        <v>0.90104088799020765</v>
       </c>
       <c r="AB102" s="0">
         <v>0</v>
       </c>
       <c r="AC102" s="0">
-        <v>0.24980754537443778</v>
+        <v>0.24983356806939561</v>
       </c>
       <c r="AD102" s="0">
         <v>0</v>
@@ -9824,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="Z103" s="0">
-        <v>1</v>
+        <v>0.54558322751000699</v>
       </c>
       <c r="AA103" s="0">
-        <v>0.39875440298016701</v>
+        <v>0.89691534428511943</v>
       </c>
       <c r="AB103" s="0">
         <v>0</v>
       </c>
       <c r="AC103" s="0">
-        <v>0.2493441173817314</v>
+        <v>0.24937008536908231</v>
       </c>
       <c r="AD103" s="0">
         <v>0</v>
@@ -9913,19 +10993,19 @@
         <v>0</v>
       </c>
       <c r="Y104" s="0">
-        <v>3.6083603553033194e-19</v>
+        <v>1.5780375966743711e-21</v>
       </c>
       <c r="Z104" s="0">
-        <v>1</v>
+        <v>0.53986157742631957</v>
       </c>
       <c r="AA104" s="0">
-        <v>0.40568990051195142</v>
+        <v>0.89420804296315293</v>
       </c>
       <c r="AB104" s="0">
-        <v>0</v>
+        <v>1.3856543256056824e-21</v>
       </c>
       <c r="AC104" s="0">
-        <v>0.24875628251830767</v>
+        <v>0.24878217960057131</v>
       </c>
       <c r="AD104" s="0">
         <v>0</v>
@@ -10005,22 +11085,22 @@
         <v>0</v>
       </c>
       <c r="Y105" s="0">
-        <v>0</v>
+        <v>1.2325951644078309e-32</v>
       </c>
       <c r="Z105" s="0">
-        <v>1</v>
+        <v>0.5341463561078128</v>
       </c>
       <c r="AA105" s="0">
-        <v>0.41099103741348625</v>
+        <v>0.88987719562734202</v>
       </c>
       <c r="AB105" s="0">
         <v>0</v>
       </c>
       <c r="AC105" s="0">
-        <v>0.24822269139650277</v>
+        <v>0.24824852368771302</v>
       </c>
       <c r="AD105" s="0">
-        <v>7.470830594782929e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -10097,19 +11177,19 @@
         <v>0</v>
       </c>
       <c r="Y106" s="0">
-        <v>3.5575383784680614e-19</v>
+        <v>0</v>
       </c>
       <c r="Z106" s="0">
-        <v>1</v>
+        <v>0.52821158824143655</v>
       </c>
       <c r="AA106" s="0">
-        <v>0.41483232525454317</v>
+        <v>0.88371647240928264</v>
       </c>
       <c r="AB106" s="0">
-        <v>0</v>
+        <v>7.3238000033631801e-34</v>
       </c>
       <c r="AC106" s="0">
-        <v>0.2476250695396934</v>
+        <v>0.24765083138002078</v>
       </c>
       <c r="AD106" s="0">
         <v>0</v>
@@ -10189,19 +11269,19 @@
         <v>0</v>
       </c>
       <c r="Y107" s="0">
-        <v>9.6731162576441099e-19</v>
+        <v>0</v>
       </c>
       <c r="Z107" s="0">
-        <v>1</v>
+        <v>0.52165169642416187</v>
       </c>
       <c r="AA107" s="0">
-        <v>0.42191950166062009</v>
+        <v>0.87974813565606691</v>
       </c>
       <c r="AB107" s="0">
         <v>0</v>
       </c>
       <c r="AC107" s="0">
-        <v>0.24662836735219545</v>
+        <v>0.24665401064192249</v>
       </c>
       <c r="AD107" s="0">
         <v>0</v>
@@ -10281,19 +11361,19 @@
         <v>0</v>
       </c>
       <c r="Y108" s="0">
-        <v>3.5067164016328034e-19</v>
+        <v>0</v>
       </c>
       <c r="Z108" s="0">
-        <v>1</v>
+        <v>0.51496815892994652</v>
       </c>
       <c r="AA108" s="0">
-        <v>0.42914561386126004</v>
+        <v>0.87571035230068395</v>
       </c>
       <c r="AB108" s="0">
-        <v>0</v>
+        <v>7.4592169525779076e-34</v>
       </c>
       <c r="AC108" s="0">
-        <v>0.24556158476606421</v>
+        <v>0.24558709992748112</v>
       </c>
       <c r="AD108" s="0">
         <v>0</v>
@@ -10376,19 +11456,19 @@
         <v>0</v>
       </c>
       <c r="Z109" s="0">
-        <v>1</v>
+        <v>0.50799211788437526</v>
       </c>
       <c r="AA109" s="0">
-        <v>0.43570055655838735</v>
+        <v>0.87050842544719176</v>
       </c>
       <c r="AB109" s="0">
         <v>0</v>
       </c>
       <c r="AC109" s="0">
-        <v>0.2443551507547001</v>
+        <v>0.24438052257320034</v>
       </c>
       <c r="AD109" s="0">
-        <v>7.3014240053320689e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -10465,22 +11545,22 @@
         <v>0</v>
       </c>
       <c r="Y110" s="0">
-        <v>3.4558944247975454e-19</v>
+        <v>3.3881317890172014e-21</v>
       </c>
       <c r="Z110" s="0">
-        <v>1</v>
+        <v>0.50151876888361657</v>
       </c>
       <c r="AA110" s="0">
-        <v>0.44166707294587143</v>
+        <v>0.8655652684016264</v>
       </c>
       <c r="AB110" s="0">
-        <v>0</v>
+        <v>3.3881317890172014e-21</v>
       </c>
       <c r="AC110" s="0">
-        <v>0.24342313064814733</v>
+        <v>0.24344838757014842</v>
       </c>
       <c r="AD110" s="0">
-        <v>0</v>
+        <v>8.4703294725430034e-22</v>
       </c>
     </row>
     <row r="111">
@@ -10557,19 +11637,19 @@
         <v>0</v>
       </c>
       <c r="Y111" s="0">
-        <v>1.2987556180250187e-16</v>
+        <v>0</v>
       </c>
       <c r="Z111" s="0">
-        <v>1</v>
+        <v>0.49472290173533146</v>
       </c>
       <c r="AA111" s="0">
-        <v>0.44700273346847702</v>
+        <v>0.85945262537535427</v>
       </c>
       <c r="AB111" s="0">
         <v>0</v>
       </c>
       <c r="AC111" s="0">
-        <v>0.24230708934845757</v>
+        <v>0.2423550536901404</v>
       </c>
       <c r="AD111" s="0">
         <v>0</v>
@@ -10652,16 +11732,16 @@
         <v>0</v>
       </c>
       <c r="Z112" s="0">
-        <v>1</v>
+        <v>0.48797442604035152</v>
       </c>
       <c r="AA112" s="0">
-        <v>0.45299495470635159</v>
+        <v>0.85407152720404222</v>
       </c>
       <c r="AB112" s="0">
         <v>0</v>
       </c>
       <c r="AC112" s="0">
-        <v>0.24121890026358173</v>
+        <v>0.24126684513565319</v>
       </c>
       <c r="AD112" s="0">
         <v>0</v>
@@ -10741,19 +11821,19 @@
         <v>0</v>
       </c>
       <c r="Y113" s="0">
-        <v>1.3026519695823885e-16</v>
+        <v>4.244268114943371e-32</v>
       </c>
       <c r="Z113" s="0">
-        <v>1</v>
+        <v>0.48098633825365239</v>
       </c>
       <c r="AA113" s="0">
-        <v>0.45979522257458388</v>
+        <v>0.8490946696289684</v>
       </c>
       <c r="AB113" s="0">
         <v>0</v>
       </c>
       <c r="AC113" s="0">
-        <v>0.23997439499454387</v>
+        <v>0.24002230581490422</v>
       </c>
       <c r="AD113" s="0">
         <v>0</v>
@@ -10836,16 +11916,16 @@
         <v>0</v>
       </c>
       <c r="Z114" s="0">
-        <v>1</v>
+        <v>0.47404469485180906</v>
       </c>
       <c r="AA114" s="0">
-        <v>0.46740733683104874</v>
+        <v>0.84500699192311191</v>
       </c>
       <c r="AB114" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC114" s="0">
-        <v>0.23875642172484074</v>
+        <v>0.23877740954664728</v>
       </c>
       <c r="AD114" s="0">
         <v>0</v>
@@ -10925,19 +12005,19 @@
         <v>0</v>
       </c>
       <c r="Y115" s="0">
-        <v>0</v>
+        <v>5.6222860364801288e-32</v>
       </c>
       <c r="Z115" s="0">
-        <v>1</v>
+        <v>0.46692663683805841</v>
       </c>
       <c r="AA115" s="0">
-        <v>0.47287125894542176</v>
+        <v>0.83847566317345423</v>
       </c>
       <c r="AB115" s="0">
-        <v>0</v>
+        <v>7.0461952574729887e-33</v>
       </c>
       <c r="AC115" s="0">
-        <v>0.23742083521684609</v>
+        <v>0.23746868353678169</v>
       </c>
       <c r="AD115" s="0">
         <v>0</v>
@@ -11017,22 +12097,22 @@
         <v>0</v>
       </c>
       <c r="Y116" s="0">
-        <v>0</v>
+        <v>3.1796651992002548e-32</v>
       </c>
       <c r="Z116" s="0">
-        <v>1</v>
+        <v>0.4594189648231744</v>
       </c>
       <c r="AA116" s="0">
-        <v>0.47853904525892016</v>
+        <v>0.83149026484666611</v>
       </c>
       <c r="AB116" s="0">
-        <v>0</v>
+        <v>9.4415706258046133e-33</v>
       </c>
       <c r="AC116" s="0">
-        <v>0.23586917346787917</v>
+        <v>0.23591773756008527</v>
       </c>
       <c r="AD116" s="0">
-        <v>0</v>
+        <v>6.1629758220391547e-33</v>
       </c>
     </row>
     <row r="117">
@@ -11109,22 +12189,22 @@
         <v>0</v>
       </c>
       <c r="Y117" s="0">
-        <v>2.0608311606697127e-17</v>
+        <v>2.0854210179068038e-33</v>
       </c>
       <c r="Z117" s="0">
-        <v>1</v>
+        <v>0.45170304115299581</v>
       </c>
       <c r="AA117" s="0">
-        <v>0.48602262468983015</v>
+        <v>0.82597041598378951</v>
       </c>
       <c r="AB117" s="0">
-        <v>0</v>
+        <v>1.9582795489218652e-33</v>
       </c>
       <c r="AC117" s="0">
-        <v>0.23414071265906689</v>
+        <v>0.23418847639216289</v>
       </c>
       <c r="AD117" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="118">
@@ -11201,19 +12281,19 @@
         <v>0</v>
       </c>
       <c r="Y118" s="0">
-        <v>0</v>
+        <v>6.4748861950637438e-32</v>
       </c>
       <c r="Z118" s="0">
-        <v>0.999999999999998</v>
+        <v>0.44434592146820517</v>
       </c>
       <c r="AA118" s="0">
-        <v>0.49160507055327485</v>
+        <v>0.81915811184750931</v>
       </c>
       <c r="AB118" s="0">
-        <v>0</v>
+        <v>2.4454420237218475e-32</v>
       </c>
       <c r="AC118" s="0">
-        <v>0.23266437298217424</v>
+        <v>0.2326859006031875</v>
       </c>
       <c r="AD118" s="0">
         <v>0</v>
@@ -11293,19 +12373,19 @@
         <v>0</v>
       </c>
       <c r="Y119" s="0">
-        <v>1.9571086675559734e-17</v>
+        <v>0</v>
       </c>
       <c r="Z119" s="0">
-        <v>1</v>
+        <v>0.4365068163103728</v>
       </c>
       <c r="AA119" s="0">
-        <v>0.49911421316328614</v>
+        <v>0.81345122216822319</v>
       </c>
       <c r="AB119" s="0">
         <v>0</v>
       </c>
       <c r="AC119" s="0">
-        <v>0.23078982789300362</v>
+        <v>0.23083816857674846</v>
       </c>
       <c r="AD119" s="0">
         <v>0</v>
@@ -11385,19 +12465,19 @@
         <v>0</v>
       </c>
       <c r="Y120" s="0">
-        <v>1.9963366694049886e-17</v>
+        <v>3.009265538105056e-36</v>
       </c>
       <c r="Z120" s="0">
-        <v>1</v>
+        <v>0.4290951498313173</v>
       </c>
       <c r="AA120" s="0">
-        <v>0.50359572744479764</v>
+        <v>0.80544096337162963</v>
       </c>
       <c r="AB120" s="0">
-        <v>0</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="AC120" s="0">
-        <v>0.22925643121455552</v>
+        <v>0.22927672034359858</v>
       </c>
       <c r="AD120" s="0">
         <v>0</v>
@@ -11477,22 +12557,22 @@
         <v>0</v>
       </c>
       <c r="Y121" s="0">
-        <v>2.078618852562053e-17</v>
+        <v>0</v>
       </c>
       <c r="Z121" s="0">
-        <v>1</v>
+        <v>0.42150933121046336</v>
       </c>
       <c r="AA121" s="0">
-        <v>0.50944974254365571</v>
+        <v>0.79851139569009344</v>
       </c>
       <c r="AB121" s="0">
-        <v>0</v>
+        <v>4.1873929962731855e-33</v>
       </c>
       <c r="AC121" s="0">
-        <v>0.22751102410386592</v>
+        <v>0.22755866660475457</v>
       </c>
       <c r="AD121" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="122">
@@ -11569,22 +12649,22 @@
         <v>0</v>
       </c>
       <c r="Y122" s="0">
-        <v>0.51955419932375257</v>
+        <v>0</v>
       </c>
       <c r="Z122" s="0">
-        <v>1</v>
+        <v>0.41407341960732807</v>
       </c>
       <c r="AA122" s="0">
-        <v>1</v>
+        <v>0.79217833073200583</v>
       </c>
       <c r="AB122" s="0">
         <v>0</v>
       </c>
       <c r="AC122" s="0">
-        <v>0.89835382352531445</v>
+        <v>0.22589966033182543</v>
       </c>
       <c r="AD122" s="0">
-        <v>0.56037845762779659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -11661,22 +12741,22 @@
         <v>0</v>
       </c>
       <c r="Y123" s="0">
-        <v>0</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="Z123" s="0">
-        <v>0.99998999999999927</v>
+        <v>0.40661456626786302</v>
       </c>
       <c r="AA123" s="0">
-        <v>0.47094212045403239</v>
+        <v>0.78418629414202157</v>
       </c>
       <c r="AB123" s="0">
-        <v>1.0000000000393075e-05</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC123" s="0">
-        <v>0.2242371218702898</v>
+        <v>0.2242250449472101</v>
       </c>
       <c r="AD123" s="0">
-        <v>1.0000000004054383e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -11753,22 +12833,22 @@
         <v>0</v>
       </c>
       <c r="Y124" s="0">
-        <v>0</v>
+        <v>3.9708763408065267e-32</v>
       </c>
       <c r="Z124" s="0">
-        <v>0.999999999999999</v>
+        <v>0.39913872960594032</v>
       </c>
       <c r="AA124" s="0">
-        <v>0.47965432686561249</v>
+        <v>0.77793178607749314</v>
       </c>
       <c r="AB124" s="0">
-        <v>4.9381943082436449e-16</v>
+        <v>1.7368728369557857e-32</v>
       </c>
       <c r="AC124" s="0">
-        <v>0.22247979011502667</v>
+        <v>0.222479790115024</v>
       </c>
       <c r="AD124" s="0">
-        <v>3.8607196274611823e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -11845,22 +12925,22 @@
         <v>0</v>
       </c>
       <c r="Y125" s="0">
-        <v>0</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="Z125" s="0">
-        <v>0.99998999999999882</v>
+        <v>0.39134751304072923</v>
       </c>
       <c r="AA125" s="0">
-        <v>0.48846087176147202</v>
+        <v>0.77117093899519451</v>
       </c>
       <c r="AB125" s="0">
-        <v>1.0000000000439884e-05</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="AC125" s="0">
-        <v>0.2205096849040302</v>
+        <v>0.22049760798095072</v>
       </c>
       <c r="AD125" s="0">
-        <v>1.0000000003673047e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -11937,22 +13017,22 @@
         <v>0</v>
       </c>
       <c r="Y126" s="0">
-        <v>0.59503107701567803</v>
+        <v>3.0065641083209697e-37</v>
       </c>
       <c r="Z126" s="0">
-        <v>0.99998999999999971</v>
+        <v>0.38365569026889362</v>
       </c>
       <c r="AA126" s="0">
-        <v>0.99999000348879208</v>
+        <v>0.76197440450773057</v>
       </c>
       <c r="AB126" s="0">
-        <v>1.0000000000093268e-05</v>
+        <v>0</v>
       </c>
       <c r="AC126" s="0">
-        <v>0.21859035932659407</v>
+        <v>0.21858105323419144</v>
       </c>
       <c r="AD126" s="0">
-        <v>1.0000000000093268e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -12029,22 +13109,22 @@
         <v>0</v>
       </c>
       <c r="Y127" s="0">
-        <v>0.60905117591882663</v>
+        <v>3.009265538105056e-36</v>
       </c>
       <c r="Z127" s="0">
-        <v>0.99998777516598059</v>
+        <v>0.3763586305224379</v>
       </c>
       <c r="AA127" s="0">
-        <v>0.99997896304952227</v>
+        <v>0.75636605955123126</v>
       </c>
       <c r="AB127" s="0">
-        <v>1.4449779209072249e-05</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC127" s="0">
-        <v>0.21684765381028942</v>
+        <v>0.21684089905348281</v>
       </c>
       <c r="AD127" s="0">
-        <v>1.0533440391508058e-05</v>
+        <v>7.5231638452626401e-37</v>
       </c>
     </row>
     <row r="128">
@@ -12124,19 +13204,19 @@
         <v>0</v>
       </c>
       <c r="Z128" s="0">
-        <v>0.99999999999999911</v>
+        <v>0.36935733370860763</v>
       </c>
       <c r="AA128" s="0">
-        <v>0.51041152030539572</v>
+        <v>0.74912618772261097</v>
       </c>
       <c r="AB128" s="0">
-        <v>3.952058463718924e-16</v>
+        <v>0</v>
       </c>
       <c r="AC128" s="0">
-        <v>0.21529532872146767</v>
+        <v>0.21529532872146551</v>
       </c>
       <c r="AD128" s="0">
-        <v>3.0897652044012808e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -12213,22 +13293,22 @@
         <v>0</v>
       </c>
       <c r="Y129" s="0">
-        <v>0</v>
+        <v>9.856463059719802e-21</v>
       </c>
       <c r="Z129" s="0">
-        <v>0.99999999999999922</v>
+        <v>0.3620223332312883</v>
       </c>
       <c r="AA129" s="0">
-        <v>0.51740625011663843</v>
+        <v>0.74145091657921536</v>
       </c>
       <c r="AB129" s="0">
-        <v>3.7091615045646102e-16</v>
+        <v>2.1685097307649583e-21</v>
       </c>
       <c r="AC129" s="0">
-        <v>0.21348591189087759</v>
+        <v>0.21348591189087554</v>
       </c>
       <c r="AD129" s="0">
-        <v>2.8999157696734021e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -12305,22 +13385,22 @@
         <v>0</v>
       </c>
       <c r="Y130" s="0">
-        <v>0</v>
+        <v>1.8055593228630336e-33</v>
       </c>
       <c r="Z130" s="0">
-        <v>0.99999999999999922</v>
+        <v>0.35445372949966925</v>
       </c>
       <c r="AA130" s="0">
-        <v>0.52330517019158052</v>
+        <v>0.73221262919091967</v>
       </c>
       <c r="AB130" s="0">
-        <v>3.458580284633999e-16</v>
+        <v>4.7350793242083056e-33</v>
       </c>
       <c r="AC130" s="0">
-        <v>0.21148849854595284</v>
+        <v>0.21148849854595098</v>
       </c>
       <c r="AD130" s="0">
-        <v>2.7039988527025376e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -12397,22 +13477,22 @@
         <v>0</v>
       </c>
       <c r="Y131" s="0">
-        <v>0</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="Z131" s="0">
-        <v>0.99999999999999933</v>
+        <v>0.34657093934124522</v>
       </c>
       <c r="AA131" s="0">
-        <v>0.52919287301232754</v>
+        <v>0.72233475169481831</v>
       </c>
       <c r="AB131" s="0">
-        <v>3.197544898352745e-16</v>
+        <v>1.128474576789396e-36</v>
       </c>
       <c r="AC131" s="0">
-        <v>0.20922185365613763</v>
+        <v>0.20922185365613591</v>
       </c>
       <c r="AD131" s="0">
-        <v>2.4999182838662756e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -12489,22 +13569,22 @@
         <v>0</v>
       </c>
       <c r="Y132" s="0">
-        <v>0.71740669959517822</v>
+        <v>0</v>
       </c>
       <c r="Z132" s="0">
-        <v>0.99999000000000005</v>
+        <v>0.33800191085996795</v>
       </c>
       <c r="AA132" s="0">
-        <v>0.99999000000727778</v>
+        <v>0.71302720240139239</v>
       </c>
       <c r="AB132" s="0">
-        <v>1.0000000000030818e-05</v>
+        <v>0</v>
       </c>
       <c r="AC132" s="0">
-        <v>0.99998999999632476</v>
+        <v>0.20638379025992698</v>
       </c>
       <c r="AD132" s="0">
-        <v>0.66158846834975982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -12581,22 +13661,22 @@
         <v>0</v>
       </c>
       <c r="Y133" s="0">
-        <v>0.73804975672718243</v>
+        <v>0</v>
       </c>
       <c r="Z133" s="0">
-        <v>1</v>
+        <v>0.33086363911803596</v>
       </c>
       <c r="AA133" s="0">
-        <v>1</v>
+        <v>0.70478009731475166</v>
       </c>
       <c r="AB133" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC133" s="0">
-        <v>0.9498907290264279</v>
+        <v>0.2045207133368501</v>
       </c>
       <c r="AD133" s="0">
-        <v>0.62114166990189446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -12673,22 +13753,22 @@
         <v>0</v>
       </c>
       <c r="Y134" s="0">
-        <v>0.75850317719160465</v>
+        <v>0</v>
       </c>
       <c r="Z134" s="0">
-        <v>0.99998999999999993</v>
+        <v>0.32388652467966544</v>
       </c>
       <c r="AA134" s="0">
-        <v>0.99999000000727767</v>
+        <v>0.69658863886536093</v>
       </c>
       <c r="AB134" s="0">
-        <v>1.000000000001694e-05</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC134" s="0">
-        <v>0.9999899999999351</v>
+        <v>0.20272763641377317</v>
       </c>
       <c r="AD134" s="0">
-        <v>0.6645901262462488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -12765,22 +13845,22 @@
         <v>0</v>
       </c>
       <c r="Y135" s="0">
-        <v>0.7777969416847712</v>
+        <v>4.6658662168318894e-33</v>
       </c>
       <c r="Z135" s="0">
-        <v>0.99999000000000005</v>
+        <v>0.31699762521215308</v>
       </c>
       <c r="AA135" s="0">
-        <v>0.99999000012369221</v>
+        <v>0.68887112328916067</v>
       </c>
       <c r="AB135" s="0">
-        <v>9.9999999999857148e-06</v>
+        <v>1.0231126671364927e-32</v>
       </c>
       <c r="AC135" s="0">
-        <v>0.99999000000308824</v>
+        <v>0.20094514266010627</v>
       </c>
       <c r="AD135" s="0">
-        <v>0.66605323878077616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -12857,22 +13937,22 @@
         <v>0</v>
       </c>
       <c r="Y136" s="0">
-        <v>0.79849129147326747</v>
+        <v>0</v>
       </c>
       <c r="Z136" s="0">
-        <v>0.99999000000000005</v>
+        <v>0.31019482896132433</v>
       </c>
       <c r="AA136" s="0">
-        <v>0.99998999977444625</v>
+        <v>0.68059343511092951</v>
       </c>
       <c r="AB136" s="0">
-        <v>9.9999999999995925e-06</v>
+        <v>1.855212204241767e-33</v>
       </c>
       <c r="AC136" s="0">
-        <v>0.9999899999947367</v>
+        <v>0.19918446650310601</v>
       </c>
       <c r="AD136" s="0">
-        <v>0.66749879584669114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -12949,22 +14029,22 @@
         <v>0</v>
       </c>
       <c r="Y137" s="0">
-        <v>0.82224528910112182</v>
+        <v>4.6234355727446081e-32</v>
       </c>
       <c r="Z137" s="0">
-        <v>1</v>
+        <v>0.30346160397424748</v>
       </c>
       <c r="AA137" s="0">
-        <v>1</v>
+        <v>0.67110188804426429</v>
       </c>
       <c r="AB137" s="0">
-        <v>0</v>
+        <v>2.7632580803649677e-33</v>
       </c>
       <c r="AC137" s="0">
-        <v>0.96686247696230898</v>
+        <v>0.19744050022170959</v>
       </c>
       <c r="AD137" s="0">
-        <v>0.64118497931159391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -13041,22 +14121,22 @@
         <v>0</v>
       </c>
       <c r="Y138" s="0">
-        <v>0.84573810184240139</v>
+        <v>2.1839078707475662e-37</v>
       </c>
       <c r="Z138" s="0">
-        <v>0.99998999999999993</v>
+        <v>0.29682585505359171</v>
       </c>
       <c r="AA138" s="0">
-        <v>0.99998999989086146</v>
+        <v>0.6616946818035826</v>
       </c>
       <c r="AB138" s="0">
-        <v>9.9999999999995925e-06</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC138" s="0">
-        <v>0.99999000000141569</v>
+        <v>0.19571806817812396</v>
       </c>
       <c r="AD138" s="0">
-        <v>0.67034476341823235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -13133,19 +14213,19 @@
         <v>0</v>
       </c>
       <c r="Y139" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="Z139" s="0">
-        <v>1</v>
+        <v>0.29032868030827635</v>
       </c>
       <c r="AA139" s="0">
-        <v>0.58698687911609537</v>
+        <v>0.65496649284080222</v>
       </c>
       <c r="AB139" s="0">
-        <v>0</v>
+        <v>1.128474576789396e-36</v>
       </c>
       <c r="AC139" s="0">
-        <v>0.1939846999296384</v>
+        <v>0.19401606951941228</v>
       </c>
       <c r="AD139" s="0">
         <v>0</v>
@@ -13225,22 +14305,22 @@
         <v>0</v>
       </c>
       <c r="Y140" s="0">
-        <v>0.88448271694780367</v>
+        <v>5.6579097120225209e-21</v>
       </c>
       <c r="Z140" s="0">
-        <v>0.99999000000000016</v>
+        <v>0.28389580414473248</v>
       </c>
       <c r="AA140" s="0">
-        <v>0.9999900001200539</v>
+        <v>0.64619683959780339</v>
       </c>
       <c r="AB140" s="0">
-        <v>9.9999999999995925e-06</v>
+        <v>2.7336314686187581e-21</v>
       </c>
       <c r="AC140" s="0">
-        <v>0.99999000000066718</v>
+        <v>0.19233652971658541</v>
       </c>
       <c r="AD140" s="0">
-        <v>0.673121231394879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -13317,22 +14397,22 @@
         <v>0</v>
       </c>
       <c r="Y141" s="0">
-        <v>0.90815710653673076</v>
+        <v>4.7832275728179865e-32</v>
       </c>
       <c r="Z141" s="0">
-        <v>0.99999000000000005</v>
+        <v>0.27754880772937179</v>
       </c>
       <c r="AA141" s="0">
-        <v>0.99999000006184591</v>
+        <v>0.6367271461173003</v>
       </c>
       <c r="AB141" s="0">
-        <v>9.9999999999995925e-06</v>
+        <v>1.0350744976504603e-32</v>
       </c>
       <c r="AC141" s="0">
-        <v>0.99998999999923577</v>
+        <v>0.19067889110105621</v>
       </c>
       <c r="AD141" s="0">
-        <v>0.67448462532113618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -13409,22 +14489,22 @@
         <v>0</v>
       </c>
       <c r="Y142" s="0">
-        <v>0.92731941407732676</v>
+        <v>3.1446824873197835e-34</v>
       </c>
       <c r="Z142" s="0">
-        <v>0.99998999999999993</v>
+        <v>0.27133304791158153</v>
       </c>
       <c r="AA142" s="0">
-        <v>0.99999000000363814</v>
+        <v>0.62906219715680101</v>
       </c>
       <c r="AB142" s="0">
-        <v>9.9999999999995925e-06</v>
+        <v>0</v>
       </c>
       <c r="AC142" s="0">
-        <v>0.99999000000098515</v>
+        <v>0.18904744364421994</v>
       </c>
       <c r="AD142" s="0">
-        <v>0.67582200037139839</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="143">
@@ -13501,22 +14581,22 @@
         <v>0</v>
       </c>
       <c r="Y143" s="0">
-        <v>0</v>
+        <v>2.0478051986804906e-33</v>
       </c>
       <c r="Z143" s="0">
-        <v>1</v>
+        <v>0.26517716845685657</v>
       </c>
       <c r="AA143" s="0">
-        <v>0.59384127713246415</v>
+        <v>0.61943211403522547</v>
       </c>
       <c r="AB143" s="0">
-        <v>1.7022821140969674e-16</v>
+        <v>0</v>
       </c>
       <c r="AC143" s="0">
-        <v>0.18740284654591866</v>
+        <v>0.18743305438771424</v>
       </c>
       <c r="AD143" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
     </row>
     <row r="144">
@@ -13593,22 +14673,22 @@
         <v>0</v>
       </c>
       <c r="Y144" s="0">
-        <v>0.97108963402416137</v>
+        <v>0</v>
       </c>
       <c r="Z144" s="0">
-        <v>0.99999000000000027</v>
+        <v>0.25913964941541162</v>
       </c>
       <c r="AA144" s="0">
-        <v>0.99999000003092309</v>
+        <v>0.61155412508427121</v>
       </c>
       <c r="AB144" s="0">
-        <v>9.9999999999999991e-06</v>
+        <v>0</v>
       </c>
       <c r="AC144" s="0">
-        <v>0.99999000000121996</v>
+        <v>0.18583409326834674</v>
       </c>
       <c r="AD144" s="0">
-        <v>0.67846403838806335</v>
+        <v>3.8518598887744717e-34</v>
       </c>
     </row>
     <row r="145">
@@ -13688,19 +14768,19 @@
         <v>0</v>
       </c>
       <c r="Z145" s="0">
-        <v>1</v>
+        <v>0.25319344262675475</v>
       </c>
       <c r="AA145" s="0">
-        <v>0.59648187081287007</v>
+        <v>0.60286875606638002</v>
       </c>
       <c r="AB145" s="0">
-        <v>5.7940621575264445e-17</v>
+        <v>9.8703909649845837e-34</v>
       </c>
       <c r="AC145" s="0">
-        <v>0.18426250084562062</v>
+        <v>0.18426250084562076</v>
       </c>
       <c r="AD145" s="0">
-        <v>1.7259613294085086e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -13777,10 +14857,10 @@
         <v>0</v>
       </c>
       <c r="Y146" s="0">
-        <v>3.3400263356531994e-21</v>
+        <v>1.2325951644078309e-32</v>
       </c>
       <c r="Z146" s="0">
-        <v>0.98925705912776951</v>
+        <v>0.24731426478194243</v>
       </c>
       <c r="AA146" s="0">
         <v>0.59268202838480855</v>
@@ -13792,7 +14872,7 @@
         <v>0.18270776096643165</v>
       </c>
       <c r="AD146" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
     </row>
     <row r="147">
@@ -13869,16 +14949,16 @@
         <v>0</v>
       </c>
       <c r="Y147" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
       <c r="Z147" s="0">
-        <v>0.96631389716241289</v>
+        <v>0.24157847429060322</v>
       </c>
       <c r="AA147" s="0">
         <v>0.58528731965086322</v>
       </c>
       <c r="AB147" s="0">
-        <v>0</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="AC147" s="0">
         <v>0.18117340823999509</v>
@@ -13961,22 +15041,22 @@
         <v>0</v>
       </c>
       <c r="Y148" s="0">
-        <v>3.3400263356554116e-21</v>
+        <v>0</v>
       </c>
       <c r="Z148" s="0">
-        <v>0.94353217709116222</v>
+        <v>0.23588304427279061</v>
       </c>
       <c r="AA148" s="0">
         <v>0.57508188596466914</v>
       </c>
       <c r="AB148" s="0">
-        <v>1.602972967956823e-21</v>
+        <v>0</v>
       </c>
       <c r="AC148" s="0">
         <v>0.17965112171116537</v>
       </c>
       <c r="AD148" s="0">
-        <v>0</v>
+        <v>8.4703294725430034e-22</v>
       </c>
     </row>
     <row r="149">
@@ -14053,10 +15133,10 @@
         <v>0</v>
       </c>
       <c r="Y149" s="0">
-        <v>0</v>
+        <v>1.5032820541604848e-37</v>
       </c>
       <c r="Z149" s="0">
-        <v>0.92131810332280928</v>
+        <v>0.23032952583070232</v>
       </c>
       <c r="AA149" s="0">
         <v>0.56807962820140345</v>
@@ -14145,22 +15225,22 @@
         <v>0</v>
       </c>
       <c r="Y150" s="0">
-        <v>0</v>
+        <v>1.0829124157515241e-32</v>
       </c>
       <c r="Z150" s="0">
-        <v>0.89927065893225511</v>
+        <v>0.22481766473306378</v>
       </c>
       <c r="AA150" s="0">
         <v>0.55865250809804612</v>
       </c>
       <c r="AB150" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="AC150" s="0">
         <v>0.17663196837963605</v>
       </c>
       <c r="AD150" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="151">
@@ -14237,16 +15317,16 @@
         <v>0</v>
       </c>
       <c r="Y151" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>8.5463141282183591e-33</v>
       </c>
       <c r="Z151" s="0">
-        <v>0.87758304731072745</v>
+        <v>0.21939576182768189</v>
       </c>
       <c r="AA151" s="0">
         <v>0.54926734251766807</v>
       </c>
       <c r="AB151" s="0">
-        <v>6.7762635780344027e-21</v>
+        <v>1.5836259894277857e-34</v>
       </c>
       <c r="AC151" s="0">
         <v>0.17513646465287236</v>
@@ -14332,13 +15412,13 @@
         <v>0</v>
       </c>
       <c r="Z152" s="0">
-        <v>0.85635351681923444</v>
+        <v>0.21408837920480861</v>
       </c>
       <c r="AA152" s="0">
         <v>0.54207645860939502</v>
       </c>
       <c r="AB152" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="AC152" s="0">
         <v>0.17363473413379538</v>
@@ -14421,16 +15501,16 @@
         <v>0</v>
       </c>
       <c r="Y153" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
       <c r="Z153" s="0">
-        <v>0.83529889288193104</v>
+        <v>0.20882472322048276</v>
       </c>
       <c r="AA153" s="0">
         <v>0.53307941595915931</v>
       </c>
       <c r="AB153" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC153" s="0">
         <v>0.17212842588177588</v>
@@ -14513,10 +15593,10 @@
         <v>0</v>
       </c>
       <c r="Y154" s="0">
-        <v>0</v>
+        <v>1.6940658945086007e-21</v>
       </c>
       <c r="Z154" s="0">
-        <v>0.81457186414185867</v>
+        <v>0.20364296603546464</v>
       </c>
       <c r="AA154" s="0">
         <v>0.52428641497689599</v>
@@ -14528,7 +15608,7 @@
         <v>0.17061670799938081</v>
       </c>
       <c r="AD154" s="0">
-        <v>0</v>
+        <v>1.6940658945086007e-21</v>
       </c>
     </row>
     <row r="155">
@@ -14608,13 +15688,13 @@
         <v>0</v>
       </c>
       <c r="Z155" s="0">
-        <v>0.79411716236763974</v>
+        <v>0.19852929059190993</v>
       </c>
       <c r="AA155" s="0">
         <v>0.51565793995744413</v>
       </c>
       <c r="AB155" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC155" s="0">
         <v>0.16908342662849224</v>
@@ -14697,10 +15777,10 @@
         <v>0</v>
       </c>
       <c r="Y156" s="0">
-        <v>1.6459604411467385e-21</v>
+        <v>3.8560389639558455e-21</v>
       </c>
       <c r="Z156" s="0">
-        <v>0.77398681344593234</v>
+        <v>0.19349670336148311</v>
       </c>
       <c r="AA156" s="0">
         <v>0.50743943143703596</v>
@@ -14789,22 +15869,22 @@
         <v>0</v>
       </c>
       <c r="Y157" s="0">
-        <v>6.0486237315911626e-34</v>
+        <v>0</v>
       </c>
       <c r="Z157" s="0">
-        <v>0.75400988636771837</v>
+        <v>0.18850247159192959</v>
       </c>
       <c r="AA157" s="0">
         <v>0.49765143673920714</v>
       </c>
       <c r="AB157" s="0">
-        <v>0</v>
+        <v>1.7885381646631269e-33</v>
       </c>
       <c r="AC157" s="0">
-        <v>0.16596346399648618</v>
+        <v>0.1659634639964862</v>
       </c>
       <c r="AD157" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="158">
@@ -14881,22 +15961,22 @@
         <v>0</v>
       </c>
       <c r="Y158" s="0">
-        <v>2.0553283625257533e-33</v>
+        <v>0</v>
       </c>
       <c r="Z158" s="0">
-        <v>0.73447348956392522</v>
+        <v>0.18361837239098133</v>
       </c>
       <c r="AA158" s="0">
         <v>0.49013961079247625</v>
       </c>
       <c r="AB158" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="AC158" s="0">
         <v>0.1643598786436738</v>
       </c>
       <c r="AD158" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>3.76158192263132e-37</v>
       </c>
     </row>
     <row r="159">
@@ -14973,10 +16053,10 @@
         <v>0</v>
       </c>
       <c r="Y159" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>2.1839078707475662e-37</v>
       </c>
       <c r="Z159" s="0">
-        <v>0.71515218054561347</v>
+        <v>0.17878804513640337</v>
       </c>
       <c r="AA159" s="0">
         <v>0.48178305253503578</v>
@@ -15065,10 +16145,10 @@
         <v>0</v>
       </c>
       <c r="Y160" s="0">
-        <v>1.6047472719233606e-32</v>
+        <v>1.5407439555097887e-32</v>
       </c>
       <c r="Z160" s="0">
-        <v>0.69603649598852513</v>
+        <v>0.17400912399713128</v>
       </c>
       <c r="AA160" s="0">
         <v>0.47234985538149582</v>
@@ -15157,22 +16237,22 @@
         <v>0</v>
       </c>
       <c r="Y161" s="0">
-        <v>5.9342716411431705e-33</v>
+        <v>0</v>
       </c>
       <c r="Z161" s="0">
-        <v>0.67723023544147076</v>
+        <v>0.16930755886036769</v>
       </c>
       <c r="AA161" s="0">
         <v>0.46339034449563565</v>
       </c>
       <c r="AB161" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC161" s="0">
         <v>0.15937855281593383</v>
       </c>
       <c r="AD161" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
     </row>
     <row r="162">
@@ -15249,22 +16329,22 @@
         <v>0</v>
       </c>
       <c r="Y162" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="Z162" s="0">
-        <v>0.65876842780139577</v>
+        <v>0.16469210695034892</v>
       </c>
       <c r="AA162" s="0">
-        <v>0.45528934555069722</v>
+        <v>0.45528934555069717</v>
       </c>
       <c r="AB162" s="0">
-        <v>0</v>
+        <v>5.64237288394698e-37</v>
       </c>
       <c r="AC162" s="0">
         <v>0.15764064415062812</v>
       </c>
       <c r="AD162" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
     </row>
     <row r="163">
@@ -15341,16 +16421,16 @@
         <v>0</v>
       </c>
       <c r="Y163" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="Z163" s="0">
-        <v>0.64049134986240697</v>
+        <v>0.16012283746560174</v>
       </c>
       <c r="AA163" s="0">
         <v>0.44592379761814738</v>
       </c>
       <c r="AB163" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC163" s="0">
         <v>0.15586551358348555</v>
@@ -15433,10 +16513,10 @@
         <v>0</v>
       </c>
       <c r="Y164" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="Z164" s="0">
-        <v>0.62260038935786122</v>
+        <v>0.1556500973394653</v>
       </c>
       <c r="AA164" s="0">
         <v>0.43773744763568256</v>
@@ -15448,7 +16528,7 @@
         <v>0.1540414895167837</v>
       </c>
       <c r="AD164" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
     </row>
     <row r="165">
@@ -15525,13 +16605,13 @@
         <v>0</v>
       </c>
       <c r="Y165" s="0">
-        <v>5.0340922301639405e-21</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="Z165" s="0">
-        <v>0.60487956452096969</v>
+        <v>0.15121989113024242</v>
       </c>
       <c r="AA165" s="0">
-        <v>0.42843739735501513</v>
+        <v>0.42843739735501518</v>
       </c>
       <c r="AB165" s="0">
         <v>0</v>
@@ -15617,22 +16697,22 @@
         <v>0</v>
       </c>
       <c r="Y166" s="0">
-        <v>0</v>
+        <v>3.009265538105056e-36</v>
       </c>
       <c r="Z166" s="0">
-        <v>0.58744534897844813</v>
+        <v>0.14686133724461203</v>
       </c>
       <c r="AA166" s="0">
         <v>0.41928043843730567</v>
       </c>
       <c r="AB166" s="0">
-        <v>0</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="AC166" s="0">
         <v>0.15022718210664465</v>
       </c>
       <c r="AD166" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>7.5231638452626401e-37</v>
       </c>
     </row>
     <row r="167">
@@ -15709,13 +16789,13 @@
         <v>0</v>
       </c>
       <c r="Y167" s="0">
-        <v>0</v>
+        <v>3.248502148384408e-33</v>
       </c>
       <c r="Z167" s="0">
-        <v>0.5702800248984754</v>
+        <v>0.14257000622461885</v>
       </c>
       <c r="AA167" s="0">
-        <v>0.40993073893159787</v>
+        <v>0.40993073893159793</v>
       </c>
       <c r="AB167" s="0">
         <v>0</v>
@@ -15724,7 +16804,7 @@
         <v>0.14823117876416905</v>
       </c>
       <c r="AD167" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
     </row>
     <row r="168">
@@ -15801,22 +16881,22 @@
         <v>0</v>
       </c>
       <c r="Y168" s="0">
-        <v>7.9941139019760813e-33</v>
+        <v>0</v>
       </c>
       <c r="Z168" s="0">
-        <v>0.55337827065665246</v>
+        <v>0.13834456766416312</v>
       </c>
       <c r="AA168" s="0">
         <v>0.40051948926907177</v>
       </c>
       <c r="AB168" s="0">
-        <v>2.0240320009294607e-32</v>
+        <v>0</v>
       </c>
       <c r="AC168" s="0">
         <v>0.14616514200313988</v>
       </c>
       <c r="AD168" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -15893,10 +16973,10 @@
         <v>0</v>
       </c>
       <c r="Y169" s="0">
-        <v>5.64237288394698e-37</v>
+        <v>0</v>
       </c>
       <c r="Z169" s="0">
-        <v>0.5368881935904295</v>
+        <v>0.13422204839760737</v>
       </c>
       <c r="AA169" s="0">
         <v>0.39243696638362552</v>
@@ -15985,22 +17065,22 @@
         <v>0</v>
       </c>
       <c r="Y170" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="Z170" s="0">
-        <v>0.5205740238766231</v>
+        <v>0.13014350596915578</v>
       </c>
       <c r="AA170" s="0">
         <v>0.3832831728349016</v>
       </c>
       <c r="AB170" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="AC170" s="0">
         <v>0.14180633113383403</v>
       </c>
       <c r="AD170" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="171">
@@ -16077,19 +17157,19 @@
         <v>0</v>
       </c>
       <c r="Y171" s="0">
-        <v>5.0340922301661523e-21</v>
+        <v>2.063227684563279e-33</v>
       </c>
       <c r="Z171" s="0">
-        <v>0.50447562845173444</v>
+        <v>0.12611890711293361</v>
       </c>
       <c r="AA171" s="0">
         <v>0.37347087298984682</v>
       </c>
       <c r="AB171" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC171" s="0">
-        <v>0.13950871904509785</v>
+        <v>0.13950871904509782</v>
       </c>
       <c r="AD171" s="0">
         <v>0</v>
@@ -16172,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="Z172" s="0">
-        <v>0.48876148546422843</v>
+        <v>0.12219037136605711</v>
       </c>
       <c r="AA172" s="0">
         <v>0.3643095707995922</v>
@@ -16184,7 +17264,7 @@
         <v>0.1371354856233824</v>
       </c>
       <c r="AD172" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
     </row>
     <row r="173">
@@ -16261,22 +17341,22 @@
         <v>0</v>
       </c>
       <c r="Y173" s="0">
-        <v>5.8620492682286491e-33</v>
+        <v>0</v>
       </c>
       <c r="Z173" s="0">
-        <v>0.47345376048787352</v>
+        <v>0.11836344012196838</v>
       </c>
       <c r="AA173" s="0">
         <v>0.35597254804385953</v>
       </c>
       <c r="AB173" s="0">
-        <v>2.1281902043671219e-32</v>
+        <v>0</v>
       </c>
       <c r="AC173" s="0">
         <v>0.13468123645762944</v>
       </c>
       <c r="AD173" s="0">
-        <v>2.2990788711122628e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -16353,22 +17433,22 @@
         <v>0</v>
       </c>
       <c r="Y174" s="0">
-        <v>1.3569530627700224e-32</v>
+        <v>6.8235096076532145e-34</v>
       </c>
       <c r="Z174" s="0">
-        <v>0.45835645550276527</v>
+        <v>0.11458911387569132</v>
       </c>
       <c r="AA174" s="0">
         <v>0.34664609992806006</v>
       </c>
       <c r="AB174" s="0">
-        <v>4.0282404651266543e-32</v>
+        <v>0</v>
       </c>
       <c r="AC174" s="0">
         <v>0.13214637458623466</v>
       </c>
       <c r="AD174" s="0">
-        <v>0</v>
+        <v>1.9259299443872359e-34</v>
       </c>
     </row>
     <row r="175">
@@ -16445,16 +17525,16 @@
         <v>0</v>
       </c>
       <c r="Y175" s="0">
-        <v>8.9435371792482265e-33</v>
+        <v>4.9652881378733424e-35</v>
       </c>
       <c r="Z175" s="0">
-        <v>0.44354622235145563</v>
+        <v>0.11088655558786391</v>
       </c>
       <c r="AA175" s="0">
         <v>0.3369325350644618</v>
       </c>
       <c r="AB175" s="0">
-        <v>2.6192647243666408e-32</v>
+        <v>0</v>
       </c>
       <c r="AC175" s="0">
         <v>0.12953074323934971</v>
@@ -16540,13 +17620,13 @@
         <v>0</v>
       </c>
       <c r="Z176" s="0">
-        <v>0.42915155661358179</v>
+        <v>0.10728788915339543</v>
       </c>
       <c r="AA176" s="0">
         <v>0.32788746063217961</v>
       </c>
       <c r="AB176" s="0">
-        <v>0</v>
+        <v>5.64237288394698e-37</v>
       </c>
       <c r="AC176" s="0">
         <v>0.12683411674685069</v>
@@ -16629,22 +17709,22 @@
         <v>0</v>
       </c>
       <c r="Y177" s="0">
-        <v>5.0645939006308093e-33</v>
+        <v>1.7852467804808245e-33</v>
       </c>
       <c r="Z177" s="0">
-        <v>0.41510464064458369</v>
+        <v>0.10377616016114592</v>
       </c>
       <c r="AA177" s="0">
         <v>0.31876687207155696</v>
       </c>
       <c r="AB177" s="0">
-        <v>1.3866695599588098e-32</v>
+        <v>0</v>
       </c>
       <c r="AC177" s="0">
         <v>0.1240620251187018</v>
       </c>
       <c r="AD177" s="0">
-        <v>7.8240903990731457e-34</v>
+        <v>1.9259299443872359e-34</v>
       </c>
     </row>
     <row r="178">
@@ -16721,16 +17801,16 @@
         <v>0</v>
       </c>
       <c r="Y178" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="Z178" s="0">
-        <v>0.40148669928854275</v>
+        <v>0.10037167482213569</v>
       </c>
       <c r="AA178" s="0">
         <v>0.31020963641860683</v>
       </c>
       <c r="AB178" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC178" s="0">
         <v>0.12121436978241265</v>
@@ -16813,13 +17893,13 @@
         <v>0</v>
       </c>
       <c r="Y179" s="0">
-        <v>1.6459604411489513e-21</v>
+        <v>0</v>
       </c>
       <c r="Z179" s="0">
-        <v>0.38822678992020737</v>
+        <v>0.097056697480051843</v>
       </c>
       <c r="AA179" s="0">
-        <v>0.30143971212555831</v>
+        <v>0.30143971212555837</v>
       </c>
       <c r="AB179" s="0">
         <v>0</v>
@@ -16905,22 +17985,22 @@
         <v>0</v>
       </c>
       <c r="Y180" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="Z180" s="0">
-        <v>0.37537212021029981</v>
+        <v>0.093843030052574952</v>
       </c>
       <c r="AA180" s="0">
         <v>0.29305949547536547</v>
       </c>
       <c r="AB180" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC180" s="0">
         <v>0.11531412744252233</v>
       </c>
       <c r="AD180" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="181">
@@ -16997,16 +18077,16 @@
         <v>0</v>
       </c>
       <c r="Y181" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="Z181" s="0">
-        <v>0.3629320359122557</v>
+        <v>0.090733008978063925</v>
       </c>
       <c r="AA181" s="0">
-        <v>0.28485937259809774</v>
+        <v>0.28485937259809779</v>
       </c>
       <c r="AB181" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="AC181" s="0">
         <v>0.11226687195390109</v>
@@ -17089,10 +18169,10 @@
         <v>0</v>
       </c>
       <c r="Y182" s="0">
-        <v>3.1253103404182322e-33</v>
+        <v>0</v>
       </c>
       <c r="Z182" s="0">
-        <v>0.35090658186434115</v>
+        <v>0.087726645466085287</v>
       </c>
       <c r="AA182" s="0">
         <v>0.27681939177851383</v>
@@ -17181,22 +18261,22 @@
         <v>0</v>
       </c>
       <c r="Y183" s="0">
-        <v>2.4651903288156619e-32</v>
+        <v>3.8560389639566761e-21</v>
       </c>
       <c r="Z183" s="0">
-        <v>0.3392543477091074</v>
+        <v>0.084813586927276821</v>
       </c>
       <c r="AA183" s="0">
         <v>0.26869678270948588</v>
       </c>
       <c r="AB183" s="0">
-        <v>2.4651903288156619e-32</v>
+        <v>0</v>
       </c>
       <c r="AC183" s="0">
-        <v>0.10601038755973846</v>
+        <v>0.10601038755973848</v>
       </c>
       <c r="AD183" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -17273,19 +18353,19 @@
         <v>0</v>
       </c>
       <c r="Y184" s="0">
-        <v>0</v>
+        <v>3.8560389639524119e-21</v>
       </c>
       <c r="Z184" s="0">
-        <v>0.32802989237866303</v>
+        <v>0.082007473094665745</v>
       </c>
       <c r="AA184" s="0">
         <v>0.2608224409921226</v>
       </c>
       <c r="AB184" s="0">
-        <v>0</v>
+        <v>1.6940658945086007e-21</v>
       </c>
       <c r="AC184" s="0">
-        <v>0.10281188971565097</v>
+        <v>0.10281188971565099</v>
       </c>
       <c r="AD184" s="0">
         <v>0</v>
@@ -17365,10 +18445,10 @@
         <v>0</v>
       </c>
       <c r="Y185" s="0">
-        <v>8.0535468963536562e-34</v>
+        <v>1.1931737858586547e-33</v>
       </c>
       <c r="Z185" s="0">
-        <v>0.31732462260444827</v>
+        <v>0.079331155651112067</v>
       </c>
       <c r="AA185" s="0">
         <v>0.2540330528783053</v>
@@ -17457,16 +18537,16 @@
         <v>0</v>
       </c>
       <c r="Y186" s="0">
-        <v>1.2206333338938633e-33</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="Z186" s="0">
-        <v>0.30697960902506971</v>
+        <v>0.076744902256267428</v>
       </c>
       <c r="AA186" s="0">
         <v>0.24686814775809496</v>
       </c>
       <c r="AB186" s="0">
-        <v>3.8386943520452621e-34</v>
+        <v>0</v>
       </c>
       <c r="AC186" s="0">
         <v>0.096306708719617926</v>
@@ -17549,10 +18629,10 @@
         <v>0</v>
       </c>
       <c r="Y187" s="0">
-        <v>0</v>
+        <v>7.2222372914521344e-34</v>
       </c>
       <c r="Z187" s="0">
-        <v>0.29703060509526746</v>
+        <v>0.074257651273816866</v>
       </c>
       <c r="AA187" s="0">
         <v>0.23979182616732272</v>
@@ -17564,7 +18644,7 @@
         <v>0.093021495668681245</v>
       </c>
       <c r="AD187" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
     </row>
     <row r="188">
@@ -17641,13 +18721,13 @@
         <v>0</v>
       </c>
       <c r="Y188" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z188" s="0">
-        <v>0.28756327490818362</v>
+        <v>0.071890818727045891</v>
       </c>
       <c r="AA188" s="0">
-        <v>0.23334418318132147</v>
+        <v>0.23334418318132144</v>
       </c>
       <c r="AB188" s="0">
         <v>0</v>
@@ -17656,7 +18736,7 @@
         <v>0.089730733388483225</v>
       </c>
       <c r="AD188" s="0">
-        <v>0</v>
+        <v>1.9259299443872359e-34</v>
       </c>
     </row>
     <row r="189">
@@ -17733,16 +18813,16 @@
         <v>0</v>
       </c>
       <c r="Y189" s="0">
-        <v>0</v>
+        <v>1.233798870623073e-33</v>
       </c>
       <c r="Z189" s="0">
-        <v>0.27848868338524163</v>
+        <v>0.069622170846310408</v>
       </c>
       <c r="AA189" s="0">
         <v>0.22703882525728483</v>
       </c>
       <c r="AB189" s="0">
-        <v>1.3453673904483179e-32</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC189" s="0">
         <v>0.086434355647692557</v>
@@ -17828,7 +18908,7 @@
         <v>0</v>
       </c>
       <c r="Z190" s="0">
-        <v>0.26988637639520996</v>
+        <v>0.06747159409880249</v>
       </c>
       <c r="AA190" s="0">
         <v>0.22136550094930335</v>
@@ -17917,10 +18997,10 @@
         <v>0</v>
       </c>
       <c r="Y191" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z191" s="0">
-        <v>0.26156347269949826</v>
+        <v>0.065390868174874564</v>
       </c>
       <c r="AA191" s="0">
         <v>0.21498781260294086</v>
@@ -18009,22 +19089,22 @@
         <v>0</v>
       </c>
       <c r="Y192" s="0">
-        <v>0</v>
+        <v>8.4740917553038378e-33</v>
       </c>
       <c r="Z192" s="0">
-        <v>0.25377104942061046</v>
+        <v>0.063442762355152615</v>
       </c>
       <c r="AA192" s="0">
         <v>0.20985086574995945</v>
       </c>
       <c r="AB192" s="0">
-        <v>1.6029729679566453e-21</v>
+        <v>0</v>
       </c>
       <c r="AC192" s="0">
-        <v>0.076656946359565908</v>
+        <v>0.076656946359565895</v>
       </c>
       <c r="AD192" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="193">
@@ -18101,16 +19181,16 @@
         <v>0</v>
       </c>
       <c r="Y193" s="0">
-        <v>3.4523798885910255e-33</v>
+        <v>0</v>
       </c>
       <c r="Z193" s="0">
-        <v>0.2463307910974108</v>
+        <v>0.061582697774352699</v>
       </c>
       <c r="AA193" s="0">
         <v>0.2047150764088895</v>
       </c>
       <c r="AB193" s="0">
-        <v>6.5222068956504458e-33</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC193" s="0">
         <v>0.073461972652028487</v>
@@ -18193,16 +19273,16 @@
         <v>0</v>
       </c>
       <c r="Y194" s="0">
-        <v>2.4202778382151179e-33</v>
+        <v>1.681539966873879e-32</v>
       </c>
       <c r="Z194" s="0">
-        <v>0.23933953453812287</v>
+        <v>0.059834883634530718</v>
       </c>
       <c r="AA194" s="0">
         <v>0.20027274810071499</v>
       </c>
       <c r="AB194" s="0">
-        <v>0</v>
+        <v>1.6022458199448108e-33</v>
       </c>
       <c r="AC194" s="0">
         <v>0.070320803826324968</v>
@@ -18288,19 +19368,19 @@
         <v>6.1629758220391547e-33</v>
       </c>
       <c r="Z195" s="0">
-        <v>0.23264964580772277</v>
+        <v>0.058162411451930691</v>
       </c>
       <c r="AA195" s="0">
         <v>0.1955880145854062</v>
       </c>
       <c r="AB195" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="AC195" s="0">
         <v>0.067233005789738523</v>
       </c>
       <c r="AD195" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -18380,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="Z196" s="0">
-        <v>0.22635288503514664</v>
+        <v>0.05658822125878666</v>
       </c>
       <c r="AA196" s="0">
         <v>0.19143576691501149</v>
@@ -18472,13 +19552,13 @@
         <v>0</v>
       </c>
       <c r="Z197" s="0">
-        <v>0.2204109648011178</v>
+        <v>0.055102741200279449</v>
       </c>
       <c r="AA197" s="0">
         <v>0.18759231297348497</v>
       </c>
       <c r="AB197" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC197" s="0">
         <v>0.061256277610408111</v>
@@ -18561,10 +19641,10 @@
         <v>0</v>
       </c>
       <c r="Y198" s="0">
-        <v>0</v>
+        <v>3.8560389639533975e-21</v>
       </c>
       <c r="Z198" s="0">
-        <v>0.21479698575464881</v>
+        <v>0.053699246438662203</v>
       </c>
       <c r="AA198" s="0">
         <v>0.1838988505424165</v>
@@ -18573,10 +19653,10 @@
         <v>0</v>
       </c>
       <c r="AC198" s="0">
-        <v>0.058383307337800762</v>
+        <v>0.058383307337800755</v>
       </c>
       <c r="AD198" s="0">
-        <v>1.1555579666323415e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -18653,10 +19733,10 @@
         <v>0</v>
       </c>
       <c r="Y199" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z199" s="0">
-        <v>0.20944106569876622</v>
+        <v>0.052360266424691555</v>
       </c>
       <c r="AA199" s="0">
         <v>0.17987058048126181</v>
@@ -18745,10 +19825,10 @@
         <v>0</v>
       </c>
       <c r="Y200" s="0">
-        <v>2.3923661027935195e-34</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="Z200" s="0">
-        <v>0.20444319193612995</v>
+        <v>0.051110797984032487</v>
       </c>
       <c r="AA200" s="0">
         <v>0.17657890121097305</v>
@@ -18840,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="Z201" s="0">
-        <v>0.19976102789332414</v>
+        <v>0.049940256973331036</v>
       </c>
       <c r="AA201" s="0">
         <v>0.17377206317029628</v>
@@ -18929,10 +20009,10 @@
         <v>0</v>
       </c>
       <c r="Y202" s="0">
-        <v>0</v>
+        <v>1.0785207688568521e-32</v>
       </c>
       <c r="Z202" s="0">
-        <v>0.19534062893215232</v>
+        <v>0.048835157233038079</v>
       </c>
       <c r="AA202" s="0">
         <v>0.17093953706307441</v>
@@ -19021,16 +20101,16 @@
         <v>0</v>
       </c>
       <c r="Y203" s="0">
-        <v>6.0990289293544223e-33</v>
+        <v>7.7037197775489434e-33</v>
       </c>
       <c r="Z203" s="0">
-        <v>0.1911476514222761</v>
+        <v>0.047786912855569026</v>
       </c>
       <c r="AA203" s="0">
         <v>0.16800926306085245</v>
       </c>
       <c r="AB203" s="0">
-        <v>-5.0943103978195967e-33</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC203" s="0">
         <v>0.04530103052362363</v>
@@ -19113,16 +20193,16 @@
         <v>0</v>
       </c>
       <c r="Y204" s="0">
-        <v>2.4465328824794105e-33</v>
+        <v>0</v>
       </c>
       <c r="Z204" s="0">
-        <v>0.18719806837433522</v>
+        <v>0.046799517093583806</v>
       </c>
       <c r="AA204" s="0">
         <v>0.16555368114202376</v>
       </c>
       <c r="AB204" s="0">
-        <v>5.3926038442842604e-33</v>
+        <v>0</v>
       </c>
       <c r="AC204" s="0">
         <v>0.042943625639915689</v>
@@ -19205,10 +20285,10 @@
         <v>0</v>
       </c>
       <c r="Y205" s="0">
-        <v>3.5703054818655174e-33</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z205" s="0">
-        <v>0.18348286829385624</v>
+        <v>0.04587071707346406</v>
       </c>
       <c r="AA205" s="0">
         <v>0.16327895850028573</v>
@@ -19220,7 +20300,7 @@
         <v>0.040677543426182933</v>
       </c>
       <c r="AD205" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="206">
@@ -19300,10 +20380,10 @@
         <v>0</v>
       </c>
       <c r="Z206" s="0">
-        <v>0.1799679624298097</v>
+        <v>0.044991990607452438</v>
       </c>
       <c r="AA206" s="0">
-        <v>0.16103743125165204</v>
+        <v>0.16103743125165207</v>
       </c>
       <c r="AB206" s="0">
         <v>0</v>
@@ -19312,7 +20392,7 @@
         <v>0.038497107217862835</v>
       </c>
       <c r="AD206" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -19389,16 +20469,16 @@
         <v>0</v>
       </c>
       <c r="Y207" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="Z207" s="0">
-        <v>0.17663174159111714</v>
+        <v>0.044157935397779284</v>
       </c>
       <c r="AA207" s="0">
         <v>0.15907162912667624</v>
       </c>
       <c r="AB207" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC207" s="0">
         <v>0.036392120043918556</v>
@@ -19481,22 +20561,22 @@
         <v>0</v>
       </c>
       <c r="Y208" s="0">
-        <v>2.4202778382151179e-33</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="Z208" s="0">
-        <v>0.17346347456837993</v>
+        <v>0.043365868642094983</v>
       </c>
       <c r="AA208" s="0">
         <v>0.15712350303568415</v>
       </c>
       <c r="AB208" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC208" s="0">
         <v>0.034367368490104959</v>
       </c>
       <c r="AD208" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
     </row>
     <row r="209">
@@ -19576,13 +20656,13 @@
         <v>0</v>
       </c>
       <c r="Z209" s="0">
-        <v>0.17045586126772147</v>
+        <v>0.042613965316930368</v>
       </c>
       <c r="AA209" s="0">
         <v>0.15527508210523192</v>
       </c>
       <c r="AB209" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC209" s="0">
         <v>0.032417538685257478</v>
@@ -19668,13 +20748,13 @@
         <v>0</v>
       </c>
       <c r="Z210" s="0">
-        <v>0.16759836156574279</v>
+        <v>0.041899590391435697</v>
       </c>
       <c r="AA210" s="0">
         <v>0.1536841058484851</v>
       </c>
       <c r="AB210" s="0">
-        <v>6.2818418107943044e-35</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC210" s="0">
         <v>0.030543297492497262</v>
@@ -19760,19 +20840,19 @@
         <v>0</v>
       </c>
       <c r="Z211" s="0">
-        <v>0.16485936648452468</v>
+        <v>0.041214841621131169</v>
       </c>
       <c r="AA211" s="0">
         <v>0.15228430305873941</v>
       </c>
       <c r="AB211" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC211" s="0">
         <v>0.028733689234215279</v>
       </c>
       <c r="AD211" s="0">
-        <v>0</v>
+        <v>9.6296497219361793e-35</v>
       </c>
     </row>
     <row r="212">
@@ -19849,22 +20929,22 @@
         <v>0</v>
       </c>
       <c r="Y212" s="0">
-        <v>0</v>
+        <v>9.2083525466014714e-34</v>
       </c>
       <c r="Z212" s="0">
-        <v>0.16226006347834621</v>
+        <v>0.040565015869586551</v>
       </c>
       <c r="AA212" s="0">
         <v>0.15108788173845392</v>
       </c>
       <c r="AB212" s="0">
-        <v>0</v>
+        <v>1.4256395486772703e-34</v>
       </c>
       <c r="AC212" s="0">
         <v>0.026999632267828127</v>
       </c>
       <c r="AD212" s="0">
-        <v>0</v>
+        <v>1.9259299443872359e-34</v>
       </c>
     </row>
     <row r="213">
@@ -19941,22 +21021,22 @@
         <v>0</v>
       </c>
       <c r="Y213" s="0">
-        <v>1.4677692662107411e-33</v>
+        <v>0</v>
       </c>
       <c r="Z213" s="0">
-        <v>0.15977169899918683</v>
+        <v>0.039942924749796709</v>
       </c>
       <c r="AA213" s="0">
         <v>0.14982646605987957</v>
       </c>
       <c r="AB213" s="0">
-        <v>5.6912734489411872e-33</v>
+        <v>0</v>
       </c>
       <c r="AC213" s="0">
         <v>0.025329244286902496</v>
       </c>
       <c r="AD213" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
     </row>
     <row r="214">
@@ -20036,13 +21116,13 @@
         <v>0</v>
       </c>
       <c r="Z214" s="0">
-        <v>0.15738311308980044</v>
+        <v>0.039345778272450109</v>
       </c>
       <c r="AA214" s="0">
         <v>0.14881735309838376</v>
       </c>
       <c r="AB214" s="0">
-        <v>0</v>
+        <v>9.1255977443035824e-34</v>
       </c>
       <c r="AC214" s="0">
         <v>0.023724035358454614</v>
@@ -20125,10 +21205,10 @@
         <v>0</v>
       </c>
       <c r="Y215" s="0">
-        <v>5.0340922301671687e-21</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="Z215" s="0">
-        <v>0.15510921673614841</v>
+        <v>0.038777304184037117</v>
       </c>
       <c r="AA215" s="0">
         <v>0.14773195628602981</v>
@@ -20217,22 +21297,22 @@
         <v>0</v>
       </c>
       <c r="Y216" s="0">
-        <v>0</v>
+        <v>6.9333477997940491e-33</v>
       </c>
       <c r="Z216" s="0">
-        <v>0.15290690439921439</v>
+        <v>0.038226726099803598</v>
       </c>
       <c r="AA216" s="0">
         <v>0.14678106721320325</v>
       </c>
       <c r="AB216" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC216" s="0">
         <v>0.020700141313969512</v>
       </c>
       <c r="AD216" s="0">
-        <v>0</v>
+        <v>-7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="217">
@@ -20309,22 +21389,22 @@
         <v>0</v>
       </c>
       <c r="Y217" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>5.082197683525802e-21</v>
       </c>
       <c r="Z217" s="0">
-        <v>0.15082771412555127</v>
+        <v>0.037706928531387816</v>
       </c>
       <c r="AA217" s="0">
         <v>0.14589314681476112</v>
       </c>
       <c r="AB217" s="0">
-        <v>1.0164395367051604e-20</v>
+        <v>0</v>
       </c>
       <c r="AC217" s="0">
         <v>0.019281951445597894</v>
       </c>
       <c r="AD217" s="0">
-        <v>0</v>
+        <v>8.4703294725430034e-22</v>
       </c>
     </row>
     <row r="218">
@@ -20404,13 +21484,13 @@
         <v>0</v>
       </c>
       <c r="Z218" s="0">
-        <v>0.14882555211485221</v>
+        <v>0.037206388028713046</v>
       </c>
       <c r="AA218" s="0">
         <v>0.1452568820093243</v>
       </c>
       <c r="AB218" s="0">
-        <v>3.2970388624652337e-21</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC218" s="0">
         <v>0.017923956614937155</v>
@@ -20493,16 +21573,16 @@
         <v>0</v>
       </c>
       <c r="Y219" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="Z219" s="0">
-        <v>0.1469173930307994</v>
+        <v>0.03672934825769985</v>
       </c>
       <c r="AA219" s="0">
         <v>0.14458347705526842</v>
       </c>
       <c r="AB219" s="0">
-        <v>2.4638361593235146e-35</v>
+        <v>9.4039548065783001e-37</v>
       </c>
       <c r="AC219" s="0">
         <v>0.016613040371020744</v>
@@ -20585,19 +21665,19 @@
         <v>0</v>
       </c>
       <c r="Y220" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>3.9638438175149426e-21</v>
       </c>
       <c r="Z220" s="0">
-        <v>0.14504641759632014</v>
+        <v>0.036261604399080043</v>
       </c>
       <c r="AA220" s="0">
         <v>0.14405245474582273</v>
       </c>
       <c r="AB220" s="0">
-        <v>0</v>
+        <v>4.4276973631322112e-21</v>
       </c>
       <c r="AC220" s="0">
-        <v>0.015351301896307637</v>
+        <v>0.015351301896307639</v>
       </c>
       <c r="AD220" s="0">
         <v>0</v>
@@ -20677,16 +21757,16 @@
         <v>0</v>
       </c>
       <c r="Y221" s="0">
-        <v>5.082197683525802e-21</v>
+        <v>9.0460415010407409e-21</v>
       </c>
       <c r="Z221" s="0">
-        <v>0.14323803888119727</v>
+        <v>0.035809509720299317</v>
       </c>
       <c r="AA221" s="0">
         <v>0.1435995261163488</v>
       </c>
       <c r="AB221" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>6.1217632576407969e-21</v>
       </c>
       <c r="AC221" s="0">
         <v>0.014143714688665826</v>
@@ -20769,16 +21849,16 @@
         <v>0</v>
       </c>
       <c r="Y222" s="0">
-        <v>0</v>
+        <v>1.1623288140930779e-33</v>
       </c>
       <c r="Z222" s="0">
-        <v>0.14147746019128504</v>
+        <v>0.035369365047821261</v>
       </c>
       <c r="AA222" s="0">
         <v>0.14322264506433352</v>
       </c>
       <c r="AB222" s="0">
-        <v>0</v>
+        <v>5.2097909628443782e-34</v>
       </c>
       <c r="AC222" s="0">
         <v>0.012979214608686101</v>
@@ -20861,19 +21941,19 @@
         <v>0</v>
       </c>
       <c r="Y223" s="0">
-        <v>3.3400263356588445e-21</v>
+        <v>5.6579097120235899e-21</v>
       </c>
       <c r="Z223" s="0">
-        <v>0.13980436133625748</v>
+        <v>0.034951090334064364</v>
       </c>
       <c r="AA223" s="0">
         <v>0.14285503898451005</v>
       </c>
       <c r="AB223" s="0">
-        <v>0</v>
+        <v>4.4276973631324324e-21</v>
       </c>
       <c r="AC223" s="0">
-        <v>0.011856639866387308</v>
+        <v>0.011856639866387306</v>
       </c>
       <c r="AD223" s="0">
         <v>0</v>
@@ -20953,22 +22033,22 @@
         <v>0</v>
       </c>
       <c r="Y224" s="0">
-        <v>0</v>
+        <v>1.1608241813240254e-33</v>
       </c>
       <c r="Z224" s="0">
-        <v>0.13815366517880409</v>
+        <v>0.034538416294701023</v>
       </c>
       <c r="AA224" s="0">
         <v>0.1426142856805801</v>
       </c>
       <c r="AB224" s="0">
-        <v>0</v>
+        <v>1.2789378536946488e-34</v>
       </c>
       <c r="AC224" s="0">
         <v>0.01077815195293472</v>
       </c>
       <c r="AD224" s="0">
-        <v>0</v>
+        <v>1.9259299443872359e-34</v>
       </c>
     </row>
     <row r="225">
@@ -21045,22 +22125,22 @@
         <v>0</v>
       </c>
       <c r="Y225" s="0">
-        <v>3.5610896061550707e-33</v>
+        <v>0</v>
       </c>
       <c r="Z225" s="0">
-        <v>0.13661573041885722</v>
+        <v>0.034153932604714304</v>
       </c>
       <c r="AA225" s="0">
         <v>0.14232914743067954</v>
       </c>
       <c r="AB225" s="0">
-        <v>1.1823780457407028e-32</v>
+        <v>0</v>
       </c>
       <c r="AC225" s="0">
         <v>0.0097408525927546452</v>
       </c>
       <c r="AD225" s="0">
-        <v>0</v>
+        <v>4.8148248609680896e-34</v>
       </c>
     </row>
     <row r="226">
@@ -21137,10 +22217,10 @@
         <v>0</v>
       </c>
       <c r="Y226" s="0">
-        <v>6.7281581246768978e-21</v>
+        <v>0</v>
       </c>
       <c r="Z226" s="0">
-        <v>0.13507178300461542</v>
+        <v>0.033767945751153862</v>
       </c>
       <c r="AA226" s="0">
         <v>0.14219531895272142</v>
@@ -21152,7 +22232,7 @@
         <v>0.0087370811383656009</v>
       </c>
       <c r="AD226" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -21229,16 +22309,16 @@
         <v>0</v>
       </c>
       <c r="Y227" s="0">
-        <v>0</v>
+        <v>1.1871552547824446e-33</v>
       </c>
       <c r="Z227" s="0">
-        <v>0.13353933227527146</v>
+        <v>0.033384833068817864</v>
       </c>
       <c r="AA227" s="0">
         <v>0.1420886725180433</v>
       </c>
       <c r="AB227" s="0">
-        <v>0</v>
+        <v>1.7942745770951397e-33</v>
       </c>
       <c r="AC227" s="0">
         <v>0.0077715795622376287</v>
@@ -21321,22 +22401,22 @@
         <v>0</v>
       </c>
       <c r="Y228" s="0">
-        <v>1.875148588431713e-34</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="Z228" s="0">
-        <v>0.13206470857156391</v>
+        <v>0.033016177142890978</v>
       </c>
       <c r="AA228" s="0">
         <v>0.14203347563164431</v>
       </c>
       <c r="AB228" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC228" s="0">
         <v>0.0068494010161584129</v>
       </c>
       <c r="AD228" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
     </row>
     <row r="229">
@@ -21413,16 +22493,16 @@
         <v>0</v>
       </c>
       <c r="Y229" s="0">
-        <v>1.8318903963214529e-34</v>
+        <v>2.926510735807167e-33</v>
       </c>
       <c r="Z229" s="0">
-        <v>0.1307108279088138</v>
+        <v>0.032677706977203451</v>
       </c>
       <c r="AA229" s="0">
         <v>0.14201038831635582</v>
       </c>
       <c r="AB229" s="0">
-        <v>0</v>
+        <v>4.2468259906507603e-34</v>
       </c>
       <c r="AC229" s="0">
         <v>0.0059632954336527851</v>
@@ -21505,16 +22585,16 @@
         <v>0</v>
       </c>
       <c r="Y230" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>2.8008738995912809e-33</v>
       </c>
       <c r="Z230" s="0">
-        <v>0.12938404679815513</v>
+        <v>0.032346011699538789</v>
       </c>
       <c r="AA230" s="0">
         <v>0.142043940249063</v>
       </c>
       <c r="AB230" s="0">
-        <v>6.7762635780344027e-21</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC230" s="0">
         <v>0.005115678793839216</v>
@@ -21597,22 +22677,22 @@
         <v>0</v>
       </c>
       <c r="Y231" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z231" s="0">
-        <v>0.1281190876432258</v>
+        <v>0.03202977191080645</v>
       </c>
       <c r="AA231" s="0">
         <v>0.1421225254437829</v>
       </c>
       <c r="AB231" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC231" s="0">
         <v>0.0043058200374054391</v>
       </c>
       <c r="AD231" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
     </row>
     <row r="232">
@@ -21692,13 +22772,13 @@
         <v>0</v>
       </c>
       <c r="Z232" s="0">
-        <v>0.12691733489554766</v>
+        <v>0.031729333723886914</v>
       </c>
       <c r="AA232" s="0">
         <v>0.14220490584490877</v>
       </c>
       <c r="AB232" s="0">
-        <v>0</v>
+        <v>1.9259299443872359e-33</v>
       </c>
       <c r="AC232" s="0">
         <v>0.0035335306814233886</v>
@@ -21781,16 +22861,16 @@
         <v>0</v>
       </c>
       <c r="Y233" s="0">
-        <v>5.082197683525802e-21</v>
+        <v>7.351975606532399e-21</v>
       </c>
       <c r="Z233" s="0">
-        <v>0.12582958960374188</v>
+        <v>0.031457397400935463</v>
       </c>
       <c r="AA233" s="0">
         <v>0.142379473542489</v>
       </c>
       <c r="AB233" s="0">
-        <v>0</v>
+        <v>4.4276973631334262e-21</v>
       </c>
       <c r="AC233" s="0">
         <v>0.0027984079628853254</v>
@@ -21873,22 +22953,22 @@
         <v>0</v>
       </c>
       <c r="Y234" s="0">
-        <v>0</v>
+        <v>1.128474576789396e-36</v>
       </c>
       <c r="Z234" s="0">
-        <v>0.12471721871570991</v>
+        <v>0.031179304678927478</v>
       </c>
       <c r="AA234" s="0">
         <v>0.14252551475835454</v>
       </c>
       <c r="AB234" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC234" s="0">
         <v>0.0020970947719172652</v>
       </c>
       <c r="AD234" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
     </row>
     <row r="235">
@@ -21968,7 +23048,7 @@
         <v>0</v>
       </c>
       <c r="Z235" s="0">
-        <v>0.12371304248611042</v>
+        <v>0.030928260621527606</v>
       </c>
       <c r="AA235" s="0">
         <v>0.14268165170405198</v>
@@ -22057,22 +23137,22 @@
         <v>0</v>
       </c>
       <c r="Y236" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z236" s="0">
-        <v>0.12282043153880287</v>
+        <v>0.030705107884700721</v>
       </c>
       <c r="AA236" s="0">
         <v>0.1428777542245962</v>
       </c>
       <c r="AB236" s="0">
-        <v>0</v>
+        <v>1.1555579666323415e-33</v>
       </c>
       <c r="AC236" s="0">
         <v>0.00081161960155109287</v>
       </c>
       <c r="AD236" s="0">
-        <v>0</v>
+        <v>9.6296497219361793e-35</v>
       </c>
     </row>
     <row r="237">
@@ -22149,16 +23229,16 @@
         <v>0</v>
       </c>
       <c r="Y237" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="Z237" s="0">
-        <v>0.12202010892049829</v>
+        <v>0.030505027230124573</v>
       </c>
       <c r="AA237" s="0">
         <v>0.14303191172559748</v>
       </c>
       <c r="AB237" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC237" s="0">
         <v>0.00023366573653027609</v>
@@ -22241,19 +23321,19 @@
         <v>0</v>
       </c>
       <c r="Y238" s="0">
-        <v>-1.4159346673168815e-32</v>
+        <v>0</v>
       </c>
       <c r="Z238" s="0">
-        <v>0.12127420309037702</v>
+        <v>0.030318550772594266</v>
       </c>
       <c r="AA238" s="0">
         <v>0.14315819089285262</v>
       </c>
       <c r="AB238" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>2.4788824870140399e-34</v>
       </c>
       <c r="AC238" s="0">
-        <v>-3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="AD238" s="0">
         <v>0.00025485571039688917</v>
@@ -22333,10 +23413,10 @@
         <v>0</v>
       </c>
       <c r="Y239" s="0">
-        <v>5.5844445223384577e-33</v>
+        <v>0</v>
       </c>
       <c r="Z239" s="0">
-        <v>0.12067934918341242</v>
+        <v>0.030169837295853104</v>
       </c>
       <c r="AA239" s="0">
         <v>0.14327069212395532</v>
@@ -22345,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="AC239" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AD239" s="0">
         <v>0.00066913872166681745</v>
@@ -22425,16 +23505,16 @@
         <v>0</v>
       </c>
       <c r="Y240" s="0">
-        <v>9.8102056542224826e-34</v>
+        <v>0</v>
       </c>
       <c r="Z240" s="0">
-        <v>0.12021198755737449</v>
+        <v>0.030052996889343622</v>
       </c>
       <c r="AA240" s="0">
         <v>0.14338343386703231</v>
       </c>
       <c r="AB240" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC240" s="0">
         <v>0</v>
@@ -22517,19 +23597,19 @@
         <v>0</v>
       </c>
       <c r="Y241" s="0">
-        <v>0</v>
+        <v>6.1915638446511528e-33</v>
       </c>
       <c r="Z241" s="0">
-        <v>0.11994081812874896</v>
+        <v>0.02998520453218723</v>
       </c>
       <c r="AA241" s="0">
-        <v>0.14349807612069221</v>
+        <v>0.14349807612069218</v>
       </c>
       <c r="AB241" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>1.04007740160756e-33</v>
       </c>
       <c r="AC241" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AD241" s="0">
         <v>0.0013859259916089467</v>
@@ -22609,22 +23689,22 @@
         <v>0</v>
       </c>
       <c r="Y242" s="0">
-        <v>6.1538242766494717e-21</v>
+        <v>3.2033631653128321e-33</v>
       </c>
       <c r="Z242" s="0">
-        <v>0.11977507170313749</v>
+        <v>0.029943767925784379</v>
       </c>
       <c r="AA242" s="0">
         <v>0.14351322198194044</v>
       </c>
       <c r="AB242" s="0">
-        <v>0</v>
+        <v>7.1432440710768767e-34</v>
       </c>
       <c r="AC242" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AD242" s="0">
-        <v>0.0016833833293665788</v>
+        <v>0.0016833833293665786</v>
       </c>
     </row>
     <row r="243">
@@ -22701,13 +23781,13 @@
         <v>0</v>
       </c>
       <c r="Y243" s="0">
-        <v>6.7762635780344027e-21</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="Z243" s="0">
-        <v>0.11973627419177588</v>
+        <v>0.029934068547943959</v>
       </c>
       <c r="AA243" s="0">
-        <v>0.14349701982743077</v>
+        <v>0.14349701982743074</v>
       </c>
       <c r="AB243" s="0">
         <v>0</v>
@@ -22716,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="AD243" s="0">
-        <v>0.0019395704782664655</v>
+        <v>0.0019395704782664658</v>
       </c>
     </row>
     <row r="244">
@@ -22793,16 +23873,16 @@
         <v>0</v>
       </c>
       <c r="Y244" s="0">
-        <v>0</v>
+        <v>2.1738259182564369e-21</v>
       </c>
       <c r="Z244" s="0">
-        <v>0.11993327644404943</v>
+        <v>0.029983319111012353</v>
       </c>
       <c r="AA244" s="0">
-        <v>0.14342568504032646</v>
+        <v>0.14342568504032643</v>
       </c>
       <c r="AB244" s="0">
-        <v>0</v>
+        <v>2.2780262238516719e-21</v>
       </c>
       <c r="AC244" s="0">
         <v>0</v>
@@ -22885,10 +23965,10 @@
         <v>0</v>
       </c>
       <c r="Y245" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>3.9120451995365728e-33</v>
       </c>
       <c r="Z245" s="0">
-        <v>0.12028906406605032</v>
+        <v>0.03007226601651259</v>
       </c>
       <c r="AA245" s="0">
         <v>0.14335399062962154</v>
@@ -22900,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="AD245" s="0">
-        <v>0.0023275942895440568</v>
+        <v>0.0023275942895440564</v>
       </c>
     </row>
     <row r="246">
@@ -22977,10 +24057,10 @@
         <v>0</v>
       </c>
       <c r="Y246" s="0">
-        <v>1.5246593050577406e-20</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="Z246" s="0">
-        <v>0.12079639214673839</v>
+        <v>0.030199098036684607</v>
       </c>
       <c r="AA246" s="0">
         <v>0.14317979185652702</v>
@@ -23069,19 +24149,19 @@
         <v>0</v>
       </c>
       <c r="Y247" s="0">
-        <v>0</v>
+        <v>7.2560236017822269e-21</v>
       </c>
       <c r="Z247" s="0">
-        <v>0.12160089569587444</v>
+        <v>0.030400223923968597</v>
       </c>
       <c r="AA247" s="0">
-        <v>0.14309781513436817</v>
+        <v>0.14309781513436814</v>
       </c>
       <c r="AB247" s="0">
-        <v>0</v>
+        <v>5.6661580128688146e-21</v>
       </c>
       <c r="AC247" s="0">
-        <v>0</v>
+        <v>1.6940658945086007e-21</v>
       </c>
       <c r="AD247" s="0">
         <v>0.002558390976355047</v>
@@ -23161,10 +24241,10 @@
         <v>0</v>
       </c>
       <c r="Y248" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="Z248" s="0">
-        <v>0.1224259937220801</v>
+        <v>0.030606498430520025</v>
       </c>
       <c r="AA248" s="0">
         <v>0.14281445605711646</v>
@@ -23173,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="AC248" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AD248" s="0">
         <v>0.0026159897951642686</v>
@@ -23253,16 +24333,16 @@
         <v>0</v>
       </c>
       <c r="Y249" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="Z249" s="0">
-        <v>0.12363654330419095</v>
+        <v>0.030909135826047738</v>
       </c>
       <c r="AA249" s="0">
         <v>0.14265414762922357</v>
       </c>
       <c r="AB249" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC249" s="0">
         <v>0</v>
@@ -23345,10 +24425,10 @@
         <v>0</v>
       </c>
       <c r="Y250" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="Z250" s="0">
-        <v>0.1249259921620197</v>
+        <v>0.031231498040504933</v>
       </c>
       <c r="AA250" s="0">
         <v>0.14239600848298839</v>
@@ -23437,10 +24517,10 @@
         <v>0</v>
       </c>
       <c r="Y251" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="Z251" s="0">
-        <v>0.12639661975177907</v>
+        <v>0.031599154937944768</v>
       </c>
       <c r="AA251" s="0">
         <v>0.14213953594440076</v>
@@ -23449,7 +24529,7 @@
         <v>0</v>
       </c>
       <c r="AC251" s="0">
-        <v>0</v>
+        <v>9.6296497219361793e-35</v>
       </c>
       <c r="AD251" s="0">
         <v>0.0025816705146040429</v>
@@ -23529,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="Y252" s="0">
-        <v>3.0656995954666157e-21</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="Z252" s="0">
-        <v>0.12798906795257256</v>
+        <v>0.031997266988143147</v>
       </c>
       <c r="AA252" s="0">
         <v>0.14177069675153425</v>
@@ -23621,10 +24701,10 @@
         <v>0</v>
       </c>
       <c r="Y253" s="0">
-        <v>2.0165840687226507e-33</v>
+        <v>0</v>
       </c>
       <c r="Z253" s="0">
-        <v>0.12984562161736879</v>
+        <v>0.032461405404342197</v>
       </c>
       <c r="AA253" s="0">
         <v>0.1415118522795337</v>
@@ -23713,19 +24793,19 @@
         <v>0</v>
       </c>
       <c r="Y254" s="0">
-        <v>3.065699595465658e-21</v>
+        <v>0</v>
       </c>
       <c r="Z254" s="0">
-        <v>0.13183506251243932</v>
+        <v>0.032958765628109836</v>
       </c>
       <c r="AA254" s="0">
-        <v>0.14125465673512005</v>
+        <v>0.14125465673512008</v>
       </c>
       <c r="AB254" s="0">
         <v>0</v>
       </c>
       <c r="AC254" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>0</v>
       </c>
       <c r="AD254" s="0">
         <v>0.0022841391694397206</v>
@@ -23805,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="Y255" s="0">
-        <v>1.128474576789396e-36</v>
+        <v>0</v>
       </c>
       <c r="Z255" s="0">
-        <v>0.13404301862102519</v>
+        <v>0.033510754655256297</v>
       </c>
       <c r="AA255" s="0">
         <v>0.1410372379755995</v>
@@ -23897,10 +24977,10 @@
         <v>0</v>
       </c>
       <c r="Y256" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="Z256" s="0">
-        <v>0.136244100145646</v>
+        <v>0.034061025036411501</v>
       </c>
       <c r="AA256" s="0">
         <v>0.14072855513060706</v>
@@ -23989,10 +25069,10 @@
         <v>0</v>
       </c>
       <c r="Y257" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
       <c r="Z257" s="0">
-        <v>0.13870998568896623</v>
+        <v>0.034677496422241556</v>
       </c>
       <c r="AA257" s="0">
         <v>0.14050995981680547</v>
@@ -24001,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="AC257" s="0">
-        <v>0</v>
+        <v>1.4444474582904269e-34</v>
       </c>
       <c r="AD257" s="0">
         <v>0.0017979467808664836</v>
@@ -24081,10 +25161,10 @@
         <v>0</v>
       </c>
       <c r="Y258" s="0">
-        <v>2.8648207922760133e-33</v>
+        <v>9.1030282527677945e-35</v>
       </c>
       <c r="Z258" s="0">
-        <v>0.14124923913621637</v>
+        <v>0.035312309784054086</v>
       </c>
       <c r="AA258" s="0">
         <v>0.14029533031475044</v>
@@ -24093,7 +25173,7 @@
         <v>0</v>
       </c>
       <c r="AC258" s="0">
-        <v>0</v>
+        <v>9.6296497219361793e-35</v>
       </c>
       <c r="AD258" s="0">
         <v>0.0016090052577360555</v>
@@ -24173,19 +25253,19 @@
         <v>0</v>
       </c>
       <c r="Y259" s="0">
-        <v>1.128474576789396e-35</v>
+        <v>2.256949153578792e-36</v>
       </c>
       <c r="Z259" s="0">
-        <v>0.14382858906426124</v>
+        <v>0.03595714726606531</v>
       </c>
       <c r="AA259" s="0">
         <v>0.14008967199105044</v>
       </c>
       <c r="AB259" s="0">
-        <v>9.4039548065783001e-37</v>
+        <v>1.128474576789396e-36</v>
       </c>
       <c r="AC259" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AD259" s="0">
         <v>0.0014098370670205336</v>
@@ -24265,19 +25345,19 @@
         <v>0</v>
       </c>
       <c r="Y260" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="Z260" s="0">
-        <v>0.14651996355459404</v>
+        <v>0.03662999088864851</v>
       </c>
       <c r="AA260" s="0">
         <v>0.13993366254901513</v>
       </c>
       <c r="AB260" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="AC260" s="0">
-        <v>0</v>
+        <v>9.6296497219361793e-35</v>
       </c>
       <c r="AD260" s="0">
         <v>0.001206832051163889</v>
@@ -24357,10 +25437,10 @@
         <v>0</v>
       </c>
       <c r="Y261" s="0">
-        <v>0</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="Z261" s="0">
-        <v>0.14931823514992623</v>
+        <v>0.037329558787481558</v>
       </c>
       <c r="AA261" s="0">
         <v>0.13986523236555765</v>
@@ -24449,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="Y262" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z262" s="0">
-        <v>0.15204316273002644</v>
+        <v>0.038010790682506609</v>
       </c>
       <c r="AA262" s="0">
         <v>0.13973213453407934</v>
       </c>
       <c r="AB262" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC262" s="0">
         <v>0</v>
@@ -24541,10 +25621,10 @@
         <v>0</v>
       </c>
       <c r="Y263" s="0">
-        <v>0</v>
+        <v>8.6666847497425613e-34</v>
       </c>
       <c r="Z263" s="0">
-        <v>0.15490510966577092</v>
+        <v>0.038726277416442731</v>
       </c>
       <c r="AA263" s="0">
         <v>0.13966335151562773</v>
@@ -24553,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="AC263" s="0">
-        <v>0</v>
+        <v>1.9259299443872359e-34</v>
       </c>
       <c r="AD263" s="0">
         <v>0.00059320999479295226</v>
@@ -24636,13 +25716,13 @@
         <v>0</v>
       </c>
       <c r="Z264" s="0">
-        <v>0.1577868718489312</v>
+        <v>0.0394467179622328</v>
       </c>
       <c r="AA264" s="0">
         <v>0.13962366671911597</v>
       </c>
       <c r="AB264" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="AC264" s="0">
         <v>0</v>
@@ -24725,13 +25805,13 @@
         <v>0</v>
       </c>
       <c r="Y265" s="0">
-        <v>1.3716337009583243e-21</v>
+        <v>1.3552527156068805e-20</v>
       </c>
       <c r="Z265" s="0">
-        <v>0.16067370994367916</v>
+        <v>0.040168427485919804</v>
       </c>
       <c r="AA265" s="0">
-        <v>0.13957644224168256</v>
+        <v>0.13957644224168259</v>
       </c>
       <c r="AB265" s="0">
         <v>0</v>
@@ -24740,7 +25820,7 @@
         <v>0</v>
       </c>
       <c r="AD265" s="0">
-        <v>0.00017640608139374433</v>
+        <v>0.00017640608139374436</v>
       </c>
     </row>
     <row r="266">
@@ -24817,22 +25897,22 @@
         <v>0</v>
       </c>
       <c r="Y266" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="Z266" s="0">
-        <v>0.16365380651947883</v>
+        <v>0.040913451629869708</v>
       </c>
       <c r="AA266" s="0">
         <v>0.139605670634739</v>
       </c>
       <c r="AB266" s="0">
-        <v>2.311115933264683e-33</v>
+        <v>1.128474576789396e-36</v>
       </c>
       <c r="AC266" s="0">
         <v>3.7986918980079322e-05</v>
       </c>
       <c r="AD266" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>1.504632769052528e-36</v>
       </c>
     </row>
     <row r="267">
@@ -24909,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="Y267" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>2.2697779230066764e-21</v>
       </c>
       <c r="Z267" s="0">
-        <v>0.1666465832109528</v>
+        <v>0.041661645802738179</v>
       </c>
       <c r="AA267" s="0">
-        <v>0.13960316877126761</v>
+        <v>0.13960316877126758</v>
       </c>
       <c r="AB267" s="0">
-        <v>0</v>
+        <v>1.0395655741165991e-21</v>
       </c>
       <c r="AC267" s="0">
         <v>0.00028791166124569206</v>
@@ -25004,7 +26084,7 @@
         <v>0</v>
       </c>
       <c r="Z268" s="0">
-        <v>0.16968103558550607</v>
+        <v>0.042420258896376517</v>
       </c>
       <c r="AA268" s="0">
         <v>0.13960501485367971</v>
@@ -25093,16 +26173,16 @@
         <v>0</v>
       </c>
       <c r="Y269" s="0">
-        <v>3.5118128829686004e-33</v>
+        <v>0</v>
       </c>
       <c r="Z269" s="0">
-        <v>0.17282020215978314</v>
+        <v>0.043205050539945784</v>
       </c>
       <c r="AA269" s="0">
         <v>0.13962716559890928</v>
       </c>
       <c r="AB269" s="0">
-        <v>7.2041816982235041e-33</v>
+        <v>0</v>
       </c>
       <c r="AC269" s="0">
         <v>0.00079823315835339829</v>
@@ -25185,19 +26265,19 @@
         <v>0</v>
       </c>
       <c r="Y270" s="0">
-        <v>6.7281581246761839e-21</v>
+        <v>7.351975606532387e-21</v>
       </c>
       <c r="Z270" s="0">
-        <v>0.17590912224052771</v>
+        <v>0.043977280560131921</v>
       </c>
       <c r="AA270" s="0">
         <v>0.13961525168283817</v>
       </c>
       <c r="AB270" s="0">
-        <v>3.2970388624652258e-21</v>
+        <v>2.733631468624765e-21</v>
       </c>
       <c r="AC270" s="0">
-        <v>0.0010545723503043519</v>
+        <v>0.0010545723503043521</v>
       </c>
       <c r="AD270" s="0">
         <v>0</v>
@@ -25277,16 +26357,16 @@
         <v>0</v>
       </c>
       <c r="Y271" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z271" s="0">
-        <v>0.17909820244338873</v>
+        <v>0.044774550610847182</v>
       </c>
       <c r="AA271" s="0">
         <v>0.1396406811926931</v>
       </c>
       <c r="AB271" s="0">
-        <v>2.311115933264683e-33</v>
+        <v>0</v>
       </c>
       <c r="AC271" s="0">
         <v>0.0013157588716741246</v>
@@ -25369,16 +26449,16 @@
         <v>0</v>
       </c>
       <c r="Y272" s="0">
-        <v>2.3321807920314184e-35</v>
+        <v>9.0277966143151681e-36</v>
       </c>
       <c r="Z272" s="0">
-        <v>0.18226365527739433</v>
+        <v>0.045565913819348582</v>
       </c>
       <c r="AA272" s="0">
         <v>0.13962822156445884</v>
       </c>
       <c r="AB272" s="0">
-        <v>0</v>
+        <v>2.1064858766735392e-35</v>
       </c>
       <c r="AC272" s="0">
         <v>0.0015718203827703597</v>
@@ -25461,16 +26541,16 @@
         <v>0</v>
       </c>
       <c r="Y273" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z273" s="0">
-        <v>0.18539333578539957</v>
+        <v>0.046348333946349893</v>
       </c>
       <c r="AA273" s="0">
         <v>0.13961110423418518</v>
       </c>
       <c r="AB273" s="0">
-        <v>0</v>
+        <v>1.1555579666323415e-33</v>
       </c>
       <c r="AC273" s="0">
         <v>0.0018171066457403073</v>
@@ -25553,22 +26633,22 @@
         <v>0</v>
       </c>
       <c r="Y274" s="0">
-        <v>3.1258745777066269e-33</v>
+        <v>3.009265538105056e-36</v>
       </c>
       <c r="Z274" s="0">
-        <v>0.18845497255410465</v>
+        <v>0.047113743138526162</v>
       </c>
       <c r="AA274" s="0">
         <v>0.13953779487818499</v>
       </c>
       <c r="AB274" s="0">
-        <v>8.4740917553038378e-33</v>
+        <v>0</v>
       </c>
       <c r="AC274" s="0">
         <v>0.0020583430548929108</v>
       </c>
       <c r="AD274" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
     </row>
     <row r="275">
@@ -25645,16 +26725,16 @@
         <v>0</v>
       </c>
       <c r="Y275" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="Z275" s="0">
-        <v>0.19154844652639655</v>
+        <v>0.047887111631599137</v>
       </c>
       <c r="AA275" s="0">
         <v>0.13948902565149021</v>
       </c>
       <c r="AB275" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="AC275" s="0">
         <v>0.0022869293692756466</v>
@@ -25737,16 +26817,16 @@
         <v>0</v>
       </c>
       <c r="Y276" s="0">
-        <v>8.4541553711138918e-34</v>
+        <v>0</v>
       </c>
       <c r="Z276" s="0">
-        <v>0.1944897406863732</v>
+        <v>0.048622435171593301</v>
       </c>
       <c r="AA276" s="0">
         <v>0.13939273796029925</v>
       </c>
       <c r="AB276" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC276" s="0">
         <v>0.0025012382532553965</v>
@@ -25829,16 +26909,16 @@
         <v>0</v>
       </c>
       <c r="Y277" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z277" s="0">
-        <v>0.19736880006790389</v>
+        <v>0.049342200016975972</v>
       </c>
       <c r="AA277" s="0">
         <v>0.13925356181726117</v>
       </c>
       <c r="AB277" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC277" s="0">
         <v>0.0026983140053333313</v>
@@ -25921,16 +27001,16 @@
         <v>0</v>
       </c>
       <c r="Y278" s="0">
-        <v>0</v>
+        <v>4.3678157414951325e-37</v>
       </c>
       <c r="Z278" s="0">
-        <v>0.20014621127677698</v>
+        <v>0.050036552819194245</v>
       </c>
       <c r="AA278" s="0">
         <v>0.13911912136699611</v>
       </c>
       <c r="AB278" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC278" s="0">
         <v>0.0028800416376145908</v>
@@ -26013,19 +27093,19 @@
         <v>0</v>
       </c>
       <c r="Y279" s="0">
-        <v>3.3400263356577416e-21</v>
+        <v>3.9638438175151495e-21</v>
       </c>
       <c r="Z279" s="0">
-        <v>0.20269609556355925</v>
+        <v>0.050674023890889798</v>
       </c>
       <c r="AA279" s="0">
-        <v>0.13895537107035466</v>
+        <v>0.13895537107035463</v>
       </c>
       <c r="AB279" s="0">
-        <v>3.2970388624652946e-21</v>
+        <v>0</v>
       </c>
       <c r="AC279" s="0">
-        <v>0.0030238046636859145</v>
+        <v>0.0030238046636859154</v>
       </c>
       <c r="AD279" s="0">
         <v>0</v>
@@ -26108,7 +27188,7 @@
         <v>0</v>
       </c>
       <c r="Z280" s="0">
-        <v>0.20512722135917977</v>
+        <v>0.051281805339794942</v>
       </c>
       <c r="AA280" s="0">
         <v>0.13889024344387799</v>
@@ -26200,7 +27280,7 @@
         <v>0</v>
       </c>
       <c r="Z281" s="0">
-        <v>0.207480075356411</v>
+        <v>0.051870018839102743</v>
       </c>
       <c r="AA281" s="0">
         <v>0.13879821640274242</v>
@@ -26209,10 +27289,10 @@
         <v>0</v>
       </c>
       <c r="AC281" s="0">
-        <v>0.0032407798426322275</v>
+        <v>0.0032407798426322271</v>
       </c>
       <c r="AD281" s="0">
-        <v>0</v>
+        <v>1.6940658945086007e-21</v>
       </c>
     </row>
     <row r="282">
@@ -26292,19 +27372,19 @@
         <v>0</v>
       </c>
       <c r="Z282" s="0">
-        <v>0.20992392447299035</v>
+        <v>0.052480981118247595</v>
       </c>
       <c r="AA282" s="0">
         <v>0.13873075833077511</v>
       </c>
       <c r="AB282" s="0">
-        <v>0</v>
+        <v>3.3881317890172014e-21</v>
       </c>
       <c r="AC282" s="0">
         <v>0.0033584264876214041</v>
       </c>
       <c r="AD282" s="0">
-        <v>0</v>
+        <v>1.6940658945086007e-21</v>
       </c>
     </row>
     <row r="283">
@@ -26381,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="Y283" s="0">
-        <v>0</v>
+        <v>5.3926038442842604e-33</v>
       </c>
       <c r="Z283" s="0">
-        <v>0.21209660168901334</v>
+        <v>0.053024150422253336</v>
       </c>
       <c r="AA283" s="0">
         <v>0.13841908703521535</v>
       </c>
       <c r="AB283" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC283" s="0">
         <v>0.0034424040395417111</v>
       </c>
       <c r="AD283" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="284">
@@ -26473,22 +27553,22 @@
         <v>0</v>
       </c>
       <c r="Y284" s="0">
-        <v>0</v>
+        <v>5.5400578556514081e-33</v>
       </c>
       <c r="Z284" s="0">
-        <v>0.21422200524613574</v>
+        <v>0.053555501311533936</v>
       </c>
       <c r="AA284" s="0">
-        <v>0.13809188770191383</v>
+        <v>0.1380918877019138</v>
       </c>
       <c r="AB284" s="0">
-        <v>0</v>
+        <v>7.0905819241600382e-34</v>
       </c>
       <c r="AC284" s="0">
         <v>0.0035282855171931732</v>
       </c>
       <c r="AD284" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="285">
@@ -26565,16 +27645,16 @@
         <v>0</v>
       </c>
       <c r="Y285" s="0">
-        <v>2.9039412442713791e-34</v>
+        <v>0</v>
       </c>
       <c r="Z285" s="0">
-        <v>0.21620797861399588</v>
+        <v>0.054051994653498969</v>
       </c>
       <c r="AA285" s="0">
-        <v>0.13775221841357449</v>
+        <v>0.13775221841357452</v>
       </c>
       <c r="AB285" s="0">
-        <v>2.311115933264683e-33</v>
+        <v>0</v>
       </c>
       <c r="AC285" s="0">
         <v>0.0035858805282391504</v>
@@ -26657,10 +27737,10 @@
         <v>0</v>
       </c>
       <c r="Y286" s="0">
-        <v>9.2444637330587321e-33</v>
+        <v>0</v>
       </c>
       <c r="Z286" s="0">
-        <v>0.21804996411879948</v>
+        <v>0.054512491029699871</v>
       </c>
       <c r="AA286" s="0">
         <v>0.13736657057210591</v>
@@ -26672,7 +27752,7 @@
         <v>0.0036281385779878259</v>
       </c>
       <c r="AD286" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>9.6296497219361793e-35</v>
       </c>
     </row>
     <row r="287">
@@ -26749,16 +27829,16 @@
         <v>0</v>
       </c>
       <c r="Y287" s="0">
-        <v>0</v>
+        <v>2.256949153578792e-36</v>
       </c>
       <c r="Z287" s="0">
-        <v>0.219717724231971</v>
+        <v>0.05492943105799275</v>
       </c>
       <c r="AA287" s="0">
         <v>0.13702040197010371</v>
       </c>
       <c r="AB287" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC287" s="0">
         <v>0.0036440193191268032</v>
@@ -26841,16 +27921,16 @@
         <v>0</v>
       </c>
       <c r="Y288" s="0">
-        <v>2.6708152847431393e-21</v>
+        <v>4.7742653761936727e-21</v>
       </c>
       <c r="Z288" s="0">
-        <v>0.22119841032214327</v>
+        <v>0.055299602580535831</v>
       </c>
       <c r="AA288" s="0">
-        <v>0.13654758939909442</v>
+        <v>0.13654758939909445</v>
       </c>
       <c r="AB288" s="0">
-        <v>0</v>
+        <v>4.7444383625664535e-22</v>
       </c>
       <c r="AC288" s="0">
         <v>0.0036378149470976942</v>
@@ -26933,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="Y289" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z289" s="0">
-        <v>0.22246969129951386</v>
+        <v>0.055617422824878464</v>
       </c>
       <c r="AA289" s="0">
         <v>0.13603656308497339</v>
       </c>
       <c r="AB289" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC289" s="0">
         <v>0.0036049603824436726</v>
@@ -27025,16 +28105,16 @@
         <v>0</v>
       </c>
       <c r="Y290" s="0">
-        <v>1.9872437297261264e-33</v>
+        <v>0</v>
       </c>
       <c r="Z290" s="0">
-        <v>0.22368390084522149</v>
+        <v>0.055920975211305374</v>
       </c>
       <c r="AA290" s="0">
         <v>0.13556411825738715</v>
       </c>
       <c r="AB290" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AC290" s="0">
         <v>0.0035613362927648224</v>
@@ -27120,13 +28200,13 @@
         <v>0</v>
       </c>
       <c r="Z291" s="0">
-        <v>0.22468285709795732</v>
+        <v>0.056170714274489331</v>
       </c>
       <c r="AA291" s="0">
         <v>0.13495477094722647</v>
       </c>
       <c r="AB291" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AC291" s="0">
         <v>0.0034961734473585812</v>
@@ -27209,22 +28289,22 @@
         <v>0</v>
       </c>
       <c r="Y292" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>0</v>
       </c>
       <c r="Z292" s="0">
-        <v>0.22559648925898668</v>
+        <v>0.056399122314746662</v>
       </c>
       <c r="AA292" s="0">
-        <v>0.13437409803640632</v>
+        <v>0.13437409803640629</v>
       </c>
       <c r="AB292" s="0">
         <v>0</v>
       </c>
       <c r="AC292" s="0">
-        <v>0.0034210625991388435</v>
+        <v>0.003421062599138843</v>
       </c>
       <c r="AD292" s="0">
-        <v>0</v>
+        <v>8.4703294725430034e-22</v>
       </c>
     </row>
     <row r="293">
@@ -27301,16 +28381,16 @@
         <v>0</v>
       </c>
       <c r="Y293" s="0">
-        <v>1.4910910741310553e-33</v>
+        <v>0</v>
       </c>
       <c r="Z293" s="0">
-        <v>0.22626611469439101</v>
+        <v>0.056566528673597752</v>
       </c>
       <c r="AA293" s="0">
         <v>0.13364581324191604</v>
       </c>
       <c r="AB293" s="0">
-        <v>8.9941774758816506e-34</v>
+        <v>0</v>
       </c>
       <c r="AC293" s="0">
         <v>0.0033182072989708469</v>
@@ -27396,7 +28476,7 @@
         <v>0</v>
       </c>
       <c r="Z294" s="0">
-        <v>0.22689820682194875</v>
+        <v>0.056724551705487188</v>
       </c>
       <c r="AA294" s="0">
         <v>0.13295935019306221</v>
@@ -27485,10 +28565,10 @@
         <v>0</v>
       </c>
       <c r="Y295" s="0">
-        <v>4.3648811792537739e-21</v>
+        <v>6.4683312707022764e-21</v>
       </c>
       <c r="Z295" s="0">
-        <v>0.22759654910242502</v>
+        <v>0.056899137275606249</v>
       </c>
       <c r="AA295" s="0">
         <v>0.132285390801543</v>
@@ -27577,13 +28657,13 @@
         <v>0</v>
       </c>
       <c r="Y296" s="0">
-        <v>0</v>
+        <v>8.1623971652101842e-21</v>
       </c>
       <c r="Z296" s="0">
-        <v>0.22806753967372523</v>
+        <v>0.0570168849184313</v>
       </c>
       <c r="AA296" s="0">
-        <v>0.13150018301705324</v>
+        <v>0.13150018301705321</v>
       </c>
       <c r="AB296" s="0">
         <v>0</v>
@@ -27669,16 +28749,16 @@
         <v>0</v>
       </c>
       <c r="Y297" s="0">
-        <v>0</v>
+        <v>1.8394135601667155e-33</v>
       </c>
       <c r="Z297" s="0">
-        <v>0.22820966795927572</v>
+        <v>0.05705241698981893</v>
       </c>
       <c r="AA297" s="0">
         <v>0.13059904292845115</v>
       </c>
       <c r="AB297" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC297" s="0">
         <v>0.0028344132158417443</v>
@@ -27761,22 +28841,22 @@
         <v>0</v>
       </c>
       <c r="Y298" s="0">
-        <v>0</v>
+        <v>7.9745536759783985e-34</v>
       </c>
       <c r="Z298" s="0">
-        <v>0.22855488602766727</v>
+        <v>0.057138721506916818</v>
       </c>
       <c r="AA298" s="0">
         <v>0.12981783029583313</v>
       </c>
       <c r="AB298" s="0">
-        <v>0</v>
+        <v>4.2957265556449675e-34</v>
       </c>
       <c r="AC298" s="0">
         <v>0.0026935919143554624</v>
       </c>
       <c r="AD298" s="0">
-        <v>0</v>
+        <v>9.6296497219361793e-35</v>
       </c>
     </row>
     <row r="299">
@@ -27853,16 +28933,16 @@
         <v>0</v>
       </c>
       <c r="Y299" s="0">
-        <v>1.3537933339550121e-33</v>
+        <v>3.8187579678553161e-33</v>
       </c>
       <c r="Z299" s="0">
-        <v>0.22878680107379695</v>
+        <v>0.057196700268449238</v>
       </c>
       <c r="AA299" s="0">
         <v>0.12892637862492665</v>
       </c>
       <c r="AB299" s="0">
-        <v>0</v>
+        <v>9.7424971796151189e-35</v>
       </c>
       <c r="AC299" s="0">
         <v>0.0025552338554029512</v>
@@ -27945,16 +29025,16 @@
         <v>0</v>
       </c>
       <c r="Y300" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="Z300" s="0">
-        <v>0.22855226072183246</v>
+        <v>0.057138065180458115</v>
       </c>
       <c r="AA300" s="0">
         <v>0.12779015034054295</v>
       </c>
       <c r="AB300" s="0">
-        <v>0</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC300" s="0">
         <v>0.0023602933683696124</v>
@@ -28037,22 +29117,22 @@
         <v>0</v>
       </c>
       <c r="Y301" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>6.4683312707022764e-21</v>
       </c>
       <c r="Z301" s="0">
-        <v>0.22822603667003616</v>
+        <v>0.05705650916750904</v>
       </c>
       <c r="AA301" s="0">
         <v>0.12660783978215323</v>
       </c>
       <c r="AB301" s="0">
-        <v>0</v>
+        <v>5.5566415197824447e-21</v>
       </c>
       <c r="AC301" s="0">
-        <v>0.0021680882729041822</v>
+        <v>0.0021680882729041818</v>
       </c>
       <c r="AD301" s="0">
-        <v>2.1175823681357508e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -28129,10 +29209,10 @@
         <v>0</v>
       </c>
       <c r="Y302" s="0">
-        <v>4.3648811792516306e-21</v>
+        <v>4.0610038436727731e-33</v>
       </c>
       <c r="Z302" s="0">
-        <v>0.22834181545429491</v>
+        <v>0.057085453863573742</v>
       </c>
       <c r="AA302" s="0">
         <v>0.12568250004789677</v>
@@ -28221,10 +29301,10 @@
         <v>0</v>
       </c>
       <c r="Y303" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="Z303" s="0">
-        <v>0.22786867911346254</v>
+        <v>0.056967169778365634</v>
       </c>
       <c r="AA303" s="0">
         <v>0.12447399703734556</v>
@@ -28236,7 +29316,7 @@
         <v>0.0018024808575883438</v>
       </c>
       <c r="AD303" s="0">
-        <v>0</v>
+        <v>9.6296497219361793e-35</v>
       </c>
     </row>
     <row r="304">
@@ -28313,16 +29393,16 @@
         <v>0</v>
       </c>
       <c r="Y304" s="0">
-        <v>2.6708152847440715e-21</v>
+        <v>0</v>
       </c>
       <c r="Z304" s="0">
-        <v>0.22748449696913456</v>
+        <v>0.056871124242283654</v>
       </c>
       <c r="AA304" s="0">
-        <v>0.1233335450863544</v>
+        <v>0.12333354508635441</v>
       </c>
       <c r="AB304" s="0">
-        <v>1.2797547340853733e-22</v>
+        <v>0</v>
       </c>
       <c r="AC304" s="0">
         <v>0.0016051602772798055</v>
@@ -28405,16 +29485,16 @@
         <v>0</v>
       </c>
       <c r="Y305" s="0">
-        <v>1.7619249725605103e-33</v>
+        <v>0</v>
       </c>
       <c r="Z305" s="0">
-        <v>0.22707162343602227</v>
+        <v>0.056767905859005569</v>
       </c>
       <c r="AA305" s="0">
         <v>0.12220820448669369</v>
       </c>
       <c r="AB305" s="0">
-        <v>2.3359423739540497e-33</v>
+        <v>0</v>
       </c>
       <c r="AC305" s="0">
         <v>0.0014016348087724801</v>
@@ -28500,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Z306" s="0">
-        <v>0.22646683737996112</v>
+        <v>0.056616709344990281</v>
       </c>
       <c r="AA306" s="0">
         <v>0.12089195982150934</v>
@@ -28589,19 +29669,19 @@
         <v>0</v>
       </c>
       <c r="Y307" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>3.4636646343589195e-33</v>
       </c>
       <c r="Z307" s="0">
-        <v>0.22577791506530207</v>
+        <v>0.056444478766325516</v>
       </c>
       <c r="AA307" s="0">
         <v>0.11959775614197293</v>
       </c>
       <c r="AB307" s="0">
-        <v>0</v>
+        <v>1.2646438423886498e-33</v>
       </c>
       <c r="AC307" s="0">
-        <v>0.00096281597755947077</v>
+        <v>0.00096281597755947066</v>
       </c>
       <c r="AD307" s="0">
         <v>0</v>
@@ -28681,22 +29761,22 @@
         <v>0</v>
       </c>
       <c r="Y308" s="0">
-        <v>0</v>
+        <v>3.5434101711187035e-33</v>
       </c>
       <c r="Z308" s="0">
-        <v>0.22530325607986507</v>
+        <v>0.056325814019966267</v>
       </c>
       <c r="AA308" s="0">
         <v>0.1184265081136355</v>
       </c>
       <c r="AB308" s="0">
-        <v>3.8518598887744717e-33</v>
+        <v>0</v>
       </c>
       <c r="AC308" s="0">
         <v>0.00075955764188330086</v>
       </c>
       <c r="AD308" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="309">
@@ -28773,10 +29853,10 @@
         <v>0</v>
       </c>
       <c r="Y309" s="0">
-        <v>1.2037062152420224e-35</v>
+        <v>0</v>
       </c>
       <c r="Z309" s="0">
-        <v>0.22431876298619083</v>
+        <v>0.056079690746547707</v>
       </c>
       <c r="AA309" s="0">
         <v>0.11701458243462727</v>
@@ -28865,16 +29945,16 @@
         <v>0</v>
       </c>
       <c r="Y310" s="0">
-        <v>0</v>
+        <v>4.513898307157584e-36</v>
       </c>
       <c r="Z310" s="0">
-        <v>0.22366701793552882</v>
+        <v>0.05591675448388219</v>
       </c>
       <c r="AA310" s="0">
-        <v>0.11579475578573717</v>
+        <v>0.11579475578573716</v>
       </c>
       <c r="AB310" s="0">
-        <v>0</v>
+        <v>4.137740114894452e-36</v>
       </c>
       <c r="AC310" s="0">
         <v>0.0002889608737746762</v>
@@ -28957,16 +30037,16 @@
         <v>0</v>
       </c>
       <c r="Y311" s="0">
-        <v>0</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="Z311" s="0">
-        <v>0.22288925328135981</v>
+        <v>0.055722313320339951</v>
       </c>
       <c r="AA311" s="0">
         <v>0.11452197246353939</v>
       </c>
       <c r="AB311" s="0">
-        <v>0</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="AC311" s="0">
         <v>5.9312972478323337e-05</v>
@@ -29049,16 +30129,16 @@
         <v>0</v>
       </c>
       <c r="Y312" s="0">
-        <v>7.4103163875837005e-34</v>
+        <v>0</v>
       </c>
       <c r="Z312" s="0">
-        <v>0.22206237730087389</v>
+        <v>0.055515594325218465</v>
       </c>
       <c r="AA312" s="0">
         <v>0.11314929475749767</v>
       </c>
       <c r="AB312" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC312" s="0">
         <v>0</v>
@@ -29141,16 +30221,16 @@
         <v>0</v>
       </c>
       <c r="Y313" s="0">
-        <v>2.7655150295185465e-33</v>
+        <v>0</v>
       </c>
       <c r="Z313" s="0">
-        <v>0.22093052646433384</v>
+        <v>0.055232631616083459</v>
       </c>
       <c r="AA313" s="0">
         <v>0.11162894697268384</v>
       </c>
       <c r="AB313" s="0">
-        <v>3.2115093411640306e-33</v>
+        <v>0</v>
       </c>
       <c r="AC313" s="0">
         <v>0</v>
@@ -29236,13 +30316,13 @@
         <v>0</v>
       </c>
       <c r="Z314" s="0">
-        <v>0.21962012321407454</v>
+        <v>0.054905030803518634</v>
       </c>
       <c r="AA314" s="0">
         <v>0.11010520423999859</v>
       </c>
       <c r="AB314" s="0">
-        <v>1.316553672920962e-36</v>
+        <v>0</v>
       </c>
       <c r="AC314" s="0">
         <v>0</v>
@@ -29325,16 +30405,16 @@
         <v>0</v>
       </c>
       <c r="Y315" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>4.3678157414951325e-37</v>
       </c>
       <c r="Z315" s="0">
-        <v>0.2188068676578028</v>
+        <v>0.0547017169144507</v>
       </c>
       <c r="AA315" s="0">
         <v>0.10870451177824816</v>
       </c>
       <c r="AB315" s="0">
-        <v>0</v>
+        <v>8.6516384220520361e-36</v>
       </c>
       <c r="AC315" s="0">
         <v>0</v>
@@ -29417,16 +30497,16 @@
         <v>0</v>
       </c>
       <c r="Y316" s="0">
-        <v>3.2518875721147762e-34</v>
+        <v>4.513898307157584e-36</v>
       </c>
       <c r="Z316" s="0">
-        <v>0.21734696292690941</v>
+        <v>0.054336740731727354</v>
       </c>
       <c r="AA316" s="0">
         <v>0.10698621997725553</v>
       </c>
       <c r="AB316" s="0">
-        <v>9.3392555975090414e-33</v>
+        <v>0</v>
       </c>
       <c r="AC316" s="0">
         <v>0</v>
@@ -29509,10 +30589,10 @@
         <v>0</v>
       </c>
       <c r="Y317" s="0">
-        <v>3.009265538105056e-36</v>
+        <v>0</v>
       </c>
       <c r="Z317" s="0">
-        <v>0.21587549797915137</v>
+        <v>0.053968874494787843</v>
       </c>
       <c r="AA317" s="0">
         <v>0.10524710617537146</v>
@@ -29521,7 +30601,7 @@
         <v>0</v>
       </c>
       <c r="AC317" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AD317" s="0">
         <v>0.0012274494799250615</v>
@@ -29601,19 +30681,19 @@
         <v>0</v>
       </c>
       <c r="Y318" s="0">
-        <v>2.7948553685150708e-33</v>
+        <v>0</v>
       </c>
       <c r="Z318" s="0">
-        <v>0.21463938185583772</v>
+        <v>0.053659845463959431</v>
       </c>
       <c r="AA318" s="0">
         <v>0.10355061459806693</v>
       </c>
       <c r="AB318" s="0">
-        <v>8.7204753712361892e-33</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC318" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AD318" s="0">
         <v>0.0014305393824046563</v>
@@ -29693,22 +30773,22 @@
         <v>0</v>
       </c>
       <c r="Y319" s="0">
-        <v>0</v>
+        <v>1.3692158198378005e-33</v>
       </c>
       <c r="Z319" s="0">
-        <v>0.21356456690351874</v>
+        <v>0.053391141725879686</v>
       </c>
       <c r="AA319" s="0">
         <v>0.10191908024535148</v>
       </c>
       <c r="AB319" s="0">
-        <v>2.311115933264683e-33</v>
+        <v>0</v>
       </c>
       <c r="AC319" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AD319" s="0">
-        <v>0.0016208418734893696</v>
+        <v>0.0016208418734893701</v>
       </c>
     </row>
     <row r="320">
@@ -29785,22 +30865,22 @@
         <v>0</v>
       </c>
       <c r="Y320" s="0">
-        <v>2.9904576284918994e-33</v>
+        <v>0</v>
       </c>
       <c r="Z320" s="0">
-        <v>0.21266790454391118</v>
+        <v>0.053166976135977796</v>
       </c>
       <c r="AA320" s="0">
         <v>0.10040208163663374</v>
       </c>
       <c r="AB320" s="0">
-        <v>1.0912349157553459e-33</v>
+        <v>4.4048124314012757e-34</v>
       </c>
       <c r="AC320" s="0">
         <v>0</v>
       </c>
       <c r="AD320" s="0">
-        <v>0.0017976917776061751</v>
+        <v>0.0017976917776061753</v>
       </c>
     </row>
     <row r="321">
@@ -29877,16 +30957,16 @@
         <v>0</v>
       </c>
       <c r="Y321" s="0">
-        <v>1.4497136729821107e-33</v>
+        <v>0</v>
       </c>
       <c r="Z321" s="0">
-        <v>0.21183111307227268</v>
+        <v>0.052957778268068169</v>
       </c>
       <c r="AA321" s="0">
         <v>0.098836336455634943</v>
       </c>
       <c r="AB321" s="0">
-        <v>8.7949546933042894e-33</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC321" s="0">
         <v>0</v>
@@ -29972,13 +31052,13 @@
         <v>0</v>
       </c>
       <c r="Z322" s="0">
-        <v>0.21113163126175971</v>
+        <v>0.052782907815439928</v>
       </c>
       <c r="AA322" s="0">
         <v>0.097160197560760497</v>
       </c>
       <c r="AB322" s="0">
-        <v>8.0180426472711419e-38</v>
+        <v>0</v>
       </c>
       <c r="AC322" s="0">
         <v>0</v>
@@ -30061,16 +31141,16 @@
         <v>0</v>
       </c>
       <c r="Y323" s="0">
-        <v>2.9596126567263226e-33</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="Z323" s="0">
-        <v>0.21071897850685778</v>
+        <v>0.052679744626714438</v>
       </c>
       <c r="AA323" s="0">
         <v>0.09564770017242831</v>
       </c>
       <c r="AB323" s="0">
-        <v>2.311115933264683e-33</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC323" s="0">
         <v>0</v>
@@ -30156,7 +31236,7 @@
         <v>0</v>
       </c>
       <c r="Z324" s="0">
-        <v>0.21006649445349049</v>
+        <v>0.052516623613372622</v>
       </c>
       <c r="AA324" s="0">
         <v>0.094010328042752875</v>
@@ -30248,16 +31328,16 @@
         <v>0</v>
       </c>
       <c r="Z325" s="0">
-        <v>0.20993151315865871</v>
+        <v>0.052482878289664671</v>
       </c>
       <c r="AA325" s="0">
         <v>0.09245261412042266</v>
       </c>
       <c r="AB325" s="0">
-        <v>0</v>
+        <v>5.3414463301364744e-35</v>
       </c>
       <c r="AC325" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AD325" s="0">
         <v>0.0024643229661439584</v>
@@ -30340,7 +31420,7 @@
         <v>0</v>
       </c>
       <c r="Z326" s="0">
-        <v>0.21012478081451605</v>
+        <v>0.052531195203629012</v>
       </c>
       <c r="AA326" s="0">
         <v>0.091105231921253332</v>
@@ -30349,7 +31429,7 @@
         <v>0</v>
       </c>
       <c r="AC326" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AD326" s="0">
         <v>0.0025333286124650032</v>
@@ -30432,19 +31512,19 @@
         <v>0</v>
       </c>
       <c r="Z327" s="0">
-        <v>0.21046057860870929</v>
+        <v>0.052615144652177322</v>
       </c>
       <c r="AA327" s="0">
         <v>0.089712651137686367</v>
       </c>
       <c r="AB327" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC327" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AD327" s="0">
-        <v>0.0025835433333630167</v>
+        <v>0.0025835433333630162</v>
       </c>
     </row>
     <row r="328">
@@ -30521,19 +31601,19 @@
         <v>0</v>
       </c>
       <c r="Y328" s="0">
-        <v>1.8435513002816099e-33</v>
+        <v>1.4519706221356895e-33</v>
       </c>
       <c r="Z328" s="0">
-        <v>0.21117641665593456</v>
+        <v>0.052794104163983641</v>
       </c>
       <c r="AA328" s="0">
         <v>0.088383425576530214</v>
       </c>
       <c r="AB328" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
       <c r="AC328" s="0">
-        <v>0</v>
+        <v>9.6296497219361793e-35</v>
       </c>
       <c r="AD328" s="0">
         <v>0.002596819542345172</v>
@@ -30613,16 +31693,16 @@
         <v>0</v>
       </c>
       <c r="Y329" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>6.018531076210112e-36</v>
       </c>
       <c r="Z329" s="0">
-        <v>0.21210216553694697</v>
+        <v>0.053025541384236742</v>
       </c>
       <c r="AA329" s="0">
         <v>0.087024606801645241</v>
       </c>
       <c r="AB329" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC329" s="0">
         <v>0</v>
@@ -30705,19 +31785,19 @@
         <v>0</v>
       </c>
       <c r="Y330" s="0">
-        <v>0</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="Z330" s="0">
-        <v>0.21366343519081024</v>
+        <v>0.053415858797702567</v>
       </c>
       <c r="AA330" s="0">
         <v>0.085521858302419415</v>
       </c>
       <c r="AB330" s="0">
-        <v>9.4039548065783001e-37</v>
+        <v>1.128474576789396e-36</v>
       </c>
       <c r="AC330" s="0">
-        <v>2.4074124304840448e-35</v>
+        <v>0</v>
       </c>
       <c r="AD330" s="0">
         <v>0.0025088892104689151</v>
@@ -30797,10 +31877,10 @@
         <v>0</v>
       </c>
       <c r="Y331" s="0">
-        <v>0</v>
+        <v>1.3541694921472752e-35</v>
       </c>
       <c r="Z331" s="0">
-        <v>0.21575624432593576</v>
+        <v>0.053939061081483941</v>
       </c>
       <c r="AA331" s="0">
         <v>0.084515248987570749</v>
@@ -30812,7 +31892,7 @@
         <v>0</v>
       </c>
       <c r="AD331" s="0">
-        <v>0.0024015058191022994</v>
+        <v>0.002401505819102299</v>
       </c>
     </row>
     <row r="332">
@@ -30889,16 +31969,16 @@
         <v>0</v>
       </c>
       <c r="Y332" s="0">
-        <v>5.266214691683848e-36</v>
+        <v>0</v>
       </c>
       <c r="Z332" s="0">
-        <v>0.21774079460987408</v>
+        <v>0.054435198652468521</v>
       </c>
       <c r="AA332" s="0">
         <v>0.083378016211342235</v>
       </c>
       <c r="AB332" s="0">
-        <v>4.890056499420716e-36</v>
+        <v>0</v>
       </c>
       <c r="AC332" s="0">
         <v>0</v>
@@ -30981,10 +32061,10 @@
         <v>0</v>
       </c>
       <c r="Y333" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z333" s="0">
-        <v>0.22091858354901373</v>
+        <v>0.055229645887253431</v>
       </c>
       <c r="AA333" s="0">
         <v>0.082461296305181939</v>
@@ -30993,7 +32073,7 @@
         <v>0</v>
       </c>
       <c r="AC333" s="0">
-        <v>0</v>
+        <v>1.4444474582904269e-34</v>
       </c>
       <c r="AD333" s="0">
         <v>0.0020874802844073879</v>
@@ -31073,19 +32153,19 @@
         <v>0</v>
       </c>
       <c r="Y334" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="Z334" s="0">
-        <v>0.22418375455630002</v>
+        <v>0.056045938639075005</v>
       </c>
       <c r="AA334" s="0">
         <v>0.081420056677018487</v>
       </c>
       <c r="AB334" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC334" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AD334" s="0">
         <v>0.0018618781338252887</v>
@@ -31165,19 +32245,19 @@
         <v>0</v>
       </c>
       <c r="Y335" s="0">
-        <v>1.902043899178527e-33</v>
+        <v>0</v>
       </c>
       <c r="Z335" s="0">
-        <v>0.22808647808064156</v>
+        <v>0.05702161952016039</v>
       </c>
       <c r="AA335" s="0">
         <v>0.080736987849356776</v>
       </c>
       <c r="AB335" s="0">
-        <v>0</v>
+        <v>1.4670169498262148e-35</v>
       </c>
       <c r="AC335" s="0">
-        <v>0</v>
+        <v>1.2037062152420224e-35</v>
       </c>
       <c r="AD335" s="0">
         <v>0.0015930720690988996</v>
@@ -31257,19 +32337,19 @@
         <v>0</v>
       </c>
       <c r="Y336" s="0">
-        <v>2.068870057447226e-34</v>
+        <v>6.1629758220391547e-33</v>
       </c>
       <c r="Z336" s="0">
-        <v>0.23267492400461251</v>
+        <v>0.058168731001153128</v>
       </c>
       <c r="AA336" s="0">
         <v>0.080134473538391149</v>
       </c>
       <c r="AB336" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC336" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AD336" s="0">
         <v>0.0012610687981662681</v>
@@ -31349,22 +32429,22 @@
         <v>0</v>
       </c>
       <c r="Y337" s="0">
-        <v>1.2037062152420224e-35</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="Z337" s="0">
-        <v>0.23820851083282502</v>
+        <v>0.059552127708206247</v>
       </c>
       <c r="AA337" s="0">
         <v>0.07973014521909412</v>
       </c>
       <c r="AB337" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC337" s="0">
         <v>0</v>
       </c>
       <c r="AD337" s="0">
-        <v>0.00084732980414326572</v>
+        <v>0.00084732980414326583</v>
       </c>
     </row>
     <row r="338">
@@ -31441,10 +32521,10 @@
         <v>0</v>
       </c>
       <c r="Y338" s="0">
-        <v>1.5422485882788412e-35</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z338" s="0">
-        <v>0.24403455466660315</v>
+        <v>0.061008638666650787</v>
       </c>
       <c r="AA338" s="0">
         <v>0.079468828309649964</v>
@@ -31453,7 +32533,7 @@
         <v>0</v>
       </c>
       <c r="AC338" s="0">
-        <v>0</v>
+        <v>9.6296497219361793e-35</v>
       </c>
       <c r="AD338" s="0">
         <v>0.00041470172021953891</v>
@@ -31533,22 +32613,22 @@
         <v>0</v>
       </c>
       <c r="Y339" s="0">
-        <v>6.4699209069258704e-35</v>
+        <v>1.504632769052528e-36</v>
       </c>
       <c r="Z339" s="0">
-        <v>0.25144140318756508</v>
+        <v>0.062860350796891271</v>
       </c>
       <c r="AA339" s="0">
         <v>0.079341251312381136</v>
       </c>
       <c r="AB339" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>3.009265538105056e-36</v>
       </c>
       <c r="AC339" s="0">
         <v>0.00020145740730137656</v>
       </c>
       <c r="AD339" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>3.009265538105056e-36</v>
       </c>
     </row>
     <row r="340">
@@ -31625,22 +32705,22 @@
         <v>0</v>
       </c>
       <c r="Y340" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="Z340" s="0">
-        <v>0.25885578808716897</v>
+        <v>0.064713947021792242</v>
       </c>
       <c r="AA340" s="0">
         <v>0.079416957117250858</v>
       </c>
       <c r="AB340" s="0">
-        <v>0</v>
+        <v>7.6510576306321049e-34</v>
       </c>
       <c r="AC340" s="0">
         <v>0.00088225596855040858</v>
       </c>
       <c r="AD340" s="0">
-        <v>0</v>
+        <v>1.9259299443872359e-34</v>
       </c>
     </row>
     <row r="341">
@@ -31720,13 +32800,13 @@
         <v>0</v>
       </c>
       <c r="Z341" s="0">
-        <v>0.26669749225340122</v>
+        <v>0.066674373063350306</v>
       </c>
       <c r="AA341" s="0">
         <v>0.079683379366196544</v>
       </c>
       <c r="AB341" s="0">
-        <v>3.2291300014828567e-33</v>
+        <v>2.256949153578792e-36</v>
       </c>
       <c r="AC341" s="0">
         <v>0.0015999714292897628</v>
@@ -31809,22 +32889,22 @@
         <v>0</v>
       </c>
       <c r="Y342" s="0">
-        <v>0</v>
+        <v>1.5032820541604848e-37</v>
       </c>
       <c r="Z342" s="0">
-        <v>0.27599143427717759</v>
+        <v>0.068997858569294399</v>
       </c>
       <c r="AA342" s="0">
         <v>0.080269982277010057</v>
       </c>
       <c r="AB342" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="AC342" s="0">
         <v>0.0024677015328629795</v>
       </c>
       <c r="AD342" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -31901,16 +32981,16 @@
         <v>0</v>
       </c>
       <c r="Y343" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z343" s="0">
-        <v>0.28574101937855712</v>
+        <v>0.071435254844639279</v>
       </c>
       <c r="AA343" s="0">
         <v>0.080977710870626121</v>
       </c>
       <c r="AB343" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC343" s="0">
         <v>0.0033786777232608606</v>
@@ -31993,10 +33073,10 @@
         <v>0</v>
       </c>
       <c r="Y344" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="Z344" s="0">
-        <v>0.29687500328622596</v>
+        <v>0.07421875082155649</v>
       </c>
       <c r="AA344" s="0">
         <v>0.082061432038306681</v>
@@ -32085,22 +33165,22 @@
         <v>0</v>
       </c>
       <c r="Y345" s="0">
-        <v>3.3400263356565337e-21</v>
+        <v>0</v>
       </c>
       <c r="Z345" s="0">
-        <v>0.3078277628327668</v>
+        <v>0.076956940708191715</v>
       </c>
       <c r="AA345" s="0">
-        <v>0.083181817702154909</v>
+        <v>0.083181817702154923</v>
       </c>
       <c r="AB345" s="0">
-        <v>0</v>
+        <v>9.4039548065783001e-38</v>
       </c>
       <c r="AC345" s="0">
-        <v>0.0054438608597511757</v>
+        <v>0.0054438608597511748</v>
       </c>
       <c r="AD345" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
     </row>
     <row r="346">
@@ -32177,16 +33257,16 @@
         <v>0</v>
       </c>
       <c r="Y346" s="0">
-        <v>7.6165897566973022e-35</v>
+        <v>0</v>
       </c>
       <c r="Z346" s="0">
-        <v>0.32068160615504177</v>
+        <v>0.080170401538760441</v>
       </c>
       <c r="AA346" s="0">
         <v>0.084741068082521923</v>
       </c>
       <c r="AB346" s="0">
-        <v>0</v>
+        <v>2.311115933264683e-33</v>
       </c>
       <c r="AC346" s="0">
         <v>0.0066521082653421149</v>
@@ -32272,7 +33352,7 @@
         <v>0</v>
       </c>
       <c r="Z347" s="0">
-        <v>0.33456711763361369</v>
+        <v>0.083641779408403422</v>
       </c>
       <c r="AA347" s="0">
         <v>0.086556130895192429</v>
@@ -32361,16 +33441,16 @@
         <v>0</v>
       </c>
       <c r="Y348" s="0">
-        <v>1.88079096131566e-35</v>
+        <v>0</v>
       </c>
       <c r="Z348" s="0">
-        <v>0.34980579652290422</v>
+        <v>0.087451449130726056</v>
       </c>
       <c r="AA348" s="0">
         <v>0.088880366450452525</v>
       </c>
       <c r="AB348" s="0">
-        <v>2.1817175151261656e-35</v>
+        <v>0</v>
       </c>
       <c r="AC348" s="0">
         <v>0.0093916190875624403</v>
@@ -32456,7 +33536,7 @@
         <v>0</v>
       </c>
       <c r="Z349" s="0">
-        <v>0.36331080615365979</v>
+        <v>0.090827701538414948</v>
       </c>
       <c r="AA349" s="0">
         <v>0.090913952075915627</v>
@@ -32545,22 +33625,22 @@
         <v>0</v>
       </c>
       <c r="Y350" s="0">
-        <v>0</v>
+        <v>6.1919400028434159e-33</v>
       </c>
       <c r="Z350" s="0">
-        <v>0.37924924769529911</v>
+        <v>0.094812311923824777</v>
       </c>
       <c r="AA350" s="0">
         <v>0.093583655972872784</v>
       </c>
       <c r="AB350" s="0">
-        <v>2.8588022611998032e-35</v>
+        <v>-7.7037197775489434e-34</v>
       </c>
       <c r="AC350" s="0">
         <v>0.012120190200632331</v>
       </c>
       <c r="AD350" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
     </row>
     <row r="351">
@@ -32637,16 +33717,16 @@
         <v>0</v>
       </c>
       <c r="Y351" s="0">
-        <v>9.2083525466014714e-34</v>
+        <v>0</v>
       </c>
       <c r="Z351" s="0">
-        <v>0.39693568205355473</v>
+        <v>0.099233920513388682</v>
       </c>
       <c r="AA351" s="0">
         <v>0.096689078928222094</v>
       </c>
       <c r="AB351" s="0">
-        <v>1.3510473791514912e-32</v>
+        <v>0</v>
       </c>
       <c r="AC351" s="0">
         <v>0.013780073297810395</v>
@@ -32729,16 +33809,16 @@
         <v>0</v>
       </c>
       <c r="Y352" s="0">
-        <v>0</v>
+        <v>1.8589737861643984e-33</v>
       </c>
       <c r="Z352" s="0">
-        <v>0.41285949801947014</v>
+        <v>0.10321487450486753</v>
       </c>
       <c r="AA352" s="0">
         <v>0.099657592424302152</v>
       </c>
       <c r="AB352" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC352" s="0">
         <v>0.015231283206194129</v>
@@ -32821,16 +33901,16 @@
         <v>0</v>
       </c>
       <c r="Y353" s="0">
-        <v>3.7991977418576332e-35</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="Z353" s="0">
-        <v>0.42725791923160072</v>
+        <v>0.10681447980790018</v>
       </c>
       <c r="AA353" s="0">
         <v>0.1023528399024098</v>
       </c>
       <c r="AB353" s="0">
-        <v>6.8836949184153156e-35</v>
+        <v>7.5231638452626401e-37</v>
       </c>
       <c r="AC353" s="0">
         <v>0.016530601857756167</v>
@@ -32916,7 +33996,7 @@
         <v>0</v>
       </c>
       <c r="Z354" s="0">
-        <v>0.44768902914396524</v>
+        <v>0.11192225728599131</v>
       </c>
       <c r="AA354" s="0">
         <v>0.1063801330569227</v>
@@ -32928,7 +34008,7 @@
         <v>0.018438479439953786</v>
       </c>
       <c r="AD354" s="0">
-        <v>1.9259299443872359e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -33005,16 +34085,16 @@
         <v>0</v>
       </c>
       <c r="Y355" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z355" s="0">
-        <v>0.46855598691688266</v>
+        <v>0.11713899672922067</v>
       </c>
       <c r="AA355" s="0">
-        <v>0.11079605756200607</v>
+        <v>0.11079605756200608</v>
       </c>
       <c r="AB355" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="AC355" s="0">
         <v>0.020358178694560549</v>
@@ -33097,22 +34177,22 @@
         <v>0</v>
       </c>
       <c r="Y356" s="0">
-        <v>3.0299542386795283e-33</v>
+        <v>0</v>
       </c>
       <c r="Z356" s="0">
-        <v>0.48641319918409293</v>
+        <v>0.12160329979602323</v>
       </c>
       <c r="AA356" s="0">
         <v>0.11462315368645824</v>
       </c>
       <c r="AB356" s="0">
-        <v>1.3866695599588098e-32</v>
+        <v>0</v>
       </c>
       <c r="AC356" s="0">
         <v>0.021975439167433598</v>
       </c>
       <c r="AD356" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -33189,16 +34269,16 @@
         <v>0</v>
       </c>
       <c r="Y357" s="0">
-        <v>0</v>
+        <v>1.5407439555097887e-33</v>
       </c>
       <c r="Z357" s="0">
-        <v>0.50682263378137893</v>
+        <v>0.12670565844534473</v>
       </c>
       <c r="AA357" s="0">
         <v>0.1191719436684109</v>
       </c>
       <c r="AB357" s="0">
-        <v>0</v>
+        <v>7.7037197775489434e-34</v>
       </c>
       <c r="AC357" s="0">
         <v>0.023835262758182034</v>
@@ -33284,7 +34364,7 @@
         <v>0</v>
       </c>
       <c r="Z358" s="0">
-        <v>0.52853907061737693</v>
+        <v>0.13213476765434423</v>
       </c>
       <c r="AA358" s="0">
         <v>0.12416642555237729</v>
@@ -33296,7 +34376,7 @@
         <v>0.025813600540695224</v>
       </c>
       <c r="AD358" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -33373,10 +34453,10 @@
         <v>0</v>
       </c>
       <c r="Y359" s="0">
-        <v>0</v>
+        <v>2.256949153578792e-36</v>
       </c>
       <c r="Z359" s="0">
-        <v>0.55020546411130344</v>
+        <v>0.13755136602782586</v>
       </c>
       <c r="AA359" s="0">
         <v>0.12940517092881482</v>
@@ -33388,7 +34468,7 @@
         <v>0.027760210967856594</v>
       </c>
       <c r="AD359" s="0">
-        <v>0</v>
+        <v>7.5231638452626401e-37</v>
       </c>
     </row>
     <row r="360">
@@ -33468,7 +34548,7 @@
         <v>0</v>
       </c>
       <c r="Z360" s="0">
-        <v>0.57284751908154752</v>
+        <v>0.14321187977038688</v>
       </c>
       <c r="AA360" s="0">
         <v>0.13486614195629346</v>
@@ -33480,7 +34560,7 @@
         <v>0.029813644936648717</v>
       </c>
       <c r="AD360" s="0">
-        <v>0</v>
+        <v>3.8518598887744717e-34</v>
       </c>
     </row>
     <row r="361">
@@ -33557,16 +34637,16 @@
         <v>0</v>
       </c>
       <c r="Y361" s="0">
-        <v>0</v>
+        <v>3.0814879110195774e-33</v>
       </c>
       <c r="Z361" s="0">
-        <v>0.59356211341658749</v>
+        <v>0.14839052835414687</v>
       </c>
       <c r="AA361" s="0">
         <v>0.14000470540423968</v>
       </c>
       <c r="AB361" s="0">
-        <v>0</v>
+        <v>4.622231866529366e-33</v>
       </c>
       <c r="AC361" s="0">
         <v>0.031667710047952081</v>
@@ -33649,13 +34729,13 @@
         <v>0</v>
       </c>
       <c r="Y362" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>7.5284931467769291e-21</v>
       </c>
       <c r="Z362" s="0">
-        <v>0.61696954018233352</v>
+        <v>0.15424238504558341</v>
       </c>
       <c r="AA362" s="0">
-        <v>0.14602317026617817</v>
+        <v>0.14602317026617814</v>
       </c>
       <c r="AB362" s="0">
         <v>0</v>

--- a/results_w_Activation.xlsx
+++ b/results_w_Activation.xlsx
@@ -13,7 +13,547 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="630">
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
   <si>
     <t>theta_h</t>
   </si>
@@ -1383,7 +1923,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1392,13 +1932,25 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,7 +1987,7 @@
     <col min="22" max="22" width="12.42578125" customWidth="true"/>
     <col min="23" max="23" width="6" customWidth="true"/>
     <col min="24" max="24" width="5.5703125" customWidth="true"/>
-    <col min="25" max="25" width="15.5703125" customWidth="true"/>
+    <col min="25" max="25" width="16.28515625" customWidth="true"/>
     <col min="26" max="26" width="13.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="16.28515625" customWidth="true"/>
@@ -1445,94 +1997,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>421</v>
+        <v>601</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>422</v>
+        <v>602</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>423</v>
+        <v>603</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>424</v>
+        <v>604</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>425</v>
+        <v>605</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>426</v>
+        <v>606</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>427</v>
+        <v>607</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>428</v>
+        <v>608</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>429</v>
+        <v>609</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>431</v>
+        <v>611</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>432</v>
+        <v>612</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>433</v>
+        <v>613</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>434</v>
+        <v>614</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>435</v>
+        <v>615</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>436</v>
+        <v>616</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>437</v>
+        <v>617</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>438</v>
+        <v>618</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>439</v>
+        <v>619</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>441</v>
+        <v>621</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>442</v>
+        <v>622</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>443</v>
+        <v>623</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>444</v>
+        <v>624</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>445</v>
+        <v>625</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>446</v>
+        <v>626</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>447</v>
+        <v>627</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>448</v>
+        <v>628</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>449</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2">
@@ -1609,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="0">
-        <v>7.5284931467769291e-21</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="0">
         <v>0.15424238504558341</v>
@@ -1701,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>2.4799762952504313e-33</v>
       </c>
       <c r="Z3" s="0">
         <v>0.16371907470858688</v>
@@ -1710,13 +2262,13 @@
         <v>0.15617836948090058</v>
       </c>
       <c r="AB3" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="0">
         <v>0.037271306005793266</v>
       </c>
       <c r="AD3" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>1.9907395043458432e-34</v>
       </c>
     </row>
     <row r="4">
@@ -1793,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="0">
-        <v>1.439538593881393e-32</v>
+        <v>1.0981383601823812e-33</v>
       </c>
       <c r="Z4" s="0">
         <v>0.17018310242946844</v>
@@ -1802,13 +2354,13 @@
         <v>0.16315776310238694</v>
       </c>
       <c r="AB4" s="0">
-        <v>2.6425113006485023e-34</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="0">
         <v>0.039593730042863005</v>
       </c>
       <c r="AD4" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1885,22 +2437,22 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>9.2444637330587321e-33</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.17649415766631413</v>
+        <v>0.17649415766631416</v>
       </c>
       <c r="AA5" s="0">
         <v>0.17037893186214312</v>
       </c>
       <c r="AB5" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="0">
         <v>0.04181464149226953</v>
       </c>
       <c r="AD5" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1977,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.18220829161810764</v>
+        <v>0.18220829161810767</v>
       </c>
       <c r="AA6" s="0">
         <v>0.17667340593554492</v>
       </c>
       <c r="AB6" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="0">
         <v>0.043856118913576408</v>
@@ -2078,7 +2630,7 @@
         <v>0.18337009566678952</v>
       </c>
       <c r="AB7" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>1.9740898242091028e-33</v>
       </c>
       <c r="AC7" s="0">
         <v>0.045807590664116167</v>
@@ -2161,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="0">
         <v>0.19357455168570029</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.19003955994160704</v>
+        <v>0.19003955994160707</v>
       </c>
       <c r="AB8" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="0">
         <v>0.047827680687510012</v>
@@ -2253,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>0</v>
+        <v>6.0151161576914611e-34</v>
       </c>
       <c r="Z9" s="0">
         <v>0.20035740892793527</v>
@@ -2262,13 +2814,13 @@
         <v>0.19837581205924923</v>
       </c>
       <c r="AB9" s="0">
-        <v>0</v>
+        <v>1.9165259895806576e-34</v>
       </c>
       <c r="AC9" s="0">
         <v>0.050198909770739722</v>
       </c>
       <c r="AD9" s="0">
-        <v>0</v>
+        <v>-6.0646520765882994e-34</v>
       </c>
     </row>
     <row r="10">
@@ -2345,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="0">
-        <v>9.2444637330587321e-33</v>
+        <v>5.0670389288805196e-33</v>
       </c>
       <c r="Z10" s="0">
         <v>0.20706328218488101</v>
@@ -2437,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="0">
-        <v>0</v>
+        <v>7.185910610559878e-34</v>
       </c>
       <c r="Z11" s="0">
         <v>0.21520145884043373</v>
@@ -2452,7 +3004,7 @@
         <v>0.055477693420510295</v>
       </c>
       <c r="AD11" s="0">
-        <v>0</v>
+        <v>5.9638901862995938e-34</v>
       </c>
     </row>
     <row r="12">
@@ -2529,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="0">
         <v>0.22258977436046623</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.22580792276898287</v>
+        <v>0.2258079227689829</v>
       </c>
       <c r="AB12" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="0">
         <v>0.058111241757487407</v>
@@ -2630,13 +3182,13 @@
         <v>0.23429324649820826</v>
       </c>
       <c r="AB13" s="0">
-        <v>5.64237288394698e-37</v>
+        <v>5.3433836738841261e-35</v>
       </c>
       <c r="AC13" s="0">
         <v>0.060443342583533892</v>
       </c>
       <c r="AD13" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2713,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>2.7534779673661263e-33</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="0">
         <v>0.23638122074962062</v>
@@ -2808,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.24354553405469842</v>
+        <v>0.24354553405469839</v>
       </c>
       <c r="AA15" s="0">
-        <v>0.25295309988946996</v>
+        <v>0.2529530998894699</v>
       </c>
       <c r="AB15" s="0">
         <v>0</v>
@@ -2989,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="0">
         <v>0.25826061650160403</v>
@@ -2998,7 +3550,7 @@
         <v>0.27257630287072365</v>
       </c>
       <c r="AB17" s="0">
-        <v>1.128474576789396e-36</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="0">
         <v>0.070723135726386679</v>
@@ -3081,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="0">
-        <v>7.5284931467769833e-21</v>
+        <v>2.5594934565605316e-21</v>
       </c>
       <c r="Z18" s="0">
         <v>0.26643459393660524</v>
@@ -3173,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="0">
-        <v>0</v>
+        <v>1.0919539353737831e-37</v>
       </c>
       <c r="Z19" s="0">
         <v>0.27461821216139048</v>
@@ -3188,7 +3740,7 @@
         <v>0.07652740186590648</v>
       </c>
       <c r="AD19" s="0">
-        <v>0</v>
+        <v>6.2154698031371536e-39</v>
       </c>
     </row>
     <row r="20">
@@ -3274,13 +3826,13 @@
         <v>0.3067548035355141</v>
       </c>
       <c r="AB20" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="0">
         <v>0.079434765472198493</v>
       </c>
       <c r="AD20" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3366,7 +3918,7 @@
         <v>0.31872713157110844</v>
       </c>
       <c r="AB21" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="0">
         <v>0.082503073239728594</v>
@@ -3458,7 +4010,7 @@
         <v>0.32950578519869611</v>
       </c>
       <c r="AB22" s="0">
-        <v>1.7235568369496708e-33</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="0">
         <v>0.085183597490373811</v>
@@ -3550,7 +4102,7 @@
         <v>0.34139186189249332</v>
       </c>
       <c r="AB23" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="0">
         <v>0.088326397696699588</v>
@@ -3642,13 +4194,13 @@
         <v>0.35429988559491282</v>
       </c>
       <c r="AB24" s="0">
-        <v>0</v>
+        <v>1.2717938291200325e-33</v>
       </c>
       <c r="AC24" s="0">
         <v>0.091523408653007163</v>
       </c>
       <c r="AD24" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>8.3582634759925255e-34</v>
       </c>
     </row>
     <row r="25">
@@ -3725,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="0">
-        <v>5.0254734486354436e-34</v>
+        <v>4.9599525905008625e-33</v>
       </c>
       <c r="Z25" s="0">
         <v>0.32516399223157338</v>
@@ -3740,7 +4292,7 @@
         <v>0.094704082783915386</v>
       </c>
       <c r="AD25" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>1.0271841180135721e-33</v>
       </c>
     </row>
     <row r="26">
@@ -3820,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="0">
-        <v>0.33394101670878218</v>
+        <v>0.33394101670878223</v>
       </c>
       <c r="AA26" s="0">
         <v>0.38079489756903029</v>
@@ -3915,7 +4467,7 @@
         <v>0.34192878809976945</v>
       </c>
       <c r="AA27" s="0">
-        <v>0.39285500337271828</v>
+        <v>0.39285500337271834</v>
       </c>
       <c r="AB27" s="0">
         <v>1.88079096131566e-37</v>
@@ -4010,13 +4562,13 @@
         <v>0.40651018730084548</v>
       </c>
       <c r="AB28" s="0">
-        <v>5.64237288394698e-37</v>
+        <v>1.2717938291200325e-33</v>
       </c>
       <c r="AC28" s="0">
         <v>0.10394925502879104</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>8.3582634759925255e-34</v>
       </c>
     </row>
     <row r="29">
@@ -4108,7 +4660,7 @@
         <v>0.10704270070425888</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>2.5898714001056739e-37</v>
       </c>
     </row>
     <row r="30">
@@ -4185,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="0">
-        <v>1.2314886587682692e-33</v>
+        <v>-1.7829898313272457e-34</v>
       </c>
       <c r="Z30" s="0">
         <v>0.36886100855205151</v>
@@ -4194,13 +4746,13 @@
         <v>0.43408144379250824</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>7.5795875741021099e-34</v>
       </c>
       <c r="AC30" s="0">
         <v>0.11063694877007707</v>
       </c>
       <c r="AD30" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>6.8975689837186096e-34</v>
       </c>
     </row>
     <row r="31">
@@ -4277,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="0">
-        <v>1.8488927466117464e-32</v>
+        <v>2.1962767203647625e-33</v>
       </c>
       <c r="Z31" s="0">
         <v>0.37733799977269405</v>
@@ -4286,7 +4838,7 @@
         <v>0.44750447614934047</v>
       </c>
       <c r="AB31" s="0">
-        <v>0</v>
+        <v>1.8096940818995449e-33</v>
       </c>
       <c r="AC31" s="0">
         <v>0.11377333595279847</v>
@@ -4369,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="0">
-        <v>4.3678157414951325e-37</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="0">
         <v>0.38493513258466977</v>
@@ -4378,7 +4930,7 @@
         <v>0.45966564651019159</v>
       </c>
       <c r="AB32" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="0">
         <v>0.11660263133333855</v>
@@ -4461,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="0">
         <v>0.39325291247243038</v>
@@ -4470,13 +5022,13 @@
         <v>0.47345376312664278</v>
       </c>
       <c r="AB33" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="0">
         <v>0.11967959423825532</v>
       </c>
       <c r="AD33" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4553,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="0">
         <v>0.40349617047293934</v>
@@ -4645,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0</v>
+        <v>2.208913615867626e-33</v>
       </c>
       <c r="Z35" s="0">
         <v>0.41271309983701177</v>
@@ -4654,13 +5206,13 @@
         <v>0.50487245114004864</v>
       </c>
       <c r="AB35" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>4.3922111319604608e-33</v>
       </c>
       <c r="AC35" s="0">
         <v>0.12703857195930116</v>
       </c>
       <c r="AD35" s="0">
-        <v>0</v>
+        <v>9.839233019890712e-34</v>
       </c>
     </row>
     <row r="36">
@@ -4737,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>2.3132224191413566e-32</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="0">
         <v>0.4206940214016977</v>
@@ -4746,13 +5298,13 @@
         <v>0.51860889590909354</v>
       </c>
       <c r="AB36" s="0">
-        <v>6.0802210197412657e-33</v>
+        <v>2.3584750934950596e-33</v>
       </c>
       <c r="AC36" s="0">
         <v>0.13005570499636165</v>
       </c>
       <c r="AD36" s="0">
-        <v>0</v>
+        <v>4.567218730910883e-33</v>
       </c>
     </row>
     <row r="37">
@@ -4829,16 +5381,16 @@
         <v>0</v>
       </c>
       <c r="Y37" s="0">
-        <v>0</v>
+        <v>1.1023493368385415e-32</v>
       </c>
       <c r="Z37" s="0">
-        <v>0.42909937485853961</v>
+        <v>0.42909937485853955</v>
       </c>
       <c r="AA37" s="0">
-        <v>0.53235617239071653</v>
+        <v>0.53235617239071642</v>
       </c>
       <c r="AB37" s="0">
-        <v>0</v>
+        <v>1.1758705090145506e-33</v>
       </c>
       <c r="AC37" s="0">
         <v>0.13332547145672757</v>
@@ -4924,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="Z38" s="0">
-        <v>0.43856573002547666</v>
+        <v>0.43856573002547661</v>
       </c>
       <c r="AA38" s="0">
-        <v>0.54843650674508904</v>
+        <v>0.54843650674508893</v>
       </c>
       <c r="AB38" s="0">
-        <v>0</v>
+        <v>3.365487346178242e-33</v>
       </c>
       <c r="AC38" s="0">
         <v>0.13697213205028869</v>
@@ -5013,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>0</v>
+        <v>3.6101782502454094e-33</v>
       </c>
       <c r="Z39" s="0">
         <v>0.44582235317850599</v>
@@ -5105,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0</v>
+        <v>1.7259423902518014e-33</v>
       </c>
       <c r="Z40" s="0">
         <v>0.45365571349412637</v>
@@ -5114,13 +5666,13 @@
         <v>0.57470180986608488</v>
       </c>
       <c r="AB40" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>3.9086597758062046e-33</v>
       </c>
       <c r="AC40" s="0">
         <v>0.14292424058824368</v>
       </c>
       <c r="AD40" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>1.6670016671301479e-33</v>
       </c>
     </row>
     <row r="41">
@@ -5212,7 +5764,7 @@
         <v>0.14644669698195845</v>
       </c>
       <c r="AD41" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>2.4888676087142846e-33</v>
       </c>
     </row>
     <row r="42">
@@ -5289,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>3.2024603856514006e-32</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="0">
         <v>0.47061327383811202</v>
@@ -5298,13 +5850,13 @@
         <v>0.60474672273393182</v>
       </c>
       <c r="AB42" s="0">
-        <v>2.926510735807167e-34</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="0">
         <v>0.14966730808494869</v>
       </c>
       <c r="AD42" s="0">
-        <v>0</v>
+        <v>2.5647208592429954e-33</v>
       </c>
     </row>
     <row r="43">
@@ -5381,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="0">
         <v>0.47811921607570351</v>
@@ -5390,13 +5942,13 @@
         <v>0.61776529002358327</v>
       </c>
       <c r="AB43" s="0">
-        <v>9.2444637330587321e-33</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="0">
         <v>0.15276934278166013</v>
       </c>
       <c r="AD43" s="0">
-        <v>0</v>
+        <v>1.795449590962518e-33</v>
       </c>
     </row>
     <row r="44">
@@ -5482,7 +6034,7 @@
         <v>0.63164542092822518</v>
       </c>
       <c r="AB44" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="0">
         <v>0.15579597013614604</v>
@@ -5565,13 +6117,13 @@
         <v>0</v>
       </c>
       <c r="Y45" s="0">
-        <v>0</v>
+        <v>9.919905181001725e-33</v>
       </c>
       <c r="Z45" s="0">
         <v>0.49300701392905744</v>
       </c>
       <c r="AA45" s="0">
-        <v>0.64528097595074685</v>
+        <v>0.64528097595074696</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
@@ -5580,7 +6132,7 @@
         <v>0.15890319942894784</v>
       </c>
       <c r="AD45" s="0">
-        <v>0</v>
+        <v>5.3062303626624599e-33</v>
       </c>
     </row>
     <row r="46">
@@ -5657,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="0">
-        <v>3.2721034911786605e-21</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="0">
         <v>0.50039618267172337</v>
@@ -5666,10 +6218,10 @@
         <v>0.65895155103768188</v>
       </c>
       <c r="AB46" s="0">
-        <v>1.385654325606525e-21</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="0">
-        <v>0.16201569588086842</v>
+        <v>0.16201569588086845</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -5749,13 +6301,13 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>6.0335774039006373e-33</v>
       </c>
       <c r="Z47" s="0">
         <v>0.50881921005244557</v>
       </c>
       <c r="AA47" s="0">
-        <v>0.6750402484987198</v>
+        <v>0.67504024849871991</v>
       </c>
       <c r="AB47" s="0">
         <v>0</v>
@@ -5764,7 +6316,7 @@
         <v>0.16551039457533595</v>
       </c>
       <c r="AD47" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>4.6878983889731878e-33</v>
       </c>
     </row>
     <row r="48">
@@ -5841,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>4.9599525905008625e-33</v>
       </c>
       <c r="Z48" s="0">
         <v>0.5151163599504317</v>
@@ -5850,13 +6402,13 @@
         <v>0.68650428691316034</v>
       </c>
       <c r="AB48" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="0">
         <v>0.16832114012848651</v>
       </c>
       <c r="AD48" s="0">
-        <v>0</v>
+        <v>2.65311518133123e-33</v>
       </c>
     </row>
     <row r="49">
@@ -5939,7 +6491,7 @@
         <v>0.52128964688085278</v>
       </c>
       <c r="AA49" s="0">
-        <v>0.69829495484476511</v>
+        <v>0.69829495484476523</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -6025,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0">
-        <v>0</v>
+        <v>7.579963732294373e-33</v>
       </c>
       <c r="Z50" s="0">
         <v>0.5287506922550046</v>
@@ -6132,7 +6684,7 @@
         <v>0.17829279890392233</v>
       </c>
       <c r="AD51" s="0">
-        <v>0</v>
+        <v>7.0901803634662084e-33</v>
       </c>
     </row>
     <row r="52">
@@ -6209,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="0">
         <v>0.54410935479451372</v>
@@ -6218,13 +6770,13 @@
         <v>0.74141933107896796</v>
       </c>
       <c r="AB52" s="0">
-        <v>0</v>
+        <v>2.6105378543061361e-34</v>
       </c>
       <c r="AC52" s="0">
         <v>0.18124867947420403</v>
       </c>
       <c r="AD52" s="0">
-        <v>3.8518598887744717e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6301,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>0</v>
+        <v>2.1892406789714283e-32</v>
       </c>
       <c r="Z53" s="0">
         <v>0.54898081206698601</v>
@@ -6310,7 +6862,7 @@
         <v>0.75164639145090217</v>
       </c>
       <c r="AB53" s="0">
-        <v>0</v>
+        <v>5.2721885166784643e-34</v>
       </c>
       <c r="AC53" s="0">
         <v>0.18363897561135931</v>
@@ -6408,7 +6960,7 @@
         <v>0.18607238179518606</v>
       </c>
       <c r="AD54" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -6494,13 +7046,13 @@
         <v>0.77210825706271979</v>
       </c>
       <c r="AB55" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>3.76158192263132e-37</v>
       </c>
       <c r="AC55" s="0">
         <v>0.18874791281259296</v>
       </c>
       <c r="AD55" s="0">
-        <v>0</v>
+        <v>2.82118644197349e-37</v>
       </c>
     </row>
     <row r="56">
@@ -6577,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="0">
-        <v>0</v>
+        <v>9.7312750812640798e-33</v>
       </c>
       <c r="Z56" s="0">
         <v>0.56406165718509049</v>
@@ -6586,13 +7138,13 @@
         <v>0.78225768057550749</v>
       </c>
       <c r="AB56" s="0">
-        <v>0</v>
+        <v>8.9845384222049079e-33</v>
       </c>
       <c r="AC56" s="0">
         <v>0.19129421731354743</v>
       </c>
       <c r="AD56" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>3.5458321990718603e-34</v>
       </c>
     </row>
     <row r="57">
@@ -6669,16 +7221,16 @@
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>6.6602352801979826e-21</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="0">
         <v>0.56914437989878985</v>
       </c>
       <c r="AA57" s="0">
-        <v>0.79180767491132831</v>
+        <v>0.79180767491132842</v>
       </c>
       <c r="AB57" s="0">
-        <v>1.3856543256061105e-21</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="0">
         <v>0.19399676003165572</v>
@@ -6770,7 +7322,7 @@
         <v>0.80719153063841409</v>
       </c>
       <c r="AB58" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="0">
         <v>0.19752827094864664</v>
@@ -6945,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>4.310321493504777e-32</v>
+        <v>9.919905181001725e-33</v>
       </c>
       <c r="Z60" s="0">
         <v>0.58558698678514276</v>
@@ -6960,7 +7512,7 @@
         <v>0.20266920387249671</v>
       </c>
       <c r="AD60" s="0">
-        <v>7.7037197775489434e-33</v>
+        <v>5.3062303626624599e-33</v>
       </c>
     </row>
     <row r="61">
@@ -7037,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>2.4651903288156619e-32</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="0">
         <v>0.59182802610297147</v>
@@ -7046,13 +7598,13 @@
         <v>0.83879413928332247</v>
       </c>
       <c r="AB61" s="0">
-        <v>2.4651903288156619e-32</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="0">
         <v>0.20590443022863805</v>
       </c>
       <c r="AD61" s="0">
-        <v>0</v>
+        <v>7.3875305488889032e-33</v>
       </c>
     </row>
     <row r="62">
@@ -7129,16 +7681,16 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>0</v>
+        <v>3.0587967211732998e-21</v>
       </c>
       <c r="Z62" s="0">
-        <v>0.59643049847295404</v>
+        <v>0.59643049847295393</v>
       </c>
       <c r="AA62" s="0">
-        <v>0.84929039056521183</v>
+        <v>0.84929039056521172</v>
       </c>
       <c r="AB62" s="0">
-        <v>6.881814127454e-33</v>
+        <v>8.8535978945354145e-22</v>
       </c>
       <c r="AC62" s="0">
         <v>0.20854731705576307</v>
@@ -7221,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>0</v>
+        <v>1.1044004524845556e-33</v>
       </c>
       <c r="Z63" s="0">
         <v>0.59973074922468439</v>
@@ -7230,7 +7782,7 @@
         <v>0.85573670274432456</v>
       </c>
       <c r="AB63" s="0">
-        <v>0</v>
+        <v>7.3854899468943337e-33</v>
       </c>
       <c r="AC63" s="0">
         <v>0.21081360340053351</v>
@@ -7313,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>3.0065641083209697e-37</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="0">
         <v>0.60365231164944733</v>
@@ -7328,7 +7880,7 @@
         <v>0.2133003940252233</v>
       </c>
       <c r="AD64" s="0">
-        <v>0</v>
+        <v>3.6891948998436621e-37</v>
       </c>
     </row>
     <row r="65">
@@ -7405,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>9.919905181001725e-33</v>
       </c>
       <c r="Z65" s="0">
         <v>0.60761969253375869</v>
@@ -7420,7 +7972,7 @@
         <v>0.21587884504718108</v>
       </c>
       <c r="AD65" s="0">
-        <v>0</v>
+        <v>5.3062303626624599e-33</v>
       </c>
     </row>
     <row r="66">
@@ -7497,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0</v>
+        <v>1.8705012062460775e-32</v>
       </c>
       <c r="Z66" s="0">
         <v>0.61122122555604164</v>
@@ -7506,7 +8058,7 @@
         <v>0.88148245119316471</v>
       </c>
       <c r="AB66" s="0">
-        <v>0</v>
+        <v>8.949367631228305e-33</v>
       </c>
       <c r="AC66" s="0">
         <v>0.21832794651783502</v>
@@ -7589,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>3.8894757080007849e-34</v>
       </c>
       <c r="Z67" s="0">
         <v>0.61347494418041026</v>
@@ -7604,7 +8156,7 @@
         <v>0.22023836506914826</v>
       </c>
       <c r="AD67" s="0">
-        <v>0</v>
+        <v>3.9249129228416313e-33</v>
       </c>
     </row>
     <row r="68">
@@ -7681,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0</v>
+        <v>9.8459406824874802e-34</v>
       </c>
       <c r="Z68" s="0">
         <v>0.6155600182142501</v>
@@ -7690,7 +8242,7 @@
         <v>0.89262518719981876</v>
       </c>
       <c r="AB68" s="0">
-        <v>0</v>
+        <v>1.1877945912042019e-32</v>
       </c>
       <c r="AC68" s="0">
         <v>0.22223006883663599</v>
@@ -7773,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="0">
-        <v>0</v>
+        <v>4.392553440729525e-33</v>
       </c>
       <c r="Z69" s="0">
         <v>0.61866901291135001</v>
@@ -7782,13 +8334,13 @@
         <v>0.90164030775465775</v>
       </c>
       <c r="AB69" s="0">
-        <v>4.3342164034091569e-33</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="0">
-        <v>0.22454963520397708</v>
+        <v>0.22454963520397705</v>
       </c>
       <c r="AD69" s="0">
-        <v>0</v>
+        <v>3.6465110078306008e-33</v>
       </c>
     </row>
     <row r="70">
@@ -7865,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="0">
-        <v>0</v>
+        <v>1.5181744639740008e-32</v>
       </c>
       <c r="Z70" s="0">
         <v>0.62053496140302866</v>
@@ -7874,13 +8426,13 @@
         <v>0.90686039327178758</v>
       </c>
       <c r="AB70" s="0">
-        <v>0</v>
+        <v>3.166395810747526e-33</v>
       </c>
       <c r="AC70" s="0">
         <v>0.22648186302189702</v>
       </c>
       <c r="AD70" s="0">
-        <v>0</v>
+        <v>2.2532602276431262e-33</v>
       </c>
     </row>
     <row r="71">
@@ -7957,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="0">
-        <v>5.64237288394698e-37</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="0">
         <v>0.62112911729265685</v>
@@ -7966,13 +8518,13 @@
         <v>0.90881501646395046</v>
       </c>
       <c r="AB71" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="0">
         <v>0.22797817154894759</v>
       </c>
       <c r="AD71" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>4.0843256515930873e-33</v>
       </c>
     </row>
     <row r="72">
@@ -8049,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="0">
-        <v>2.4952077525582598e-32</v>
+        <v>1.4701014470027725e-32</v>
       </c>
       <c r="Z72" s="0">
         <v>0.62222375918568473</v>
@@ -8058,13 +8610,13 @@
         <v>0.91395831244850179</v>
       </c>
       <c r="AB72" s="0">
-        <v>0</v>
+        <v>2.963001340786876e-34</v>
       </c>
       <c r="AC72" s="0">
         <v>0.22961393532948718</v>
       </c>
       <c r="AD72" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>4.1370348182839587e-33</v>
       </c>
     </row>
     <row r="73">
@@ -8147,7 +8699,7 @@
         <v>0.62305032641248337</v>
       </c>
       <c r="AA73" s="0">
-        <v>0.91763669084566846</v>
+        <v>0.91763669084566857</v>
       </c>
       <c r="AB73" s="0">
         <v>0</v>
@@ -8156,7 +8708,7 @@
         <v>0.23122845031240885</v>
       </c>
       <c r="AD73" s="0">
-        <v>0</v>
+        <v>1.0318798190886582e-37</v>
       </c>
     </row>
     <row r="74">
@@ -8233,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="0">
-        <v>5.64237288394698e-37</v>
+        <v>0</v>
       </c>
       <c r="Z74" s="0">
         <v>0.62303991442096629</v>
@@ -8242,13 +8794,13 @@
         <v>0.91870144727054415</v>
       </c>
       <c r="AB74" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="0">
         <v>0.23258481853688864</v>
       </c>
       <c r="AD74" s="0">
-        <v>0</v>
+        <v>5.4640128405333858e-38</v>
       </c>
     </row>
     <row r="75">
@@ -8325,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="0">
-        <v>0</v>
+        <v>3.8894757080007849e-34</v>
       </c>
       <c r="Z75" s="0">
         <v>0.6232537068868701</v>
@@ -8334,13 +8886,13 @@
         <v>0.92146720911752478</v>
       </c>
       <c r="AB75" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="AC75" s="0">
         <v>0.23401627761040816</v>
       </c>
       <c r="AD75" s="0">
-        <v>0</v>
+        <v>3.9249129228416313e-33</v>
       </c>
     </row>
     <row r="76">
@@ -8426,7 +8978,7 @@
         <v>0.92356386349822905</v>
       </c>
       <c r="AB76" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>7.896359296836411e-33</v>
       </c>
       <c r="AC76" s="0">
         <v>0.23534008326446917</v>
@@ -8524,7 +9076,7 @@
         <v>0.23645357242424525</v>
       </c>
       <c r="AD77" s="0">
-        <v>0</v>
+        <v>1.0318798190886582e-37</v>
       </c>
     </row>
     <row r="78">
@@ -8601,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="0">
-        <v>7.4143672211879873e-35</v>
+        <v>1.4731998107154894e-32</v>
       </c>
       <c r="Z78" s="0">
         <v>0.62173143275271014</v>
@@ -8610,13 +9162,13 @@
         <v>0.92672695515523251</v>
       </c>
       <c r="AB78" s="0">
-        <v>0</v>
+        <v>-5.568269720071143e-33</v>
       </c>
       <c r="AC78" s="0">
         <v>0.2375835529697769</v>
       </c>
       <c r="AD78" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>2.4694728465103212e-33</v>
       </c>
     </row>
     <row r="79">
@@ -8702,7 +9254,7 @@
         <v>0.92800535148205088</v>
       </c>
       <c r="AB79" s="0">
-        <v>0</v>
+        <v>7.896359296836411e-33</v>
       </c>
       <c r="AC79" s="0">
         <v>0.23879441259264944</v>
@@ -8788,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="0">
-        <v>0.62033409187494903</v>
+        <v>0.62033409187494892</v>
       </c>
       <c r="AA80" s="0">
         <v>0.92939895771865833</v>
@@ -8877,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="Y81" s="0">
-        <v>0</v>
+        <v>4.392553440729525e-33</v>
       </c>
       <c r="Z81" s="0">
         <v>0.61948316227471789</v>
@@ -8886,13 +9438,13 @@
         <v>0.93150599974866</v>
       </c>
       <c r="AB81" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>3.6193881637990898e-33</v>
       </c>
       <c r="AC81" s="0">
         <v>0.24117815082794353</v>
       </c>
       <c r="AD81" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -8969,13 +9521,13 @@
         <v>0</v>
       </c>
       <c r="Y82" s="0">
-        <v>1.5780375966743017e-21</v>
+        <v>0</v>
       </c>
       <c r="Z82" s="0">
         <v>0.61844809792706901</v>
       </c>
       <c r="AA82" s="0">
-        <v>0.93346998217535104</v>
+        <v>0.93346998217535115</v>
       </c>
       <c r="AB82" s="0">
         <v>0</v>
@@ -8984,7 +9536,7 @@
         <v>0.24229723996167263</v>
       </c>
       <c r="AD82" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>4.2333444881192803e-37</v>
       </c>
     </row>
     <row r="83">
@@ -9076,7 +9628,7 @@
         <v>0.24344376745045193</v>
       </c>
       <c r="AD83" s="0">
-        <v>0</v>
+        <v>4.70197740328915e-38</v>
       </c>
     </row>
     <row r="84">
@@ -9153,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="0">
-        <v>4.3678157414951325e-37</v>
+        <v>4.392553440729525e-33</v>
       </c>
       <c r="Z84" s="0">
         <v>0.6150197101726117</v>
@@ -9162,7 +9714,7 @@
         <v>0.93211492094327919</v>
       </c>
       <c r="AB84" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>2.3690442948732054e-33</v>
       </c>
       <c r="AC84" s="0">
         <v>0.24415393743131844</v>
@@ -9254,13 +9806,13 @@
         <v>0.93230046859603755</v>
       </c>
       <c r="AB85" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>2.1671082017045784e-33</v>
       </c>
       <c r="AC85" s="0">
         <v>0.24504704160839694</v>
       </c>
       <c r="AD85" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -9337,22 +9889,22 @@
         <v>0</v>
       </c>
       <c r="Y86" s="0">
-        <v>2.4651903288156619e-32</v>
+        <v>9.919905181001725e-33</v>
       </c>
       <c r="Z86" s="0">
         <v>0.61105798141540224</v>
       </c>
       <c r="AA86" s="0">
-        <v>0.9326681738124607</v>
+        <v>0.93266817381246059</v>
       </c>
       <c r="AB86" s="0">
-        <v>1.8488927466117464e-32</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="0">
         <v>0.24579992822281588</v>
       </c>
       <c r="AD86" s="0">
-        <v>0</v>
+        <v>4.4517808561449683e-34</v>
       </c>
     </row>
     <row r="87">
@@ -9429,13 +9981,13 @@
         <v>0</v>
       </c>
       <c r="Y87" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="Z87" s="0">
-        <v>0.60886838746491712</v>
+        <v>0.60886838746491723</v>
       </c>
       <c r="AA87" s="0">
-        <v>0.93288752280333953</v>
+        <v>0.93288752280333964</v>
       </c>
       <c r="AB87" s="0">
         <v>0</v>
@@ -9444,7 +9996,7 @@
         <v>0.24656902197776034</v>
       </c>
       <c r="AD87" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -9530,13 +10082,13 @@
         <v>0.93061267346704346</v>
       </c>
       <c r="AB88" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>3.2236757076950413e-33</v>
       </c>
       <c r="AC88" s="0">
-        <v>0.24719859876104541</v>
+        <v>0.24719859876104544</v>
       </c>
       <c r="AD88" s="0">
-        <v>0</v>
+        <v>3.4932279927070658e-34</v>
       </c>
     </row>
     <row r="89">
@@ -9613,16 +10165,16 @@
         <v>0</v>
       </c>
       <c r="Y89" s="0">
-        <v>3.009265538105056e-36</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="0">
         <v>0.60371147224980504</v>
       </c>
       <c r="AA89" s="0">
-        <v>0.93084848763564976</v>
+        <v>0.93084848763564965</v>
       </c>
       <c r="AB89" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>2.5794256839585626e-21</v>
       </c>
       <c r="AC89" s="0">
         <v>0.2478976710698336</v>
@@ -9714,10 +10266,10 @@
         <v>0.92864311483804551</v>
       </c>
       <c r="AB90" s="0">
-        <v>0</v>
+        <v>7.3760859920877554e-33</v>
       </c>
       <c r="AC90" s="0">
-        <v>0.24852192574424006</v>
+        <v>0.24852192574424009</v>
       </c>
       <c r="AD90" s="0">
         <v>0</v>
@@ -9806,7 +10358,7 @@
         <v>0.92788785547722086</v>
       </c>
       <c r="AB91" s="0">
-        <v>4.3342164034091569e-33</v>
+        <v>7.896359296836411e-33</v>
       </c>
       <c r="AC91" s="0">
         <v>0.24908119781553217</v>
@@ -9898,13 +10450,13 @@
         <v>0.92700965982493233</v>
       </c>
       <c r="AB92" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC92" s="0">
         <v>0.24958123044172303</v>
       </c>
       <c r="AD92" s="0">
-        <v>0</v>
+        <v>1.1664695201210558e-37</v>
       </c>
     </row>
     <row r="93">
@@ -9981,22 +10533,22 @@
         <v>0</v>
       </c>
       <c r="Y93" s="0">
-        <v>0</v>
+        <v>8.4703294725430034e-21</v>
       </c>
       <c r="Z93" s="0">
         <v>0.59124517576024149</v>
       </c>
       <c r="AA93" s="0">
-        <v>0.92426102468569016</v>
+        <v>0.92426102468569027</v>
       </c>
       <c r="AB93" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="AC93" s="0">
         <v>0.24990917119603756</v>
       </c>
       <c r="AD93" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -10082,13 +10634,13 @@
         <v>0.92268514747670982</v>
       </c>
       <c r="AB94" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>2.5794256839585619e-21</v>
       </c>
       <c r="AC94" s="0">
-        <v>0.25029095385489813</v>
+        <v>0.25029095385489808</v>
       </c>
       <c r="AD94" s="0">
-        <v>8.4703294725430034e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -10174,13 +10726,13 @@
         <v>0.92141729350408053</v>
       </c>
       <c r="AB95" s="0">
-        <v>0</v>
+        <v>5.9583457654480109e-34</v>
       </c>
       <c r="AC95" s="0">
         <v>0.25048927468292476</v>
       </c>
       <c r="AD95" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -10257,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="0">
-        <v>2.4813839389925897e-32</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="0">
         <v>0.57969312831005337</v>
@@ -10266,7 +10818,7 @@
         <v>0.91737002183679095</v>
       </c>
       <c r="AB96" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="AC96" s="0">
         <v>0.25062358397995299</v>
@@ -10358,7 +10910,7 @@
         <v>0.9160476479411036</v>
       </c>
       <c r="AB97" s="0">
-        <v>0</v>
+        <v>7.896359296836411e-33</v>
       </c>
       <c r="AC97" s="0">
         <v>0.25070881124387689</v>
@@ -10450,13 +11002,13 @@
         <v>0.91228304854172315</v>
       </c>
       <c r="AB98" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>8.3386748060891102e-33</v>
       </c>
       <c r="AC98" s="0">
         <v>0.25068696114894068</v>
       </c>
       <c r="AD98" s="0">
-        <v>0</v>
+        <v>2.2569943461105312e-33</v>
       </c>
     </row>
     <row r="99">
@@ -10542,7 +11094,7 @@
         <v>0.9113898730124107</v>
       </c>
       <c r="AB99" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>5.9188491552603821e-33</v>
       </c>
       <c r="AC99" s="0">
         <v>0.25063217177906472</v>
@@ -10625,16 +11177,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="0">
-        <v>2.3498602270677856e-33</v>
+        <v>1.5297225204764789e-32</v>
       </c>
       <c r="Z100" s="0">
-        <v>0.56141503369318346</v>
+        <v>0.56141503369318357</v>
       </c>
       <c r="AA100" s="0">
-        <v>0.90851425611442294</v>
+        <v>0.90851425611442305</v>
       </c>
       <c r="AB100" s="0">
-        <v>0</v>
+        <v>9.0458522075437984e-33</v>
       </c>
       <c r="AC100" s="0">
         <v>0.25038392350279376</v>
@@ -10717,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="Y101" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="Z101" s="0">
         <v>0.55635030163406418</v>
@@ -10732,7 +11284,7 @@
         <v>0.25012474091365799</v>
       </c>
       <c r="AD101" s="0">
-        <v>0</v>
+        <v>4.4079245083913409e-34</v>
       </c>
     </row>
     <row r="102">
@@ -10815,13 +11367,13 @@
         <v>0.55113639275537463</v>
       </c>
       <c r="AA102" s="0">
-        <v>0.90104088799020765</v>
+        <v>0.90104088799020776</v>
       </c>
       <c r="AB102" s="0">
         <v>0</v>
       </c>
       <c r="AC102" s="0">
-        <v>0.24983356806939561</v>
+        <v>0.24983356806939563</v>
       </c>
       <c r="AD102" s="0">
         <v>0</v>
@@ -10901,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="Y103" s="0">
-        <v>0</v>
+        <v>4.392553440729525e-33</v>
       </c>
       <c r="Z103" s="0">
         <v>0.54558322751000699</v>
@@ -10910,7 +11462,7 @@
         <v>0.89691534428511943</v>
       </c>
       <c r="AB103" s="0">
-        <v>0</v>
+        <v>9.7823699479950109e-33</v>
       </c>
       <c r="AC103" s="0">
         <v>0.24937008536908231</v>
@@ -10993,22 +11545,22 @@
         <v>0</v>
       </c>
       <c r="Y104" s="0">
-        <v>1.5780375966743711e-21</v>
+        <v>0</v>
       </c>
       <c r="Z104" s="0">
         <v>0.53986157742631957</v>
       </c>
       <c r="AA104" s="0">
-        <v>0.89420804296315293</v>
+        <v>0.89420804296315282</v>
       </c>
       <c r="AB104" s="0">
-        <v>1.3856543256056824e-21</v>
+        <v>0</v>
       </c>
       <c r="AC104" s="0">
-        <v>0.24878217960057131</v>
+        <v>0.24878217960057128</v>
       </c>
       <c r="AD104" s="0">
-        <v>0</v>
+        <v>2.262238501632638e-37</v>
       </c>
     </row>
     <row r="105">
@@ -11085,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>0</v>
       </c>
       <c r="Z105" s="0">
         <v>0.5341463561078128</v>
@@ -11094,7 +11646,7 @@
         <v>0.88987719562734202</v>
       </c>
       <c r="AB105" s="0">
-        <v>0</v>
+        <v>7.896359296836411e-33</v>
       </c>
       <c r="AC105" s="0">
         <v>0.24824852368771302</v>
@@ -11177,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="0">
-        <v>0</v>
+        <v>7.058827019830284e-33</v>
       </c>
       <c r="Z106" s="0">
         <v>0.52821158824143655</v>
@@ -11186,13 +11738,13 @@
         <v>0.88371647240928264</v>
       </c>
       <c r="AB106" s="0">
-        <v>7.3238000033631801e-34</v>
+        <v>0</v>
       </c>
       <c r="AC106" s="0">
-        <v>0.24765083138002078</v>
+        <v>0.24765083138002075</v>
       </c>
       <c r="AD106" s="0">
-        <v>0</v>
+        <v>2.1482551167920013e-34</v>
       </c>
     </row>
     <row r="107">
@@ -11275,13 +11827,13 @@
         <v>0.52165169642416187</v>
       </c>
       <c r="AA107" s="0">
-        <v>0.87974813565606691</v>
+        <v>0.87974813565606702</v>
       </c>
       <c r="AB107" s="0">
         <v>0</v>
       </c>
       <c r="AC107" s="0">
-        <v>0.24665401064192249</v>
+        <v>0.24665401064192247</v>
       </c>
       <c r="AD107" s="0">
         <v>0</v>
@@ -11364,19 +11916,19 @@
         <v>0</v>
       </c>
       <c r="Z108" s="0">
-        <v>0.51496815892994652</v>
+        <v>0.51496815892994641</v>
       </c>
       <c r="AA108" s="0">
-        <v>0.87571035230068395</v>
+        <v>0.87571035230068406</v>
       </c>
       <c r="AB108" s="0">
-        <v>7.4592169525779076e-34</v>
+        <v>0</v>
       </c>
       <c r="AC108" s="0">
         <v>0.24558709992748112</v>
       </c>
       <c r="AD108" s="0">
-        <v>0</v>
+        <v>3.3821217998819306e-33</v>
       </c>
     </row>
     <row r="109">
@@ -11456,19 +12008,19 @@
         <v>0</v>
       </c>
       <c r="Z109" s="0">
-        <v>0.50799211788437526</v>
+        <v>0.50799211788437515</v>
       </c>
       <c r="AA109" s="0">
         <v>0.87050842544719176</v>
       </c>
       <c r="AB109" s="0">
-        <v>0</v>
+        <v>1.0171317518795089e-33</v>
       </c>
       <c r="AC109" s="0">
         <v>0.24438052257320034</v>
       </c>
       <c r="AD109" s="0">
-        <v>0</v>
+        <v>1.5395919471153152e-33</v>
       </c>
     </row>
     <row r="110">
@@ -11545,22 +12097,22 @@
         <v>0</v>
       </c>
       <c r="Y110" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>0</v>
       </c>
       <c r="Z110" s="0">
         <v>0.50151876888361657</v>
       </c>
       <c r="AA110" s="0">
-        <v>0.8655652684016264</v>
+        <v>0.86556526840162629</v>
       </c>
       <c r="AB110" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>8.8535978944996155e-22</v>
       </c>
       <c r="AC110" s="0">
-        <v>0.24344838757014842</v>
+        <v>0.24344838757014844</v>
       </c>
       <c r="AD110" s="0">
-        <v>8.4703294725430034e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -11646,7 +12198,7 @@
         <v>0.85945262537535427</v>
       </c>
       <c r="AB111" s="0">
-        <v>0</v>
+        <v>7.896359296836411e-33</v>
       </c>
       <c r="AC111" s="0">
         <v>0.2423550536901404</v>
@@ -11729,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="Y112" s="0">
-        <v>0</v>
+        <v>2.1892406789714283e-32</v>
       </c>
       <c r="Z112" s="0">
         <v>0.48797442604035152</v>
@@ -11738,7 +12290,7 @@
         <v>0.85407152720404222</v>
       </c>
       <c r="AB112" s="0">
-        <v>0</v>
+        <v>5.2721885166784643e-34</v>
       </c>
       <c r="AC112" s="0">
         <v>0.24126684513565319</v>
@@ -11821,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="Y113" s="0">
-        <v>4.244268114943371e-32</v>
+        <v>0</v>
       </c>
       <c r="Z113" s="0">
         <v>0.48098633825365239</v>
@@ -11830,13 +12382,13 @@
         <v>0.8490946696289684</v>
       </c>
       <c r="AB113" s="0">
-        <v>0</v>
+        <v>1.3597745473198341e-32</v>
       </c>
       <c r="AC113" s="0">
         <v>0.24002230581490422</v>
       </c>
       <c r="AD113" s="0">
-        <v>0</v>
+        <v>2.925461673762499e-33</v>
       </c>
     </row>
     <row r="114">
@@ -11922,7 +12474,7 @@
         <v>0.84500699192311191</v>
       </c>
       <c r="AB114" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="AC114" s="0">
         <v>0.23877740954664728</v>
@@ -12005,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="Y115" s="0">
-        <v>5.6222860364801288e-32</v>
+        <v>0</v>
       </c>
       <c r="Z115" s="0">
         <v>0.46692663683805841</v>
@@ -12014,7 +12566,7 @@
         <v>0.83847566317345423</v>
       </c>
       <c r="AB115" s="0">
-        <v>7.0461952574729887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC115" s="0">
         <v>0.23746868353678169</v>
@@ -12097,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="Y116" s="0">
-        <v>3.1796651992002548e-32</v>
+        <v>1.9272411212232113e-32</v>
       </c>
       <c r="Z116" s="0">
         <v>0.4594189648231744</v>
@@ -12106,13 +12658,13 @@
         <v>0.83149026484666611</v>
       </c>
       <c r="AB116" s="0">
-        <v>9.4415706258046133e-33</v>
+        <v>5.9779059914456938e-33</v>
       </c>
       <c r="AC116" s="0">
         <v>0.23591773756008527</v>
       </c>
       <c r="AD116" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>8.0110924763675801e-33</v>
       </c>
     </row>
     <row r="117">
@@ -12189,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="Y117" s="0">
-        <v>2.0854210179068038e-33</v>
+        <v>5.7212926443909365e-33</v>
       </c>
       <c r="Z117" s="0">
         <v>0.45170304115299581</v>
@@ -12198,13 +12750,13 @@
         <v>0.82597041598378951</v>
       </c>
       <c r="AB117" s="0">
-        <v>1.9582795489218652e-33</v>
+        <v>6.7038913025135385e-33</v>
       </c>
       <c r="AC117" s="0">
         <v>0.23418847639216289</v>
       </c>
       <c r="AD117" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>6.9548699033487605e-33</v>
       </c>
     </row>
     <row r="118">
@@ -12281,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="Y118" s="0">
-        <v>6.4748861950637438e-32</v>
+        <v>0</v>
       </c>
       <c r="Z118" s="0">
         <v>0.44434592146820517</v>
@@ -12290,13 +12842,13 @@
         <v>0.81915811184750931</v>
       </c>
       <c r="AB118" s="0">
-        <v>2.4454420237218475e-32</v>
+        <v>8.6212636480267881e-33</v>
       </c>
       <c r="AC118" s="0">
         <v>0.2326859006031875</v>
       </c>
       <c r="AD118" s="0">
-        <v>0</v>
+        <v>6.7665275832002864e-33</v>
       </c>
     </row>
     <row r="119">
@@ -12373,10 +12925,10 @@
         <v>0</v>
       </c>
       <c r="Y119" s="0">
-        <v>0</v>
+        <v>1.2116181901366488e-32</v>
       </c>
       <c r="Z119" s="0">
-        <v>0.4365068163103728</v>
+        <v>0.43650681631037275</v>
       </c>
       <c r="AA119" s="0">
         <v>0.81345122216822319</v>
@@ -12388,7 +12940,7 @@
         <v>0.23083816857674846</v>
       </c>
       <c r="AD119" s="0">
-        <v>0</v>
+        <v>9.6653175265015719e-34</v>
       </c>
     </row>
     <row r="120">
@@ -12465,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="Y120" s="0">
-        <v>3.009265538105056e-36</v>
+        <v>0</v>
       </c>
       <c r="Z120" s="0">
         <v>0.4290951498313173</v>
@@ -12474,7 +13026,7 @@
         <v>0.80544096337162963</v>
       </c>
       <c r="AB120" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
       <c r="AC120" s="0">
         <v>0.22927672034359858</v>
@@ -12560,19 +13112,19 @@
         <v>0</v>
       </c>
       <c r="Z121" s="0">
-        <v>0.42150933121046336</v>
+        <v>0.42150933121046352</v>
       </c>
       <c r="AA121" s="0">
-        <v>0.79851139569009344</v>
+        <v>0.79851139569009355</v>
       </c>
       <c r="AB121" s="0">
-        <v>4.1873929962731855e-33</v>
+        <v>3.5423375733509194e-21</v>
       </c>
       <c r="AC121" s="0">
-        <v>0.22755866660475457</v>
+        <v>0.22755866660475454</v>
       </c>
       <c r="AD121" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -12658,7 +13210,7 @@
         <v>0.79217833073200583</v>
       </c>
       <c r="AB122" s="0">
-        <v>0</v>
+        <v>7.896359296836411e-33</v>
       </c>
       <c r="AC122" s="0">
         <v>0.22589966033182543</v>
@@ -12741,16 +13293,16 @@
         <v>0</v>
       </c>
       <c r="Y123" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
       <c r="Z123" s="0">
-        <v>0.40661456626786302</v>
+        <v>0.40661456626786296</v>
       </c>
       <c r="AA123" s="0">
-        <v>0.78418629414202157</v>
+        <v>0.78418629414202146</v>
       </c>
       <c r="AB123" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC123" s="0">
         <v>0.2242250449472101</v>
@@ -12833,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="Y124" s="0">
-        <v>3.9708763408065267e-32</v>
+        <v>0</v>
       </c>
       <c r="Z124" s="0">
         <v>0.39913872960594032</v>
@@ -12842,7 +13394,7 @@
         <v>0.77793178607749314</v>
       </c>
       <c r="AB124" s="0">
-        <v>1.7368728369557857e-32</v>
+        <v>0</v>
       </c>
       <c r="AC124" s="0">
         <v>0.222479790115024</v>
@@ -12925,16 +13477,16 @@
         <v>0</v>
       </c>
       <c r="Y125" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>2.5209369729090581e-32</v>
       </c>
       <c r="Z125" s="0">
-        <v>0.39134751304072923</v>
+        <v>0.39134751304072929</v>
       </c>
       <c r="AA125" s="0">
         <v>0.77117093899519451</v>
       </c>
       <c r="AB125" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="AC125" s="0">
         <v>0.22049760798095072</v>
@@ -13017,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="Y126" s="0">
-        <v>3.0065641083209697e-37</v>
+        <v>1.1314086106890484e-32</v>
       </c>
       <c r="Z126" s="0">
         <v>0.38365569026889362</v>
@@ -13032,7 +13584,7 @@
         <v>0.21858105323419144</v>
       </c>
       <c r="AD126" s="0">
-        <v>0</v>
+        <v>1.2488684303350676e-33</v>
       </c>
     </row>
     <row r="127">
@@ -13109,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="Y127" s="0">
-        <v>3.009265538105056e-36</v>
+        <v>0</v>
       </c>
       <c r="Z127" s="0">
         <v>0.3763586305224379</v>
@@ -13118,13 +13670,13 @@
         <v>0.75636605955123126</v>
       </c>
       <c r="AB127" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="AC127" s="0">
         <v>0.21684089905348281</v>
       </c>
       <c r="AD127" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -13201,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="Y128" s="0">
-        <v>0</v>
+        <v>5.613735181756619e-34</v>
       </c>
       <c r="Z128" s="0">
         <v>0.36935733370860763</v>
@@ -13210,13 +13762,13 @@
         <v>0.74912618772261097</v>
       </c>
       <c r="AB128" s="0">
-        <v>0</v>
+        <v>2.4100455378298867e-33</v>
       </c>
       <c r="AC128" s="0">
         <v>0.21529532872146551</v>
       </c>
       <c r="AD128" s="0">
-        <v>0</v>
+        <v>1.0903516293942156e-33</v>
       </c>
     </row>
     <row r="129">
@@ -13293,22 +13845,22 @@
         <v>0</v>
       </c>
       <c r="Y129" s="0">
-        <v>9.856463059719802e-21</v>
+        <v>0</v>
       </c>
       <c r="Z129" s="0">
-        <v>0.3620223332312883</v>
+        <v>0.36202233323128818</v>
       </c>
       <c r="AA129" s="0">
-        <v>0.74145091657921536</v>
+        <v>0.74145091657921514</v>
       </c>
       <c r="AB129" s="0">
-        <v>2.1685097307649583e-21</v>
+        <v>0</v>
       </c>
       <c r="AC129" s="0">
         <v>0.21348591189087554</v>
       </c>
       <c r="AD129" s="0">
-        <v>0</v>
+        <v>1.0325932761863859e-37</v>
       </c>
     </row>
     <row r="130">
@@ -13385,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="Y130" s="0">
-        <v>1.8055593228630336e-33</v>
+        <v>0</v>
       </c>
       <c r="Z130" s="0">
         <v>0.35445372949966925</v>
@@ -13394,13 +13946,13 @@
         <v>0.73221262919091967</v>
       </c>
       <c r="AB130" s="0">
-        <v>4.7350793242083056e-33</v>
+        <v>0</v>
       </c>
       <c r="AC130" s="0">
         <v>0.21148849854595098</v>
       </c>
       <c r="AD130" s="0">
-        <v>0</v>
+        <v>2.1777191622242311e-33</v>
       </c>
     </row>
     <row r="131">
@@ -13477,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="Y131" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>3.7140919508580996e-33</v>
       </c>
       <c r="Z131" s="0">
         <v>0.34657093934124522</v>
@@ -13486,7 +14038,7 @@
         <v>0.72233475169481831</v>
       </c>
       <c r="AB131" s="0">
-        <v>1.128474576789396e-36</v>
+        <v>0</v>
       </c>
       <c r="AC131" s="0">
         <v>0.20922185365613591</v>
@@ -13578,7 +14130,7 @@
         <v>0.71302720240139239</v>
       </c>
       <c r="AB132" s="0">
-        <v>0</v>
+        <v>3.9481796484182055e-33</v>
       </c>
       <c r="AC132" s="0">
         <v>0.20638379025992698</v>
@@ -13670,13 +14222,13 @@
         <v>0.70478009731475166</v>
       </c>
       <c r="AB133" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC133" s="0">
         <v>0.2045207133368501</v>
       </c>
       <c r="AD133" s="0">
-        <v>0</v>
+        <v>3.2089150612715794e-33</v>
       </c>
     </row>
     <row r="134">
@@ -13753,16 +14305,16 @@
         <v>0</v>
       </c>
       <c r="Y134" s="0">
-        <v>0</v>
+        <v>2.1962767203647625e-33</v>
       </c>
       <c r="Z134" s="0">
-        <v>0.32388652467966544</v>
+        <v>0.3238865246796655</v>
       </c>
       <c r="AA134" s="0">
-        <v>0.69658863886536093</v>
+        <v>0.69658863886536104</v>
       </c>
       <c r="AB134" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>3.6799555949102204e-33</v>
       </c>
       <c r="AC134" s="0">
         <v>0.20272763641377317</v>
@@ -13845,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="Y135" s="0">
-        <v>4.6658662168318894e-33</v>
+        <v>0</v>
       </c>
       <c r="Z135" s="0">
         <v>0.31699762521215308</v>
@@ -13854,7 +14406,7 @@
         <v>0.68887112328916067</v>
       </c>
       <c r="AB135" s="0">
-        <v>1.0231126671364927e-32</v>
+        <v>0</v>
       </c>
       <c r="AC135" s="0">
         <v>0.20094514266010627</v>
@@ -13946,7 +14498,7 @@
         <v>0.68059343511092951</v>
       </c>
       <c r="AB136" s="0">
-        <v>1.855212204241767e-33</v>
+        <v>0</v>
       </c>
       <c r="AC136" s="0">
         <v>0.19918446650310601</v>
@@ -14029,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="Y137" s="0">
-        <v>4.6234355727446081e-32</v>
+        <v>1.9272411212232113e-32</v>
       </c>
       <c r="Z137" s="0">
         <v>0.30346160397424748</v>
@@ -14038,13 +14590,13 @@
         <v>0.67110188804426429</v>
       </c>
       <c r="AB137" s="0">
-        <v>2.7632580803649677e-33</v>
+        <v>5.9711351439849574e-33</v>
       </c>
       <c r="AC137" s="0">
         <v>0.19744050022170959</v>
       </c>
       <c r="AD137" s="0">
-        <v>0</v>
+        <v>8.0110924763675801e-33</v>
       </c>
     </row>
     <row r="138">
@@ -14121,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="Y138" s="0">
-        <v>2.1839078707475662e-37</v>
+        <v>3.9666991016743922e-33</v>
       </c>
       <c r="Z138" s="0">
         <v>0.29682585505359171</v>
@@ -14130,13 +14682,13 @@
         <v>0.6616946818035826</v>
       </c>
       <c r="AB138" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>-2.8061401142829647e-33</v>
       </c>
       <c r="AC138" s="0">
         <v>0.19571806817812396</v>
       </c>
       <c r="AD138" s="0">
-        <v>0</v>
+        <v>5.3697968308260599e-33</v>
       </c>
     </row>
     <row r="139">
@@ -14213,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="Y139" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="Z139" s="0">
         <v>0.29032868030827635</v>
@@ -14222,7 +14774,7 @@
         <v>0.65496649284080222</v>
       </c>
       <c r="AB139" s="0">
-        <v>1.128474576789396e-36</v>
+        <v>0</v>
       </c>
       <c r="AC139" s="0">
         <v>0.19401606951941228</v>
@@ -14305,19 +14857,19 @@
         <v>0</v>
       </c>
       <c r="Y140" s="0">
-        <v>5.6579097120225209e-21</v>
+        <v>0</v>
       </c>
       <c r="Z140" s="0">
-        <v>0.28389580414473248</v>
+        <v>0.28389580414473259</v>
       </c>
       <c r="AA140" s="0">
-        <v>0.64619683959780339</v>
+        <v>0.6461968395978035</v>
       </c>
       <c r="AB140" s="0">
-        <v>2.7336314686187581e-21</v>
+        <v>0</v>
       </c>
       <c r="AC140" s="0">
-        <v>0.19233652971658541</v>
+        <v>0.19233652971658544</v>
       </c>
       <c r="AD140" s="0">
         <v>0</v>
@@ -14397,16 +14949,16 @@
         <v>0</v>
       </c>
       <c r="Y141" s="0">
-        <v>4.7832275728179865e-32</v>
+        <v>0</v>
       </c>
       <c r="Z141" s="0">
-        <v>0.27754880772937179</v>
+        <v>0.27754880772937185</v>
       </c>
       <c r="AA141" s="0">
         <v>0.6367271461173003</v>
       </c>
       <c r="AB141" s="0">
-        <v>1.0350744976504603e-32</v>
+        <v>0</v>
       </c>
       <c r="AC141" s="0">
         <v>0.19067889110105621</v>
@@ -14489,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="Y142" s="0">
-        <v>3.1446824873197835e-34</v>
+        <v>0</v>
       </c>
       <c r="Z142" s="0">
         <v>0.27133304791158153</v>
@@ -14504,7 +15056,7 @@
         <v>0.18904744364421994</v>
       </c>
       <c r="AD142" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>5.64237288394698e-37</v>
       </c>
     </row>
     <row r="143">
@@ -14581,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="Y143" s="0">
-        <v>2.0478051986804906e-33</v>
+        <v>0</v>
       </c>
       <c r="Z143" s="0">
         <v>0.26517716845685657</v>
@@ -14596,7 +15148,7 @@
         <v>0.18743305438771424</v>
       </c>
       <c r="AD143" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -14688,7 +15240,7 @@
         <v>0.18583409326834674</v>
       </c>
       <c r="AD144" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -14774,13 +15326,13 @@
         <v>0.60286875606638002</v>
       </c>
       <c r="AB145" s="0">
-        <v>9.8703909649845837e-34</v>
+        <v>0</v>
       </c>
       <c r="AC145" s="0">
         <v>0.18426250084562076</v>
       </c>
       <c r="AD145" s="0">
-        <v>0</v>
+        <v>1.5684325489407283e-33</v>
       </c>
     </row>
     <row r="146">
@@ -14857,7 +15409,7 @@
         <v>0</v>
       </c>
       <c r="Y146" s="0">
-        <v>1.2325951644078309e-32</v>
+        <v>1.0981383601823812e-33</v>
       </c>
       <c r="Z146" s="0">
         <v>0.24731426478194243</v>
@@ -14866,13 +15418,13 @@
         <v>0.59268202838480855</v>
       </c>
       <c r="AB146" s="0">
-        <v>0</v>
+        <v>2.7751540831952892e-33</v>
       </c>
       <c r="AC146" s="0">
         <v>0.18270776096643165</v>
       </c>
       <c r="AD146" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -14958,13 +15510,13 @@
         <v>0.58528731965086322</v>
       </c>
       <c r="AB147" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>2.350988701644575e-38</v>
       </c>
       <c r="AC147" s="0">
         <v>0.18117340823999509</v>
       </c>
       <c r="AD147" s="0">
-        <v>0</v>
+        <v>5.7055095093418374e-38</v>
       </c>
     </row>
     <row r="148">
@@ -15044,10 +15596,10 @@
         <v>0</v>
       </c>
       <c r="Z148" s="0">
-        <v>0.23588304427279061</v>
+        <v>0.23588304427279064</v>
       </c>
       <c r="AA148" s="0">
-        <v>0.57508188596466914</v>
+        <v>0.57508188596466925</v>
       </c>
       <c r="AB148" s="0">
         <v>0</v>
@@ -15056,7 +15608,7 @@
         <v>0.17965112171116537</v>
       </c>
       <c r="AD148" s="0">
-        <v>8.4703294725430034e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -15133,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="Y149" s="0">
-        <v>1.5032820541604848e-37</v>
+        <v>0</v>
       </c>
       <c r="Z149" s="0">
         <v>0.23032952583070232</v>
@@ -15148,7 +15700,7 @@
         <v>0.17813830200424999</v>
       </c>
       <c r="AD149" s="0">
-        <v>0</v>
+        <v>2.3205130382430899e-33</v>
       </c>
     </row>
     <row r="150">
@@ -15225,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="Y150" s="0">
-        <v>1.0829124157515241e-32</v>
+        <v>0</v>
       </c>
       <c r="Z150" s="0">
         <v>0.22481766473306378</v>
@@ -15234,13 +15786,13 @@
         <v>0.55865250809804612</v>
       </c>
       <c r="AB150" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>2.6789516255239932e-34</v>
       </c>
       <c r="AC150" s="0">
         <v>0.17663196837963605</v>
       </c>
       <c r="AD150" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>2.331248319490828e-33</v>
       </c>
     </row>
     <row r="151">
@@ -15317,7 +15869,7 @@
         <v>0</v>
       </c>
       <c r="Y151" s="0">
-        <v>8.5463141282183591e-33</v>
+        <v>8.2543676710480056e-33</v>
       </c>
       <c r="Z151" s="0">
         <v>0.21939576182768189</v>
@@ -15326,7 +15878,7 @@
         <v>0.54926734251766807</v>
       </c>
       <c r="AB151" s="0">
-        <v>1.5836259894277857e-34</v>
+        <v>2.8561691538539613e-33</v>
       </c>
       <c r="AC151" s="0">
         <v>0.17513646465287236</v>
@@ -15412,13 +15964,13 @@
         <v>0</v>
       </c>
       <c r="Z152" s="0">
-        <v>0.21408837920480861</v>
+        <v>0.21408837920480864</v>
       </c>
       <c r="AA152" s="0">
         <v>0.54207645860939502</v>
       </c>
       <c r="AB152" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="AC152" s="0">
         <v>0.17363473413379538</v>
@@ -15510,13 +16062,13 @@
         <v>0.53307941595915931</v>
       </c>
       <c r="AB153" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>7.3990316418158065e-34</v>
       </c>
       <c r="AC153" s="0">
         <v>0.17212842588177588</v>
       </c>
       <c r="AD153" s="0">
-        <v>0</v>
+        <v>2.9635906544917508e-33</v>
       </c>
     </row>
     <row r="154">
@@ -15593,13 +16145,13 @@
         <v>0</v>
       </c>
       <c r="Y154" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>3.3881317890172014e-21</v>
       </c>
       <c r="Z154" s="0">
-        <v>0.20364296603546464</v>
+        <v>0.2036429660354647</v>
       </c>
       <c r="AA154" s="0">
-        <v>0.52428641497689599</v>
+        <v>0.5242864149768961</v>
       </c>
       <c r="AB154" s="0">
         <v>0</v>
@@ -15694,7 +16246,7 @@
         <v>0.51565793995744413</v>
       </c>
       <c r="AB155" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC155" s="0">
         <v>0.16908342662849224</v>
@@ -15777,16 +16329,16 @@
         <v>0</v>
       </c>
       <c r="Y156" s="0">
-        <v>3.8560389639558455e-21</v>
+        <v>0</v>
       </c>
       <c r="Z156" s="0">
-        <v>0.19349670336148311</v>
+        <v>0.19349670336148309</v>
       </c>
       <c r="AA156" s="0">
         <v>0.50743943143703596</v>
       </c>
       <c r="AB156" s="0">
-        <v>0</v>
+        <v>1.5129225516635e-22</v>
       </c>
       <c r="AC156" s="0">
         <v>0.16753389006754005</v>
@@ -15872,19 +16424,19 @@
         <v>0</v>
       </c>
       <c r="Z157" s="0">
-        <v>0.18850247159192959</v>
+        <v>0.18850247159192957</v>
       </c>
       <c r="AA157" s="0">
-        <v>0.49765143673920714</v>
+        <v>0.49765143673920709</v>
       </c>
       <c r="AB157" s="0">
-        <v>1.7885381646631269e-33</v>
+        <v>1.6576952673636062e-21</v>
       </c>
       <c r="AC157" s="0">
-        <v>0.1659634639964862</v>
+        <v>0.16596346399648618</v>
       </c>
       <c r="AD157" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -15964,19 +16516,19 @@
         <v>0</v>
       </c>
       <c r="Z158" s="0">
-        <v>0.18361837239098133</v>
+        <v>0.18361837239098125</v>
       </c>
       <c r="AA158" s="0">
-        <v>0.49013961079247625</v>
+        <v>0.4901396107924762</v>
       </c>
       <c r="AB158" s="0">
-        <v>0</v>
+        <v>4.8399609764230762e-22</v>
       </c>
       <c r="AC158" s="0">
         <v>0.1643598786436738</v>
       </c>
       <c r="AD158" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -16053,13 +16605,13 @@
         <v>0</v>
       </c>
       <c r="Y159" s="0">
-        <v>2.1839078707475662e-37</v>
+        <v>4.6762530156151938e-33</v>
       </c>
       <c r="Z159" s="0">
         <v>0.17878804513640337</v>
       </c>
       <c r="AA159" s="0">
-        <v>0.48178305253503578</v>
+        <v>0.48178305253503584</v>
       </c>
       <c r="AB159" s="0">
         <v>0</v>
@@ -16068,7 +16620,7 @@
         <v>0.16272971088034416</v>
       </c>
       <c r="AD159" s="0">
-        <v>0</v>
+        <v>6.7106621499742749e-34</v>
       </c>
     </row>
     <row r="160">
@@ -16145,10 +16697,10 @@
         <v>0</v>
       </c>
       <c r="Y160" s="0">
-        <v>1.5407439555097887e-32</v>
+        <v>0</v>
       </c>
       <c r="Z160" s="0">
-        <v>0.17400912399713128</v>
+        <v>0.17400912399713131</v>
       </c>
       <c r="AA160" s="0">
         <v>0.47234985538149582</v>
@@ -16160,7 +16712,7 @@
         <v>0.16107307424908565</v>
       </c>
       <c r="AD160" s="0">
-        <v>0</v>
+        <v>6.5912022802366194e-35</v>
       </c>
     </row>
     <row r="161">
@@ -16246,13 +16798,13 @@
         <v>0.46339034449563565</v>
       </c>
       <c r="AB161" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC161" s="0">
         <v>0.15937855281593383</v>
       </c>
       <c r="AD161" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -16338,13 +16890,13 @@
         <v>0.45528934555069717</v>
       </c>
       <c r="AB162" s="0">
-        <v>5.64237288394698e-37</v>
+        <v>0</v>
       </c>
       <c r="AC162" s="0">
         <v>0.15764064415062812</v>
       </c>
       <c r="AD162" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -16421,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="Y163" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="Z163" s="0">
         <v>0.16012283746560174</v>
@@ -16430,7 +16982,7 @@
         <v>0.44592379761814738</v>
       </c>
       <c r="AB163" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC163" s="0">
         <v>0.15586551358348555</v>
@@ -16513,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="Y164" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="Z164" s="0">
         <v>0.1556500973394653</v>
@@ -16528,7 +17080,7 @@
         <v>0.1540414895167837</v>
       </c>
       <c r="AD164" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -16605,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="Y165" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="Z165" s="0">
         <v>0.15121989113024242</v>
@@ -16620,7 +17172,7 @@
         <v>0.15216398782241752</v>
       </c>
       <c r="AD165" s="0">
-        <v>0</v>
+        <v>4.1866406798886592e-34</v>
       </c>
     </row>
     <row r="166">
@@ -16697,7 +17249,7 @@
         <v>0</v>
       </c>
       <c r="Y166" s="0">
-        <v>3.009265538105056e-36</v>
+        <v>6.4757968109768096e-38</v>
       </c>
       <c r="Z166" s="0">
         <v>0.14686133724461203</v>
@@ -16706,13 +17258,13 @@
         <v>0.41928043843730567</v>
       </c>
       <c r="AB166" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
       <c r="AC166" s="0">
         <v>0.15022718210664465</v>
       </c>
       <c r="AD166" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -16789,22 +17341,22 @@
         <v>0</v>
       </c>
       <c r="Y167" s="0">
-        <v>3.248502148384408e-33</v>
+        <v>0</v>
       </c>
       <c r="Z167" s="0">
         <v>0.14257000622461885</v>
       </c>
       <c r="AA167" s="0">
-        <v>0.40993073893159793</v>
+        <v>0.40993073893159787</v>
       </c>
       <c r="AB167" s="0">
-        <v>0</v>
+        <v>1.5963377401766298e-33</v>
       </c>
       <c r="AC167" s="0">
         <v>0.14823117876416905</v>
       </c>
       <c r="AD167" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>4.4762824879312708e-34</v>
       </c>
     </row>
     <row r="168">
@@ -16982,7 +17534,7 @@
         <v>0.39243696638362552</v>
       </c>
       <c r="AB169" s="0">
-        <v>0</v>
+        <v>5.5424560690189464e-34</v>
       </c>
       <c r="AC169" s="0">
         <v>0.14402329631025554</v>
@@ -17080,7 +17632,7 @@
         <v>0.14180633113383403</v>
       </c>
       <c r="AD170" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>3.4982711880471276e-35</v>
       </c>
     </row>
     <row r="171">
@@ -17157,7 +17709,7 @@
         <v>0</v>
       </c>
       <c r="Y171" s="0">
-        <v>2.063227684563279e-33</v>
+        <v>1.0185274786207247e-32</v>
       </c>
       <c r="Z171" s="0">
         <v>0.12611890711293361</v>
@@ -17166,13 +17718,13 @@
         <v>0.37347087298984682</v>
       </c>
       <c r="AB171" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>4.2745860464682374e-34</v>
       </c>
       <c r="AC171" s="0">
         <v>0.13950871904509782</v>
       </c>
       <c r="AD171" s="0">
-        <v>0</v>
+        <v>9.7067621513501213e-34</v>
       </c>
     </row>
     <row r="172">
@@ -17264,7 +17816,7 @@
         <v>0.1371354856233824</v>
       </c>
       <c r="AD172" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>5.5996371651311799e-34</v>
       </c>
     </row>
     <row r="173">
@@ -17341,7 +17893,7 @@
         <v>0</v>
       </c>
       <c r="Y173" s="0">
-        <v>0</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z173" s="0">
         <v>0.11836344012196838</v>
@@ -17350,7 +17902,7 @@
         <v>0.35597254804385953</v>
       </c>
       <c r="AB173" s="0">
-        <v>0</v>
+        <v>4.5242352047488623e-34</v>
       </c>
       <c r="AC173" s="0">
         <v>0.13468123645762944</v>
@@ -17433,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="Y174" s="0">
-        <v>6.8235096076532145e-34</v>
+        <v>0</v>
       </c>
       <c r="Z174" s="0">
         <v>0.11458911387569132</v>
@@ -17448,7 +18000,7 @@
         <v>0.13214637458623466</v>
       </c>
       <c r="AD174" s="0">
-        <v>1.9259299443872359e-34</v>
+        <v>9.5168022642572397e-35</v>
       </c>
     </row>
     <row r="175">
@@ -17525,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="Y175" s="0">
-        <v>4.9652881378733424e-35</v>
+        <v>0</v>
       </c>
       <c r="Z175" s="0">
         <v>0.11088655558786391</v>
@@ -17626,7 +18178,7 @@
         <v>0.32788746063217961</v>
       </c>
       <c r="AB176" s="0">
-        <v>5.64237288394698e-37</v>
+        <v>0</v>
       </c>
       <c r="AC176" s="0">
         <v>0.12683411674685069</v>
@@ -17709,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="Y177" s="0">
-        <v>1.7852467804808245e-33</v>
+        <v>0</v>
       </c>
       <c r="Z177" s="0">
         <v>0.10377616016114592</v>
@@ -17724,7 +18276,7 @@
         <v>0.1240620251187018</v>
       </c>
       <c r="AD177" s="0">
-        <v>1.9259299443872359e-34</v>
+        <v>6.394689268473244e-35</v>
       </c>
     </row>
     <row r="178">
@@ -17810,7 +18362,7 @@
         <v>0.31020963641860683</v>
       </c>
       <c r="AB178" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC178" s="0">
         <v>0.12121436978241265</v>
@@ -17896,19 +18448,19 @@
         <v>0</v>
       </c>
       <c r="Z179" s="0">
-        <v>0.097056697480051843</v>
+        <v>0.097056697480051829</v>
       </c>
       <c r="AA179" s="0">
-        <v>0.30143971212555837</v>
+        <v>0.30143971212555831</v>
       </c>
       <c r="AB179" s="0">
         <v>0</v>
       </c>
       <c r="AC179" s="0">
-        <v>0.11830202079411899</v>
+        <v>0.118302020794119</v>
       </c>
       <c r="AD179" s="0">
-        <v>0</v>
+        <v>2.5803240121570827e-21</v>
       </c>
     </row>
     <row r="180">
@@ -17985,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="Y180" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>1.4888341249774765e-33</v>
       </c>
       <c r="Z180" s="0">
         <v>0.093843030052574952</v>
@@ -17994,13 +18546,13 @@
         <v>0.29305949547536547</v>
       </c>
       <c r="AB180" s="0">
-        <v>0</v>
+        <v>1.2282978250130552e-33</v>
       </c>
       <c r="AC180" s="0">
         <v>0.11531412744252233</v>
       </c>
       <c r="AD180" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -18077,13 +18629,13 @@
         <v>0</v>
       </c>
       <c r="Y181" s="0">
-        <v>0</v>
+        <v>1.0981383601823812e-33</v>
       </c>
       <c r="Z181" s="0">
         <v>0.090733008978063925</v>
       </c>
       <c r="AA181" s="0">
-        <v>0.28485937259809779</v>
+        <v>0.28485937259809774</v>
       </c>
       <c r="AB181" s="0">
         <v>0</v>
@@ -18169,7 +18721,7 @@
         <v>0</v>
       </c>
       <c r="Y182" s="0">
-        <v>0</v>
+        <v>1.2399881476252156e-33</v>
       </c>
       <c r="Z182" s="0">
         <v>0.087726645466085287</v>
@@ -18184,7 +18736,7 @@
         <v>0.1091656281373968</v>
       </c>
       <c r="AD182" s="0">
-        <v>0</v>
+        <v>2.533425424892194e-34</v>
       </c>
     </row>
     <row r="183">
@@ -18261,10 +18813,10 @@
         <v>0</v>
       </c>
       <c r="Y183" s="0">
-        <v>3.8560389639566761e-21</v>
+        <v>1.0981383601823812e-33</v>
       </c>
       <c r="Z183" s="0">
-        <v>0.084813586927276821</v>
+        <v>0.084813586927276849</v>
       </c>
       <c r="AA183" s="0">
         <v>0.26869678270948588</v>
@@ -18273,7 +18825,7 @@
         <v>0</v>
       </c>
       <c r="AC183" s="0">
-        <v>0.10601038755973848</v>
+        <v>0.10601038755973846</v>
       </c>
       <c r="AD183" s="0">
         <v>0</v>
@@ -18353,22 +18905,22 @@
         <v>0</v>
       </c>
       <c r="Y184" s="0">
-        <v>3.8560389639524119e-21</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z184" s="0">
-        <v>0.082007473094665745</v>
+        <v>0.082007473094665759</v>
       </c>
       <c r="AA184" s="0">
         <v>0.2608224409921226</v>
       </c>
       <c r="AB184" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>4.5242352047488623e-34</v>
       </c>
       <c r="AC184" s="0">
-        <v>0.10281188971565099</v>
+        <v>0.10281188971565097</v>
       </c>
       <c r="AD184" s="0">
-        <v>0</v>
+        <v>6.3544302938501741e-34</v>
       </c>
     </row>
     <row r="185">
@@ -18445,13 +18997,13 @@
         <v>0</v>
       </c>
       <c r="Y185" s="0">
-        <v>1.1931737858586547e-33</v>
+        <v>0</v>
       </c>
       <c r="Z185" s="0">
         <v>0.079331155651112067</v>
       </c>
       <c r="AA185" s="0">
-        <v>0.2540330528783053</v>
+        <v>0.25403305287830535</v>
       </c>
       <c r="AB185" s="0">
         <v>0</v>
@@ -18537,7 +19089,7 @@
         <v>0</v>
       </c>
       <c r="Y186" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>6.3588467585678161e-33</v>
       </c>
       <c r="Z186" s="0">
         <v>0.076744902256267428</v>
@@ -18546,13 +19098,13 @@
         <v>0.24686814775809496</v>
       </c>
       <c r="AB186" s="0">
-        <v>0</v>
+        <v>9.4697824902243482e-34</v>
       </c>
       <c r="AC186" s="0">
         <v>0.096306708719617926</v>
       </c>
       <c r="AD186" s="0">
-        <v>0</v>
+        <v>2.4211982539914722e-34</v>
       </c>
     </row>
     <row r="187">
@@ -18629,7 +19181,7 @@
         <v>0</v>
       </c>
       <c r="Y187" s="0">
-        <v>7.2222372914521344e-34</v>
+        <v>4.1271838355240028e-33</v>
       </c>
       <c r="Z187" s="0">
         <v>0.074257651273816866</v>
@@ -18644,7 +19196,7 @@
         <v>0.093021495668681245</v>
       </c>
       <c r="AD187" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>6.976670147270536e-34</v>
       </c>
     </row>
     <row r="188">
@@ -18721,7 +19273,7 @@
         <v>0</v>
       </c>
       <c r="Y188" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z188" s="0">
         <v>0.071890818727045891</v>
@@ -18730,13 +19282,13 @@
         <v>0.23334418318132144</v>
       </c>
       <c r="AB188" s="0">
-        <v>0</v>
+        <v>3.1794845728000812e-34</v>
       </c>
       <c r="AC188" s="0">
         <v>0.089730733388483225</v>
       </c>
       <c r="AD188" s="0">
-        <v>1.9259299443872359e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -18813,16 +19365,16 @@
         <v>0</v>
       </c>
       <c r="Y189" s="0">
-        <v>1.233798870623073e-33</v>
+        <v>0</v>
       </c>
       <c r="Z189" s="0">
-        <v>0.069622170846310408</v>
+        <v>0.06962217084631038</v>
       </c>
       <c r="AA189" s="0">
-        <v>0.22703882525728483</v>
+        <v>0.2270388252572848</v>
       </c>
       <c r="AB189" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC189" s="0">
         <v>0.086434355647692557</v>
@@ -18997,7 +19549,7 @@
         <v>0</v>
       </c>
       <c r="Y191" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z191" s="0">
         <v>0.065390868174874564</v>
@@ -19089,7 +19641,7 @@
         <v>0</v>
       </c>
       <c r="Y192" s="0">
-        <v>8.4740917553038378e-33</v>
+        <v>0</v>
       </c>
       <c r="Z192" s="0">
         <v>0.063442762355152615</v>
@@ -19104,7 +19656,7 @@
         <v>0.076656946359565895</v>
       </c>
       <c r="AD192" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>8.8625811764721291e-22</v>
       </c>
     </row>
     <row r="193">
@@ -19184,13 +19736,13 @@
         <v>0</v>
       </c>
       <c r="Z193" s="0">
-        <v>0.061582697774352699</v>
+        <v>0.061582697774352678</v>
       </c>
       <c r="AA193" s="0">
-        <v>0.2047150764088895</v>
+        <v>0.20471507640888947</v>
       </c>
       <c r="AB193" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AC193" s="0">
         <v>0.073461972652028487</v>
@@ -19273,7 +19825,7 @@
         <v>0</v>
       </c>
       <c r="Y194" s="0">
-        <v>1.681539966873879e-32</v>
+        <v>0</v>
       </c>
       <c r="Z194" s="0">
         <v>0.059834883634530718</v>
@@ -19282,7 +19834,7 @@
         <v>0.20027274810071499</v>
       </c>
       <c r="AB194" s="0">
-        <v>1.6022458199448108e-33</v>
+        <v>0</v>
       </c>
       <c r="AC194" s="0">
         <v>0.070320803826324968</v>
@@ -19365,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="Y195" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z195" s="0">
         <v>0.058162411451930691</v>
@@ -19374,7 +19926,7 @@
         <v>0.1955880145854062</v>
       </c>
       <c r="AB195" s="0">
-        <v>0</v>
+        <v>4.5242352047488623e-34</v>
       </c>
       <c r="AC195" s="0">
         <v>0.067233005789738523</v>
@@ -19457,7 +20009,7 @@
         <v>0</v>
       </c>
       <c r="Y196" s="0">
-        <v>0</v>
+        <v>4.4151752344645719e-34</v>
       </c>
       <c r="Z196" s="0">
         <v>0.05658822125878666</v>
@@ -19466,7 +20018,7 @@
         <v>0.19143576691501149</v>
       </c>
       <c r="AB196" s="0">
-        <v>0</v>
+        <v>9.4261589738920552e-34</v>
       </c>
       <c r="AC196" s="0">
         <v>0.064209746390940667</v>
@@ -19549,7 +20101,7 @@
         <v>0</v>
       </c>
       <c r="Y197" s="0">
-        <v>0</v>
+        <v>6.1999407381260781e-34</v>
       </c>
       <c r="Z197" s="0">
         <v>0.055102741200279449</v>
@@ -19558,13 +20110,13 @@
         <v>0.18759231297348497</v>
       </c>
       <c r="AB197" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>2.7685242950566515e-34</v>
       </c>
       <c r="AC197" s="0">
         <v>0.061256277610408111</v>
       </c>
       <c r="AD197" s="0">
-        <v>0</v>
+        <v>4.513898307157584e-36</v>
       </c>
     </row>
     <row r="198">
@@ -19641,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="Y198" s="0">
-        <v>3.8560389639533975e-21</v>
+        <v>0</v>
       </c>
       <c r="Z198" s="0">
         <v>0.053699246438662203</v>
@@ -19650,13 +20202,13 @@
         <v>0.1838988505424165</v>
       </c>
       <c r="AB198" s="0">
-        <v>0</v>
+        <v>1.0833646717482852e-34</v>
       </c>
       <c r="AC198" s="0">
-        <v>0.058383307337800755</v>
+        <v>0.058383307337800762</v>
       </c>
       <c r="AD198" s="0">
-        <v>0</v>
+        <v>1.9974000009172309e-34</v>
       </c>
     </row>
     <row r="199">
@@ -19742,13 +20294,13 @@
         <v>0.17987058048126181</v>
       </c>
       <c r="AB199" s="0">
-        <v>0</v>
+        <v>1.5892683623117327e-34</v>
       </c>
       <c r="AC199" s="0">
         <v>0.055590291809725335</v>
       </c>
       <c r="AD199" s="0">
-        <v>0</v>
+        <v>4.325819211026018e-35</v>
       </c>
     </row>
     <row r="200">
@@ -19825,10 +20377,10 @@
         <v>0</v>
       </c>
       <c r="Y200" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z200" s="0">
-        <v>0.051110797984032487</v>
+        <v>0.051110797984032494</v>
       </c>
       <c r="AA200" s="0">
         <v>0.17657890121097305</v>
@@ -19840,7 +20392,7 @@
         <v>0.052883699495521942</v>
       </c>
       <c r="AD200" s="0">
-        <v>0</v>
+        <v>4.5226687459302762e-34</v>
       </c>
     </row>
     <row r="201">
@@ -19926,13 +20478,13 @@
         <v>0.17377206317029628</v>
       </c>
       <c r="AB201" s="0">
-        <v>0</v>
+        <v>1.3776524146515524e-33</v>
       </c>
       <c r="AC201" s="0">
         <v>0.050263336812115526</v>
       </c>
       <c r="AD201" s="0">
-        <v>0</v>
+        <v>1.8601022607411878e-34</v>
       </c>
     </row>
     <row r="202">
@@ -20009,7 +20561,7 @@
         <v>0</v>
       </c>
       <c r="Y202" s="0">
-        <v>1.0785207688568521e-32</v>
+        <v>0</v>
       </c>
       <c r="Z202" s="0">
         <v>0.048835157233038079</v>
@@ -20018,7 +20570,7 @@
         <v>0.17093953706307441</v>
       </c>
       <c r="AB202" s="0">
-        <v>0</v>
+        <v>1.88079096131566e-37</v>
       </c>
       <c r="AC202" s="0">
         <v>0.047739467399299997</v>
@@ -20101,22 +20653,22 @@
         <v>0</v>
       </c>
       <c r="Y203" s="0">
-        <v>7.7037197775489434e-33</v>
+        <v>0</v>
       </c>
       <c r="Z203" s="0">
-        <v>0.047786912855569026</v>
+        <v>0.047786912855569019</v>
       </c>
       <c r="AA203" s="0">
         <v>0.16800926306085245</v>
       </c>
       <c r="AB203" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>1.3776524146515524e-33</v>
       </c>
       <c r="AC203" s="0">
         <v>0.04530103052362363</v>
       </c>
       <c r="AD203" s="0">
-        <v>0</v>
+        <v>3.9728031128702649e-34</v>
       </c>
     </row>
     <row r="204">
@@ -20193,7 +20745,7 @@
         <v>0</v>
       </c>
       <c r="Y204" s="0">
-        <v>0</v>
+        <v>4.7471779093366113e-33</v>
       </c>
       <c r="Z204" s="0">
         <v>0.046799517093583806</v>
@@ -20285,7 +20837,7 @@
         <v>0</v>
       </c>
       <c r="Y205" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>3.852649245478408e-33</v>
       </c>
       <c r="Z205" s="0">
         <v>0.04587071707346406</v>
@@ -20294,13 +20846,13 @@
         <v>0.16327895850028573</v>
       </c>
       <c r="AB205" s="0">
-        <v>0</v>
+        <v>2.7415181699377519e-33</v>
       </c>
       <c r="AC205" s="0">
         <v>0.040677543426182933</v>
       </c>
       <c r="AD205" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -20377,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="Y206" s="0">
-        <v>0</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z206" s="0">
         <v>0.044991990607452438</v>
@@ -20386,7 +20938,7 @@
         <v>0.16103743125165207</v>
       </c>
       <c r="AB206" s="0">
-        <v>0</v>
+        <v>4.5242352047488623e-34</v>
       </c>
       <c r="AC206" s="0">
         <v>0.038497107217862835</v>
@@ -20469,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="Y207" s="0">
-        <v>0</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z207" s="0">
         <v>0.044157935397779284</v>
@@ -20478,7 +21030,7 @@
         <v>0.15907162912667624</v>
       </c>
       <c r="AB207" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>4.5242352047488623e-34</v>
       </c>
       <c r="AC207" s="0">
         <v>0.036392120043918556</v>
@@ -20561,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="Y208" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>6.0666190671826959e-33</v>
       </c>
       <c r="Z208" s="0">
         <v>0.043365868642094983</v>
@@ -20570,13 +21122,13 @@
         <v>0.15712350303568415</v>
       </c>
       <c r="AB208" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>7.3339035439573715e-34</v>
       </c>
       <c r="AC208" s="0">
         <v>0.034367368490104959</v>
       </c>
       <c r="AD208" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -20653,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="Y209" s="0">
-        <v>0</v>
+        <v>5.0926373931036236e-33</v>
       </c>
       <c r="Z209" s="0">
         <v>0.042613965316930368</v>
@@ -20662,13 +21214,13 @@
         <v>0.15527508210523192</v>
       </c>
       <c r="AB209" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>2.1372930232341187e-34</v>
       </c>
       <c r="AC209" s="0">
         <v>0.032417538685257478</v>
       </c>
       <c r="AD209" s="0">
-        <v>0</v>
+        <v>2.553341867601819e-33</v>
       </c>
     </row>
     <row r="210">
@@ -20745,7 +21297,7 @@
         <v>0</v>
       </c>
       <c r="Y210" s="0">
-        <v>0</v>
+        <v>4.4151752344645719e-34</v>
       </c>
       <c r="Z210" s="0">
         <v>0.041899590391435697</v>
@@ -20754,7 +21306,7 @@
         <v>0.1536841058484851</v>
       </c>
       <c r="AB210" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>9.4261589738920552e-34</v>
       </c>
       <c r="AC210" s="0">
         <v>0.030543297492497262</v>
@@ -20837,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="Y211" s="0">
-        <v>0</v>
+        <v>3.0787216469206721e-34</v>
       </c>
       <c r="Z211" s="0">
         <v>0.041214841621131169</v>
@@ -20846,13 +21398,13 @@
         <v>0.15228430305873941</v>
       </c>
       <c r="AB211" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AC211" s="0">
         <v>0.028733689234215279</v>
       </c>
       <c r="AD211" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>1.010286427631229e-34</v>
       </c>
     </row>
     <row r="212">
@@ -20929,7 +21481,7 @@
         <v>0</v>
       </c>
       <c r="Y212" s="0">
-        <v>9.2083525466014714e-34</v>
+        <v>0</v>
       </c>
       <c r="Z212" s="0">
         <v>0.040565015869586551</v>
@@ -20938,13 +21490,13 @@
         <v>0.15108788173845392</v>
       </c>
       <c r="AB212" s="0">
-        <v>1.4256395486772703e-34</v>
+        <v>3.7942606655841796e-34</v>
       </c>
       <c r="AC212" s="0">
         <v>0.026999632267828127</v>
       </c>
       <c r="AD212" s="0">
-        <v>1.9259299443872359e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -21030,13 +21582,13 @@
         <v>0.14982646605987957</v>
       </c>
       <c r="AB213" s="0">
-        <v>0</v>
+        <v>1.0833646717482852e-34</v>
       </c>
       <c r="AC213" s="0">
         <v>0.025329244286902496</v>
       </c>
       <c r="AD213" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -21113,7 +21665,7 @@
         <v>0</v>
       </c>
       <c r="Y214" s="0">
-        <v>0</v>
+        <v>6.1999407381260781e-34</v>
       </c>
       <c r="Z214" s="0">
         <v>0.039345778272450109</v>
@@ -21122,13 +21674,13 @@
         <v>0.14881735309838376</v>
       </c>
       <c r="AB214" s="0">
-        <v>9.1255977443035824e-34</v>
+        <v>0</v>
       </c>
       <c r="AC214" s="0">
         <v>0.023724035358454614</v>
       </c>
       <c r="AD214" s="0">
-        <v>0</v>
+        <v>2.3305646439047535e-34</v>
       </c>
     </row>
     <row r="215">
@@ -21205,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="Y215" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z215" s="0">
         <v>0.038777304184037117</v>
@@ -21214,7 +21766,7 @@
         <v>0.14773195628602981</v>
       </c>
       <c r="AB215" s="0">
-        <v>0</v>
+        <v>4.5242352047488623e-34</v>
       </c>
       <c r="AC215" s="0">
         <v>0.022182310122504868</v>
@@ -21297,7 +21849,7 @@
         <v>0</v>
       </c>
       <c r="Y216" s="0">
-        <v>6.9333477997940491e-33</v>
+        <v>-1.1690632539037984e-33</v>
       </c>
       <c r="Z216" s="0">
         <v>0.038226726099803598</v>
@@ -21306,13 +21858,13 @@
         <v>0.14678106721320325</v>
       </c>
       <c r="AB216" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>-1.6175203129950136e-33</v>
       </c>
       <c r="AC216" s="0">
         <v>0.020700141313969512</v>
       </c>
       <c r="AD216" s="0">
-        <v>-7.7037197775489434e-34</v>
+        <v>5.4423854045838053e-34</v>
       </c>
     </row>
     <row r="217">
@@ -21389,10 +21941,10 @@
         <v>0</v>
       </c>
       <c r="Y217" s="0">
-        <v>5.082197683525802e-21</v>
+        <v>2.4090514015290141e-33</v>
       </c>
       <c r="Z217" s="0">
-        <v>0.037706928531387816</v>
+        <v>0.037706928531387809</v>
       </c>
       <c r="AA217" s="0">
         <v>0.14589314681476112</v>
@@ -21404,7 +21956,7 @@
         <v>0.019281951445597894</v>
       </c>
       <c r="AD217" s="0">
-        <v>8.4703294725430034e-22</v>
+        <v>1.6832221871081673e-34</v>
       </c>
     </row>
     <row r="218">
@@ -21487,10 +22039,10 @@
         <v>0.037206388028713046</v>
       </c>
       <c r="AA218" s="0">
-        <v>0.1452568820093243</v>
+        <v>0.14525688200932427</v>
       </c>
       <c r="AB218" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>1.8482716788421073e-21</v>
       </c>
       <c r="AC218" s="0">
         <v>0.017923956614937155</v>
@@ -21573,7 +22125,7 @@
         <v>0</v>
       </c>
       <c r="Y219" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="Z219" s="0">
         <v>0.03672934825769985</v>
@@ -21582,7 +22134,7 @@
         <v>0.14458347705526842</v>
       </c>
       <c r="AB219" s="0">
-        <v>9.4039548065783001e-37</v>
+        <v>0</v>
       </c>
       <c r="AC219" s="0">
         <v>0.016613040371020744</v>
@@ -21665,19 +22217,19 @@
         <v>0</v>
       </c>
       <c r="Y220" s="0">
-        <v>3.9638438175149426e-21</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z220" s="0">
-        <v>0.036261604399080043</v>
+        <v>0.03626160439908005</v>
       </c>
       <c r="AA220" s="0">
         <v>0.14405245474582273</v>
       </c>
       <c r="AB220" s="0">
-        <v>4.4276973631322112e-21</v>
+        <v>4.5242352047488623e-34</v>
       </c>
       <c r="AC220" s="0">
-        <v>0.015351301896307639</v>
+        <v>0.015351301896307637</v>
       </c>
       <c r="AD220" s="0">
         <v>0</v>
@@ -21757,16 +22309,16 @@
         <v>0</v>
       </c>
       <c r="Y221" s="0">
-        <v>9.0460415010407409e-21</v>
+        <v>0</v>
       </c>
       <c r="Z221" s="0">
-        <v>0.035809509720299317</v>
+        <v>0.03580950972029931</v>
       </c>
       <c r="AA221" s="0">
         <v>0.1435995261163488</v>
       </c>
       <c r="AB221" s="0">
-        <v>6.1217632576407969e-21</v>
+        <v>1.5420578433349361e-22</v>
       </c>
       <c r="AC221" s="0">
         <v>0.014143714688665826</v>
@@ -21849,7 +22401,7 @@
         <v>0</v>
       </c>
       <c r="Y222" s="0">
-        <v>1.1623288140930779e-33</v>
+        <v>0</v>
       </c>
       <c r="Z222" s="0">
         <v>0.035369365047821261</v>
@@ -21858,13 +22410,13 @@
         <v>0.14322264506433352</v>
       </c>
       <c r="AB222" s="0">
-        <v>5.2097909628443782e-34</v>
+        <v>0</v>
       </c>
       <c r="AC222" s="0">
         <v>0.012979214608686101</v>
       </c>
       <c r="AD222" s="0">
-        <v>0</v>
+        <v>7.9227064189224397e-35</v>
       </c>
     </row>
     <row r="223">
@@ -21941,16 +22493,16 @@
         <v>0</v>
       </c>
       <c r="Y223" s="0">
-        <v>5.6579097120235899e-21</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z223" s="0">
-        <v>0.034951090334064364</v>
+        <v>0.034951090334064377</v>
       </c>
       <c r="AA223" s="0">
         <v>0.14285503898451005</v>
       </c>
       <c r="AB223" s="0">
-        <v>4.4276973631324324e-21</v>
+        <v>4.5233022619641623e-34</v>
       </c>
       <c r="AC223" s="0">
         <v>0.011856639866387306</v>
@@ -22033,7 +22585,7 @@
         <v>0</v>
       </c>
       <c r="Y224" s="0">
-        <v>1.1608241813240254e-33</v>
+        <v>0</v>
       </c>
       <c r="Z224" s="0">
         <v>0.034538416294701023</v>
@@ -22042,13 +22594,13 @@
         <v>0.1426142856805801</v>
       </c>
       <c r="AB224" s="0">
-        <v>1.2789378536946488e-34</v>
+        <v>0</v>
       </c>
       <c r="AC224" s="0">
         <v>0.01077815195293472</v>
       </c>
       <c r="AD224" s="0">
-        <v>1.9259299443872359e-34</v>
+        <v>2.5105802248728913e-38</v>
       </c>
     </row>
     <row r="225">
@@ -22125,10 +22677,10 @@
         <v>0</v>
       </c>
       <c r="Y225" s="0">
-        <v>0</v>
+        <v>2.3381265078075969e-33</v>
       </c>
       <c r="Z225" s="0">
-        <v>0.034153932604714304</v>
+        <v>0.034153932604714311</v>
       </c>
       <c r="AA225" s="0">
         <v>0.14232914743067954</v>
@@ -22140,7 +22692,7 @@
         <v>0.0097408525927546452</v>
       </c>
       <c r="AD225" s="0">
-        <v>4.8148248609680896e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -22217,7 +22769,7 @@
         <v>0</v>
       </c>
       <c r="Y226" s="0">
-        <v>0</v>
+        <v>6.5526757092237595e-34</v>
       </c>
       <c r="Z226" s="0">
         <v>0.033767945751153862</v>
@@ -22226,13 +22778,13 @@
         <v>0.14219531895272142</v>
       </c>
       <c r="AB226" s="0">
-        <v>0</v>
+        <v>9.9309380238448331e-34</v>
       </c>
       <c r="AC226" s="0">
         <v>0.0087370811383656009</v>
       </c>
       <c r="AD226" s="0">
-        <v>0</v>
+        <v>2.8954776849454586e-34</v>
       </c>
     </row>
     <row r="227">
@@ -22309,7 +22861,7 @@
         <v>0</v>
       </c>
       <c r="Y227" s="0">
-        <v>1.1871552547824446e-33</v>
+        <v>6.1999407381260781e-34</v>
       </c>
       <c r="Z227" s="0">
         <v>0.033384833068817864</v>
@@ -22318,13 +22870,13 @@
         <v>0.1420886725180433</v>
       </c>
       <c r="AB227" s="0">
-        <v>1.7942745770951397e-33</v>
+        <v>0</v>
       </c>
       <c r="AC227" s="0">
         <v>0.0077715795622376287</v>
       </c>
       <c r="AD227" s="0">
-        <v>0</v>
+        <v>3.3163939766640375e-34</v>
       </c>
     </row>
     <row r="228">
@@ -22401,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="Y228" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>6.1999407381260781e-34</v>
       </c>
       <c r="Z228" s="0">
         <v>0.033016177142890978</v>
@@ -22410,13 +22962,13 @@
         <v>0.14203347563164431</v>
       </c>
       <c r="AB228" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="AC228" s="0">
         <v>0.0068494010161584129</v>
       </c>
       <c r="AD228" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>3.3163939766640375e-34</v>
       </c>
     </row>
     <row r="229">
@@ -22493,7 +23045,7 @@
         <v>0</v>
       </c>
       <c r="Y229" s="0">
-        <v>2.926510735807167e-33</v>
+        <v>0</v>
       </c>
       <c r="Z229" s="0">
         <v>0.032677706977203451</v>
@@ -22502,13 +23054,13 @@
         <v>0.14201038831635582</v>
       </c>
       <c r="AB229" s="0">
-        <v>4.2468259906507603e-34</v>
+        <v>0</v>
       </c>
       <c r="AC229" s="0">
         <v>0.0059632954336527851</v>
       </c>
       <c r="AD229" s="0">
-        <v>0</v>
+        <v>1.4477388424727293e-34</v>
       </c>
     </row>
     <row r="230">
@@ -22585,22 +23137,22 @@
         <v>0</v>
       </c>
       <c r="Y230" s="0">
-        <v>2.8008738995912809e-33</v>
+        <v>3.3881317890172014e-21</v>
       </c>
       <c r="Z230" s="0">
-        <v>0.032346011699538789</v>
+        <v>0.032346011699538782</v>
       </c>
       <c r="AA230" s="0">
         <v>0.142043940249063</v>
       </c>
       <c r="AB230" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AC230" s="0">
         <v>0.005115678793839216</v>
       </c>
       <c r="AD230" s="0">
-        <v>0</v>
+        <v>2.4121538725517364e-21</v>
       </c>
     </row>
     <row r="231">
@@ -22677,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="Y231" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z231" s="0">
         <v>0.03202977191080645</v>
@@ -22686,13 +23238,13 @@
         <v>0.1421225254437829</v>
       </c>
       <c r="AB231" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AC231" s="0">
         <v>0.0043058200374054391</v>
       </c>
       <c r="AD231" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -22769,16 +23321,16 @@
         <v>0</v>
       </c>
       <c r="Y232" s="0">
-        <v>0</v>
+        <v>2.5857114136167694e-33</v>
       </c>
       <c r="Z232" s="0">
-        <v>0.031729333723886914</v>
+        <v>0.031729333723886921</v>
       </c>
       <c r="AA232" s="0">
         <v>0.14220490584490877</v>
       </c>
       <c r="AB232" s="0">
-        <v>1.9259299443872359e-33</v>
+        <v>0</v>
       </c>
       <c r="AC232" s="0">
         <v>0.0035335306814233886</v>
@@ -22861,16 +23413,16 @@
         <v>0</v>
       </c>
       <c r="Y233" s="0">
-        <v>7.351975606532399e-21</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z233" s="0">
-        <v>0.031457397400935463</v>
+        <v>0.031457397400935477</v>
       </c>
       <c r="AA233" s="0">
         <v>0.142379473542489</v>
       </c>
       <c r="AB233" s="0">
-        <v>4.4276973631334262e-21</v>
+        <v>4.5242352047488623e-34</v>
       </c>
       <c r="AC233" s="0">
         <v>0.0027984079628853254</v>
@@ -22953,7 +23505,7 @@
         <v>0</v>
       </c>
       <c r="Y234" s="0">
-        <v>1.128474576789396e-36</v>
+        <v>3.0999703690630391e-34</v>
       </c>
       <c r="Z234" s="0">
         <v>0.031179304678927478</v>
@@ -22962,13 +23514,13 @@
         <v>0.14252551475835454</v>
       </c>
       <c r="AB234" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="AC234" s="0">
         <v>0.0020970947719172652</v>
       </c>
       <c r="AD234" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>1.1754143134645447e-34</v>
       </c>
     </row>
     <row r="235">
@@ -23045,10 +23597,10 @@
         <v>0</v>
       </c>
       <c r="Y235" s="0">
-        <v>0</v>
+        <v>5.082197683525802e-21</v>
       </c>
       <c r="Z235" s="0">
-        <v>0.030928260621527606</v>
+        <v>0.030928260621527617</v>
       </c>
       <c r="AA235" s="0">
         <v>0.14268165170405198</v>
@@ -23137,7 +23689,7 @@
         <v>0</v>
       </c>
       <c r="Y236" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z236" s="0">
         <v>0.030705107884700721</v>
@@ -23146,13 +23698,13 @@
         <v>0.1428777542245962</v>
       </c>
       <c r="AB236" s="0">
-        <v>1.1555579666323415e-33</v>
+        <v>0</v>
       </c>
       <c r="AC236" s="0">
         <v>0.00081161960155109287</v>
       </c>
       <c r="AD236" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>4.3710180412066816e-34</v>
       </c>
     </row>
     <row r="237">
@@ -23229,7 +23781,7 @@
         <v>0</v>
       </c>
       <c r="Y237" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>3.0999703690630391e-34</v>
       </c>
       <c r="Z237" s="0">
         <v>0.030505027230124573</v>
@@ -23238,13 +23790,13 @@
         <v>0.14303191172559748</v>
       </c>
       <c r="AB237" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AC237" s="0">
         <v>0.00023366573653027609</v>
       </c>
       <c r="AD237" s="0">
-        <v>0</v>
+        <v>1.6581969883320187e-34</v>
       </c>
     </row>
     <row r="238">
@@ -23324,13 +23876,13 @@
         <v>0</v>
       </c>
       <c r="Z238" s="0">
-        <v>0.030318550772594266</v>
+        <v>0.030318550772594259</v>
       </c>
       <c r="AA238" s="0">
         <v>0.14315819089285262</v>
       </c>
       <c r="AB238" s="0">
-        <v>2.4788824870140399e-34</v>
+        <v>2.0309760935735949e-34</v>
       </c>
       <c r="AC238" s="0">
         <v>0</v>
@@ -23422,10 +23974,10 @@
         <v>0.14327069212395532</v>
       </c>
       <c r="AB239" s="0">
-        <v>0</v>
+        <v>8.7870844492972286e-34</v>
       </c>
       <c r="AC239" s="0">
-        <v>0</v>
+        <v>1.2478827255787933e-35</v>
       </c>
       <c r="AD239" s="0">
         <v>0.00066913872166681745</v>
@@ -23505,7 +24057,7 @@
         <v>0</v>
       </c>
       <c r="Y240" s="0">
-        <v>0</v>
+        <v>1.3726729502279766e-34</v>
       </c>
       <c r="Z240" s="0">
         <v>0.030052996889343622</v>
@@ -23514,10 +24066,10 @@
         <v>0.14338343386703231</v>
       </c>
       <c r="AB240" s="0">
-        <v>0</v>
+        <v>1.1310588011872156e-34</v>
       </c>
       <c r="AC240" s="0">
-        <v>0</v>
+        <v>6.9982540505313751e-35</v>
       </c>
       <c r="AD240" s="0">
         <v>0.0010474125067199769</v>
@@ -23597,19 +24149,19 @@
         <v>0</v>
       </c>
       <c r="Y241" s="0">
-        <v>6.1915638446511528e-33</v>
+        <v>0</v>
       </c>
       <c r="Z241" s="0">
-        <v>0.02998520453218723</v>
+        <v>0.029985204532187233</v>
       </c>
       <c r="AA241" s="0">
-        <v>0.14349807612069218</v>
+        <v>0.14349807612069221</v>
       </c>
       <c r="AB241" s="0">
-        <v>1.04007740160756e-33</v>
+        <v>0</v>
       </c>
       <c r="AC241" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>9.3005113037059388e-35</v>
       </c>
       <c r="AD241" s="0">
         <v>0.0013859259916089467</v>
@@ -23689,22 +24241,22 @@
         <v>0</v>
       </c>
       <c r="Y242" s="0">
-        <v>3.2033631653128321e-33</v>
+        <v>0</v>
       </c>
       <c r="Z242" s="0">
-        <v>0.029943767925784379</v>
+        <v>0.029943767925784369</v>
       </c>
       <c r="AA242" s="0">
         <v>0.14351322198194044</v>
       </c>
       <c r="AB242" s="0">
-        <v>7.1432440710768767e-34</v>
+        <v>0</v>
       </c>
       <c r="AC242" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AD242" s="0">
-        <v>0.0016833833293665786</v>
+        <v>0.0016833833293665788</v>
       </c>
     </row>
     <row r="243">
@@ -23781,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="Y243" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>1.2442522058749417e-33</v>
       </c>
       <c r="Z243" s="0">
         <v>0.029934068547943959</v>
@@ -23790,7 +24342,7 @@
         <v>0.14349701982743074</v>
       </c>
       <c r="AB243" s="0">
-        <v>0</v>
+        <v>5.1613057995008656e-34</v>
       </c>
       <c r="AC243" s="0">
         <v>0</v>
@@ -23873,7 +24425,7 @@
         <v>0</v>
       </c>
       <c r="Y244" s="0">
-        <v>2.1738259182564369e-21</v>
+        <v>0</v>
       </c>
       <c r="Z244" s="0">
         <v>0.029983319111012353</v>
@@ -23882,13 +24434,13 @@
         <v>0.14342568504032643</v>
       </c>
       <c r="AB244" s="0">
-        <v>2.2780262238516719e-21</v>
+        <v>1.2850482027805233e-22</v>
       </c>
       <c r="AC244" s="0">
         <v>0</v>
       </c>
       <c r="AD244" s="0">
-        <v>0.0021516951956147869</v>
+        <v>0.0021516951956147873</v>
       </c>
     </row>
     <row r="245">
@@ -23965,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="Y245" s="0">
-        <v>3.9120451995365728e-33</v>
+        <v>6.5526757092237595e-34</v>
       </c>
       <c r="Z245" s="0">
         <v>0.03007226601651259</v>
@@ -23974,13 +24526,13 @@
         <v>0.14335399062962154</v>
       </c>
       <c r="AB245" s="0">
-        <v>0</v>
+        <v>9.9309380238448331e-34</v>
       </c>
       <c r="AC245" s="0">
-        <v>0</v>
+        <v>4.365701456349516e-35</v>
       </c>
       <c r="AD245" s="0">
-        <v>0.0023275942895440564</v>
+        <v>0.0023275942895440568</v>
       </c>
     </row>
     <row r="246">
@@ -24057,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="Y246" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>1.0365502292343717e-21</v>
       </c>
       <c r="Z246" s="0">
-        <v>0.030199098036684607</v>
+        <v>0.0301990980366846</v>
       </c>
       <c r="AA246" s="0">
         <v>0.14317979185652702</v>
       </c>
       <c r="AB246" s="0">
-        <v>0</v>
+        <v>1.2850482027804953e-22</v>
       </c>
       <c r="AC246" s="0">
         <v>0</v>
@@ -24149,19 +24701,19 @@
         <v>0</v>
       </c>
       <c r="Y247" s="0">
-        <v>7.2560236017822269e-21</v>
+        <v>0</v>
       </c>
       <c r="Z247" s="0">
-        <v>0.030400223923968597</v>
+        <v>0.03040022392396861</v>
       </c>
       <c r="AA247" s="0">
-        <v>0.14309781513436814</v>
+        <v>0.14309781513436817</v>
       </c>
       <c r="AB247" s="0">
-        <v>5.6661580128688146e-21</v>
+        <v>0</v>
       </c>
       <c r="AC247" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>0</v>
       </c>
       <c r="AD247" s="0">
         <v>0.002558390976355047</v>
@@ -24244,13 +24796,13 @@
         <v>0</v>
       </c>
       <c r="Z248" s="0">
-        <v>0.030606498430520025</v>
+        <v>0.030606498430520008</v>
       </c>
       <c r="AA248" s="0">
-        <v>0.14281445605711646</v>
+        <v>0.14281445605711643</v>
       </c>
       <c r="AB248" s="0">
-        <v>0</v>
+        <v>1.2850482027804121e-22</v>
       </c>
       <c r="AC248" s="0">
         <v>0</v>
@@ -24333,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="Y249" s="0">
-        <v>0</v>
+        <v>7.6134418114057917e-34</v>
       </c>
       <c r="Z249" s="0">
         <v>0.030909135826047738</v>
@@ -24342,7 +24894,7 @@
         <v>0.14265414762922357</v>
       </c>
       <c r="AB249" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC249" s="0">
         <v>0</v>
@@ -24425,19 +24977,19 @@
         <v>0</v>
       </c>
       <c r="Y250" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>-1.1690632539037984e-33</v>
       </c>
       <c r="Z250" s="0">
-        <v>0.031231498040504933</v>
+        <v>0.031231498040504922</v>
       </c>
       <c r="AA250" s="0">
         <v>0.14239600848298839</v>
       </c>
       <c r="AB250" s="0">
-        <v>0</v>
+        <v>-1.6175203129950136e-33</v>
       </c>
       <c r="AC250" s="0">
-        <v>0</v>
+        <v>2.5646935746240669e-34</v>
       </c>
       <c r="AD250" s="0">
         <v>0.0026218917909591019</v>
@@ -24517,7 +25069,7 @@
         <v>0</v>
       </c>
       <c r="Y251" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="Z251" s="0">
         <v>0.031599154937944768</v>
@@ -24526,10 +25078,10 @@
         <v>0.14213953594440076</v>
       </c>
       <c r="AB251" s="0">
-        <v>0</v>
+        <v>1.9184067805419732e-35</v>
       </c>
       <c r="AC251" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>2.661615802861876e-36</v>
       </c>
       <c r="AD251" s="0">
         <v>0.0025816705146040429</v>
@@ -24609,7 +25161,7 @@
         <v>0</v>
       </c>
       <c r="Y252" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>2.4969380802426702e-33</v>
       </c>
       <c r="Z252" s="0">
         <v>0.031997266988143147</v>
@@ -24621,7 +25173,7 @@
         <v>0</v>
       </c>
       <c r="AC252" s="0">
-        <v>0</v>
+        <v>1.327838418688856e-34</v>
       </c>
       <c r="AD252" s="0">
         <v>0.0025041563755050789</v>
@@ -24701,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="Y253" s="0">
-        <v>0</v>
+        <v>2.4885044117498834e-33</v>
       </c>
       <c r="Z253" s="0">
         <v>0.032461405404342197</v>
@@ -24710,7 +25262,7 @@
         <v>0.1415118522795337</v>
       </c>
       <c r="AB253" s="0">
-        <v>0</v>
+        <v>1.0899418719694414e-33</v>
       </c>
       <c r="AC253" s="0">
         <v>0</v>
@@ -24796,7 +25348,7 @@
         <v>0</v>
       </c>
       <c r="Z254" s="0">
-        <v>0.032958765628109836</v>
+        <v>0.032958765628109829</v>
       </c>
       <c r="AA254" s="0">
         <v>0.14125465673512008</v>
@@ -24977,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="Y256" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>0</v>
       </c>
       <c r="Z256" s="0">
-        <v>0.034061025036411501</v>
+        <v>0.034061025036411494</v>
       </c>
       <c r="AA256" s="0">
         <v>0.14072855513060706</v>
@@ -24989,7 +25541,7 @@
         <v>0</v>
       </c>
       <c r="AC256" s="0">
-        <v>0</v>
+        <v>1.8060795914389762e-22</v>
       </c>
       <c r="AD256" s="0">
         <v>0.001977518677680199</v>
@@ -25069,7 +25621,7 @@
         <v>0</v>
       </c>
       <c r="Y257" s="0">
-        <v>0</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z257" s="0">
         <v>0.034677496422241556</v>
@@ -25078,13 +25630,13 @@
         <v>0.14050995981680547</v>
       </c>
       <c r="AB257" s="0">
-        <v>0</v>
+        <v>2.2621176023744311e-34</v>
       </c>
       <c r="AC257" s="0">
-        <v>1.4444474582904269e-34</v>
+        <v>1.399650810106275e-34</v>
       </c>
       <c r="AD257" s="0">
-        <v>0.0017979467808664836</v>
+        <v>0.0017979467808664838</v>
       </c>
     </row>
     <row r="258">
@@ -25161,7 +25713,7 @@
         <v>0</v>
       </c>
       <c r="Y258" s="0">
-        <v>9.1030282527677945e-35</v>
+        <v>0</v>
       </c>
       <c r="Z258" s="0">
         <v>0.035312309784054086</v>
@@ -25173,10 +25725,10 @@
         <v>0</v>
       </c>
       <c r="AC258" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>0</v>
       </c>
       <c r="AD258" s="0">
-        <v>0.0016090052577360555</v>
+        <v>0.0016090052577360557</v>
       </c>
     </row>
     <row r="259">
@@ -25253,7 +25805,7 @@
         <v>0</v>
       </c>
       <c r="Y259" s="0">
-        <v>2.256949153578792e-36</v>
+        <v>0</v>
       </c>
       <c r="Z259" s="0">
         <v>0.03595714726606531</v>
@@ -25262,10 +25814,10 @@
         <v>0.14008967199105044</v>
       </c>
       <c r="AB259" s="0">
-        <v>1.128474576789396e-36</v>
+        <v>4.3675260981659247e-37</v>
       </c>
       <c r="AC259" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AD259" s="0">
         <v>0.0014098370670205336</v>
@@ -25354,10 +25906,10 @@
         <v>0.13993366254901513</v>
       </c>
       <c r="AB260" s="0">
-        <v>0</v>
+        <v>2.9536083016012885e-33</v>
       </c>
       <c r="AC260" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>9.3052132811092279e-35</v>
       </c>
       <c r="AD260" s="0">
         <v>0.001206832051163889</v>
@@ -25437,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="Y261" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>3.3881317890172014e-21</v>
       </c>
       <c r="Z261" s="0">
-        <v>0.037329558787481558</v>
+        <v>0.037329558787481565</v>
       </c>
       <c r="AA261" s="0">
-        <v>0.13986523236555765</v>
+        <v>0.13986523236555767</v>
       </c>
       <c r="AB261" s="0">
         <v>0</v>
@@ -25529,7 +26081,7 @@
         <v>0</v>
       </c>
       <c r="Y262" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z262" s="0">
         <v>0.038010790682506609</v>
@@ -25538,7 +26090,7 @@
         <v>0.13973213453407934</v>
       </c>
       <c r="AB262" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC262" s="0">
         <v>0</v>
@@ -25621,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="Y263" s="0">
-        <v>8.6666847497425613e-34</v>
+        <v>1.128474576789396e-36</v>
       </c>
       <c r="Z263" s="0">
         <v>0.038726277416442731</v>
@@ -25630,10 +26182,10 @@
         <v>0.13966335151562773</v>
       </c>
       <c r="AB263" s="0">
-        <v>0</v>
+        <v>3.1503248602037305e-36</v>
       </c>
       <c r="AC263" s="0">
-        <v>1.9259299443872359e-34</v>
+        <v>1.2550855408851177e-36</v>
       </c>
       <c r="AD263" s="0">
         <v>0.00059320999479295226</v>
@@ -25713,7 +26265,7 @@
         <v>0</v>
       </c>
       <c r="Y264" s="0">
-        <v>0</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z264" s="0">
         <v>0.0394467179622328</v>
@@ -25722,10 +26274,10 @@
         <v>0.13962366671911597</v>
       </c>
       <c r="AB264" s="0">
-        <v>0</v>
+        <v>2.2621176023744311e-34</v>
       </c>
       <c r="AC264" s="0">
-        <v>0</v>
+        <v>1.399650810106275e-34</v>
       </c>
       <c r="AD264" s="0">
         <v>0.00038512947313467787</v>
@@ -25805,13 +26357,13 @@
         <v>0</v>
       </c>
       <c r="Y265" s="0">
-        <v>1.3552527156068805e-20</v>
+        <v>0</v>
       </c>
       <c r="Z265" s="0">
-        <v>0.040168427485919804</v>
+        <v>0.04016842748591979</v>
       </c>
       <c r="AA265" s="0">
-        <v>0.13957644224168259</v>
+        <v>0.13957644224168256</v>
       </c>
       <c r="AB265" s="0">
         <v>0</v>
@@ -25897,7 +26449,7 @@
         <v>0</v>
       </c>
       <c r="Y266" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="Z266" s="0">
         <v>0.040913451629869708</v>
@@ -25906,13 +26458,13 @@
         <v>0.139605670634739</v>
       </c>
       <c r="AB266" s="0">
-        <v>1.128474576789396e-36</v>
+        <v>0</v>
       </c>
       <c r="AC266" s="0">
         <v>3.7986918980079322e-05</v>
       </c>
       <c r="AD266" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -25989,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="Y267" s="0">
-        <v>2.2697779230066764e-21</v>
+        <v>0</v>
       </c>
       <c r="Z267" s="0">
         <v>0.041661645802738179</v>
@@ -25998,7 +26550,7 @@
         <v>0.13960316877126758</v>
       </c>
       <c r="AB267" s="0">
-        <v>1.0395655741165991e-21</v>
+        <v>1.8482716788420829e-21</v>
       </c>
       <c r="AC267" s="0">
         <v>0.00028791166124569206</v>
@@ -26084,13 +26636,13 @@
         <v>0</v>
       </c>
       <c r="Z268" s="0">
-        <v>0.042420258896376517</v>
+        <v>0.042420258896376524</v>
       </c>
       <c r="AA268" s="0">
         <v>0.13960501485367971</v>
       </c>
       <c r="AB268" s="0">
-        <v>0</v>
+        <v>1.8482716788420851e-21</v>
       </c>
       <c r="AC268" s="0">
         <v>0.00054400200341414063</v>
@@ -26182,7 +26734,7 @@
         <v>0.13962716559890928</v>
       </c>
       <c r="AB269" s="0">
-        <v>0</v>
+        <v>4.9352245605227569e-34</v>
       </c>
       <c r="AC269" s="0">
         <v>0.00079823315835339829</v>
@@ -26265,16 +26817,16 @@
         <v>0</v>
       </c>
       <c r="Y270" s="0">
-        <v>7.351975606532387e-21</v>
+        <v>0</v>
       </c>
       <c r="Z270" s="0">
-        <v>0.043977280560131921</v>
+        <v>0.043977280560131934</v>
       </c>
       <c r="AA270" s="0">
-        <v>0.13961525168283817</v>
+        <v>0.1396152516828382</v>
       </c>
       <c r="AB270" s="0">
-        <v>2.733631468624765e-21</v>
+        <v>7.0341581953205684e-34</v>
       </c>
       <c r="AC270" s="0">
         <v>0.0010545723503043521</v>
@@ -26366,7 +26918,7 @@
         <v>0.1396406811926931</v>
       </c>
       <c r="AB271" s="0">
-        <v>0</v>
+        <v>4.9352245605227569e-34</v>
       </c>
       <c r="AC271" s="0">
         <v>0.0013157588716741246</v>
@@ -26449,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="Y272" s="0">
-        <v>9.0277966143151681e-36</v>
+        <v>0</v>
       </c>
       <c r="Z272" s="0">
         <v>0.045565913819348582</v>
@@ -26458,13 +27010,13 @@
         <v>0.13962822156445884</v>
       </c>
       <c r="AB272" s="0">
-        <v>2.1064858766735392e-35</v>
+        <v>0</v>
       </c>
       <c r="AC272" s="0">
         <v>0.0015718203827703597</v>
       </c>
       <c r="AD272" s="0">
-        <v>0</v>
+        <v>2.6771477744861905e-37</v>
       </c>
     </row>
     <row r="273">
@@ -26541,7 +27093,7 @@
         <v>0</v>
       </c>
       <c r="Y273" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z273" s="0">
         <v>0.046348333946349893</v>
@@ -26550,7 +27102,7 @@
         <v>0.13961110423418518</v>
       </c>
       <c r="AB273" s="0">
-        <v>1.1555579666323415e-33</v>
+        <v>0</v>
       </c>
       <c r="AC273" s="0">
         <v>0.0018171066457403073</v>
@@ -26633,7 +27185,7 @@
         <v>0</v>
       </c>
       <c r="Y274" s="0">
-        <v>3.009265538105056e-36</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z274" s="0">
         <v>0.047113743138526162</v>
@@ -26648,7 +27200,7 @@
         <v>0.0020583430548929108</v>
       </c>
       <c r="AD274" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -26734,7 +27286,7 @@
         <v>0.13948902565149021</v>
       </c>
       <c r="AB275" s="0">
-        <v>0</v>
+        <v>4.9352245605227569e-34</v>
       </c>
       <c r="AC275" s="0">
         <v>0.0022869293692756466</v>
@@ -26826,7 +27378,7 @@
         <v>0.13939273796029925</v>
       </c>
       <c r="AB276" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>4.9352245605227569e-34</v>
       </c>
       <c r="AC276" s="0">
         <v>0.0025012382532553965</v>
@@ -26909,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="Y277" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z277" s="0">
         <v>0.049342200016975972</v>
@@ -26918,7 +27470,7 @@
         <v>0.13925356181726117</v>
       </c>
       <c r="AB277" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AC277" s="0">
         <v>0.0026983140053333313</v>
@@ -27001,7 +27553,7 @@
         <v>0</v>
       </c>
       <c r="Y278" s="0">
-        <v>4.3678157414951325e-37</v>
+        <v>0</v>
       </c>
       <c r="Z278" s="0">
         <v>0.050036552819194245</v>
@@ -27010,13 +27562,13 @@
         <v>0.13911912136699611</v>
       </c>
       <c r="AB278" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="AC278" s="0">
         <v>0.0028800416376145908</v>
       </c>
       <c r="AD278" s="0">
-        <v>0</v>
+        <v>2.5474850979235781e-38</v>
       </c>
     </row>
     <row r="279">
@@ -27093,22 +27645,22 @@
         <v>0</v>
       </c>
       <c r="Y279" s="0">
-        <v>3.9638438175151495e-21</v>
+        <v>2.3381265078075969e-33</v>
       </c>
       <c r="Z279" s="0">
-        <v>0.050674023890889798</v>
+        <v>0.050674023890889805</v>
       </c>
       <c r="AA279" s="0">
         <v>0.13895537107035463</v>
       </c>
       <c r="AB279" s="0">
-        <v>0</v>
+        <v>1.5347254244335786e-34</v>
       </c>
       <c r="AC279" s="0">
-        <v>0.0030238046636859154</v>
+        <v>0.003023804663685915</v>
       </c>
       <c r="AD279" s="0">
-        <v>0</v>
+        <v>1.9184067805419732e-34</v>
       </c>
     </row>
     <row r="280">
@@ -27188,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="Z280" s="0">
-        <v>0.051281805339794942</v>
+        <v>0.051281805339794949</v>
       </c>
       <c r="AA280" s="0">
         <v>0.13889024344387799</v>
@@ -27197,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="AC280" s="0">
-        <v>0.0031341730264986883</v>
+        <v>0.0031341730264986879</v>
       </c>
       <c r="AD280" s="0">
         <v>0</v>
@@ -27277,22 +27829,22 @@
         <v>0</v>
       </c>
       <c r="Y281" s="0">
-        <v>0</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z281" s="0">
-        <v>0.051870018839102743</v>
+        <v>0.051870018839102756</v>
       </c>
       <c r="AA281" s="0">
         <v>0.13879821640274242</v>
       </c>
       <c r="AB281" s="0">
-        <v>0</v>
+        <v>9.9663113040116824e-34</v>
       </c>
       <c r="AC281" s="0">
-        <v>0.0032407798426322271</v>
+        <v>0.0032407798426322275</v>
       </c>
       <c r="AD281" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>1.2380306502860332e-34</v>
       </c>
     </row>
     <row r="282">
@@ -27372,19 +27924,19 @@
         <v>0</v>
       </c>
       <c r="Z282" s="0">
-        <v>0.052480981118247595</v>
+        <v>0.052480981118247588</v>
       </c>
       <c r="AA282" s="0">
         <v>0.13873075833077511</v>
       </c>
       <c r="AB282" s="0">
-        <v>3.3881317890172014e-21</v>
+        <v>4.8373943525038776e-34</v>
       </c>
       <c r="AC282" s="0">
         <v>0.0033584264876214041</v>
       </c>
       <c r="AD282" s="0">
-        <v>1.6940658945086007e-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -27461,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="Y283" s="0">
-        <v>5.3926038442842604e-33</v>
+        <v>8.5011751451467833e-34</v>
       </c>
       <c r="Z283" s="0">
         <v>0.053024150422253336</v>
@@ -27470,13 +28022,13 @@
         <v>0.13841908703521535</v>
       </c>
       <c r="AB283" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>-1.7609068254672997e-33</v>
       </c>
       <c r="AC283" s="0">
         <v>0.0034424040395417111</v>
       </c>
       <c r="AD283" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>1.7117479988492265e-33</v>
       </c>
     </row>
     <row r="284">
@@ -27553,22 +28105,22 @@
         <v>0</v>
       </c>
       <c r="Y284" s="0">
-        <v>5.5400578556514081e-33</v>
+        <v>0</v>
       </c>
       <c r="Z284" s="0">
         <v>0.053555501311533936</v>
       </c>
       <c r="AA284" s="0">
-        <v>0.1380918877019138</v>
+        <v>0.13809188770191383</v>
       </c>
       <c r="AB284" s="0">
-        <v>7.0905819241600382e-34</v>
+        <v>0</v>
       </c>
       <c r="AC284" s="0">
         <v>0.0035282855171931732</v>
       </c>
       <c r="AD284" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -27645,7 +28197,7 @@
         <v>0</v>
       </c>
       <c r="Y285" s="0">
-        <v>0</v>
+        <v>1.2399881476252156e-33</v>
       </c>
       <c r="Z285" s="0">
         <v>0.054051994653498969</v>
@@ -27660,7 +28212,7 @@
         <v>0.0035858805282391504</v>
       </c>
       <c r="AD285" s="0">
-        <v>0</v>
+        <v>1.7781162708861722e-34</v>
       </c>
     </row>
     <row r="286">
@@ -27737,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="Y286" s="0">
-        <v>0</v>
+        <v>8.0685932240441815e-35</v>
       </c>
       <c r="Z286" s="0">
         <v>0.054512491029699871</v>
@@ -27746,13 +28298,13 @@
         <v>0.13736657057210591</v>
       </c>
       <c r="AB286" s="0">
-        <v>0</v>
+        <v>2.7619415266920467e-34</v>
       </c>
       <c r="AC286" s="0">
         <v>0.0036281385779878259</v>
       </c>
       <c r="AD286" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -27829,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="Y287" s="0">
-        <v>2.256949153578792e-36</v>
+        <v>0</v>
       </c>
       <c r="Z287" s="0">
         <v>0.05492943105799275</v>
@@ -27838,13 +28390,13 @@
         <v>0.13702040197010371</v>
       </c>
       <c r="AB287" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="AC287" s="0">
         <v>0.0036440193191268032</v>
       </c>
       <c r="AD287" s="0">
-        <v>0</v>
+        <v>2.9987666947145172e-37</v>
       </c>
     </row>
     <row r="288">
@@ -27921,7 +28473,7 @@
         <v>0</v>
       </c>
       <c r="Y288" s="0">
-        <v>4.7742653761936727e-21</v>
+        <v>5.9711478884426464e-22</v>
       </c>
       <c r="Z288" s="0">
         <v>0.055299602580535831</v>
@@ -27930,7 +28482,7 @@
         <v>0.13654758939909445</v>
       </c>
       <c r="AB288" s="0">
-        <v>4.7444383625664535e-22</v>
+        <v>2.322715515130154e-21</v>
       </c>
       <c r="AC288" s="0">
         <v>0.0036378149470976942</v>
@@ -28013,7 +28565,7 @@
         <v>0</v>
       </c>
       <c r="Y289" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z289" s="0">
         <v>0.055617422824878464</v>
@@ -28022,13 +28574,13 @@
         <v>0.13603656308497339</v>
       </c>
       <c r="AB289" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AC289" s="0">
         <v>0.0036049603824436726</v>
       </c>
       <c r="AD289" s="0">
-        <v>0</v>
+        <v>4.366600073552684e-34</v>
       </c>
     </row>
     <row r="290">
@@ -28114,7 +28666,7 @@
         <v>0.13556411825738715</v>
       </c>
       <c r="AB290" s="0">
-        <v>0</v>
+        <v>3.3861065651634038e-35</v>
       </c>
       <c r="AC290" s="0">
         <v>0.0035613362927648224</v>
@@ -28197,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="Y291" s="0">
-        <v>0</v>
+        <v>3.8484020586508401e-35</v>
       </c>
       <c r="Z291" s="0">
         <v>0.056170714274489331</v>
@@ -28212,7 +28764,7 @@
         <v>0.0034961734473585812</v>
       </c>
       <c r="AD291" s="0">
-        <v>0</v>
+        <v>1.2628580345390363e-35</v>
       </c>
     </row>
     <row r="292">
@@ -28298,13 +28850,13 @@
         <v>0.13437409803640629</v>
       </c>
       <c r="AB292" s="0">
-        <v>0</v>
+        <v>1.6940658945086007e-21</v>
       </c>
       <c r="AC292" s="0">
         <v>0.003421062599138843</v>
       </c>
       <c r="AD292" s="0">
-        <v>8.4703294725430034e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -28390,7 +28942,7 @@
         <v>0.13364581324191604</v>
       </c>
       <c r="AB293" s="0">
-        <v>0</v>
+        <v>4.9352245605227569e-34</v>
       </c>
       <c r="AC293" s="0">
         <v>0.0033182072989708469</v>
@@ -28473,16 +29025,16 @@
         <v>0</v>
       </c>
       <c r="Y294" s="0">
-        <v>0</v>
+        <v>1.3063974017298574e-33</v>
       </c>
       <c r="Z294" s="0">
-        <v>0.056724551705487188</v>
+        <v>0.056724551705487181</v>
       </c>
       <c r="AA294" s="0">
         <v>0.13295935019306221</v>
       </c>
       <c r="AB294" s="0">
-        <v>0</v>
+        <v>9.2995709082252809e-34</v>
       </c>
       <c r="AC294" s="0">
         <v>0.0032105149912785378</v>
@@ -28565,16 +29117,16 @@
         <v>0</v>
       </c>
       <c r="Y295" s="0">
-        <v>6.4683312707022764e-21</v>
+        <v>0</v>
       </c>
       <c r="Z295" s="0">
-        <v>0.056899137275606249</v>
+        <v>0.056899137275606262</v>
       </c>
       <c r="AA295" s="0">
-        <v>0.132285390801543</v>
+        <v>0.13228539080154303</v>
       </c>
       <c r="AB295" s="0">
-        <v>0</v>
+        <v>3.3903876014604908e-34</v>
       </c>
       <c r="AC295" s="0">
         <v>0.0031141395222157647</v>
@@ -28657,7 +29209,7 @@
         <v>0</v>
       </c>
       <c r="Y296" s="0">
-        <v>8.1623971652101842e-21</v>
+        <v>5.9711478884439328e-22</v>
       </c>
       <c r="Z296" s="0">
         <v>0.0570168849184313</v>
@@ -28749,16 +29301,16 @@
         <v>0</v>
       </c>
       <c r="Y297" s="0">
-        <v>1.8394135601667155e-33</v>
+        <v>0</v>
       </c>
       <c r="Z297" s="0">
-        <v>0.05705241698981893</v>
+        <v>0.057052416989818937</v>
       </c>
       <c r="AA297" s="0">
         <v>0.13059904292845115</v>
       </c>
       <c r="AB297" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>1.3098768650082914e-33</v>
       </c>
       <c r="AC297" s="0">
         <v>0.0028344132158417443</v>
@@ -28841,7 +29393,7 @@
         <v>0</v>
       </c>
       <c r="Y298" s="0">
-        <v>7.9745536759783985e-34</v>
+        <v>0</v>
       </c>
       <c r="Z298" s="0">
         <v>0.057138721506916818</v>
@@ -28850,13 +29402,13 @@
         <v>0.12981783029583313</v>
       </c>
       <c r="AB298" s="0">
-        <v>4.2957265556449675e-34</v>
+        <v>0</v>
       </c>
       <c r="AC298" s="0">
         <v>0.0026935919143554624</v>
       </c>
       <c r="AD298" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>2.4250312941887506e-34</v>
       </c>
     </row>
     <row r="299">
@@ -28933,22 +29485,22 @@
         <v>0</v>
       </c>
       <c r="Y299" s="0">
-        <v>3.8187579678553161e-33</v>
+        <v>6.1999407381260781e-34</v>
       </c>
       <c r="Z299" s="0">
-        <v>0.057196700268449238</v>
+        <v>0.057196700268449231</v>
       </c>
       <c r="AA299" s="0">
         <v>0.12892637862492665</v>
       </c>
       <c r="AB299" s="0">
-        <v>9.7424971796151189e-35</v>
+        <v>0</v>
       </c>
       <c r="AC299" s="0">
         <v>0.0025552338554029512</v>
       </c>
       <c r="AD299" s="0">
-        <v>0</v>
+        <v>3.3163939766640375e-34</v>
       </c>
     </row>
     <row r="300">
@@ -29034,7 +29586,7 @@
         <v>0.12779015034054295</v>
       </c>
       <c r="AB300" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>4.9352245605227569e-34</v>
       </c>
       <c r="AC300" s="0">
         <v>0.0023602933683696124</v>
@@ -29117,7 +29669,7 @@
         <v>0</v>
       </c>
       <c r="Y301" s="0">
-        <v>6.4683312707022764e-21</v>
+        <v>0</v>
       </c>
       <c r="Z301" s="0">
         <v>0.05705650916750904</v>
@@ -29126,7 +29678,7 @@
         <v>0.12660783978215323</v>
       </c>
       <c r="AB301" s="0">
-        <v>5.5566415197824447e-21</v>
+        <v>0</v>
       </c>
       <c r="AC301" s="0">
         <v>0.0021680882729041818</v>
@@ -29209,16 +29761,16 @@
         <v>0</v>
       </c>
       <c r="Y302" s="0">
-        <v>4.0610038436727731e-33</v>
+        <v>4.513898307157584e-34</v>
       </c>
       <c r="Z302" s="0">
-        <v>0.057085453863573742</v>
+        <v>0.057085453863573735</v>
       </c>
       <c r="AA302" s="0">
         <v>0.12568250004789677</v>
       </c>
       <c r="AB302" s="0">
-        <v>0</v>
+        <v>2.9942192104145307e-34</v>
       </c>
       <c r="AC302" s="0">
         <v>0.0020186845671676997</v>
@@ -29301,7 +29853,7 @@
         <v>0</v>
       </c>
       <c r="Y303" s="0">
-        <v>0</v>
+        <v>2.1478632778224837e-34</v>
       </c>
       <c r="Z303" s="0">
         <v>0.056967169778365634</v>
@@ -29310,13 +29862,13 @@
         <v>0.12447399703734556</v>
       </c>
       <c r="AB303" s="0">
-        <v>0</v>
+        <v>4.2204949171923411e-34</v>
       </c>
       <c r="AC303" s="0">
         <v>0.0018024808575883438</v>
       </c>
       <c r="AD303" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -29408,7 +29960,7 @@
         <v>0.0016051602772798055</v>
       </c>
       <c r="AD304" s="0">
-        <v>0</v>
+        <v>1.1654978488178023e-37</v>
       </c>
     </row>
     <row r="305">
@@ -29494,7 +30046,7 @@
         <v>0.12220820448669369</v>
       </c>
       <c r="AB305" s="0">
-        <v>0</v>
+        <v>9.8704491210455138e-34</v>
       </c>
       <c r="AC305" s="0">
         <v>0.0014016348087724801</v>
@@ -29586,13 +30138,13 @@
         <v>0.12089195982150934</v>
       </c>
       <c r="AB306" s="0">
-        <v>0</v>
+        <v>1.2413220344683356e-35</v>
       </c>
       <c r="AC306" s="0">
         <v>0.0011876109302801424</v>
       </c>
       <c r="AD306" s="0">
-        <v>0</v>
+        <v>1.6387007604481598e-35</v>
       </c>
     </row>
     <row r="307">
@@ -29669,7 +30221,7 @@
         <v>0</v>
       </c>
       <c r="Y307" s="0">
-        <v>3.4636646343589195e-33</v>
+        <v>6.5018943532682367e-34</v>
       </c>
       <c r="Z307" s="0">
         <v>0.056444478766325516</v>
@@ -29678,13 +30230,13 @@
         <v>0.11959775614197293</v>
       </c>
       <c r="AB307" s="0">
-        <v>1.2646438423886498e-33</v>
+        <v>6.2667954831037792e-34</v>
       </c>
       <c r="AC307" s="0">
         <v>0.00096281597755947066</v>
       </c>
       <c r="AD307" s="0">
-        <v>0</v>
+        <v>1.8977448099438021e-34</v>
       </c>
     </row>
     <row r="308">
@@ -29761,7 +30313,7 @@
         <v>0</v>
       </c>
       <c r="Y308" s="0">
-        <v>3.5434101711187035e-33</v>
+        <v>0</v>
       </c>
       <c r="Z308" s="0">
         <v>0.056325814019966267</v>
@@ -29776,7 +30328,7 @@
         <v>0.00075955764188330086</v>
       </c>
       <c r="AD308" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -29862,7 +30414,7 @@
         <v>0.11701458243462727</v>
       </c>
       <c r="AB309" s="0">
-        <v>0</v>
+        <v>1.3481509610710651e-33</v>
       </c>
       <c r="AC309" s="0">
         <v>0.00050810674134640866</v>
@@ -29945,7 +30497,7 @@
         <v>0</v>
       </c>
       <c r="Y310" s="0">
-        <v>4.513898307157584e-36</v>
+        <v>0</v>
       </c>
       <c r="Z310" s="0">
         <v>0.05591675448388219</v>
@@ -29954,13 +30506,13 @@
         <v>0.11579475578573716</v>
       </c>
       <c r="AB310" s="0">
-        <v>4.137740114894452e-36</v>
+        <v>0</v>
       </c>
       <c r="AC310" s="0">
         <v>0.0002889608737746762</v>
       </c>
       <c r="AD310" s="0">
-        <v>6.018531076210112e-36</v>
+        <v>5.64237288394698e-37</v>
       </c>
     </row>
     <row r="311">
@@ -30037,7 +30589,7 @@
         <v>0</v>
       </c>
       <c r="Y311" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>1.5903968368885221e-33</v>
       </c>
       <c r="Z311" s="0">
         <v>0.055722313320339951</v>
@@ -30046,13 +30598,13 @@
         <v>0.11452197246353939</v>
       </c>
       <c r="AB311" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
       <c r="AC311" s="0">
         <v>5.9312972478323337e-05</v>
       </c>
       <c r="AD311" s="0">
-        <v>0</v>
+        <v>4.0831314893376715e-35</v>
       </c>
     </row>
     <row r="312">
@@ -30138,7 +30690,7 @@
         <v>0.11314929475749767</v>
       </c>
       <c r="AB312" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AC312" s="0">
         <v>0</v>
@@ -30221,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="Y313" s="0">
-        <v>0</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z313" s="0">
         <v>0.055232631616083459</v>
@@ -30230,10 +30782,10 @@
         <v>0.11162894697268384</v>
       </c>
       <c r="AB313" s="0">
-        <v>0</v>
+        <v>2.2621176023744311e-34</v>
       </c>
       <c r="AC313" s="0">
-        <v>0</v>
+        <v>1.399650810106275e-34</v>
       </c>
       <c r="AD313" s="0">
         <v>0.00034993399584817982</v>
@@ -30322,10 +30874,10 @@
         <v>0.11010520423999859</v>
       </c>
       <c r="AB314" s="0">
-        <v>0</v>
+        <v>2.9716177645619367e-34</v>
       </c>
       <c r="AC314" s="0">
-        <v>0</v>
+        <v>4.6728537932366025e-34</v>
       </c>
       <c r="AD314" s="0">
         <v>0.00058237335691288495</v>
@@ -30405,7 +30957,7 @@
         <v>0</v>
       </c>
       <c r="Y315" s="0">
-        <v>4.3678157414951325e-37</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z315" s="0">
         <v>0.0547017169144507</v>
@@ -30414,10 +30966,10 @@
         <v>0.10870451177824816</v>
       </c>
       <c r="AB315" s="0">
-        <v>8.6516384220520361e-36</v>
+        <v>2.2621176023744311e-34</v>
       </c>
       <c r="AC315" s="0">
-        <v>0</v>
+        <v>1.399650810106275e-34</v>
       </c>
       <c r="AD315" s="0">
         <v>0.0007643398949420604</v>
@@ -30497,7 +31049,7 @@
         <v>0</v>
       </c>
       <c r="Y316" s="0">
-        <v>4.513898307157584e-36</v>
+        <v>0</v>
       </c>
       <c r="Z316" s="0">
         <v>0.054336740731727354</v>
@@ -30506,10 +31058,10 @@
         <v>0.10698621997725553</v>
       </c>
       <c r="AB316" s="0">
-        <v>0</v>
+        <v>7.7817726024435433e-36</v>
       </c>
       <c r="AC316" s="0">
-        <v>0</v>
+        <v>7.790441876581783e-36</v>
       </c>
       <c r="AD316" s="0">
         <v>0.00099544819426887997</v>
@@ -30592,10 +31144,10 @@
         <v>0</v>
       </c>
       <c r="Z317" s="0">
-        <v>0.053968874494787843</v>
+        <v>0.053968874494787836</v>
       </c>
       <c r="AA317" s="0">
-        <v>0.10524710617537146</v>
+        <v>0.10524710617537145</v>
       </c>
       <c r="AB317" s="0">
         <v>0</v>
@@ -30690,7 +31242,7 @@
         <v>0.10355061459806693</v>
       </c>
       <c r="AB318" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="AC318" s="0">
         <v>0</v>
@@ -30773,7 +31325,7 @@
         <v>0</v>
       </c>
       <c r="Y319" s="0">
-        <v>1.3692158198378005e-33</v>
+        <v>0</v>
       </c>
       <c r="Z319" s="0">
         <v>0.053391141725879686</v>
@@ -30782,10 +31334,10 @@
         <v>0.10191908024535148</v>
       </c>
       <c r="AB319" s="0">
-        <v>0</v>
+        <v>6.770847460736376e-36</v>
       </c>
       <c r="AC319" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AD319" s="0">
         <v>0.0016208418734893701</v>
@@ -30874,13 +31426,13 @@
         <v>0.10040208163663374</v>
       </c>
       <c r="AB320" s="0">
-        <v>4.4048124314012757e-34</v>
+        <v>3.9722305102986739e-34</v>
       </c>
       <c r="AC320" s="0">
-        <v>0</v>
+        <v>1.5206343792385931e-34</v>
       </c>
       <c r="AD320" s="0">
-        <v>0.0017976917776061753</v>
+        <v>0.0017976917776061751</v>
       </c>
     </row>
     <row r="321">
@@ -30957,16 +31509,16 @@
         <v>0</v>
       </c>
       <c r="Y321" s="0">
-        <v>0</v>
+        <v>1.5287068933573685e-33</v>
       </c>
       <c r="Z321" s="0">
-        <v>0.052957778268068169</v>
+        <v>0.052957778268068162</v>
       </c>
       <c r="AA321" s="0">
         <v>0.098836336455634943</v>
       </c>
       <c r="AB321" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AC321" s="0">
         <v>0</v>
@@ -31049,19 +31601,19 @@
         <v>0</v>
       </c>
       <c r="Y322" s="0">
-        <v>0</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z322" s="0">
-        <v>0.052782907815439928</v>
+        <v>0.052782907815439921</v>
       </c>
       <c r="AA322" s="0">
-        <v>0.097160197560760497</v>
+        <v>0.097160197560760483</v>
       </c>
       <c r="AB322" s="0">
-        <v>0</v>
+        <v>2.2621176023744311e-34</v>
       </c>
       <c r="AC322" s="0">
-        <v>0</v>
+        <v>1.399650810106275e-34</v>
       </c>
       <c r="AD322" s="0">
         <v>0.0021112518062532133</v>
@@ -31141,16 +31693,16 @@
         <v>0</v>
       </c>
       <c r="Y323" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>0</v>
       </c>
       <c r="Z323" s="0">
-        <v>0.052679744626714438</v>
+        <v>0.052679744626714445</v>
       </c>
       <c r="AA323" s="0">
         <v>0.09564770017242831</v>
       </c>
       <c r="AB323" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AC323" s="0">
         <v>0</v>
@@ -31233,7 +31785,7 @@
         <v>0</v>
       </c>
       <c r="Y324" s="0">
-        <v>0</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z324" s="0">
         <v>0.052516623613372622</v>
@@ -31242,10 +31794,10 @@
         <v>0.094010328042752875</v>
       </c>
       <c r="AB324" s="0">
-        <v>0</v>
+        <v>5.7279488726868426e-34</v>
       </c>
       <c r="AC324" s="0">
-        <v>0</v>
+        <v>8.0367057709878984e-34</v>
       </c>
       <c r="AD324" s="0">
         <v>0.0023733237028536595</v>
@@ -31325,7 +31877,7 @@
         <v>0</v>
       </c>
       <c r="Y325" s="0">
-        <v>0</v>
+        <v>1.4086205766321802e-35</v>
       </c>
       <c r="Z325" s="0">
         <v>0.052482878289664671</v>
@@ -31334,10 +31886,10 @@
         <v>0.09245261412042266</v>
       </c>
       <c r="AB325" s="0">
-        <v>5.3414463301364744e-35</v>
+        <v>1.034435028723613e-35</v>
       </c>
       <c r="AC325" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AD325" s="0">
         <v>0.0024643229661439584</v>
@@ -31417,7 +31969,7 @@
         <v>0</v>
       </c>
       <c r="Y326" s="0">
-        <v>0</v>
+        <v>2.8493983063932249e-35</v>
       </c>
       <c r="Z326" s="0">
         <v>0.052531195203629012</v>
@@ -31426,10 +31978,10 @@
         <v>0.091105231921253332</v>
       </c>
       <c r="AB326" s="0">
-        <v>0</v>
+        <v>9.3099152585125171e-36</v>
       </c>
       <c r="AC326" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AD326" s="0">
         <v>0.0025333286124650032</v>
@@ -31509,7 +32061,7 @@
         <v>0</v>
       </c>
       <c r="Y327" s="0">
-        <v>0</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z327" s="0">
         <v>0.052615144652177322</v>
@@ -31521,10 +32073,10 @@
         <v>0</v>
       </c>
       <c r="AC327" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>4.9748787921418579e-34</v>
       </c>
       <c r="AD327" s="0">
-        <v>0.0025835433333630162</v>
+        <v>0.0025835433333630167</v>
       </c>
     </row>
     <row r="328">
@@ -31601,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="Y328" s="0">
-        <v>1.4519706221356895e-33</v>
+        <v>0</v>
       </c>
       <c r="Z328" s="0">
         <v>0.052794104163983641</v>
@@ -31610,10 +32162,10 @@
         <v>0.088383425576530214</v>
       </c>
       <c r="AB328" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
       <c r="AC328" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>4.373543218053138e-35</v>
       </c>
       <c r="AD328" s="0">
         <v>0.002596819542345172</v>
@@ -31693,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="Y329" s="0">
-        <v>6.018531076210112e-36</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z329" s="0">
         <v>0.053025541384236742</v>
@@ -31702,10 +32254,10 @@
         <v>0.087024606801645241</v>
       </c>
       <c r="AB329" s="0">
-        <v>0</v>
+        <v>2.3782601705836521e-34</v>
       </c>
       <c r="AC329" s="0">
-        <v>0</v>
+        <v>2.5753210003998929e-35</v>
       </c>
       <c r="AD329" s="0">
         <v>0.0025885320962708712</v>
@@ -31785,16 +32337,16 @@
         <v>0</v>
       </c>
       <c r="Y330" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
       <c r="Z330" s="0">
-        <v>0.053415858797702567</v>
+        <v>0.05341585879770256</v>
       </c>
       <c r="AA330" s="0">
         <v>0.085521858302419415</v>
       </c>
       <c r="AB330" s="0">
-        <v>1.128474576789396e-36</v>
+        <v>9.4039548065783001e-38</v>
       </c>
       <c r="AC330" s="0">
         <v>0</v>
@@ -31877,7 +32429,7 @@
         <v>0</v>
       </c>
       <c r="Y331" s="0">
-        <v>1.3541694921472752e-35</v>
+        <v>0</v>
       </c>
       <c r="Z331" s="0">
         <v>0.053939061081483941</v>
@@ -31889,10 +32441,10 @@
         <v>0</v>
       </c>
       <c r="AC331" s="0">
-        <v>0</v>
+        <v>1.6857207676051348e-35</v>
       </c>
       <c r="AD331" s="0">
-        <v>0.002401505819102299</v>
+        <v>0.0024015058191022994</v>
       </c>
     </row>
     <row r="332">
@@ -32061,7 +32613,7 @@
         <v>0</v>
       </c>
       <c r="Y333" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>3.303580065387217e-33</v>
       </c>
       <c r="Z333" s="0">
         <v>0.055229645887253431</v>
@@ -32070,10 +32622,10 @@
         <v>0.082461296305181939</v>
       </c>
       <c r="AB333" s="0">
-        <v>0</v>
+        <v>1.3398754808412762e-33</v>
       </c>
       <c r="AC333" s="0">
-        <v>1.4444474582904269e-34</v>
+        <v>0</v>
       </c>
       <c r="AD333" s="0">
         <v>0.0020874802844073879</v>
@@ -32153,7 +32705,7 @@
         <v>0</v>
       </c>
       <c r="Y334" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>4.6831694936759934e-35</v>
       </c>
       <c r="Z334" s="0">
         <v>0.056045938639075005</v>
@@ -32162,13 +32714,13 @@
         <v>0.081420056677018487</v>
       </c>
       <c r="AB334" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>5.0057251435416291e-34</v>
       </c>
       <c r="AC334" s="0">
         <v>0</v>
       </c>
       <c r="AD334" s="0">
-        <v>0.0018618781338252887</v>
+        <v>0.0018618781338252885</v>
       </c>
     </row>
     <row r="335">
@@ -32254,10 +32806,10 @@
         <v>0.080736987849356776</v>
       </c>
       <c r="AB335" s="0">
-        <v>1.4670169498262148e-35</v>
+        <v>0</v>
       </c>
       <c r="AC335" s="0">
-        <v>1.2037062152420224e-35</v>
+        <v>1.5571350885470865e-37</v>
       </c>
       <c r="AD335" s="0">
         <v>0.0015930720690988996</v>
@@ -32337,22 +32889,22 @@
         <v>0</v>
       </c>
       <c r="Y336" s="0">
-        <v>6.1629758220391547e-33</v>
+        <v>0</v>
       </c>
       <c r="Z336" s="0">
-        <v>0.058168731001153128</v>
+        <v>0.058168731001153121</v>
       </c>
       <c r="AA336" s="0">
-        <v>0.080134473538391149</v>
+        <v>0.080134473538391135</v>
       </c>
       <c r="AB336" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>3.5166366092952113e-21</v>
       </c>
       <c r="AC336" s="0">
         <v>0</v>
       </c>
       <c r="AD336" s="0">
-        <v>0.0012610687981662681</v>
+        <v>0.0012610687981662683</v>
       </c>
     </row>
     <row r="337">
@@ -32429,19 +32981,19 @@
         <v>0</v>
       </c>
       <c r="Y337" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="Z337" s="0">
-        <v>0.059552127708206247</v>
+        <v>0.059552127708206254</v>
       </c>
       <c r="AA337" s="0">
         <v>0.07973014521909412</v>
       </c>
       <c r="AB337" s="0">
-        <v>3.76158192263132e-37</v>
+        <v>0</v>
       </c>
       <c r="AC337" s="0">
-        <v>0</v>
+        <v>1.3097400398056333e-38</v>
       </c>
       <c r="AD337" s="0">
         <v>0.00084732980414326583</v>
@@ -32521,7 +33073,7 @@
         <v>0</v>
       </c>
       <c r="Y338" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>2.7453459004559531e-34</v>
       </c>
       <c r="Z338" s="0">
         <v>0.061008638666650787</v>
@@ -32530,13 +33082,13 @@
         <v>0.079468828309649964</v>
       </c>
       <c r="AB338" s="0">
-        <v>0</v>
+        <v>2.2621176023744311e-34</v>
       </c>
       <c r="AC338" s="0">
-        <v>9.6296497219361793e-35</v>
+        <v>1.399650810106275e-34</v>
       </c>
       <c r="AD338" s="0">
-        <v>0.00041470172021953891</v>
+        <v>0.00041470172021953897</v>
       </c>
     </row>
     <row r="339">
@@ -32613,7 +33165,7 @@
         <v>0</v>
       </c>
       <c r="Y339" s="0">
-        <v>1.504632769052528e-36</v>
+        <v>0</v>
       </c>
       <c r="Z339" s="0">
         <v>0.062860350796891271</v>
@@ -32622,13 +33174,13 @@
         <v>0.079341251312381136</v>
       </c>
       <c r="AB339" s="0">
-        <v>3.009265538105056e-36</v>
+        <v>0</v>
       </c>
       <c r="AC339" s="0">
         <v>0.00020145740730137656</v>
       </c>
       <c r="AD339" s="0">
-        <v>3.009265538105056e-36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -32705,7 +33257,7 @@
         <v>0</v>
       </c>
       <c r="Y340" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="Z340" s="0">
         <v>0.064713947021792242</v>
@@ -32714,13 +33266,13 @@
         <v>0.079416957117250858</v>
       </c>
       <c r="AB340" s="0">
-        <v>7.6510576306321049e-34</v>
+        <v>0</v>
       </c>
       <c r="AC340" s="0">
         <v>0.00088225596855040858</v>
       </c>
       <c r="AD340" s="0">
-        <v>1.9259299443872359e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -32806,13 +33358,13 @@
         <v>0.079683379366196544</v>
       </c>
       <c r="AB341" s="0">
-        <v>2.256949153578792e-36</v>
+        <v>0</v>
       </c>
       <c r="AC341" s="0">
         <v>0.0015999714292897628</v>
       </c>
       <c r="AD341" s="0">
-        <v>0</v>
+        <v>2.2665672513181907e-37</v>
       </c>
     </row>
     <row r="342">
@@ -32889,7 +33441,7 @@
         <v>0</v>
       </c>
       <c r="Y342" s="0">
-        <v>1.5032820541604848e-37</v>
+        <v>5.4906918009119062e-34</v>
       </c>
       <c r="Z342" s="0">
         <v>0.068997858569294399</v>
@@ -32898,7 +33450,7 @@
         <v>0.080269982277010057</v>
       </c>
       <c r="AB342" s="0">
-        <v>0</v>
+        <v>1.0180251275861339e-33</v>
       </c>
       <c r="AC342" s="0">
         <v>0.0024677015328629795</v>
@@ -32981,7 +33533,7 @@
         <v>0</v>
       </c>
       <c r="Y343" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>1.2399881476252156e-33</v>
       </c>
       <c r="Z343" s="0">
         <v>0.071435254844639279</v>
@@ -32990,13 +33542,13 @@
         <v>0.080977710870626121</v>
       </c>
       <c r="AB343" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AC343" s="0">
         <v>0.0033786777232608606</v>
       </c>
       <c r="AD343" s="0">
-        <v>0</v>
+        <v>9.9536975217292161e-35</v>
       </c>
     </row>
     <row r="344">
@@ -33073,7 +33625,7 @@
         <v>0</v>
       </c>
       <c r="Y344" s="0">
-        <v>0</v>
+        <v>2.2075876172322859e-34</v>
       </c>
       <c r="Z344" s="0">
         <v>0.07421875082155649</v>
@@ -33082,13 +33634,13 @@
         <v>0.082061432038306681</v>
       </c>
       <c r="AB344" s="0">
-        <v>0</v>
+        <v>4.7130794869460276e-34</v>
       </c>
       <c r="AC344" s="0">
         <v>0.0044246555021719355</v>
       </c>
       <c r="AD344" s="0">
-        <v>0</v>
+        <v>4.8056843735931272e-34</v>
       </c>
     </row>
     <row r="345">
@@ -33174,13 +33726,13 @@
         <v>0.083181817702154923</v>
       </c>
       <c r="AB345" s="0">
-        <v>9.4039548065783001e-38</v>
+        <v>0</v>
       </c>
       <c r="AC345" s="0">
         <v>0.0054438608597511748</v>
       </c>
       <c r="AD345" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -33263,10 +33815,10 @@
         <v>0.080170401538760441</v>
       </c>
       <c r="AA346" s="0">
-        <v>0.084741068082521923</v>
+        <v>0.084741068082521909</v>
       </c>
       <c r="AB346" s="0">
-        <v>2.311115933264683e-33</v>
+        <v>0</v>
       </c>
       <c r="AC346" s="0">
         <v>0.0066521082653421149</v>
@@ -33349,7 +33901,7 @@
         <v>0</v>
       </c>
       <c r="Y347" s="0">
-        <v>0</v>
+        <v>1.2399881476252156e-33</v>
       </c>
       <c r="Z347" s="0">
         <v>0.083641779408403422</v>
@@ -33364,7 +33916,7 @@
         <v>0.0079668761272758595</v>
       </c>
       <c r="AD347" s="0">
-        <v>0</v>
+        <v>9.9536975217292161e-35</v>
       </c>
     </row>
     <row r="348">
@@ -33441,7 +33993,7 @@
         <v>0</v>
       </c>
       <c r="Y348" s="0">
-        <v>0</v>
+        <v>1.2399881476252156e-33</v>
       </c>
       <c r="Z348" s="0">
         <v>0.087451449130726056</v>
@@ -33456,7 +34008,7 @@
         <v>0.0093916190875624403</v>
       </c>
       <c r="AD348" s="0">
-        <v>0</v>
+        <v>9.9536975217292161e-35</v>
       </c>
     </row>
     <row r="349">
@@ -33533,7 +34085,7 @@
         <v>0</v>
       </c>
       <c r="Y349" s="0">
-        <v>0</v>
+        <v>1.2399881476252156e-33</v>
       </c>
       <c r="Z349" s="0">
         <v>0.090827701538414948</v>
@@ -33548,7 +34100,7 @@
         <v>0.010637281487072622</v>
       </c>
       <c r="AD349" s="0">
-        <v>0</v>
+        <v>2.3932921221788769e-34</v>
       </c>
     </row>
     <row r="350">
@@ -33625,7 +34177,7 @@
         <v>0</v>
       </c>
       <c r="Y350" s="0">
-        <v>6.1919400028434159e-33</v>
+        <v>1.2399881476252156e-33</v>
       </c>
       <c r="Z350" s="0">
         <v>0.094812311923824777</v>
@@ -33634,13 +34186,13 @@
         <v>0.093583655972872784</v>
       </c>
       <c r="AB350" s="0">
-        <v>-7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AC350" s="0">
         <v>0.012120190200632331</v>
       </c>
       <c r="AD350" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>2.3932921221788769e-34</v>
       </c>
     </row>
     <row r="351">
@@ -33717,7 +34269,7 @@
         <v>0</v>
       </c>
       <c r="Y351" s="0">
-        <v>0</v>
+        <v>1.2399881476252156e-33</v>
       </c>
       <c r="Z351" s="0">
         <v>0.099233920513388682</v>
@@ -33732,7 +34284,7 @@
         <v>0.013780073297810395</v>
       </c>
       <c r="AD351" s="0">
-        <v>0</v>
+        <v>9.9536975217292161e-35</v>
       </c>
     </row>
     <row r="352">
@@ -33809,7 +34361,7 @@
         <v>0</v>
       </c>
       <c r="Y352" s="0">
-        <v>1.8589737861643984e-33</v>
+        <v>2.4799762952504313e-33</v>
       </c>
       <c r="Z352" s="0">
         <v>0.10321487450486753</v>
@@ -33818,13 +34370,13 @@
         <v>0.099657592424302152</v>
       </c>
       <c r="AB352" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>0</v>
       </c>
       <c r="AC352" s="0">
         <v>0.015231283206194129</v>
       </c>
       <c r="AD352" s="0">
-        <v>0</v>
+        <v>1.9907395043458432e-34</v>
       </c>
     </row>
     <row r="353">
@@ -33901,7 +34453,7 @@
         <v>0</v>
       </c>
       <c r="Y353" s="0">
-        <v>1.88079096131566e-37</v>
+        <v>0</v>
       </c>
       <c r="Z353" s="0">
         <v>0.10681447980790018</v>
@@ -33910,7 +34462,7 @@
         <v>0.1023528399024098</v>
       </c>
       <c r="AB353" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
       <c r="AC353" s="0">
         <v>0.016530601857756167</v>
@@ -33993,7 +34545,7 @@
         <v>0</v>
       </c>
       <c r="Y354" s="0">
-        <v>0</v>
+        <v>1.2055870062033381e-34</v>
       </c>
       <c r="Z354" s="0">
         <v>0.11192225728599131</v>
@@ -34002,7 +34554,7 @@
         <v>0.1063801330569227</v>
       </c>
       <c r="AB354" s="0">
-        <v>0</v>
+        <v>3.7680437135324505e-35</v>
       </c>
       <c r="AC354" s="0">
         <v>0.018438479439953786</v>
@@ -34085,16 +34637,16 @@
         <v>0</v>
       </c>
       <c r="Y355" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z355" s="0">
         <v>0.11713899672922067</v>
       </c>
       <c r="AA355" s="0">
-        <v>0.11079605756200608</v>
+        <v>0.11079605756200607</v>
       </c>
       <c r="AB355" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="AC355" s="0">
         <v>0.020358178694560549</v>
@@ -34269,19 +34821,19 @@
         <v>0</v>
       </c>
       <c r="Y357" s="0">
-        <v>1.5407439555097887e-33</v>
+        <v>0</v>
       </c>
       <c r="Z357" s="0">
-        <v>0.12670565844534473</v>
+        <v>0.12670565844534476</v>
       </c>
       <c r="AA357" s="0">
-        <v>0.1191719436684109</v>
+        <v>0.11917194366841091</v>
       </c>
       <c r="AB357" s="0">
-        <v>7.7037197775489434e-34</v>
+        <v>1.6601477560508733e-21</v>
       </c>
       <c r="AC357" s="0">
-        <v>0.023835262758182034</v>
+        <v>0.02383526275818203</v>
       </c>
       <c r="AD357" s="0">
         <v>0</v>
@@ -34361,7 +34913,7 @@
         <v>0</v>
       </c>
       <c r="Y358" s="0">
-        <v>0</v>
+        <v>1.6167279103469413e-33</v>
       </c>
       <c r="Z358" s="0">
         <v>0.13213476765434423</v>
@@ -34376,7 +34928,7 @@
         <v>0.025813600540695224</v>
       </c>
       <c r="AD358" s="0">
-        <v>0</v>
+        <v>5.8244903892445446e-34</v>
       </c>
     </row>
     <row r="359">
@@ -34453,7 +35005,7 @@
         <v>0</v>
       </c>
       <c r="Y359" s="0">
-        <v>2.256949153578792e-36</v>
+        <v>0</v>
       </c>
       <c r="Z359" s="0">
         <v>0.13755136602782586</v>
@@ -34468,7 +35020,7 @@
         <v>0.027760210967856594</v>
       </c>
       <c r="AD359" s="0">
-        <v>7.5231638452626401e-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -34545,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="Y360" s="0">
-        <v>0</v>
+        <v>2.4375050858650954e-34</v>
       </c>
       <c r="Z360" s="0">
         <v>0.14321187977038688</v>
@@ -34560,7 +35112,7 @@
         <v>0.029813644936648717</v>
       </c>
       <c r="AD360" s="0">
-        <v>3.8518598887744717e-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -34637,7 +35189,7 @@
         <v>0</v>
       </c>
       <c r="Y361" s="0">
-        <v>3.0814879110195774e-33</v>
+        <v>0</v>
       </c>
       <c r="Z361" s="0">
         <v>0.14839052835414687</v>
@@ -34646,7 +35198,7 @@
         <v>0.14000470540423968</v>
       </c>
       <c r="AB361" s="0">
-        <v>4.622231866529366e-33</v>
+        <v>0</v>
       </c>
       <c r="AC361" s="0">
         <v>0.031667710047952081</v>
@@ -34729,7 +35281,7 @@
         <v>0</v>
       </c>
       <c r="Y362" s="0">
-        <v>7.5284931467769291e-21</v>
+        <v>0</v>
       </c>
       <c r="Z362" s="0">
         <v>0.15424238504558341</v>

--- a/results_w_Activation.xlsx
+++ b/results_w_Activation.xlsx
@@ -13,7 +13,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="660">
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
   <si>
     <t>theta_h</t>
   </si>
@@ -1923,7 +2013,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1938,11 +2028,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1951,6 +2042,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1963,128 +2055,128 @@
   <dimension ref="A1:AD362"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.42578125" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.42578125" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
-    <col min="6" max="6" width="16.28515625" customWidth="true"/>
-    <col min="7" max="7" width="13.42578125" customWidth="true"/>
-    <col min="8" max="8" width="13.42578125" customWidth="true"/>
-    <col min="9" max="9" width="14.42578125" customWidth="true"/>
-    <col min="10" max="10" width="13.42578125" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="13.42578125" customWidth="true"/>
-    <col min="13" max="13" width="14.42578125" customWidth="true"/>
-    <col min="14" max="14" width="13.42578125" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="13.42578125" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="13.42578125" customWidth="true"/>
-    <col min="19" max="19" width="14.42578125" customWidth="true"/>
-    <col min="20" max="20" width="14.7109375" customWidth="true"/>
-    <col min="21" max="21" width="14.42578125" customWidth="true"/>
-    <col min="22" max="22" width="12.42578125" customWidth="true"/>
-    <col min="23" max="23" width="6" customWidth="true"/>
-    <col min="24" max="24" width="5.5703125" customWidth="true"/>
-    <col min="25" max="25" width="16.28515625" customWidth="true"/>
-    <col min="26" max="26" width="13.7109375" customWidth="true"/>
-    <col min="27" max="27" width="13.7109375" customWidth="true"/>
-    <col min="28" max="28" width="16.28515625" customWidth="true"/>
-    <col min="29" max="29" width="15.7109375" customWidth="true"/>
-    <col min="30" max="30" width="16.28515625" customWidth="true"/>
+    <col min="1" max="1" width="13.18359375" customWidth="true"/>
+    <col min="2" max="2" width="13.18359375" customWidth="true"/>
+    <col min="3" max="3" width="11.59375" customWidth="true"/>
+    <col min="4" max="4" width="13.18359375" customWidth="true"/>
+    <col min="5" max="5" width="14.18359375" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="7" max="7" width="13.18359375" customWidth="true"/>
+    <col min="8" max="8" width="13.18359375" customWidth="true"/>
+    <col min="9" max="9" width="14.18359375" customWidth="true"/>
+    <col min="10" max="10" width="13.18359375" customWidth="true"/>
+    <col min="11" max="11" width="11.59375" customWidth="true"/>
+    <col min="12" max="12" width="13.18359375" customWidth="true"/>
+    <col min="13" max="13" width="14.18359375" customWidth="true"/>
+    <col min="14" max="14" width="13.18359375" customWidth="true"/>
+    <col min="15" max="15" width="11.59375" customWidth="true"/>
+    <col min="16" max="16" width="13.18359375" customWidth="true"/>
+    <col min="17" max="17" width="11.59375" customWidth="true"/>
+    <col min="18" max="18" width="13.18359375" customWidth="true"/>
+    <col min="19" max="19" width="14.18359375" customWidth="true"/>
+    <col min="20" max="20" width="14.59375" customWidth="true"/>
+    <col min="21" max="21" width="14.18359375" customWidth="true"/>
+    <col min="22" max="22" width="12.18359375" customWidth="true"/>
+    <col min="23" max="23" width="5.7109375" customWidth="true"/>
+    <col min="24" max="24" width="5.359375" customWidth="true"/>
+    <col min="25" max="25" width="15.7109375" customWidth="true"/>
+    <col min="26" max="26" width="13.59375" customWidth="true"/>
+    <col min="27" max="27" width="13.59375" customWidth="true"/>
+    <col min="28" max="28" width="15.7109375" customWidth="true"/>
+    <col min="29" max="29" width="15.59375" customWidth="true"/>
+    <col min="30" max="30" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2">

--- a/results_w_Activation.xlsx
+++ b/results_w_Activation.xlsx
@@ -13,7 +13,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="720">
+  <si>
+    <t>theta_h</t>
+  </si>
+  <si>
+    <t>theta_k</t>
+  </si>
+  <si>
+    <t>theta_a</t>
+  </si>
+  <si>
+    <t>f_x</t>
+  </si>
+  <si>
+    <t>f_y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>f_x_negated</t>
+  </si>
+  <si>
+    <t>f_y_negated</t>
+  </si>
+  <si>
+    <t>F_a1</t>
+  </si>
+  <si>
+    <t>F_a2</t>
+  </si>
+  <si>
+    <t>F_c1</t>
+  </si>
+  <si>
+    <t>F_c2</t>
+  </si>
+  <si>
+    <t>F_h1</t>
+  </si>
+  <si>
+    <t>F_h2</t>
+  </si>
+  <si>
+    <t>F_k1</t>
+  </si>
+  <si>
+    <t>F_k2</t>
+  </si>
+  <si>
+    <t>F_p1</t>
+  </si>
+  <si>
+    <t>F_p2</t>
+  </si>
+  <si>
+    <t>M_a3</t>
+  </si>
+  <si>
+    <t>M_h3</t>
+  </si>
+  <si>
+    <t>M_k3</t>
+  </si>
+  <si>
+    <t>M_p3</t>
+  </si>
+  <si>
+    <t>M_t3</t>
+  </si>
+  <si>
+    <t>Activation_RF</t>
+  </si>
+  <si>
+    <t>Activation_IP</t>
+  </si>
+  <si>
+    <t>Activation_G</t>
+  </si>
+  <si>
+    <t>Activation_H</t>
+  </si>
+  <si>
+    <t>Activation_TA</t>
+  </si>
+  <si>
+    <t>Activation_GA</t>
+  </si>
   <si>
     <t>theta_h</t>
   </si>
@@ -2103,7 +2193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2120,11 +2210,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2135,6 +2226,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2173,102 +2265,102 @@
     <col min="24" max="24" width="5.359375" customWidth="true"/>
     <col min="25" max="25" width="12.59375" customWidth="true"/>
     <col min="26" max="26" width="12.59375" customWidth="true"/>
-    <col min="27" max="27" width="12.59375" customWidth="true"/>
-    <col min="28" max="28" width="11.30078125" customWidth="true"/>
+    <col min="27" max="27" width="11.30078125" customWidth="true"/>
+    <col min="28" max="28" width="12.59375" customWidth="true"/>
     <col min="29" max="29" width="12.59375" customWidth="true"/>
     <col min="30" max="30" width="12.41796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>673</v>
+        <v>703</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2">
@@ -2345,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.17698841486691094</v>
+        <v>0.17698841486691091</v>
       </c>
       <c r="Z2" s="0">
         <v>0.32339390803646673</v>
@@ -2529,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.16842111844880656</v>
+        <v>0.16842111844880653</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.33614648194357472</v>
+        <v>0.33614648194357477</v>
       </c>
       <c r="AA4" s="0">
         <v>0.10000000000000001</v>
@@ -2713,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.16166329703222757</v>
+        <v>0.16166329703222754</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.34576663329448609</v>
+        <v>0.34576663329448615</v>
       </c>
       <c r="AA6" s="0">
         <v>0.10000000000000001</v>
@@ -2725,7 +2817,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.1638561189135764</v>
+        <v>0.16385611891357643</v>
       </c>
       <c r="AD6" s="0">
         <v>0.10000000000000001</v>
@@ -2808,7 +2900,7 @@
         <v>0.15831495216660524</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.35028193351099784</v>
+        <v>0.35028193351099779</v>
       </c>
       <c r="AA7" s="0">
         <v>0.10000000000000001</v>
@@ -3084,7 +3176,7 @@
         <v>0.14688096327487093</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.36565062574790486</v>
+        <v>0.3656506257479048</v>
       </c>
       <c r="AA10" s="0">
         <v>0.10000000000000001</v>
@@ -3268,7 +3360,7 @@
         <v>0.13709603861550856</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.37807181948837298</v>
+        <v>0.37807181948837293</v>
       </c>
       <c r="AA12" s="0">
         <v>0.10000000000000001</v>
@@ -4007,10 +4099,10 @@
         <v>0.42627142517971583</v>
       </c>
       <c r="AA20" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB20" s="0">
         <v>0.10135096070710282</v>
-      </c>
-      <c r="AB20" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC20" s="0">
         <v>0.19943476547219852</v>
@@ -4096,13 +4188,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z21" s="0">
-        <v>0.43311474350976564</v>
+        <v>0.43311474350976559</v>
       </c>
       <c r="AA21" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB21" s="0">
         <v>0.10374542631422169</v>
-      </c>
-      <c r="AB21" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC21" s="0">
         <v>0.2025030732397286</v>
@@ -4191,10 +4283,10 @@
         <v>0.4391299858474908</v>
       </c>
       <c r="AA22" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB22" s="0">
         <v>0.10590115703973922</v>
-      </c>
-      <c r="AB22" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC22" s="0">
         <v>0.20518359749037382</v>
@@ -4283,13 +4375,13 @@
         <v>0.4460027405376441</v>
       </c>
       <c r="AA23" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB23" s="0">
         <v>0.10827837237849869</v>
       </c>
-      <c r="AB23" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC23" s="0">
-        <v>0.20832639769669967</v>
+        <v>0.20832639769669964</v>
       </c>
       <c r="AD23" s="0">
         <v>0.10000000000000001</v>
@@ -4372,13 +4464,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.4530938735255402</v>
+        <v>0.45309387352554015</v>
       </c>
       <c r="AA24" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB24" s="0">
         <v>0.11085997711898256</v>
-      </c>
-      <c r="AB24" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC24" s="0">
         <v>0.21152340865300717</v>
@@ -4467,10 +4559,10 @@
         <v>0.46013119378525869</v>
       </c>
       <c r="AA25" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB25" s="0">
         <v>0.11344680214054056</v>
-      </c>
-      <c r="AB25" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC25" s="0">
         <v>0.21470408278391537</v>
@@ -4559,10 +4651,10 @@
         <v>0.4671528133670258</v>
       </c>
       <c r="AA26" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB26" s="0">
         <v>0.11615897951380606</v>
-      </c>
-      <c r="AB26" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC26" s="0">
         <v>0.21783117938950491</v>
@@ -4648,13 +4740,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.47354303047981555</v>
+        <v>0.47354303047981561</v>
       </c>
       <c r="AA27" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB27" s="0">
         <v>0.11857100067454367</v>
-      </c>
-      <c r="AB27" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC27" s="0">
         <v>0.22073677641859885</v>
@@ -4740,13 +4832,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.48061982998688518</v>
+        <v>0.48061982998688524</v>
       </c>
       <c r="AA28" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB28" s="0">
         <v>0.1213020374601691</v>
-      </c>
-      <c r="AB28" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC28" s="0">
         <v>0.22394925502879107</v>
@@ -4835,10 +4927,10 @@
         <v>0.48728979611356377</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.12379988287949813</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.12379988287949811</v>
       </c>
       <c r="AC29" s="0">
         <v>0.22704270070425889</v>
@@ -4924,13 +5016,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z30" s="0">
-        <v>0.49508880684164108</v>
+        <v>0.49508880684164119</v>
       </c>
       <c r="AA30" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB30" s="0">
         <v>0.12681628875850165</v>
-      </c>
-      <c r="AB30" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC30" s="0">
         <v>0.23063694877007709</v>
@@ -5019,10 +5111,10 @@
         <v>0.50187039981815518</v>
       </c>
       <c r="AA31" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB31" s="0">
         <v>0.1295008952298681</v>
-      </c>
-      <c r="AB31" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC31" s="0">
         <v>0.23377333595279845</v>
@@ -5108,13 +5200,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z32" s="0">
-        <v>0.50794810606773577</v>
+        <v>0.50794810606773588</v>
       </c>
       <c r="AA32" s="0">
-        <v>0.13193312930203832</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB32" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.13193312930203835</v>
       </c>
       <c r="AC32" s="0">
         <v>0.23660263133333856</v>
@@ -5203,10 +5295,10 @@
         <v>0.51460232997794431</v>
       </c>
       <c r="AA33" s="0">
-        <v>0.13469075262532854</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB33" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.13469075262532856</v>
       </c>
       <c r="AC33" s="0">
         <v>0.23967959423825533</v>
@@ -5295,10 +5387,10 @@
         <v>0.52279693637835145</v>
       </c>
       <c r="AA34" s="0">
-        <v>0.13794807130463263</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB34" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.13794807130463266</v>
       </c>
       <c r="AC34" s="0">
         <v>0.24355293425454791</v>
@@ -5387,10 +5479,10 @@
         <v>0.53017047986960941</v>
       </c>
       <c r="AA35" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB35" s="0">
         <v>0.14097449022800973</v>
-      </c>
-      <c r="AB35" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC35" s="0">
         <v>0.24703857195930115</v>
@@ -5476,13 +5568,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z36" s="0">
-        <v>0.53655521712135812</v>
+        <v>0.53655521712135823</v>
       </c>
       <c r="AA36" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB36" s="0">
         <v>0.14372177918181872</v>
-      </c>
-      <c r="AB36" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC36" s="0">
         <v>0.25005570499636165</v>
@@ -5571,10 +5663,10 @@
         <v>0.54327949988683166</v>
       </c>
       <c r="AA37" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB37" s="0">
         <v>0.14647123447814331</v>
-      </c>
-      <c r="AB37" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC37" s="0">
         <v>0.25332547145672757</v>
@@ -5660,13 +5752,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z38" s="0">
-        <v>0.5508525840203814</v>
+        <v>0.55085258402038129</v>
       </c>
       <c r="AA38" s="0">
-        <v>0.14968730134901778</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB38" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.14968730134901781</v>
       </c>
       <c r="AC38" s="0">
         <v>0.25697213205028868</v>
@@ -5755,10 +5847,10 @@
         <v>0.55665788254280479</v>
       </c>
       <c r="AA39" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB39" s="0">
         <v>0.15221090816341271</v>
-      </c>
-      <c r="AB39" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC39" s="0">
         <v>0.25982711412366477</v>
@@ -5844,16 +5936,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z40" s="0">
-        <v>0.562924570795301</v>
+        <v>0.56292457079530112</v>
       </c>
       <c r="AA40" s="0">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AB40" s="0">
         <v>0.15494036197321698</v>
       </c>
-      <c r="AB40" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC40" s="0">
-        <v>0.26292424058824365</v>
+        <v>0.26292424058824371</v>
       </c>
       <c r="AD40" s="0">
         <v>0.10000000000000001</v>
@@ -5936,13 +6028,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z41" s="0">
-        <v>0.57015694280416196</v>
+        <v>0.57015694280416185</v>
       </c>
       <c r="AA41" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB41" s="0">
         <v>0.15821782491917463</v>
-      </c>
-      <c r="AB41" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC41" s="0">
         <v>0.26644669698195844</v>
@@ -6028,13 +6120,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z42" s="0">
-        <v>0.5764906190704896</v>
+        <v>0.57649061907048949</v>
       </c>
       <c r="AA42" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB42" s="0">
         <v>0.16094934454678636</v>
-      </c>
-      <c r="AB42" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC42" s="0">
         <v>0.26966730808494871</v>
@@ -6120,13 +6212,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z43" s="0">
-        <v>0.58249537286056274</v>
+        <v>0.58249537286056285</v>
       </c>
       <c r="AA43" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB43" s="0">
         <v>0.16355305800471664</v>
-      </c>
-      <c r="AB43" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC43" s="0">
         <v>0.27276934278166015</v>
@@ -6215,10 +6307,10 @@
         <v>0.58843408290648724</v>
       </c>
       <c r="AA44" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB44" s="0">
         <v>0.16632908418564504</v>
-      </c>
-      <c r="AB44" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC44" s="0">
         <v>0.2757959701361461</v>
@@ -6307,10 +6399,10 @@
         <v>0.59440561114324608</v>
       </c>
       <c r="AA45" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB45" s="0">
         <v>0.16905619519014939</v>
-      </c>
-      <c r="AB45" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC45" s="0">
         <v>0.27890319942894787</v>
@@ -6396,13 +6488,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z46" s="0">
-        <v>0.60031694613737863</v>
+        <v>0.60031694613737874</v>
       </c>
       <c r="AA46" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB46" s="0">
         <v>0.17179031020753635</v>
-      </c>
-      <c r="AB46" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC46" s="0">
         <v>0.28201569588086844</v>
@@ -6491,10 +6583,10 @@
         <v>0.60705536804195648</v>
       </c>
       <c r="AA47" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB47" s="0">
         <v>0.17500804969974398</v>
-      </c>
-      <c r="AB47" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC47" s="0">
         <v>0.28551039457533595</v>
@@ -6583,10 +6675,10 @@
         <v>0.61209308796034534</v>
       </c>
       <c r="AA48" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB48" s="0">
         <v>0.17730085738263207</v>
-      </c>
-      <c r="AB48" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC48" s="0">
         <v>0.28832114012848653</v>
@@ -6672,16 +6764,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z49" s="0">
-        <v>0.61703171750468211</v>
+        <v>0.61703171750468233</v>
       </c>
       <c r="AA49" s="0">
-        <v>0.17965899096895302</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB49" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.17965899096895305</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.29108333061753766</v>
+        <v>0.29108333061753772</v>
       </c>
       <c r="AD49" s="0">
         <v>0.10000000000000001</v>
@@ -6767,10 +6859,10 @@
         <v>0.62300055380400365</v>
       </c>
       <c r="AA50" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB50" s="0">
         <v>0.18238286194073744</v>
-      </c>
-      <c r="AB50" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC50" s="0">
         <v>0.29440546397678047</v>
@@ -6859,10 +6951,10 @@
         <v>0.63033790854685601</v>
       </c>
       <c r="AA51" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB51" s="0">
         <v>0.18607889685985207</v>
-      </c>
-      <c r="AB51" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC51" s="0">
         <v>0.29829279890392235</v>
@@ -6951,10 +7043,10 @@
         <v>0.63528748383561096</v>
       </c>
       <c r="AA52" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB52" s="0">
         <v>0.1882838662157936</v>
-      </c>
-      <c r="AB52" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC52" s="0">
         <v>0.30124867947420403</v>
@@ -7040,13 +7132,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z53" s="0">
-        <v>0.63918464965358879</v>
+        <v>0.63918464965358868</v>
       </c>
       <c r="AA53" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB53" s="0">
         <v>0.19032927829018043</v>
-      </c>
-      <c r="AB53" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC53" s="0">
         <v>0.30363897561135927</v>
@@ -7135,10 +7227,10 @@
         <v>0.64296308589324369</v>
       </c>
       <c r="AA54" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB54" s="0">
         <v>0.19213513195866633</v>
-      </c>
-      <c r="AB54" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC54" s="0">
         <v>0.30607238179518609</v>
@@ -7227,10 +7319,10 @@
         <v>0.64731395740826636</v>
       </c>
       <c r="AA55" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB55" s="0">
         <v>0.19442165141254394</v>
-      </c>
-      <c r="AB55" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC55" s="0">
         <v>0.30874791281259295</v>
@@ -7316,13 +7408,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z56" s="0">
-        <v>0.65124932574807237</v>
+        <v>0.65124932574807248</v>
       </c>
       <c r="AA56" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB56" s="0">
         <v>0.19645153611510149</v>
-      </c>
-      <c r="AB56" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC56" s="0">
         <v>0.31129421731354739</v>
@@ -7411,10 +7503,10 @@
         <v>0.65531550391903182</v>
       </c>
       <c r="AA57" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB57" s="0">
         <v>0.19836153498226569</v>
-      </c>
-      <c r="AB57" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC57" s="0">
         <v>0.31399676003165572</v>
@@ -7503,10 +7595,10 @@
         <v>0.66120622259886985</v>
       </c>
       <c r="AA58" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB58" s="0">
         <v>0.20143830612768282</v>
-      </c>
-      <c r="AB58" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC58" s="0">
         <v>0.31752827094864666</v>
@@ -7595,10 +7687,10 @@
         <v>0.66476805613909651</v>
       </c>
       <c r="AA59" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB59" s="0">
         <v>0.20317313439228205</v>
-      </c>
-      <c r="AB59" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC59" s="0">
         <v>0.32005840579200168</v>
@@ -7687,10 +7779,10 @@
         <v>0.6684695894281143</v>
       </c>
       <c r="AA60" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB60" s="0">
         <v>0.2050779077008193</v>
-      </c>
-      <c r="AB60" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC60" s="0">
         <v>0.32266920387249676</v>
@@ -7776,13 +7868,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z61" s="0">
-        <v>0.67346242088237729</v>
+        <v>0.67346242088237718</v>
       </c>
       <c r="AA61" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB61" s="0">
         <v>0.2077588278566645</v>
-      </c>
-      <c r="AB61" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC61" s="0">
         <v>0.32590443022863802</v>
@@ -7871,10 +7963,10 @@
         <v>0.67714439877836319</v>
       </c>
       <c r="AA62" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB62" s="0">
         <v>0.20985807811304236</v>
-      </c>
-      <c r="AB62" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC62" s="0">
         <v>0.32854731705576307</v>
@@ -7960,13 +8052,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z63" s="0">
-        <v>0.67978459937974745</v>
+        <v>0.67978459937974756</v>
       </c>
       <c r="AA63" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB63" s="0">
         <v>0.21114734054886491</v>
-      </c>
-      <c r="AB63" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC63" s="0">
         <v>0.33081360340053351</v>
@@ -8055,10 +8147,10 @@
         <v>0.68292184931955791</v>
       </c>
       <c r="AA64" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB64" s="0">
         <v>0.21291376670324402</v>
-      </c>
-      <c r="AB64" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC64" s="0">
         <v>0.33330039402522332</v>
@@ -8147,10 +8239,10 @@
         <v>0.68609575402700695</v>
       </c>
       <c r="AA65" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB65" s="0">
         <v>0.21460859670740737</v>
-      </c>
-      <c r="AB65" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC65" s="0">
         <v>0.33587884504718107</v>
@@ -8239,10 +8331,10 @@
         <v>0.68897698044483335</v>
       </c>
       <c r="AA66" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB66" s="0">
         <v>0.21629649023863295</v>
-      </c>
-      <c r="AB66" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC66" s="0">
         <v>0.33832794651783504</v>
@@ -8331,10 +8423,10 @@
         <v>0.69077995534432823</v>
       </c>
       <c r="AA67" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB67" s="0">
         <v>0.21765173756179176</v>
-      </c>
-      <c r="AB67" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC67" s="0">
         <v>0.34023836506914829</v>
@@ -8423,10 +8515,10 @@
         <v>0.69244801457140004</v>
       </c>
       <c r="AA68" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB68" s="0">
         <v>0.21852503743996377</v>
-      </c>
-      <c r="AB68" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC68" s="0">
         <v>0.34223006883663598</v>
@@ -8515,10 +8607,10 @@
         <v>0.6949352103290799</v>
       </c>
       <c r="AA69" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB69" s="0">
         <v>0.22032806155093157</v>
-      </c>
-      <c r="AB69" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC69" s="0">
         <v>0.34454963520397708</v>
@@ -8607,10 +8699,10 @@
         <v>0.696427969122423</v>
       </c>
       <c r="AA70" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB70" s="0">
         <v>0.22137207865435751</v>
-      </c>
-      <c r="AB70" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC70" s="0">
         <v>0.34648186302189704</v>
@@ -8696,13 +8788,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z71" s="0">
-        <v>0.69690329383412541</v>
+        <v>0.69690329383412553</v>
       </c>
       <c r="AA71" s="0">
-        <v>0.22176300329279011</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB71" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.22176300329279008</v>
       </c>
       <c r="AC71" s="0">
         <v>0.34797817154894756</v>
@@ -8791,10 +8883,10 @@
         <v>0.69777900734854781</v>
       </c>
       <c r="AA72" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB72" s="0">
         <v>0.22279166248970037</v>
-      </c>
-      <c r="AB72" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC72" s="0">
         <v>0.3496139353294872</v>
@@ -8883,10 +8975,10 @@
         <v>0.69844026112998669</v>
       </c>
       <c r="AA73" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB73" s="0">
         <v>0.22352733816913373</v>
-      </c>
-      <c r="AB73" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC73" s="0">
         <v>0.35122845031240885</v>
@@ -8975,10 +9067,10 @@
         <v>0.69843193153677297</v>
       </c>
       <c r="AA74" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB74" s="0">
         <v>0.22374028945410881</v>
-      </c>
-      <c r="AB74" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC74" s="0">
         <v>0.35258481853688861</v>
@@ -9067,10 +9159,10 @@
         <v>0.69860296550949608</v>
       </c>
       <c r="AA75" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB75" s="0">
         <v>0.22429344182350494</v>
-      </c>
-      <c r="AB75" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC75" s="0">
         <v>0.35401627761040816</v>
@@ -9159,10 +9251,10 @@
         <v>0.6984908179496655</v>
       </c>
       <c r="AA76" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB76" s="0">
         <v>0.22471277269964582</v>
-      </c>
-      <c r="AB76" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC76" s="0">
         <v>0.3553400832644692</v>
@@ -9251,10 +9343,10 @@
         <v>0.69800392633081154</v>
       </c>
       <c r="AA77" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB77" s="0">
         <v>0.2251745917043072</v>
-      </c>
-      <c r="AB77" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC77" s="0">
         <v>0.35645357242424525</v>
@@ -9343,10 +9435,10 @@
         <v>0.69738514620216807</v>
       </c>
       <c r="AA78" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB78" s="0">
         <v>0.2253453910310465</v>
-      </c>
-      <c r="AB78" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC78" s="0">
         <v>0.3575835529697769</v>
@@ -9435,10 +9527,10 @@
         <v>0.69684450946403242</v>
       </c>
       <c r="AA79" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB79" s="0">
         <v>0.22560107029641016</v>
-      </c>
-      <c r="AB79" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC79" s="0">
         <v>0.35879441259264944</v>
@@ -9527,10 +9619,10 @@
         <v>0.69626727349995909</v>
       </c>
       <c r="AA80" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB80" s="0">
         <v>0.22587979154373167</v>
-      </c>
-      <c r="AB80" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC80" s="0">
         <v>0.36001058310953854</v>
@@ -9616,13 +9708,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z81" s="0">
-        <v>0.69558652981977431</v>
+        <v>0.69558652981977442</v>
       </c>
       <c r="AA81" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB81" s="0">
         <v>0.226301199949732</v>
-      </c>
-      <c r="AB81" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC81" s="0">
         <v>0.36117815082794352</v>
@@ -9711,10 +9803,10 @@
         <v>0.69475847834165527</v>
       </c>
       <c r="AA82" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB82" s="0">
         <v>0.22669399643507024</v>
-      </c>
-      <c r="AB82" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC82" s="0">
         <v>0.36229723996167268</v>
@@ -9803,10 +9895,10 @@
         <v>0.69379785603136934</v>
       </c>
       <c r="AA83" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB83" s="0">
         <v>0.22673948490200882</v>
-      </c>
-      <c r="AB83" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC83" s="0">
         <v>0.36344376745045198</v>
@@ -9895,10 +9987,10 @@
         <v>0.69201576813808929</v>
       </c>
       <c r="AA84" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB84" s="0">
         <v>0.22642298418865583</v>
-      </c>
-      <c r="AB84" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC84" s="0">
         <v>0.36415393743131846</v>
@@ -9987,10 +10079,10 @@
         <v>0.6905603152552573</v>
       </c>
       <c r="AA85" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB85" s="0">
         <v>0.22646009371920753</v>
-      </c>
-      <c r="AB85" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC85" s="0">
         <v>0.36504704160839696</v>
@@ -10079,13 +10171,13 @@
         <v>0.68884638513232188</v>
       </c>
       <c r="AA86" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB86" s="0">
         <v>0.22653363476249214</v>
       </c>
-      <c r="AB86" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC86" s="0">
-        <v>0.36579992822281587</v>
+        <v>0.36579992822281593</v>
       </c>
       <c r="AD86" s="0">
         <v>0.10000000000000001</v>
@@ -10171,13 +10263,13 @@
         <v>0.68709470997193378</v>
       </c>
       <c r="AA87" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB87" s="0">
         <v>0.22657750456066794</v>
       </c>
-      <c r="AB87" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC87" s="0">
-        <v>0.36656902197776042</v>
+        <v>0.36656902197776031</v>
       </c>
       <c r="AD87" s="0">
         <v>0.10000000000000001</v>
@@ -10263,10 +10355,10 @@
         <v>0.68493685892479805</v>
       </c>
       <c r="AA88" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB88" s="0">
         <v>0.22612253469340868</v>
-      </c>
-      <c r="AB88" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC88" s="0">
         <v>0.36719859876104544</v>
@@ -10355,10 +10447,10 @@
         <v>0.68296917779984412</v>
       </c>
       <c r="AA89" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB89" s="0">
         <v>0.22616969752712995</v>
-      </c>
-      <c r="AB89" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC89" s="0">
         <v>0.36789767106983362</v>
@@ -10447,10 +10539,10 @@
         <v>0.68070267605699475</v>
       </c>
       <c r="AA90" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB90" s="0">
         <v>0.22572862296760909</v>
-      </c>
-      <c r="AB90" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC90" s="0">
         <v>0.36852192574424009</v>
@@ -10539,10 +10631,10 @@
         <v>0.67836065248905464</v>
       </c>
       <c r="AA91" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB91" s="0">
         <v>0.22557757109544416</v>
-      </c>
-      <c r="AB91" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC91" s="0">
         <v>0.36908119781553217</v>
@@ -10631,10 +10723,10 @@
         <v>0.67587325770761852</v>
       </c>
       <c r="AA92" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB92" s="0">
         <v>0.22540193196498645</v>
-      </c>
-      <c r="AB92" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC92" s="0">
         <v>0.36958123044172303</v>
@@ -10720,13 +10812,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z93" s="0">
-        <v>0.67299614060819313</v>
+        <v>0.67299614060819324</v>
       </c>
       <c r="AA93" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB93" s="0">
         <v>0.22485220493713803</v>
-      </c>
-      <c r="AB93" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC93" s="0">
         <v>0.36990917119603756</v>
@@ -10812,16 +10904,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z94" s="0">
-        <v>0.67019519067805744</v>
+        <v>0.67019519067805733</v>
       </c>
       <c r="AA94" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB94" s="0">
         <v>0.22453702949534199</v>
       </c>
-      <c r="AB94" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC94" s="0">
-        <v>0.37029095385489813</v>
+        <v>0.37029095385489808</v>
       </c>
       <c r="AD94" s="0">
         <v>0.10000000000000001</v>
@@ -10907,10 +10999,10 @@
         <v>0.66710458754449597</v>
       </c>
       <c r="AA95" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB95" s="0">
         <v>0.22428345870081612</v>
-      </c>
-      <c r="AB95" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC95" s="0">
         <v>0.37048927468292475</v>
@@ -10999,10 +11091,10 @@
         <v>0.66375450264804259</v>
       </c>
       <c r="AA96" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB96" s="0">
         <v>0.22347400436735818</v>
-      </c>
-      <c r="AB96" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC96" s="0">
         <v>0.37062358397995299</v>
@@ -11091,10 +11183,10 @@
         <v>0.66041227934512836</v>
       </c>
       <c r="AA97" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB97" s="0">
         <v>0.22320952958822071</v>
-      </c>
-      <c r="AB97" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC97" s="0">
         <v>0.37070881124387689</v>
@@ -11183,10 +11275,10 @@
         <v>0.6567618136047878</v>
       </c>
       <c r="AA98" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB98" s="0">
         <v>0.22245660970834463</v>
-      </c>
-      <c r="AB98" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC98" s="0">
         <v>0.37068696114894067</v>
@@ -11272,16 +11364,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z99" s="0">
-        <v>0.65314729945821703</v>
+        <v>0.65314729945821715</v>
       </c>
       <c r="AA99" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB99" s="0">
         <v>0.22227797460248214</v>
       </c>
-      <c r="AB99" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC99" s="0">
-        <v>0.37063217177906466</v>
+        <v>0.37063217177906471</v>
       </c>
       <c r="AD99" s="0">
         <v>0.10000000000000001</v>
@@ -11364,13 +11456,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z100" s="0">
-        <v>0.64913202695454686</v>
+        <v>0.64913202695454675</v>
       </c>
       <c r="AA100" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB100" s="0">
         <v>0.22170285122288461</v>
-      </c>
-      <c r="AB100" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC100" s="0">
         <v>0.37038392350279381</v>
@@ -11459,10 +11551,10 @@
         <v>0.64508024130725139</v>
       </c>
       <c r="AA101" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB101" s="0">
         <v>0.22107362872829359</v>
-      </c>
-      <c r="AB101" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC101" s="0">
         <v>0.37012474091365799</v>
@@ -11548,13 +11640,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z102" s="0">
-        <v>0.64090911420429963</v>
+        <v>0.64090911420429975</v>
       </c>
       <c r="AA102" s="0">
-        <v>0.22020817759804154</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB102" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.22020817759804157</v>
       </c>
       <c r="AC102" s="0">
         <v>0.36983356806939571</v>
@@ -11643,13 +11735,13 @@
         <v>0.63646658200800543</v>
       </c>
       <c r="AA103" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB103" s="0">
         <v>0.21938306885702388</v>
       </c>
-      <c r="AB103" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC103" s="0">
-        <v>0.36937008536908228</v>
+        <v>0.36937008536908233</v>
       </c>
       <c r="AD103" s="0">
         <v>0.10000000000000001</v>
@@ -11735,10 +11827,10 @@
         <v>0.63188926194105577</v>
       </c>
       <c r="AA104" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB104" s="0">
         <v>0.21884160859263055</v>
-      </c>
-      <c r="AB104" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC104" s="0">
         <v>0.3687821796005713</v>
@@ -11824,13 +11916,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z105" s="0">
-        <v>0.62731708488625026</v>
+        <v>0.62731708488625015</v>
       </c>
       <c r="AA105" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB105" s="0">
         <v>0.21797543912546841</v>
-      </c>
-      <c r="AB105" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC105" s="0">
         <v>0.36824852368771305</v>
@@ -11919,10 +12011,10 @@
         <v>0.62256927059314926</v>
       </c>
       <c r="AA106" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB106" s="0">
         <v>0.21674329448185653</v>
-      </c>
-      <c r="AB106" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC106" s="0">
         <v>0.36765083138002075</v>
@@ -12011,10 +12103,10 @@
         <v>0.61732135713932945</v>
       </c>
       <c r="AA107" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB107" s="0">
         <v>0.21594962713121338</v>
-      </c>
-      <c r="AB107" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC107" s="0">
         <v>0.36665401064192249</v>
@@ -12100,13 +12192,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z108" s="0">
-        <v>0.61197452714395728</v>
+        <v>0.61197452714395717</v>
       </c>
       <c r="AA108" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB108" s="0">
         <v>0.21514207046013681</v>
-      </c>
-      <c r="AB108" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC108" s="0">
         <v>0.36558709992748117</v>
@@ -12195,10 +12287,10 @@
         <v>0.60639369430750023</v>
       </c>
       <c r="AA109" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB109" s="0">
         <v>0.21410168508943836</v>
-      </c>
-      <c r="AB109" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC109" s="0">
         <v>0.36438052257320036</v>
@@ -12287,10 +12379,10 @@
         <v>0.60121501510689335</v>
       </c>
       <c r="AA110" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB110" s="0">
         <v>0.21311305368032527</v>
-      </c>
-      <c r="AB110" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC110" s="0">
         <v>0.36344838757014847</v>
@@ -12379,10 +12471,10 @@
         <v>0.59577832138826514</v>
       </c>
       <c r="AA111" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB111" s="0">
         <v>0.21189052507507086</v>
-      </c>
-      <c r="AB111" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC111" s="0">
         <v>0.36235505369014037</v>
@@ -12471,10 +12563,10 @@
         <v>0.59037954083228117</v>
       </c>
       <c r="AA112" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB112" s="0">
         <v>0.21081430544080845</v>
-      </c>
-      <c r="AB112" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC112" s="0">
         <v>0.36126684513565321</v>
@@ -12563,10 +12655,10 @@
         <v>0.58478907060292196</v>
       </c>
       <c r="AA113" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB113" s="0">
         <v>0.20981893392579368</v>
-      </c>
-      <c r="AB113" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC113" s="0">
         <v>0.36002230581490419</v>
@@ -12652,13 +12744,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z114" s="0">
-        <v>0.57923575588144727</v>
+        <v>0.57923575588144716</v>
       </c>
       <c r="AA114" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB114" s="0">
         <v>0.20900139838462237</v>
-      </c>
-      <c r="AB114" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC114" s="0">
         <v>0.35877740954664727</v>
@@ -12747,10 +12839,10 @@
         <v>0.57354130947044668</v>
       </c>
       <c r="AA115" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB115" s="0">
         <v>0.20769513263469086</v>
-      </c>
-      <c r="AB115" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC115" s="0">
         <v>0.35746868353678174</v>
@@ -12836,13 +12928,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z116" s="0">
-        <v>0.56753517185853952</v>
+        <v>0.56753517185853941</v>
       </c>
       <c r="AA116" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB116" s="0">
         <v>0.20629805296933323</v>
-      </c>
-      <c r="AB116" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC116" s="0">
         <v>0.35591773756008527</v>
@@ -12931,10 +13023,10 @@
         <v>0.56136243292239674</v>
       </c>
       <c r="AA117" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB117" s="0">
         <v>0.20519408319675791</v>
-      </c>
-      <c r="AB117" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC117" s="0">
         <v>0.35418847639216289</v>
@@ -13020,13 +13112,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z118" s="0">
-        <v>0.55547673717456425</v>
+        <v>0.55547673717456414</v>
       </c>
       <c r="AA118" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB118" s="0">
         <v>0.20383162236950186</v>
-      </c>
-      <c r="AB118" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC118" s="0">
         <v>0.3526859006031875</v>
@@ -13115,10 +13207,10 @@
         <v>0.54920545304829826</v>
       </c>
       <c r="AA119" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB119" s="0">
         <v>0.20269024443364464</v>
-      </c>
-      <c r="AB119" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC119" s="0">
         <v>0.35083816857674849</v>
@@ -13204,13 +13296,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z120" s="0">
-        <v>0.54327611986505375</v>
+        <v>0.54327611986505386</v>
       </c>
       <c r="AA120" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB120" s="0">
         <v>0.20108819267432593</v>
-      </c>
-      <c r="AB120" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC120" s="0">
         <v>0.34927672034359858</v>
@@ -13299,10 +13391,10 @@
         <v>0.53720746496837068</v>
       </c>
       <c r="AA121" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB121" s="0">
         <v>0.19970227913801869</v>
-      </c>
-      <c r="AB121" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC121" s="0">
         <v>0.34755866660475454</v>
@@ -13391,10 +13483,10 @@
         <v>0.53125873568586246</v>
       </c>
       <c r="AA122" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB122" s="0">
         <v>0.19843566614640115</v>
-      </c>
-      <c r="AB122" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC122" s="0">
         <v>0.34589966033182545</v>
@@ -13483,13 +13575,13 @@
         <v>0.52529165301429037</v>
       </c>
       <c r="AA123" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB123" s="0">
         <v>0.1968372588284043</v>
       </c>
-      <c r="AB123" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC123" s="0">
-        <v>0.34422504494721012</v>
+        <v>0.34422504494721018</v>
       </c>
       <c r="AD123" s="0">
         <v>0.10000000000000001</v>
@@ -13575,10 +13667,10 @@
         <v>0.51931098368475215</v>
       </c>
       <c r="AA124" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB124" s="0">
         <v>0.19558635721549864</v>
-      </c>
-      <c r="AB124" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC124" s="0">
         <v>0.342479790115024</v>
@@ -13667,10 +13759,10 @@
         <v>0.51307801043258328</v>
       </c>
       <c r="AA125" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB125" s="0">
         <v>0.19423418779903889</v>
-      </c>
-      <c r="AB125" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC125" s="0">
         <v>0.34049760798095074</v>
@@ -13759,13 +13851,13 @@
         <v>0.5069245522151149</v>
       </c>
       <c r="AA126" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB126" s="0">
         <v>0.19239488090154613</v>
       </c>
-      <c r="AB126" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC126" s="0">
-        <v>0.33858105323419141</v>
+        <v>0.33858105323419146</v>
       </c>
       <c r="AD126" s="0">
         <v>0.10000000000000001</v>
@@ -13851,10 +13943,10 @@
         <v>0.50108690441795034</v>
       </c>
       <c r="AA127" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB127" s="0">
         <v>0.19127321191024627</v>
-      </c>
-      <c r="AB127" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC127" s="0">
         <v>0.3368408990534828</v>
@@ -13940,13 +14032,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z128" s="0">
-        <v>0.49548586696688607</v>
+        <v>0.49548586696688612</v>
       </c>
       <c r="AA128" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB128" s="0">
         <v>0.18982523754452219</v>
-      </c>
-      <c r="AB128" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC128" s="0">
         <v>0.3352953287214655</v>
@@ -14035,13 +14127,13 @@
         <v>0.48961786658503059</v>
       </c>
       <c r="AA129" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB129" s="0">
         <v>0.18829018331584305</v>
       </c>
-      <c r="AB129" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC129" s="0">
-        <v>0.33348591189087556</v>
+        <v>0.33348591189087551</v>
       </c>
       <c r="AD129" s="0">
         <v>0.10000000000000001</v>
@@ -14124,13 +14216,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z130" s="0">
-        <v>0.48356298359973537</v>
+        <v>0.48356298359973543</v>
       </c>
       <c r="AA130" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB130" s="0">
         <v>0.18644252583818394</v>
-      </c>
-      <c r="AB130" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC130" s="0">
         <v>0.33148849854595097</v>
@@ -14216,16 +14308,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z131" s="0">
-        <v>0.47725675147299612</v>
+        <v>0.47725675147299618</v>
       </c>
       <c r="AA131" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB131" s="0">
         <v>0.18446695033896365</v>
       </c>
-      <c r="AB131" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC131" s="0">
-        <v>0.32922185365613588</v>
+        <v>0.32922185365613593</v>
       </c>
       <c r="AD131" s="0">
         <v>0.10000000000000001</v>
@@ -14308,13 +14400,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z132" s="0">
-        <v>0.47040152868797425</v>
+        <v>0.47040152868797436</v>
       </c>
       <c r="AA132" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB132" s="0">
         <v>0.18260544048027846</v>
-      </c>
-      <c r="AB132" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC132" s="0">
         <v>0.32638379025992698</v>
@@ -14400,16 +14492,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z133" s="0">
-        <v>0.46469091129442874</v>
+        <v>0.4646909112944288</v>
       </c>
       <c r="AA133" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB133" s="0">
         <v>0.18095601946295031</v>
       </c>
-      <c r="AB133" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC133" s="0">
-        <v>0.32452071333685006</v>
+        <v>0.32452071333685012</v>
       </c>
       <c r="AD133" s="0">
         <v>0.10000000000000001</v>
@@ -14495,10 +14587,10 @@
         <v>0.45910921974373237</v>
       </c>
       <c r="AA134" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB134" s="0">
         <v>0.1793177277730722</v>
-      </c>
-      <c r="AB134" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC134" s="0">
         <v>0.32272763641377317</v>
@@ -14584,13 +14676,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z135" s="0">
-        <v>0.45359810016972246</v>
+        <v>0.45359810016972252</v>
       </c>
       <c r="AA135" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB135" s="0">
         <v>0.17777422465783213</v>
-      </c>
-      <c r="AB135" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC135" s="0">
         <v>0.32094514266010626</v>
@@ -14676,13 +14768,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z136" s="0">
-        <v>0.44815586316905937</v>
+        <v>0.44815586316905942</v>
       </c>
       <c r="AA136" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB136" s="0">
         <v>0.17611868702218589</v>
-      </c>
-      <c r="AB136" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC136" s="0">
         <v>0.319184466503106</v>
@@ -14771,13 +14863,13 @@
         <v>0.44276928317939801</v>
       </c>
       <c r="AA137" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB137" s="0">
         <v>0.17422037760885287</v>
       </c>
-      <c r="AB137" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC137" s="0">
-        <v>0.31744050022170961</v>
+        <v>0.31744050022170966</v>
       </c>
       <c r="AD137" s="0">
         <v>0.10000000000000001</v>
@@ -14860,13 +14952,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z138" s="0">
-        <v>0.43746068404287336</v>
+        <v>0.4374606840428733</v>
       </c>
       <c r="AA138" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB138" s="0">
         <v>0.17233893636071651</v>
-      </c>
-      <c r="AB138" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC138" s="0">
         <v>0.31571806817812392</v>
@@ -14952,13 +15044,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z139" s="0">
-        <v>0.43226294424662104</v>
+        <v>0.43226294424662098</v>
       </c>
       <c r="AA139" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB139" s="0">
         <v>0.17099329856816045</v>
-      </c>
-      <c r="AB139" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC139" s="0">
         <v>0.3140160695194123</v>
@@ -15047,13 +15139,13 @@
         <v>0.42711664331578597</v>
       </c>
       <c r="AA140" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB140" s="0">
         <v>0.16923936791956068</v>
       </c>
-      <c r="AB140" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC140" s="0">
-        <v>0.31233652971658543</v>
+        <v>0.31233652971658549</v>
       </c>
       <c r="AD140" s="0">
         <v>0.10000000000000001</v>
@@ -15136,16 +15228,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z141" s="0">
-        <v>0.42203904618349747</v>
+        <v>0.42203904618349741</v>
       </c>
       <c r="AA141" s="0">
-        <v>0.16734542922346007</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB141" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.16734542922346005</v>
       </c>
       <c r="AC141" s="0">
-        <v>0.31067889110105618</v>
+        <v>0.31067889110105623</v>
       </c>
       <c r="AD141" s="0">
         <v>0.10000000000000001</v>
@@ -15231,10 +15323,10 @@
         <v>0.41706643832926521</v>
       </c>
       <c r="AA142" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB142" s="0">
         <v>0.1658124394313602</v>
-      </c>
-      <c r="AB142" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC142" s="0">
         <v>0.30904744364421993</v>
@@ -15323,10 +15415,10 @@
         <v>0.41214173476548521</v>
       </c>
       <c r="AA143" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB143" s="0">
         <v>0.16388642280704507</v>
-      </c>
-      <c r="AB143" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC143" s="0">
         <v>0.30743305438771423</v>
@@ -15412,13 +15504,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z144" s="0">
-        <v>0.40731171953232931</v>
+        <v>0.4073117195323292</v>
       </c>
       <c r="AA144" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB144" s="0">
         <v>0.16231082501685423</v>
-      </c>
-      <c r="AB144" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC144" s="0">
         <v>0.30583409326834676</v>
@@ -15507,10 +15599,10 @@
         <v>0.40255475410140384</v>
       </c>
       <c r="AA145" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB145" s="0">
         <v>0.16057375121327602</v>
-      </c>
-      <c r="AB145" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC145" s="0">
         <v>0.30426250084562079</v>
@@ -15599,13 +15691,13 @@
         <v>0.397851411825554</v>
       </c>
       <c r="AA146" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB146" s="0">
         <v>0.15853640567696173</v>
       </c>
-      <c r="AB146" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC146" s="0">
-        <v>0.30270776096643165</v>
+        <v>0.3027077609664317</v>
       </c>
       <c r="AD146" s="0">
         <v>0.10000000000000001</v>
@@ -15688,16 +15780,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z147" s="0">
-        <v>0.3932627794324825</v>
+        <v>0.39326277943248256</v>
       </c>
       <c r="AA147" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB147" s="0">
         <v>0.15705746393017264</v>
       </c>
-      <c r="AB147" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC147" s="0">
-        <v>0.30117340823999506</v>
+        <v>0.30117340823999511</v>
       </c>
       <c r="AD147" s="0">
         <v>0.10000000000000001</v>
@@ -15780,16 +15872,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z148" s="0">
-        <v>0.38870643541823247</v>
+        <v>0.38870643541823252</v>
       </c>
       <c r="AA148" s="0">
-        <v>0.15501637719293385</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB148" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.15501637719293382</v>
       </c>
       <c r="AC148" s="0">
-        <v>0.29965112171116537</v>
+        <v>0.29965112171116542</v>
       </c>
       <c r="AD148" s="0">
         <v>0.10000000000000001</v>
@@ -15872,13 +15964,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z149" s="0">
-        <v>0.38426362066456188</v>
+        <v>0.38426362066456182</v>
       </c>
       <c r="AA149" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB149" s="0">
         <v>0.15361592564028068</v>
-      </c>
-      <c r="AB149" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC149" s="0">
         <v>0.29813830200425001</v>
@@ -15964,13 +16056,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z150" s="0">
-        <v>0.379854131786451</v>
+        <v>0.37985413178645094</v>
       </c>
       <c r="AA150" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB150" s="0">
         <v>0.15173050161960921</v>
-      </c>
-      <c r="AB150" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC150" s="0">
         <v>0.29663196837963607</v>
@@ -16059,10 +16151,10 @@
         <v>0.37551660946214555</v>
       </c>
       <c r="AA151" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB151" s="0">
         <v>0.14985346850353362</v>
-      </c>
-      <c r="AB151" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC151" s="0">
         <v>0.29513646465287235</v>
@@ -16148,13 +16240,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z152" s="0">
-        <v>0.37127070336384688</v>
+        <v>0.37127070336384682</v>
       </c>
       <c r="AA152" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB152" s="0">
         <v>0.14841529172187898</v>
-      </c>
-      <c r="AB152" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC152" s="0">
         <v>0.29363473413379537</v>
@@ -16243,10 +16335,10 @@
         <v>0.36705977857638622</v>
       </c>
       <c r="AA153" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB153" s="0">
         <v>0.14661588319183186</v>
-      </c>
-      <c r="AB153" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC153" s="0">
         <v>0.2921284258817759</v>
@@ -16335,10 +16427,10 @@
         <v>0.36291437282837175</v>
       </c>
       <c r="AA154" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB154" s="0">
         <v>0.1448572829953792</v>
-      </c>
-      <c r="AB154" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC154" s="0">
         <v>0.29061670799938083</v>
@@ -16427,13 +16519,13 @@
         <v>0.35882343247352799</v>
       </c>
       <c r="AA155" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB155" s="0">
         <v>0.14313158799148884</v>
       </c>
-      <c r="AB155" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC155" s="0">
-        <v>0.28908342662849229</v>
+        <v>0.28908342662849223</v>
       </c>
       <c r="AD155" s="0">
         <v>0.10000000000000001</v>
@@ -16519,13 +16611,13 @@
         <v>0.35479736268918649</v>
       </c>
       <c r="AA156" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB156" s="0">
         <v>0.14148788628740719</v>
       </c>
-      <c r="AB156" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC156" s="0">
-        <v>0.2875338900675401</v>
+        <v>0.28753389006754004</v>
       </c>
       <c r="AD156" s="0">
         <v>0.10000000000000001</v>
@@ -16611,10 +16703,10 @@
         <v>0.35080197727354362</v>
       </c>
       <c r="AA157" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB157" s="0">
         <v>0.1395302873478414</v>
-      </c>
-      <c r="AB157" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC157" s="0">
         <v>0.28596346399648626</v>
@@ -16700,16 +16792,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z158" s="0">
-        <v>0.34689469791278499</v>
+        <v>0.34689469791278504</v>
       </c>
       <c r="AA158" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB158" s="0">
         <v>0.13802792215849524</v>
       </c>
-      <c r="AB158" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC158" s="0">
-        <v>0.28435987864367379</v>
+        <v>0.28435987864367385</v>
       </c>
       <c r="AD158" s="0">
         <v>0.10000000000000001</v>
@@ -16795,10 +16887,10 @@
         <v>0.34303043610912276</v>
       </c>
       <c r="AA159" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB159" s="0">
         <v>0.13635661050700718</v>
-      </c>
-      <c r="AB159" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC159" s="0">
         <v>0.28272971088034421</v>
@@ -16884,13 +16976,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z160" s="0">
-        <v>0.33920729919770498</v>
+        <v>0.33920729919770504</v>
       </c>
       <c r="AA160" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB160" s="0">
         <v>0.13446997107629916</v>
-      </c>
-      <c r="AB160" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC160" s="0">
         <v>0.28107307424908567</v>
@@ -16976,16 +17068,16 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z161" s="0">
-        <v>0.33544604708829417</v>
+        <v>0.33544604708829423</v>
       </c>
       <c r="AA161" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB161" s="0">
         <v>0.13267806889912714</v>
       </c>
-      <c r="AB161" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC161" s="0">
-        <v>0.27937855281593388</v>
+        <v>0.27937855281593382</v>
       </c>
       <c r="AD161" s="0">
         <v>0.10000000000000001</v>
@@ -17071,10 +17163,10 @@
         <v>0.33175368556027912</v>
       </c>
       <c r="AA162" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB162" s="0">
         <v>0.13105786911013945</v>
-      </c>
-      <c r="AB162" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC162" s="0">
         <v>0.27764064415062811</v>
@@ -17163,10 +17255,10 @@
         <v>0.32809826997248143</v>
       </c>
       <c r="AA163" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB163" s="0">
         <v>0.12918475952362948</v>
-      </c>
-      <c r="AB163" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC163" s="0">
         <v>0.27586551358348554</v>
@@ -17255,10 +17347,10 @@
         <v>0.32452007787157222</v>
       </c>
       <c r="AA164" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB164" s="0">
         <v>0.12754748952713651</v>
-      </c>
-      <c r="AB164" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC164" s="0">
         <v>0.27404148951678375</v>
@@ -17347,10 +17439,10 @@
         <v>0.32097591290419392</v>
       </c>
       <c r="AA165" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB165" s="0">
         <v>0.12568747947100306</v>
-      </c>
-      <c r="AB165" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC165" s="0">
         <v>0.27216398782241757</v>
@@ -17436,13 +17528,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z166" s="0">
-        <v>0.31748906979568964</v>
+        <v>0.31748906979568958</v>
       </c>
       <c r="AA166" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB166" s="0">
         <v>0.12385608768746112</v>
-      </c>
-      <c r="AB166" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC166" s="0">
         <v>0.27022718210664465</v>
@@ -17528,13 +17620,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z167" s="0">
-        <v>0.3140560049796951</v>
+        <v>0.31405600497969516</v>
       </c>
       <c r="AA167" s="0">
-        <v>0.12198614778631957</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB167" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.12198614778631958</v>
       </c>
       <c r="AC167" s="0">
         <v>0.26823117876416908</v>
@@ -17620,13 +17712,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z168" s="0">
-        <v>0.31067565413133047</v>
+        <v>0.31067565413133058</v>
       </c>
       <c r="AA168" s="0">
-        <v>0.12010389785381435</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="AB168" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.12010389785381438</v>
       </c>
       <c r="AC168" s="0">
         <v>0.2661651420031399</v>
@@ -17715,10 +17807,10 @@
         <v>0.30737763871808588</v>
       </c>
       <c r="AA169" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB169" s="0">
         <v>0.1184873932767251</v>
-      </c>
-      <c r="AB169" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC169" s="0">
         <v>0.26402329631025556</v>
@@ -17804,13 +17896,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z170" s="0">
-        <v>0.3041148047753246</v>
+        <v>0.30411480477532465</v>
       </c>
       <c r="AA170" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB170" s="0">
         <v>0.11665663456698032</v>
-      </c>
-      <c r="AB170" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC170" s="0">
         <v>0.26180633113383406</v>
@@ -17896,13 +17988,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z171" s="0">
-        <v>0.30089512569034688</v>
+        <v>0.30089512569034693</v>
       </c>
       <c r="AA171" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB171" s="0">
         <v>0.11469417459796936</v>
-      </c>
-      <c r="AB171" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC171" s="0">
         <v>0.25950871904509781</v>
@@ -17991,10 +18083,10 @@
         <v>0.29775229709284567</v>
       </c>
       <c r="AA172" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB172" s="0">
         <v>0.11286191415991845</v>
-      </c>
-      <c r="AB172" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC172" s="0">
         <v>0.2571354856233824</v>
@@ -18080,13 +18172,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z173" s="0">
-        <v>0.29469075209757467</v>
+        <v>0.29469075209757473</v>
       </c>
       <c r="AA173" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB173" s="0">
         <v>0.1111945096087719</v>
-      </c>
-      <c r="AB173" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC173" s="0">
         <v>0.25468123645762947</v>
@@ -18172,13 +18264,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z174" s="0">
-        <v>0.29167129110055301</v>
+        <v>0.29167129110055307</v>
       </c>
       <c r="AA174" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB174" s="0">
         <v>0.10932921998561201</v>
-      </c>
-      <c r="AB174" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC174" s="0">
         <v>0.25214637458623462</v>
@@ -18264,13 +18356,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z175" s="0">
-        <v>0.28870924447029112</v>
+        <v>0.28870924447029117</v>
       </c>
       <c r="AA175" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB175" s="0">
         <v>0.10738650701289236</v>
-      </c>
-      <c r="AB175" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC175" s="0">
         <v>0.24953074323934971</v>
@@ -18359,13 +18451,13 @@
         <v>0.28583031132271641</v>
       </c>
       <c r="AA176" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB176" s="0">
         <v>0.10557749212643593</v>
       </c>
-      <c r="AB176" s="0">
-        <v>0.10000000000000001</v>
-      </c>
       <c r="AC176" s="0">
-        <v>0.24683411674685066</v>
+        <v>0.24683411674685068</v>
       </c>
       <c r="AD176" s="0">
         <v>0.10000000000000001</v>
@@ -18451,10 +18543,10 @@
         <v>0.28302092812891672</v>
       </c>
       <c r="AA177" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB177" s="0">
         <v>0.10375337441431139</v>
-      </c>
-      <c r="AB177" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC177" s="0">
         <v>0.24406202511870181</v>
@@ -18540,13 +18632,13 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="Z178" s="0">
-        <v>0.28029733985770849</v>
+        <v>0.28029733985770855</v>
       </c>
       <c r="AA178" s="0">
-        <v>0.10204192728372136</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="AB178" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.10204192728372137</v>
       </c>
       <c r="AC178" s="0">
         <v>0.24121436978241267</v>
@@ -18635,10 +18727,10 @@
         <v>0.2776453579840415</v>
       </c>
       <c r="AA179" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="AB179" s="0">
         <v>0.10028794242511167</v>
-      </c>
-      <c r="AB179" s="0">
-        <v>0.10000000000000001</v>
       </c>
       <c r="AC179" s="0">
         <v>0.238302020794119</v>
@@ -18724,7 +18816,7 @@
         <v>0.10347025226231726</v>
       </c>
       <c r="Z180" s="0">
-        <v>0.27507442404205995</v>
+        <v>0.27507442404206001</v>
       </c>
       <c r="AA180" s="0">
         <v>0.10000000000000001</v>
@@ -18816,7 +18908,7 @@
         <v>0.10757031370095112</v>
       </c>
       <c r="Z181" s="0">
-        <v>0.27258640718245108</v>
+        <v>0.27258640718245114</v>
       </c>
       <c r="AA181" s="0">
         <v>0.10000000000000001</v>
@@ -19181,10 +19273,10 @@
         <v>0</v>
       </c>
       <c r="Y185" s="0">
-        <v>0.12298347356084732</v>
+        <v>0.12298347356084734</v>
       </c>
       <c r="Z185" s="0">
-        <v>0.26346492452088965</v>
+        <v>0.2634649245208896</v>
       </c>
       <c r="AA185" s="0">
         <v>0.10000000000000001</v>
@@ -19365,7 +19457,7 @@
         <v>0</v>
       </c>
       <c r="Y187" s="0">
-        <v>0.13010408691633865</v>
+        <v>0.13010408691633862</v>
       </c>
       <c r="Z187" s="0">
         <v>0.25940612101905347</v>
@@ -19460,7 +19552,7 @@
         <v>0.13332790840933928</v>
       </c>
       <c r="Z188" s="0">
-        <v>0.25751265498163678</v>
+        <v>0.25751265498163672</v>
       </c>
       <c r="AA188" s="0">
         <v>0.10000000000000001</v>
@@ -19549,10 +19641,10 @@
         <v>0</v>
       </c>
       <c r="Y189" s="0">
-        <v>0.13648058737135757</v>
+        <v>0.1364805873713576</v>
       </c>
       <c r="Z189" s="0">
-        <v>0.25569773667704837</v>
+        <v>0.25569773667704832</v>
       </c>
       <c r="AA189" s="0">
         <v>0.10000000000000001</v>
@@ -19733,7 +19825,7 @@
         <v>0</v>
       </c>
       <c r="Y191" s="0">
-        <v>0.14250609369852957</v>
+        <v>0.14250609369852954</v>
       </c>
       <c r="Z191" s="0">
         <v>0.25231269453989968</v>
@@ -19825,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="Y192" s="0">
-        <v>0.14507456712502026</v>
+        <v>0.14507456712502023</v>
       </c>
       <c r="Z192" s="0">
         <v>0.25075420988412211</v>
@@ -19920,7 +20012,7 @@
         <v>0.14764246179555524</v>
       </c>
       <c r="Z193" s="0">
-        <v>0.24926615821948214</v>
+        <v>0.2492661582194822</v>
       </c>
       <c r="AA193" s="0">
         <v>0.10000000000000001</v>
@@ -20104,7 +20196,7 @@
         <v>0.1522059927072969</v>
       </c>
       <c r="Z195" s="0">
-        <v>0.24652992916154454</v>
+        <v>0.24652992916154456</v>
       </c>
       <c r="AA195" s="0">
         <v>0.10000000000000001</v>
@@ -20840,7 +20932,7 @@
         <v>0.16599536846957377</v>
       </c>
       <c r="Z203" s="0">
-        <v>0.2382295302844552</v>
+        <v>0.23822953028445523</v>
       </c>
       <c r="AA203" s="0">
         <v>0.10000000000000001</v>
@@ -22585,10 +22677,10 @@
         <v>0</v>
       </c>
       <c r="Y222" s="0">
-        <v>0.17838867746783324</v>
+        <v>0.17838867746783321</v>
       </c>
       <c r="Z222" s="0">
-        <v>0.228295492038257</v>
+        <v>0.22829549203825703</v>
       </c>
       <c r="AA222" s="0">
         <v>0.10000000000000001</v>
@@ -22597,7 +22689,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC222" s="0">
-        <v>0.13297921460868609</v>
+        <v>0.13297921460868611</v>
       </c>
       <c r="AD222" s="0">
         <v>0.10000000000000001</v>
@@ -22772,7 +22864,7 @@
         <v>0.17869285715970998</v>
       </c>
       <c r="Z224" s="0">
-        <v>0.22763073303576084</v>
+        <v>0.22763073303576081</v>
       </c>
       <c r="AA224" s="0">
         <v>0.10000000000000001</v>
@@ -22864,7 +22956,7 @@
         <v>0.1788354262846602</v>
       </c>
       <c r="Z225" s="0">
-        <v>0.22732314608377144</v>
+        <v>0.22732314608377147</v>
       </c>
       <c r="AA225" s="0">
         <v>0.10000000000000001</v>
@@ -22956,7 +23048,7 @@
         <v>0.17890234052363929</v>
       </c>
       <c r="Z226" s="0">
-        <v>0.22701435660092309</v>
+        <v>0.22701435660092306</v>
       </c>
       <c r="AA226" s="0">
         <v>0.10000000000000001</v>
@@ -23048,7 +23140,7 @@
         <v>0.17895566374097835</v>
       </c>
       <c r="Z227" s="0">
-        <v>0.22670786645505428</v>
+        <v>0.22670786645505431</v>
       </c>
       <c r="AA227" s="0">
         <v>0.10000000000000001</v>
@@ -23140,7 +23232,7 @@
         <v>0.17898326218417784</v>
       </c>
       <c r="Z228" s="0">
-        <v>0.22641294171431281</v>
+        <v>0.22641294171431278</v>
       </c>
       <c r="AA228" s="0">
         <v>0.10000000000000001</v>
@@ -23232,7 +23324,7 @@
         <v>0.17899480584182209</v>
       </c>
       <c r="Z229" s="0">
-        <v>0.22614216558176276</v>
+        <v>0.22614216558176278</v>
       </c>
       <c r="AA229" s="0">
         <v>0.10000000000000001</v>
@@ -23324,7 +23416,7 @@
         <v>0.17897802987546849</v>
       </c>
       <c r="Z230" s="0">
-        <v>0.22587680935963106</v>
+        <v>0.22587680935963103</v>
       </c>
       <c r="AA230" s="0">
         <v>0.10000000000000001</v>
@@ -23416,7 +23508,7 @@
         <v>0.17893873727810858</v>
       </c>
       <c r="Z231" s="0">
-        <v>0.22562381752864516</v>
+        <v>0.22562381752864519</v>
       </c>
       <c r="AA231" s="0">
         <v>0.10000000000000001</v>
@@ -23508,7 +23600,7 @@
         <v>0.17889754707754563</v>
       </c>
       <c r="Z232" s="0">
-        <v>0.22538346697910949</v>
+        <v>0.22538346697910952</v>
       </c>
       <c r="AA232" s="0">
         <v>0.10000000000000001</v>
@@ -23600,7 +23692,7 @@
         <v>0.17881026322875548</v>
       </c>
       <c r="Z233" s="0">
-        <v>0.22516591792074839</v>
+        <v>0.22516591792074836</v>
       </c>
       <c r="AA233" s="0">
         <v>0.10000000000000001</v>
@@ -23784,7 +23876,7 @@
         <v>0.178659174147974</v>
       </c>
       <c r="Z235" s="0">
-        <v>0.22474260849722211</v>
+        <v>0.22474260849722213</v>
       </c>
       <c r="AA235" s="0">
         <v>0.10000000000000001</v>
@@ -24244,7 +24336,7 @@
         <v>0.17830828306648386</v>
       </c>
       <c r="Z240" s="0">
-        <v>0.22404239751147489</v>
+        <v>0.22404239751147492</v>
       </c>
       <c r="AA240" s="0">
         <v>0.10000000000000001</v>
@@ -24336,7 +24428,7 @@
         <v>0.17825096193965392</v>
       </c>
       <c r="Z241" s="0">
-        <v>0.22398816362574978</v>
+        <v>0.2239881636257498</v>
       </c>
       <c r="AA241" s="0">
         <v>0.10000000000000001</v>
@@ -24704,7 +24796,7 @@
         <v>0.17832300468518922</v>
       </c>
       <c r="Z245" s="0">
-        <v>0.22405781281321013</v>
+        <v>0.22405781281321011</v>
       </c>
       <c r="AA245" s="0">
         <v>0.10000000000000001</v>
@@ -24793,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="Y246" s="0">
-        <v>0.17841010407173649</v>
+        <v>0.17841010407173652</v>
       </c>
       <c r="Z246" s="0">
-        <v>0.22415927842934769</v>
+        <v>0.22415927842934766</v>
       </c>
       <c r="AA246" s="0">
         <v>0.10000000000000001</v>
@@ -25256,7 +25348,7 @@
         <v>0.17893023202779962</v>
       </c>
       <c r="Z251" s="0">
-        <v>0.22527932395035585</v>
+        <v>0.22527932395035583</v>
       </c>
       <c r="AA251" s="0">
         <v>0.10000000000000001</v>
@@ -25348,7 +25440,7 @@
         <v>0.17911465162423287</v>
       </c>
       <c r="Z252" s="0">
-        <v>0.22559781359051451</v>
+        <v>0.22559781359051453</v>
       </c>
       <c r="AA252" s="0">
         <v>0.10000000000000001</v>
@@ -25437,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="Y253" s="0">
-        <v>0.17924407386023314</v>
+        <v>0.17924407386023311</v>
       </c>
       <c r="Z253" s="0">
-        <v>0.22596912432347377</v>
+        <v>0.2259691243234738</v>
       </c>
       <c r="AA253" s="0">
         <v>0.10000000000000001</v>
@@ -25449,7 +25541,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC253" s="0">
-        <v>0.11711320912812827</v>
+        <v>0.11711320912812828</v>
       </c>
       <c r="AD253" s="0">
         <v>0.10000000000000001</v>
@@ -25532,7 +25624,7 @@
         <v>0.17937267163243995</v>
       </c>
       <c r="Z254" s="0">
-        <v>0.22636701250248789</v>
+        <v>0.22636701250248786</v>
       </c>
       <c r="AA254" s="0">
         <v>0.10000000000000001</v>
@@ -25624,7 +25716,7 @@
         <v>0.17948138101220024</v>
       </c>
       <c r="Z255" s="0">
-        <v>0.22680860372420503</v>
+        <v>0.22680860372420505</v>
       </c>
       <c r="AA255" s="0">
         <v>0.10000000000000001</v>
@@ -25808,7 +25900,7 @@
         <v>0.17974502009159726</v>
       </c>
       <c r="Z257" s="0">
-        <v>0.22774199713779328</v>
+        <v>0.22774199713779325</v>
       </c>
       <c r="AA257" s="0">
         <v>0.10000000000000001</v>
@@ -25900,7 +25992,7 @@
         <v>0.17985233484262478</v>
       </c>
       <c r="Z258" s="0">
-        <v>0.22824984782724328</v>
+        <v>0.22824984782724325</v>
       </c>
       <c r="AA258" s="0">
         <v>0.10000000000000001</v>
@@ -25989,10 +26081,10 @@
         <v>0</v>
       </c>
       <c r="Y259" s="0">
-        <v>0.17995516400447475</v>
+        <v>0.17995516400447478</v>
       </c>
       <c r="Z259" s="0">
-        <v>0.22876571781285218</v>
+        <v>0.22876571781285224</v>
       </c>
       <c r="AA259" s="0">
         <v>0.10000000000000001</v>
@@ -26001,7 +26093,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC259" s="0">
-        <v>0.1183081955195754</v>
+        <v>0.11830819551957537</v>
       </c>
       <c r="AD259" s="0">
         <v>0.10000000000000001</v>
@@ -26277,7 +26369,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC262" s="0">
-        <v>0.11903921402602918</v>
+        <v>0.1190392140260292</v>
       </c>
       <c r="AD262" s="0">
         <v>0.10000000000000001</v>
@@ -26357,7 +26449,7 @@
         <v>0</v>
       </c>
       <c r="Y263" s="0">
-        <v>0.18016832424218612</v>
+        <v>0.1801683242421861</v>
       </c>
       <c r="Z263" s="0">
         <v>0.2309810219331542</v>
@@ -26728,7 +26820,7 @@
         <v>0.1801984156143662</v>
       </c>
       <c r="Z267" s="0">
-        <v>0.23332931664219053</v>
+        <v>0.23332931664219056</v>
       </c>
       <c r="AA267" s="0">
         <v>0.10000000000000001</v>
@@ -27553,10 +27645,10 @@
         <v>0</v>
       </c>
       <c r="Y276" s="0">
-        <v>0.18030363101985034</v>
+        <v>0.18030363101985039</v>
       </c>
       <c r="Z276" s="0">
-        <v>0.23889794813727466</v>
+        <v>0.23889794813727463</v>
       </c>
       <c r="AA276" s="0">
         <v>0.10000000000000001</v>
@@ -27565,7 +27657,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC276" s="0">
-        <v>0.12250123825325543</v>
+        <v>0.12250123825325542</v>
       </c>
       <c r="AD276" s="0">
         <v>0.10000000000000001</v>
@@ -28025,7 +28117,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC281" s="0">
-        <v>0.12324077984263222</v>
+        <v>0.12324077984263224</v>
       </c>
       <c r="AD281" s="0">
         <v>0.10000000000000001</v>
@@ -28117,7 +28209,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC282" s="0">
-        <v>0.12335842648762142</v>
+        <v>0.12335842648762141</v>
       </c>
       <c r="AD282" s="0">
         <v>0.10000000000000001</v>
@@ -28209,7 +28301,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC283" s="0">
-        <v>0.12344240403954171</v>
+        <v>0.12344240403954172</v>
       </c>
       <c r="AD283" s="0">
         <v>0.10000000000000001</v>
@@ -28301,7 +28393,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC284" s="0">
-        <v>0.12352828551719319</v>
+        <v>0.12352828551719318</v>
       </c>
       <c r="AD284" s="0">
         <v>0.10000000000000001</v>
@@ -28761,7 +28853,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC289" s="0">
-        <v>0.12360496038244367</v>
+        <v>0.12360496038244369</v>
       </c>
       <c r="AD289" s="0">
         <v>0.10000000000000001</v>
@@ -28853,7 +28945,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC290" s="0">
-        <v>0.12356133629276483</v>
+        <v>0.12356133629276482</v>
       </c>
       <c r="AD290" s="0">
         <v>0.10000000000000001</v>
@@ -28945,7 +29037,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC291" s="0">
-        <v>0.1234961734473586</v>
+        <v>0.12349617344735858</v>
       </c>
       <c r="AD291" s="0">
         <v>0.10000000000000001</v>
@@ -29129,7 +29221,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC293" s="0">
-        <v>0.12331820729897085</v>
+        <v>0.12331820729897086</v>
       </c>
       <c r="AD293" s="0">
         <v>0.10000000000000001</v>
@@ -29393,7 +29485,7 @@
         <v>0</v>
       </c>
       <c r="Y296" s="0">
-        <v>0.18424990849147338</v>
+        <v>0.18424990849147341</v>
       </c>
       <c r="Z296" s="0">
         <v>0.24561350793474507</v>
@@ -29405,7 +29497,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC296" s="0">
-        <v>0.12298974576050932</v>
+        <v>0.12298974576050935</v>
       </c>
       <c r="AD296" s="0">
         <v>0.10000000000000001</v>
@@ -29485,10 +29577,10 @@
         <v>0</v>
       </c>
       <c r="Y297" s="0">
-        <v>0.18470047853577443</v>
+        <v>0.1847004785357744</v>
       </c>
       <c r="Z297" s="0">
-        <v>0.2456419335918551</v>
+        <v>0.24564193359185513</v>
       </c>
       <c r="AA297" s="0">
         <v>0.10000000000000001</v>
@@ -29497,7 +29589,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC297" s="0">
-        <v>0.12283441321584175</v>
+        <v>0.12283441321584179</v>
       </c>
       <c r="AD297" s="0">
         <v>0.10000000000000001</v>
@@ -29577,7 +29669,7 @@
         <v>0</v>
       </c>
       <c r="Y298" s="0">
-        <v>0.18509108485208342</v>
+        <v>0.18509108485208345</v>
       </c>
       <c r="Z298" s="0">
         <v>0.24571097720553348</v>
@@ -30500,7 +30592,7 @@
         <v>0.19078674594318226</v>
       </c>
       <c r="Z308" s="0">
-        <v>0.24506065121597301</v>
+        <v>0.24506065121597304</v>
       </c>
       <c r="AA308" s="0">
         <v>0.10000000000000001</v>
@@ -30868,7 +30960,7 @@
         <v>0.19342535262125116</v>
       </c>
       <c r="Z312" s="0">
-        <v>0.24441247546017475</v>
+        <v>0.24441247546017478</v>
       </c>
       <c r="AA312" s="0">
         <v>0.10000000000000001</v>
@@ -30960,7 +31052,7 @@
         <v>0.19418552651365809</v>
       </c>
       <c r="Z313" s="0">
-        <v>0.24418610529286672</v>
+        <v>0.24418610529286669</v>
       </c>
       <c r="AA313" s="0">
         <v>0.10000000000000001</v>
@@ -31049,7 +31141,7 @@
         <v>0</v>
       </c>
       <c r="Y314" s="0">
-        <v>0.19494739788000071</v>
+        <v>0.19494739788000073</v>
       </c>
       <c r="Z314" s="0">
         <v>0.24392402464281487</v>
@@ -31233,7 +31325,7 @@
         <v>0</v>
       </c>
       <c r="Y316" s="0">
-        <v>0.19650689001137223</v>
+        <v>0.19650689001137225</v>
       </c>
       <c r="Z316" s="0">
         <v>0.24346939258538192</v>
@@ -31328,7 +31420,7 @@
         <v>0.19737644691231429</v>
       </c>
       <c r="Z317" s="0">
-        <v>0.24317509959583022</v>
+        <v>0.24317509959583025</v>
       </c>
       <c r="AA317" s="0">
         <v>0.10000000000000001</v>
@@ -31420,7 +31512,7 @@
         <v>0.19822469270096651</v>
       </c>
       <c r="Z318" s="0">
-        <v>0.24292787637116758</v>
+        <v>0.24292787637116756</v>
       </c>
       <c r="AA318" s="0">
         <v>0.10000000000000001</v>
@@ -31512,7 +31604,7 @@
         <v>0.19904045987732424</v>
       </c>
       <c r="Z319" s="0">
-        <v>0.24271291338070375</v>
+        <v>0.24271291338070378</v>
       </c>
       <c r="AA319" s="0">
         <v>0.10000000000000001</v>
@@ -31696,7 +31788,7 @@
         <v>0.20058183177218253</v>
       </c>
       <c r="Z321" s="0">
-        <v>0.24236622261445459</v>
+        <v>0.24236622261445456</v>
       </c>
       <c r="AA321" s="0">
         <v>0.10000000000000001</v>
@@ -31788,7 +31880,7 @@
         <v>0.20141990121961975</v>
       </c>
       <c r="Z322" s="0">
-        <v>0.24222632625235191</v>
+        <v>0.24222632625235188</v>
       </c>
       <c r="AA322" s="0">
         <v>0.10000000000000001</v>
@@ -31969,10 +32061,10 @@
         <v>0</v>
       </c>
       <c r="Y324" s="0">
-        <v>0.20299483597862356</v>
+        <v>0.20299483597862358</v>
       </c>
       <c r="Z324" s="0">
-        <v>0.24201329889069811</v>
+        <v>0.24201329889069809</v>
       </c>
       <c r="AA324" s="0">
         <v>0.10000000000000001</v>
@@ -31981,7 +32073,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC324" s="0">
-        <v>0.11715201155657566</v>
+        <v>0.11715201155657562</v>
       </c>
       <c r="AD324" s="0">
         <v>0.10000000000000001</v>
@@ -32889,10 +32981,10 @@
         <v>0</v>
       </c>
       <c r="Y334" s="0">
-        <v>0.20928997166149071</v>
+        <v>0.20928997166149074</v>
       </c>
       <c r="Z334" s="0">
-        <v>0.24483675091126006</v>
+        <v>0.24483675091126003</v>
       </c>
       <c r="AA334" s="0">
         <v>0.10000000000000001</v>
@@ -32901,7 +32993,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC334" s="0">
-        <v>0.1177657462394097</v>
+        <v>0.11776574623940968</v>
       </c>
       <c r="AD334" s="0">
         <v>0.10000000000000001</v>
@@ -32981,10 +33073,10 @@
         <v>0</v>
       </c>
       <c r="Y335" s="0">
-        <v>0.20963150607532161</v>
+        <v>0.20963150607532163</v>
       </c>
       <c r="Z335" s="0">
-        <v>0.24561729561612827</v>
+        <v>0.24561729561612825</v>
       </c>
       <c r="AA335" s="0">
         <v>0.10000000000000001</v>
@@ -32993,7 +33085,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC335" s="0">
-        <v>0.11808831351708132</v>
+        <v>0.11808831351708134</v>
       </c>
       <c r="AD335" s="0">
         <v>0.10000000000000001</v>
@@ -33165,10 +33257,10 @@
         <v>0</v>
       </c>
       <c r="Y337" s="0">
-        <v>0.21013492739045292</v>
+        <v>0.21013492739045295</v>
       </c>
       <c r="Z337" s="0">
-        <v>0.247641702166565</v>
+        <v>0.24764170216656498</v>
       </c>
       <c r="AA337" s="0">
         <v>0.10000000000000001</v>
@@ -33177,7 +33269,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC337" s="0">
-        <v>0.11898320423502812</v>
+        <v>0.11898320423502809</v>
       </c>
       <c r="AD337" s="0">
         <v>0.10000000000000001</v>
@@ -33441,10 +33533,10 @@
         <v>0</v>
       </c>
       <c r="Y340" s="0">
-        <v>0.21029152144137458</v>
+        <v>0.21029152144137456</v>
       </c>
       <c r="Z340" s="0">
-        <v>0.25177115761743379</v>
+        <v>0.25177115761743385</v>
       </c>
       <c r="AA340" s="0">
         <v>0.10000000000000001</v>
@@ -33533,7 +33625,7 @@
         <v>0</v>
       </c>
       <c r="Y341" s="0">
-        <v>0.2101583103169018</v>
+        <v>0.21015831031690174</v>
       </c>
       <c r="Z341" s="0">
         <v>0.25333949845068021</v>
@@ -33545,7 +33637,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC341" s="0">
-        <v>0.12159997142928979</v>
+        <v>0.12159997142928977</v>
       </c>
       <c r="AD341" s="0">
         <v>0.10000000000000001</v>
@@ -33821,7 +33913,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="AC344" s="0">
-        <v>0.12442465550217195</v>
+        <v>0.12442465550217197</v>
       </c>
       <c r="AD344" s="0">
         <v>0.10000000000000001</v>
@@ -33901,10 +33993,10 @@
         <v>0</v>
       </c>
       <c r="Y345" s="0">
-        <v>0.20840909114892256</v>
+        <v>0.20840909114892253</v>
       </c>
       <c r="Z345" s="0">
-        <v>0.26156555256655334</v>
+        <v>0.26156555256655339</v>
       </c>
       <c r="AA345" s="0">
         <v>0.10000000000000001</v>
@@ -33993,7 +34085,7 @@
         <v>0</v>
       </c>
       <c r="Y346" s="0">
-        <v>0.20762946595873907</v>
+        <v>0.20762946595873905</v>
       </c>
       <c r="Z346" s="0">
         <v>0.26413632123100833</v>
@@ -34177,10 +34269,10 @@
         <v>0</v>
       </c>
       <c r="Y348" s="0">
-        <v>0.20555981677477375</v>
+        <v>0.20555981677477372</v>
       </c>
       <c r="Z348" s="0">
-        <v>0.26996115930458081</v>
+        <v>0.26996115930458087</v>
       </c>
       <c r="AA348" s="0">
         <v>0.10000000000000001</v>
@@ -34269,10 +34361,10 @@
         <v>0</v>
       </c>
       <c r="Y349" s="0">
-        <v>0.20454302396204219</v>
+        <v>0.20454302396204216</v>
       </c>
       <c r="Z349" s="0">
-        <v>0.27266216123073195</v>
+        <v>0.272662161230732</v>
       </c>
       <c r="AA349" s="0">
         <v>0.10000000000000001</v>
@@ -34361,7 +34453,7 @@
         <v>0</v>
       </c>
       <c r="Y350" s="0">
-        <v>0.20320817201356364</v>
+        <v>0.20320817201356361</v>
       </c>
       <c r="Z350" s="0">
         <v>0.27584984953905983</v>
@@ -34640,7 +34732,7 @@
         <v>0.19882358004879511</v>
       </c>
       <c r="Z353" s="0">
-        <v>0.28545158384632013</v>
+        <v>0.28545158384632019</v>
       </c>
       <c r="AA353" s="0">
         <v>0.10000000000000001</v>
@@ -35100,7 +35192,7 @@
         <v>0.18791678722381136</v>
       </c>
       <c r="Z358" s="0">
-        <v>0.30570781412347531</v>
+        <v>0.30570781412347536</v>
       </c>
       <c r="AA358" s="0">
         <v>0.10000000000000001</v>
@@ -35192,7 +35284,7 @@
         <v>0.18529741453559259</v>
       </c>
       <c r="Z359" s="0">
-        <v>0.31004109282226072</v>
+        <v>0.31004109282226067</v>
       </c>
       <c r="AA359" s="0">
         <v>0.10000000000000001</v>
@@ -35284,7 +35376,7 @@
         <v>0.18256692902185326</v>
       </c>
       <c r="Z360" s="0">
-        <v>0.31456950381630955</v>
+        <v>0.3145695038163096</v>
       </c>
       <c r="AA360" s="0">
         <v>0.10000000000000001</v>
@@ -35465,7 +35557,7 @@
         <v>0</v>
       </c>
       <c r="Y362" s="0">
-        <v>0.17698841486691094</v>
+        <v>0.17698841486691091</v>
       </c>
       <c r="Z362" s="0">
         <v>0.32339390803646673</v>
